--- a/SPP.xlsx
+++ b/SPP.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>Kelas</t>
   </si>
@@ -313,18 +313,24 @@
   <si>
     <t>ABDURRAFI</t>
   </si>
+  <si>
+    <t>HAFIDH</t>
+  </si>
+  <si>
+    <t>IMAM MUBAROK ASIDIQ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -344,22 +350,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,11 +371,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,7 +388,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,18 +401,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -434,54 +479,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,7 +502,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,43 +658,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,127 +676,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,16 +697,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,41 +735,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,18 +769,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -810,130 +816,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -941,13 +947,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
@@ -956,13 +962,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1639,7 +1645,7 @@
         <n v="4"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Tanggal" numFmtId="179">
+    <cacheField name="Tanggal" numFmtId="177">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNonDate="0" containsDate="1" minDate="2017-01-04T00:00:00" maxDate="2018-02-16T00:00:00" count="89">
         <d v="2017-09-09T00:00:00"/>
         <d v="2017-11-25T00:00:00"/>
@@ -1732,7 +1738,7 @@
         <d v="2017-07-10T00:00:00"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="SPP" numFmtId="178">
+    <cacheField name="SPP" numFmtId="176">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="170000" maxValue="500000" count="9">
         <n v="350000"/>
         <n v="450000"/>
@@ -1745,7 +1751,7 @@
         <n v="170000"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Non Pendidikan" numFmtId="178">
+    <cacheField name="Non Pendidikan" numFmtId="176">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20000" maxValue="350000" count="9">
         <n v="200000"/>
         <n v="300000"/>
@@ -7829,9 +7835,9 @@
       </items>
     </pivotField>
     <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="179" showAll="0"/>
-    <pivotField compact="0" numFmtId="178" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="178" showAll="0">
+    <pivotField compact="0" numFmtId="177" showAll="0"/>
+    <pivotField compact="0" numFmtId="176" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="176" showAll="0">
       <items count="10">
         <item x="8"/>
         <item x="5"/>
@@ -8890,7 +8896,6 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18"/>
       <c r="E18">
         <v>900000</v>
       </c>
@@ -8914,7 +8919,6 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19"/>
       <c r="L19">
         <v>1800000</v>
       </c>
@@ -8984,7 +8988,6 @@
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22"/>
       <c r="E22">
         <v>300000</v>
       </c>
@@ -9487,8 +9490,6 @@
       <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="B42"/>
-      <c r="C42"/>
       <c r="E42">
         <v>300000</v>
       </c>
@@ -10768,9 +10769,9 @@
   <dimension ref="A1:J1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A507" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H511" sqref="H511"/>
+      <selection pane="bottomLeft" activeCell="E524" sqref="E524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -27780,20 +27781,35 @@
         <f t="shared" si="38"/>
         <v>512</v>
       </c>
+      <c r="B513" t="s">
+        <v>98</v>
+      </c>
       <c r="C513">
         <v>1</v>
+      </c>
+      <c r="D513">
+        <v>9</v>
+      </c>
+      <c r="E513" s="1">
+        <v>43015</v>
+      </c>
+      <c r="F513" s="2">
+        <v>2501</v>
+      </c>
+      <c r="G513" s="3">
+        <v>150000</v>
       </c>
       <c r="H513" s="3">
         <f t="shared" si="35"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I513" s="4">
         <f t="shared" si="39"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J513">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="514" spans="1:10">
@@ -27801,20 +27817,35 @@
         <f t="shared" si="38"/>
         <v>513</v>
       </c>
+      <c r="B514" t="s">
+        <v>98</v>
+      </c>
       <c r="C514">
         <v>1</v>
+      </c>
+      <c r="D514">
+        <v>10</v>
+      </c>
+      <c r="E514" s="1">
+        <v>43015</v>
+      </c>
+      <c r="F514" s="2">
+        <v>2501</v>
+      </c>
+      <c r="G514" s="3">
+        <v>150000</v>
       </c>
       <c r="H514" s="3">
         <f t="shared" ref="H514:H577" si="41">G514-150000</f>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I514" s="4">
         <f t="shared" si="39"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J514">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="515" spans="1:10">
@@ -27822,20 +27853,35 @@
         <f t="shared" ref="A515:A578" si="42">A514+1</f>
         <v>514</v>
       </c>
+      <c r="B515" t="s">
+        <v>98</v>
+      </c>
       <c r="C515">
         <v>1</v>
+      </c>
+      <c r="D515">
+        <v>11</v>
+      </c>
+      <c r="E515" s="1">
+        <v>43064</v>
+      </c>
+      <c r="F515" s="2">
+        <v>2602</v>
+      </c>
+      <c r="G515" s="3">
+        <v>150000</v>
       </c>
       <c r="H515" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I515" s="4">
         <f t="shared" si="39"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J515">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="516" spans="1:10">
@@ -27843,20 +27889,35 @@
         <f t="shared" si="42"/>
         <v>515</v>
       </c>
+      <c r="B516" t="s">
+        <v>98</v>
+      </c>
       <c r="C516">
         <v>1</v>
+      </c>
+      <c r="D516">
+        <v>12</v>
+      </c>
+      <c r="E516" s="1">
+        <v>43085</v>
+      </c>
+      <c r="F516" s="2">
+        <v>2643</v>
+      </c>
+      <c r="G516" s="3">
+        <v>150000</v>
       </c>
       <c r="H516" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I516" s="4">
         <f t="shared" si="39"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J516">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="517" spans="1:10">
@@ -27864,20 +27925,35 @@
         <f t="shared" si="42"/>
         <v>516</v>
       </c>
+      <c r="B517" t="s">
+        <v>98</v>
+      </c>
       <c r="C517">
         <v>1</v>
+      </c>
+      <c r="D517">
+        <v>1</v>
+      </c>
+      <c r="E517" s="1">
+        <v>43134</v>
+      </c>
+      <c r="F517" s="2">
+        <v>2770</v>
+      </c>
+      <c r="G517" s="3">
+        <v>150000</v>
       </c>
       <c r="H517" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I517" s="4">
         <f t="shared" si="39"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J517">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:10">
@@ -27885,20 +27961,35 @@
         <f t="shared" si="42"/>
         <v>517</v>
       </c>
+      <c r="B518" t="s">
+        <v>98</v>
+      </c>
       <c r="C518">
         <v>1</v>
+      </c>
+      <c r="D518">
+        <v>2</v>
+      </c>
+      <c r="E518" s="1">
+        <v>43134</v>
+      </c>
+      <c r="F518" s="2">
+        <v>2770</v>
+      </c>
+      <c r="G518" s="3">
+        <v>150000</v>
       </c>
       <c r="H518" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I518" s="4">
         <f t="shared" si="39"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J518">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:10">
@@ -27906,20 +27997,35 @@
         <f t="shared" si="42"/>
         <v>518</v>
       </c>
+      <c r="B519" t="s">
+        <v>99</v>
+      </c>
       <c r="C519">
         <v>1</v>
+      </c>
+      <c r="D519">
+        <v>9</v>
+      </c>
+      <c r="E519" s="1">
+        <v>43360</v>
+      </c>
+      <c r="F519" s="2">
+        <v>2395</v>
+      </c>
+      <c r="G519" s="3">
+        <v>150000</v>
       </c>
       <c r="H519" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I519" s="4">
         <f t="shared" si="39"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J519">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="520" spans="1:10">
@@ -27927,20 +28033,35 @@
         <f t="shared" si="42"/>
         <v>519</v>
       </c>
+      <c r="B520" t="s">
+        <v>99</v>
+      </c>
       <c r="C520">
         <v>1</v>
+      </c>
+      <c r="D520">
+        <v>10</v>
+      </c>
+      <c r="E520" s="1">
+        <v>43029</v>
+      </c>
+      <c r="F520" s="2">
+        <v>2472</v>
+      </c>
+      <c r="G520" s="3">
+        <v>150000</v>
       </c>
       <c r="H520" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I520" s="4">
         <f t="shared" si="39"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J520">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="521" spans="1:10">
@@ -27948,20 +28069,35 @@
         <f t="shared" si="42"/>
         <v>520</v>
       </c>
+      <c r="B521" t="s">
+        <v>99</v>
+      </c>
       <c r="C521">
         <v>1</v>
+      </c>
+      <c r="D521">
+        <v>11</v>
+      </c>
+      <c r="E521" s="1">
+        <v>43050</v>
+      </c>
+      <c r="F521" s="2">
+        <v>2557</v>
+      </c>
+      <c r="G521" s="3">
+        <v>150000</v>
       </c>
       <c r="H521" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I521" s="4">
         <f t="shared" si="39"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J521">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="522" spans="1:10">
@@ -27969,20 +28105,35 @@
         <f t="shared" si="42"/>
         <v>521</v>
       </c>
+      <c r="B522" t="s">
+        <v>99</v>
+      </c>
       <c r="C522">
         <v>1</v>
+      </c>
+      <c r="D522">
+        <v>12</v>
+      </c>
+      <c r="E522" s="1">
+        <v>43085</v>
+      </c>
+      <c r="F522" s="2">
+        <v>2648</v>
+      </c>
+      <c r="G522" s="3">
+        <v>150000</v>
       </c>
       <c r="H522" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I522" s="4">
         <f t="shared" si="39"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J522">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="523" spans="1:10">

--- a/SPP.xlsx
+++ b/SPP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8370"/>
+    <workbookView windowWidth="19890" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
   <si>
     <t>Count of SPP</t>
   </si>
@@ -332,6 +332,24 @@
   <si>
     <t>Non Pendidikan</t>
   </si>
+  <si>
+    <t>HAMAM BIN MULYONO</t>
+  </si>
+  <si>
+    <t>AZKA AL ATHAF</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RIZQI ADIK ILHAM</t>
+  </si>
+  <si>
+    <t>NAWAZ</t>
+  </si>
+  <si>
+    <t>FAQIH</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ABDUL MU'THI</t>
+  </si>
 </sst>
 </file>
 
@@ -340,10 +358,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -362,6 +380,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -369,16 +395,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,11 +440,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -408,7 +456,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -424,38 +480,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,24 +509,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,14 +519,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,25 +533,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,97 +599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,13 +617,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,13 +635,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,12 +717,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -709,13 +727,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,6 +747,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,15 +790,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -786,23 +808,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,13 +829,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -829,130 +847,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14502,7 +14520,1021 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0">
   <location ref="A3:R95" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="10">
-    <pivotField compact="0" showAll="0"/>
+    <pivotField compact="0" showAll="0">
+      <items count="1011">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item x="368"/>
+        <item x="369"/>
+        <item x="370"/>
+        <item x="371"/>
+        <item x="372"/>
+        <item x="373"/>
+        <item x="374"/>
+        <item x="375"/>
+        <item x="376"/>
+        <item x="377"/>
+        <item x="378"/>
+        <item x="379"/>
+        <item x="380"/>
+        <item x="381"/>
+        <item x="382"/>
+        <item x="383"/>
+        <item x="384"/>
+        <item x="385"/>
+        <item x="386"/>
+        <item x="387"/>
+        <item x="388"/>
+        <item x="389"/>
+        <item x="390"/>
+        <item x="391"/>
+        <item x="392"/>
+        <item x="393"/>
+        <item x="394"/>
+        <item x="395"/>
+        <item x="396"/>
+        <item x="397"/>
+        <item x="398"/>
+        <item x="399"/>
+        <item x="400"/>
+        <item x="401"/>
+        <item x="402"/>
+        <item x="403"/>
+        <item x="404"/>
+        <item x="405"/>
+        <item x="406"/>
+        <item x="407"/>
+        <item x="408"/>
+        <item x="409"/>
+        <item x="410"/>
+        <item x="411"/>
+        <item x="412"/>
+        <item x="413"/>
+        <item x="414"/>
+        <item x="415"/>
+        <item x="416"/>
+        <item x="417"/>
+        <item x="418"/>
+        <item x="419"/>
+        <item x="420"/>
+        <item x="421"/>
+        <item x="422"/>
+        <item x="423"/>
+        <item x="424"/>
+        <item x="425"/>
+        <item x="426"/>
+        <item x="427"/>
+        <item x="428"/>
+        <item x="429"/>
+        <item x="430"/>
+        <item x="431"/>
+        <item x="432"/>
+        <item x="433"/>
+        <item x="434"/>
+        <item x="435"/>
+        <item x="436"/>
+        <item x="437"/>
+        <item x="438"/>
+        <item x="439"/>
+        <item x="440"/>
+        <item x="441"/>
+        <item x="442"/>
+        <item x="443"/>
+        <item x="444"/>
+        <item x="445"/>
+        <item x="446"/>
+        <item x="447"/>
+        <item x="448"/>
+        <item x="449"/>
+        <item x="450"/>
+        <item x="451"/>
+        <item x="452"/>
+        <item x="453"/>
+        <item x="454"/>
+        <item x="455"/>
+        <item x="456"/>
+        <item x="457"/>
+        <item x="458"/>
+        <item x="459"/>
+        <item x="460"/>
+        <item x="461"/>
+        <item x="462"/>
+        <item x="463"/>
+        <item x="464"/>
+        <item x="465"/>
+        <item x="466"/>
+        <item x="467"/>
+        <item x="468"/>
+        <item x="469"/>
+        <item x="470"/>
+        <item x="471"/>
+        <item x="472"/>
+        <item x="473"/>
+        <item x="474"/>
+        <item x="475"/>
+        <item x="476"/>
+        <item x="477"/>
+        <item x="478"/>
+        <item x="479"/>
+        <item x="480"/>
+        <item x="481"/>
+        <item x="482"/>
+        <item x="483"/>
+        <item x="484"/>
+        <item x="485"/>
+        <item x="486"/>
+        <item x="487"/>
+        <item x="488"/>
+        <item x="489"/>
+        <item x="490"/>
+        <item x="491"/>
+        <item x="492"/>
+        <item x="493"/>
+        <item x="494"/>
+        <item x="495"/>
+        <item x="496"/>
+        <item x="497"/>
+        <item x="498"/>
+        <item x="499"/>
+        <item x="500"/>
+        <item x="501"/>
+        <item x="502"/>
+        <item x="503"/>
+        <item x="504"/>
+        <item x="505"/>
+        <item x="506"/>
+        <item x="507"/>
+        <item x="508"/>
+        <item x="509"/>
+        <item x="510"/>
+        <item x="511"/>
+        <item x="512"/>
+        <item x="513"/>
+        <item x="514"/>
+        <item x="515"/>
+        <item x="516"/>
+        <item x="517"/>
+        <item x="518"/>
+        <item x="519"/>
+        <item x="520"/>
+        <item x="521"/>
+        <item x="522"/>
+        <item x="523"/>
+        <item x="524"/>
+        <item x="525"/>
+        <item x="526"/>
+        <item x="527"/>
+        <item x="528"/>
+        <item x="529"/>
+        <item x="530"/>
+        <item x="531"/>
+        <item x="532"/>
+        <item x="533"/>
+        <item x="534"/>
+        <item x="535"/>
+        <item x="536"/>
+        <item x="537"/>
+        <item x="538"/>
+        <item x="539"/>
+        <item x="540"/>
+        <item x="541"/>
+        <item x="542"/>
+        <item x="543"/>
+        <item x="544"/>
+        <item x="545"/>
+        <item x="546"/>
+        <item x="547"/>
+        <item x="548"/>
+        <item x="549"/>
+        <item x="550"/>
+        <item x="551"/>
+        <item x="552"/>
+        <item x="553"/>
+        <item x="554"/>
+        <item x="555"/>
+        <item x="556"/>
+        <item x="557"/>
+        <item x="558"/>
+        <item x="559"/>
+        <item x="560"/>
+        <item x="561"/>
+        <item x="562"/>
+        <item x="563"/>
+        <item x="564"/>
+        <item x="565"/>
+        <item x="566"/>
+        <item x="567"/>
+        <item x="568"/>
+        <item x="569"/>
+        <item x="570"/>
+        <item x="571"/>
+        <item x="572"/>
+        <item x="573"/>
+        <item x="574"/>
+        <item x="575"/>
+        <item x="576"/>
+        <item x="577"/>
+        <item x="578"/>
+        <item x="579"/>
+        <item x="580"/>
+        <item x="581"/>
+        <item x="582"/>
+        <item x="583"/>
+        <item x="584"/>
+        <item x="585"/>
+        <item x="586"/>
+        <item x="587"/>
+        <item x="588"/>
+        <item x="589"/>
+        <item x="590"/>
+        <item x="591"/>
+        <item x="592"/>
+        <item x="593"/>
+        <item x="594"/>
+        <item x="595"/>
+        <item x="596"/>
+        <item x="597"/>
+        <item x="598"/>
+        <item x="599"/>
+        <item x="600"/>
+        <item x="601"/>
+        <item x="602"/>
+        <item x="603"/>
+        <item x="604"/>
+        <item x="605"/>
+        <item x="606"/>
+        <item x="607"/>
+        <item x="608"/>
+        <item x="609"/>
+        <item x="610"/>
+        <item x="611"/>
+        <item x="612"/>
+        <item x="613"/>
+        <item x="614"/>
+        <item x="615"/>
+        <item x="616"/>
+        <item x="617"/>
+        <item x="618"/>
+        <item x="619"/>
+        <item x="620"/>
+        <item x="621"/>
+        <item x="622"/>
+        <item x="623"/>
+        <item x="624"/>
+        <item x="625"/>
+        <item x="626"/>
+        <item x="627"/>
+        <item x="628"/>
+        <item x="629"/>
+        <item x="630"/>
+        <item x="631"/>
+        <item x="632"/>
+        <item x="633"/>
+        <item x="634"/>
+        <item x="635"/>
+        <item x="636"/>
+        <item x="637"/>
+        <item x="638"/>
+        <item x="639"/>
+        <item x="640"/>
+        <item x="641"/>
+        <item x="642"/>
+        <item x="643"/>
+        <item x="644"/>
+        <item x="645"/>
+        <item x="646"/>
+        <item x="647"/>
+        <item x="648"/>
+        <item x="649"/>
+        <item x="650"/>
+        <item x="651"/>
+        <item x="652"/>
+        <item x="653"/>
+        <item x="654"/>
+        <item x="655"/>
+        <item x="656"/>
+        <item x="657"/>
+        <item x="658"/>
+        <item x="659"/>
+        <item x="660"/>
+        <item x="661"/>
+        <item x="662"/>
+        <item x="663"/>
+        <item x="664"/>
+        <item x="665"/>
+        <item x="666"/>
+        <item x="667"/>
+        <item x="668"/>
+        <item x="669"/>
+        <item x="670"/>
+        <item x="671"/>
+        <item x="672"/>
+        <item x="673"/>
+        <item x="674"/>
+        <item x="675"/>
+        <item x="676"/>
+        <item x="677"/>
+        <item x="678"/>
+        <item x="679"/>
+        <item x="680"/>
+        <item x="681"/>
+        <item x="682"/>
+        <item x="683"/>
+        <item x="684"/>
+        <item x="685"/>
+        <item x="686"/>
+        <item x="687"/>
+        <item x="688"/>
+        <item x="689"/>
+        <item x="690"/>
+        <item x="691"/>
+        <item x="692"/>
+        <item x="693"/>
+        <item x="694"/>
+        <item x="695"/>
+        <item x="696"/>
+        <item x="697"/>
+        <item x="698"/>
+        <item x="699"/>
+        <item x="700"/>
+        <item x="701"/>
+        <item x="702"/>
+        <item x="703"/>
+        <item x="704"/>
+        <item x="705"/>
+        <item x="706"/>
+        <item x="707"/>
+        <item x="708"/>
+        <item x="709"/>
+        <item x="710"/>
+        <item x="711"/>
+        <item x="712"/>
+        <item x="713"/>
+        <item x="714"/>
+        <item x="715"/>
+        <item x="716"/>
+        <item x="717"/>
+        <item x="718"/>
+        <item x="719"/>
+        <item x="720"/>
+        <item x="721"/>
+        <item x="722"/>
+        <item x="723"/>
+        <item x="724"/>
+        <item x="725"/>
+        <item x="726"/>
+        <item x="727"/>
+        <item x="728"/>
+        <item x="729"/>
+        <item x="730"/>
+        <item x="731"/>
+        <item x="732"/>
+        <item x="733"/>
+        <item x="734"/>
+        <item x="735"/>
+        <item x="736"/>
+        <item x="737"/>
+        <item x="738"/>
+        <item x="739"/>
+        <item x="740"/>
+        <item x="741"/>
+        <item x="742"/>
+        <item x="743"/>
+        <item x="744"/>
+        <item x="745"/>
+        <item x="746"/>
+        <item x="747"/>
+        <item x="748"/>
+        <item x="749"/>
+        <item x="750"/>
+        <item x="751"/>
+        <item x="752"/>
+        <item x="753"/>
+        <item x="754"/>
+        <item x="755"/>
+        <item x="756"/>
+        <item x="757"/>
+        <item x="758"/>
+        <item x="759"/>
+        <item x="760"/>
+        <item x="761"/>
+        <item x="762"/>
+        <item x="763"/>
+        <item x="764"/>
+        <item x="765"/>
+        <item x="766"/>
+        <item x="767"/>
+        <item x="768"/>
+        <item x="769"/>
+        <item x="770"/>
+        <item x="771"/>
+        <item x="772"/>
+        <item x="773"/>
+        <item x="774"/>
+        <item x="775"/>
+        <item x="776"/>
+        <item x="777"/>
+        <item x="778"/>
+        <item x="779"/>
+        <item x="780"/>
+        <item x="781"/>
+        <item x="782"/>
+        <item x="783"/>
+        <item x="784"/>
+        <item x="785"/>
+        <item x="786"/>
+        <item x="787"/>
+        <item x="788"/>
+        <item x="789"/>
+        <item x="790"/>
+        <item x="791"/>
+        <item x="792"/>
+        <item x="793"/>
+        <item x="794"/>
+        <item x="795"/>
+        <item x="796"/>
+        <item x="797"/>
+        <item x="798"/>
+        <item x="799"/>
+        <item x="800"/>
+        <item x="801"/>
+        <item x="802"/>
+        <item x="803"/>
+        <item x="804"/>
+        <item x="805"/>
+        <item x="806"/>
+        <item x="807"/>
+        <item x="808"/>
+        <item x="809"/>
+        <item x="810"/>
+        <item x="811"/>
+        <item x="812"/>
+        <item x="813"/>
+        <item x="814"/>
+        <item x="815"/>
+        <item x="816"/>
+        <item x="817"/>
+        <item x="818"/>
+        <item x="819"/>
+        <item x="820"/>
+        <item x="821"/>
+        <item x="822"/>
+        <item x="823"/>
+        <item x="824"/>
+        <item x="825"/>
+        <item x="826"/>
+        <item x="827"/>
+        <item x="828"/>
+        <item x="829"/>
+        <item x="830"/>
+        <item x="831"/>
+        <item x="832"/>
+        <item x="833"/>
+        <item x="834"/>
+        <item x="835"/>
+        <item x="836"/>
+        <item x="837"/>
+        <item x="838"/>
+        <item x="839"/>
+        <item x="840"/>
+        <item x="841"/>
+        <item x="842"/>
+        <item x="843"/>
+        <item x="844"/>
+        <item x="845"/>
+        <item x="846"/>
+        <item x="847"/>
+        <item x="848"/>
+        <item x="849"/>
+        <item x="850"/>
+        <item x="851"/>
+        <item x="852"/>
+        <item x="853"/>
+        <item x="854"/>
+        <item x="855"/>
+        <item x="856"/>
+        <item x="857"/>
+        <item x="858"/>
+        <item x="859"/>
+        <item x="860"/>
+        <item x="861"/>
+        <item x="862"/>
+        <item x="863"/>
+        <item x="864"/>
+        <item x="865"/>
+        <item x="866"/>
+        <item x="867"/>
+        <item x="868"/>
+        <item x="869"/>
+        <item x="870"/>
+        <item x="871"/>
+        <item x="872"/>
+        <item x="873"/>
+        <item x="874"/>
+        <item x="875"/>
+        <item x="876"/>
+        <item x="877"/>
+        <item x="878"/>
+        <item x="879"/>
+        <item x="880"/>
+        <item x="881"/>
+        <item x="882"/>
+        <item x="883"/>
+        <item x="884"/>
+        <item x="885"/>
+        <item x="886"/>
+        <item x="887"/>
+        <item x="888"/>
+        <item x="889"/>
+        <item x="890"/>
+        <item x="891"/>
+        <item x="892"/>
+        <item x="893"/>
+        <item x="894"/>
+        <item x="895"/>
+        <item x="896"/>
+        <item x="897"/>
+        <item x="898"/>
+        <item x="899"/>
+        <item x="900"/>
+        <item x="901"/>
+        <item x="902"/>
+        <item x="903"/>
+        <item x="904"/>
+        <item x="905"/>
+        <item x="906"/>
+        <item x="907"/>
+        <item x="908"/>
+        <item x="909"/>
+        <item x="910"/>
+        <item x="911"/>
+        <item x="912"/>
+        <item x="913"/>
+        <item x="914"/>
+        <item x="915"/>
+        <item x="916"/>
+        <item x="917"/>
+        <item x="918"/>
+        <item x="919"/>
+        <item x="920"/>
+        <item x="921"/>
+        <item x="922"/>
+        <item x="923"/>
+        <item x="924"/>
+        <item x="925"/>
+        <item x="926"/>
+        <item x="927"/>
+        <item x="928"/>
+        <item x="929"/>
+        <item x="930"/>
+        <item x="931"/>
+        <item x="932"/>
+        <item x="933"/>
+        <item x="934"/>
+        <item x="935"/>
+        <item x="936"/>
+        <item x="937"/>
+        <item x="938"/>
+        <item x="939"/>
+        <item x="940"/>
+        <item x="941"/>
+        <item x="942"/>
+        <item x="943"/>
+        <item x="944"/>
+        <item x="945"/>
+        <item x="946"/>
+        <item x="947"/>
+        <item x="948"/>
+        <item x="949"/>
+        <item x="950"/>
+        <item x="951"/>
+        <item x="952"/>
+        <item x="953"/>
+        <item x="954"/>
+        <item x="955"/>
+        <item x="956"/>
+        <item x="957"/>
+        <item x="958"/>
+        <item x="959"/>
+        <item x="960"/>
+        <item x="961"/>
+        <item x="962"/>
+        <item x="963"/>
+        <item x="964"/>
+        <item x="965"/>
+        <item x="966"/>
+        <item x="967"/>
+        <item x="968"/>
+        <item x="969"/>
+        <item x="970"/>
+        <item x="971"/>
+        <item x="972"/>
+        <item x="973"/>
+        <item x="974"/>
+        <item x="975"/>
+        <item x="976"/>
+        <item x="977"/>
+        <item x="978"/>
+        <item x="979"/>
+        <item x="980"/>
+        <item x="981"/>
+        <item x="982"/>
+        <item x="983"/>
+        <item x="984"/>
+        <item x="985"/>
+        <item x="986"/>
+        <item x="987"/>
+        <item x="988"/>
+        <item x="989"/>
+        <item x="990"/>
+        <item x="991"/>
+        <item x="992"/>
+        <item x="993"/>
+        <item x="994"/>
+        <item x="995"/>
+        <item x="996"/>
+        <item x="997"/>
+        <item x="998"/>
+        <item x="999"/>
+        <item x="1000"/>
+        <item x="1001"/>
+        <item x="1002"/>
+        <item x="1003"/>
+        <item x="1004"/>
+        <item x="1005"/>
+        <item x="1006"/>
+        <item x="1007"/>
+        <item x="1008"/>
+        <item x="1009"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" compact="0" showAll="0">
       <items count="90">
         <item x="55"/>
@@ -14601,7 +15633,24 @@
     <pivotField compact="0" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0">
+      <items count="14">
+        <item x="11"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField compact="0" numFmtId="176" showAll="0"/>
     <pivotField axis="axisCol" compact="0" showAll="0">
       <items count="4">
@@ -15233,7 +16282,7 @@
   <sheetPr/>
   <dimension ref="A3:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I16" workbookViewId="0">
+    <sheetView topLeftCell="I16" workbookViewId="0">
       <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
@@ -15270,12 +16319,6 @@
       <c r="D4">
         <v>2017</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
       <c r="M4" t="s">
         <v>4</v>
       </c>
@@ -15296,7 +16339,6 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5"/>
       <c r="D5">
         <v>1</v>
       </c>
@@ -15324,7 +16366,6 @@
       <c r="L5">
         <v>12</v>
       </c>
-      <c r="M5"/>
       <c r="N5">
         <v>1</v>
       </c>
@@ -15339,8 +16380,6 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6"/>
-      <c r="C6"/>
       <c r="H6">
         <v>2</v>
       </c>
@@ -15364,8 +16403,6 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7"/>
-      <c r="C7"/>
       <c r="G7">
         <v>1</v>
       </c>
@@ -15395,8 +16432,6 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
       <c r="K8">
         <v>3</v>
       </c>
@@ -15411,8 +16446,6 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9"/>
-      <c r="C9"/>
       <c r="H9">
         <v>1</v>
       </c>
@@ -15439,8 +16472,6 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10"/>
-      <c r="C10"/>
       <c r="H10">
         <v>2</v>
       </c>
@@ -15467,8 +16498,6 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11"/>
-      <c r="C11"/>
       <c r="H11">
         <v>2</v>
       </c>
@@ -15501,8 +16530,6 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12"/>
-      <c r="C12"/>
       <c r="G12">
         <v>1</v>
       </c>
@@ -15538,8 +16565,6 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13"/>
-      <c r="C13"/>
       <c r="G13">
         <v>1</v>
       </c>
@@ -15569,8 +16594,6 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14"/>
-      <c r="C14"/>
       <c r="G14">
         <v>1</v>
       </c>
@@ -15597,8 +16620,6 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15"/>
-      <c r="C15"/>
       <c r="G15">
         <v>1</v>
       </c>
@@ -15625,8 +16646,6 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16"/>
-      <c r="C16"/>
       <c r="G16">
         <v>1</v>
       </c>
@@ -15662,8 +16681,6 @@
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17"/>
-      <c r="C17"/>
       <c r="G17">
         <v>1</v>
       </c>
@@ -15699,8 +16716,6 @@
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18"/>
-      <c r="C18"/>
       <c r="G18">
         <v>1</v>
       </c>
@@ -15736,8 +16751,6 @@
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19"/>
-      <c r="C19"/>
       <c r="G19">
         <v>3</v>
       </c>
@@ -15761,8 +16774,6 @@
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20"/>
-      <c r="C20"/>
       <c r="N20">
         <v>6</v>
       </c>
@@ -17812,16 +18823,16 @@
   <sheetPr/>
   <dimension ref="A1:J1011"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A988" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A555" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1011" sqref="A1:J1011"/>
+      <selection pane="bottomLeft" activeCell="E572" sqref="E572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.71428571428571" customWidth="1"/>
-    <col min="2" max="2" width="27.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="33.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="11.4285714285714" style="1"/>
     <col min="6" max="6" width="12.4285714285714" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.8571428571429" style="3"/>
@@ -35797,20 +36808,35 @@
         <f t="shared" si="42"/>
         <v>539</v>
       </c>
+      <c r="B540" t="s">
+        <v>104</v>
+      </c>
       <c r="C540">
         <v>1</v>
+      </c>
+      <c r="D540">
+        <v>9</v>
+      </c>
+      <c r="E540" s="1">
+        <v>42987</v>
+      </c>
+      <c r="F540" s="2">
+        <v>2377</v>
+      </c>
+      <c r="G540" s="3">
+        <v>150000</v>
       </c>
       <c r="H540" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I540" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J540">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="541" spans="1:10">
@@ -35818,20 +36844,35 @@
         <f t="shared" si="42"/>
         <v>540</v>
       </c>
+      <c r="B541" t="s">
+        <v>104</v>
+      </c>
       <c r="C541">
         <v>1</v>
+      </c>
+      <c r="D541">
+        <v>10</v>
+      </c>
+      <c r="E541" s="1">
+        <v>43092</v>
+      </c>
+      <c r="F541" s="2">
+        <v>1684</v>
+      </c>
+      <c r="G541" s="3">
+        <v>150000</v>
       </c>
       <c r="H541" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I541" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J541">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="542" spans="1:10">
@@ -35839,20 +36880,35 @@
         <f t="shared" si="42"/>
         <v>541</v>
       </c>
+      <c r="B542" t="s">
+        <v>104</v>
+      </c>
       <c r="C542">
         <v>1</v>
+      </c>
+      <c r="D542">
+        <v>11</v>
+      </c>
+      <c r="E542" s="1">
+        <v>43092</v>
+      </c>
+      <c r="F542" s="2">
+        <v>1684</v>
+      </c>
+      <c r="G542" s="3">
+        <v>150000</v>
       </c>
       <c r="H542" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I542" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J542">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="543" spans="1:10">
@@ -35860,20 +36916,35 @@
         <f t="shared" si="42"/>
         <v>542</v>
       </c>
+      <c r="B543" t="s">
+        <v>104</v>
+      </c>
       <c r="C543">
         <v>1</v>
+      </c>
+      <c r="D543">
+        <v>12</v>
+      </c>
+      <c r="E543" s="1">
+        <v>43092</v>
+      </c>
+      <c r="F543" s="2">
+        <v>1684</v>
+      </c>
+      <c r="G543" s="3">
+        <v>150000</v>
       </c>
       <c r="H543" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I543" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J543">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="544" spans="1:10">
@@ -35881,20 +36952,35 @@
         <f t="shared" si="42"/>
         <v>543</v>
       </c>
+      <c r="B544" t="s">
+        <v>105</v>
+      </c>
       <c r="C544">
         <v>1</v>
+      </c>
+      <c r="D544">
+        <v>9</v>
+      </c>
+      <c r="E544" s="1">
+        <v>42987</v>
+      </c>
+      <c r="F544" s="2">
+        <v>2376</v>
+      </c>
+      <c r="G544" s="3">
+        <v>150000</v>
       </c>
       <c r="H544" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I544" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J544">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="545" spans="1:10">
@@ -35902,20 +36988,35 @@
         <f t="shared" si="42"/>
         <v>544</v>
       </c>
+      <c r="B545" t="s">
+        <v>105</v>
+      </c>
       <c r="C545">
         <v>1</v>
+      </c>
+      <c r="D545">
+        <v>10</v>
+      </c>
+      <c r="E545" s="1">
+        <v>43022</v>
+      </c>
+      <c r="F545" s="2">
+        <v>2546</v>
+      </c>
+      <c r="G545" s="3">
+        <v>150000</v>
       </c>
       <c r="H545" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I545" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J545">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="546" spans="1:10">
@@ -35923,20 +37024,35 @@
         <f t="shared" si="42"/>
         <v>545</v>
       </c>
+      <c r="B546" t="s">
+        <v>105</v>
+      </c>
       <c r="C546">
         <v>1</v>
+      </c>
+      <c r="D546">
+        <v>11</v>
+      </c>
+      <c r="E546" s="1">
+        <v>43057</v>
+      </c>
+      <c r="F546" s="2">
+        <v>2586</v>
+      </c>
+      <c r="G546" s="3">
+        <v>150000</v>
       </c>
       <c r="H546" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I546" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J546">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="547" spans="1:10">
@@ -35944,20 +37060,35 @@
         <f t="shared" si="42"/>
         <v>546</v>
       </c>
+      <c r="B547" t="s">
+        <v>105</v>
+      </c>
       <c r="C547">
         <v>1</v>
+      </c>
+      <c r="D547">
+        <v>12</v>
+      </c>
+      <c r="E547" s="1">
+        <v>43085</v>
+      </c>
+      <c r="F547" s="2">
+        <v>2657</v>
+      </c>
+      <c r="G547" s="3">
+        <v>150000</v>
       </c>
       <c r="H547" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I547" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J547">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="548" spans="1:10">
@@ -35965,20 +37096,35 @@
         <f t="shared" si="42"/>
         <v>547</v>
       </c>
+      <c r="B548" t="s">
+        <v>106</v>
+      </c>
       <c r="C548">
         <v>1</v>
+      </c>
+      <c r="D548">
+        <v>9</v>
+      </c>
+      <c r="E548" s="1">
+        <v>42987</v>
+      </c>
+      <c r="F548" s="2">
+        <v>2364</v>
+      </c>
+      <c r="G548" s="3">
+        <v>150000</v>
       </c>
       <c r="H548" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I548" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J548">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="549" spans="1:10">
@@ -35986,20 +37132,35 @@
         <f t="shared" si="42"/>
         <v>548</v>
       </c>
+      <c r="B549" t="s">
+        <v>106</v>
+      </c>
       <c r="C549">
         <v>1</v>
+      </c>
+      <c r="D549">
+        <v>10</v>
+      </c>
+      <c r="E549" s="1">
+        <v>43022</v>
+      </c>
+      <c r="F549" s="2">
+        <v>2538</v>
+      </c>
+      <c r="G549" s="3">
+        <v>150000</v>
       </c>
       <c r="H549" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I549" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J549">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="550" spans="1:10">
@@ -36007,20 +37168,35 @@
         <f t="shared" si="42"/>
         <v>549</v>
       </c>
+      <c r="B550" t="s">
+        <v>106</v>
+      </c>
       <c r="C550">
         <v>1</v>
+      </c>
+      <c r="D550">
+        <v>11</v>
+      </c>
+      <c r="E550" s="1">
+        <v>43071</v>
+      </c>
+      <c r="F550" s="2">
+        <v>2618</v>
+      </c>
+      <c r="G550" s="3">
+        <v>150000</v>
       </c>
       <c r="H550" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I550" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J550">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="551" spans="1:10">
@@ -36028,16 +37204,31 @@
         <f t="shared" si="42"/>
         <v>550</v>
       </c>
+      <c r="B551" t="s">
+        <v>106</v>
+      </c>
       <c r="C551">
         <v>1</v>
+      </c>
+      <c r="D551">
+        <v>12</v>
+      </c>
+      <c r="E551" s="1">
+        <v>43104</v>
+      </c>
+      <c r="F551" s="2">
+        <v>2713</v>
+      </c>
+      <c r="G551" s="3">
+        <v>150000</v>
       </c>
       <c r="H551" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I551" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J551">
         <f t="shared" si="44"/>
@@ -36049,20 +37240,35 @@
         <f t="shared" si="42"/>
         <v>551</v>
       </c>
+      <c r="B552" t="s">
+        <v>107</v>
+      </c>
       <c r="C552">
         <v>1</v>
+      </c>
+      <c r="D552">
+        <v>7</v>
+      </c>
+      <c r="E552" s="1">
+        <v>42938</v>
+      </c>
+      <c r="F552" s="2">
+        <v>1232</v>
+      </c>
+      <c r="G552" s="3">
+        <v>150000</v>
       </c>
       <c r="H552" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I552" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J552">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="553" spans="1:10">
@@ -36070,20 +37276,35 @@
         <f t="shared" si="42"/>
         <v>552</v>
       </c>
+      <c r="B553" t="s">
+        <v>107</v>
+      </c>
       <c r="C553">
         <v>1</v>
+      </c>
+      <c r="D553">
+        <v>8</v>
+      </c>
+      <c r="E553" s="1">
+        <v>42959</v>
+      </c>
+      <c r="F553" s="2">
+        <v>2283</v>
+      </c>
+      <c r="G553" s="3">
+        <v>150000</v>
       </c>
       <c r="H553" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I553" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J553">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="554" spans="1:10">
@@ -36091,20 +37312,35 @@
         <f t="shared" si="42"/>
         <v>553</v>
       </c>
+      <c r="B554" t="s">
+        <v>107</v>
+      </c>
       <c r="C554">
         <v>1</v>
+      </c>
+      <c r="D554">
+        <v>9</v>
+      </c>
+      <c r="E554" s="1">
+        <v>42987</v>
+      </c>
+      <c r="F554" s="2">
+        <v>2380</v>
+      </c>
+      <c r="G554" s="3">
+        <v>150000</v>
       </c>
       <c r="H554" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I554" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J554">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="555" spans="1:10">
@@ -36112,20 +37348,35 @@
         <f t="shared" si="42"/>
         <v>554</v>
       </c>
+      <c r="B555" t="s">
+        <v>107</v>
+      </c>
       <c r="C555">
         <v>1</v>
+      </c>
+      <c r="D555">
+        <v>10</v>
+      </c>
+      <c r="E555" s="1">
+        <v>43014</v>
+      </c>
+      <c r="F555" s="2">
+        <v>2448</v>
+      </c>
+      <c r="G555" s="3">
+        <v>150000</v>
       </c>
       <c r="H555" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I555" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J555">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="556" spans="1:10">
@@ -36133,20 +37384,35 @@
         <f t="shared" si="42"/>
         <v>555</v>
       </c>
+      <c r="B556" t="s">
+        <v>107</v>
+      </c>
       <c r="C556">
         <v>1</v>
+      </c>
+      <c r="D556">
+        <v>11</v>
+      </c>
+      <c r="E556" s="1">
+        <v>43050</v>
+      </c>
+      <c r="F556" s="2">
+        <v>2497</v>
+      </c>
+      <c r="G556" s="3">
+        <v>150000</v>
       </c>
       <c r="H556" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I556" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J556">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="557" spans="1:10">
@@ -36154,20 +37420,35 @@
         <f t="shared" si="42"/>
         <v>556</v>
       </c>
+      <c r="B557" t="s">
+        <v>107</v>
+      </c>
       <c r="C557">
         <v>1</v>
+      </c>
+      <c r="D557">
+        <v>12</v>
+      </c>
+      <c r="E557" s="1">
+        <v>43078</v>
+      </c>
+      <c r="F557" s="2">
+        <v>2621</v>
+      </c>
+      <c r="G557" s="3">
+        <v>150000</v>
       </c>
       <c r="H557" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I557" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J557">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="558" spans="1:10">
@@ -36175,20 +37456,35 @@
         <f t="shared" si="42"/>
         <v>557</v>
       </c>
+      <c r="B558" t="s">
+        <v>107</v>
+      </c>
       <c r="C558">
         <v>1</v>
+      </c>
+      <c r="D558">
+        <v>1</v>
+      </c>
+      <c r="E558" s="1">
+        <v>43141</v>
+      </c>
+      <c r="F558" s="2">
+        <v>2789</v>
+      </c>
+      <c r="G558" s="3">
+        <v>150000</v>
       </c>
       <c r="H558" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I558" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J558">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:10">
@@ -36196,20 +37492,35 @@
         <f t="shared" si="42"/>
         <v>558</v>
       </c>
+      <c r="B559" t="s">
+        <v>107</v>
+      </c>
       <c r="C559">
         <v>1</v>
+      </c>
+      <c r="D559">
+        <v>2</v>
+      </c>
+      <c r="E559" s="1">
+        <v>43141</v>
+      </c>
+      <c r="F559" s="2">
+        <v>2789</v>
+      </c>
+      <c r="G559" s="3">
+        <v>150000</v>
       </c>
       <c r="H559" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I559" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J559">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:10">
@@ -36217,20 +37528,35 @@
         <f t="shared" si="42"/>
         <v>559</v>
       </c>
+      <c r="B560" t="s">
+        <v>108</v>
+      </c>
       <c r="C560">
         <v>1</v>
+      </c>
+      <c r="D560">
+        <v>9</v>
+      </c>
+      <c r="E560" s="1">
+        <v>42983</v>
+      </c>
+      <c r="F560" s="2">
+        <v>2269</v>
+      </c>
+      <c r="G560" s="3">
+        <v>150000</v>
       </c>
       <c r="H560" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I560" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J560">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="561" spans="1:10">
@@ -36238,20 +37564,35 @@
         <f t="shared" si="42"/>
         <v>560</v>
       </c>
+      <c r="B561" t="s">
+        <v>108</v>
+      </c>
       <c r="C561">
         <v>1</v>
+      </c>
+      <c r="D561">
+        <v>10</v>
+      </c>
+      <c r="E561" s="1">
+        <v>43022</v>
+      </c>
+      <c r="F561" s="2">
+        <v>2537</v>
+      </c>
+      <c r="G561" s="3">
+        <v>150000</v>
       </c>
       <c r="H561" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I561" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J561">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="562" spans="1:10">
@@ -36259,20 +37600,35 @@
         <f t="shared" si="42"/>
         <v>561</v>
       </c>
+      <c r="B562" t="s">
+        <v>108</v>
+      </c>
       <c r="C562">
         <v>1</v>
+      </c>
+      <c r="D562">
+        <v>11</v>
+      </c>
+      <c r="E562" s="1">
+        <v>43043</v>
+      </c>
+      <c r="F562" s="2">
+        <v>2485</v>
+      </c>
+      <c r="G562" s="3">
+        <v>150000</v>
       </c>
       <c r="H562" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I562" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J562">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="563" spans="1:10">
@@ -36280,20 +37636,35 @@
         <f t="shared" si="42"/>
         <v>562</v>
       </c>
+      <c r="B563" t="s">
+        <v>108</v>
+      </c>
       <c r="C563">
         <v>1</v>
+      </c>
+      <c r="D563">
+        <v>12</v>
+      </c>
+      <c r="E563" s="1">
+        <v>43085</v>
+      </c>
+      <c r="F563" s="2">
+        <v>2641</v>
+      </c>
+      <c r="G563" s="3">
+        <v>150000</v>
       </c>
       <c r="H563" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I563" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J563">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="564" spans="1:10">
@@ -36301,20 +37672,35 @@
         <f t="shared" si="42"/>
         <v>563</v>
       </c>
+      <c r="B564" t="s">
+        <v>108</v>
+      </c>
       <c r="C564">
         <v>1</v>
+      </c>
+      <c r="D564">
+        <v>1</v>
+      </c>
+      <c r="E564" s="1">
+        <v>43134</v>
+      </c>
+      <c r="F564" s="2">
+        <v>2773</v>
+      </c>
+      <c r="G564" s="3">
+        <v>150000</v>
       </c>
       <c r="H564" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I564" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J564">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:10">
@@ -36322,20 +37708,35 @@
         <f t="shared" si="42"/>
         <v>564</v>
       </c>
+      <c r="B565" t="s">
+        <v>109</v>
+      </c>
       <c r="C565">
         <v>1</v>
+      </c>
+      <c r="D565">
+        <v>9</v>
+      </c>
+      <c r="E565" s="1">
+        <v>42952</v>
+      </c>
+      <c r="F565" s="2">
+        <v>2262</v>
+      </c>
+      <c r="G565" s="3">
+        <v>120000</v>
       </c>
       <c r="H565" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>-30000</v>
       </c>
       <c r="I565" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J565">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="566" spans="1:10">
@@ -36343,20 +37744,35 @@
         <f t="shared" si="42"/>
         <v>565</v>
       </c>
+      <c r="B566" t="s">
+        <v>109</v>
+      </c>
       <c r="C566">
         <v>1</v>
+      </c>
+      <c r="D566">
+        <v>10</v>
+      </c>
+      <c r="E566" s="1">
+        <v>43008</v>
+      </c>
+      <c r="F566" s="2">
+        <v>2391</v>
+      </c>
+      <c r="G566" s="3">
+        <v>120000</v>
       </c>
       <c r="H566" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>-30000</v>
       </c>
       <c r="I566" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J566">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="567" spans="1:10">
@@ -36364,20 +37780,35 @@
         <f t="shared" si="42"/>
         <v>566</v>
       </c>
+      <c r="B567" t="s">
+        <v>109</v>
+      </c>
       <c r="C567">
         <v>1</v>
+      </c>
+      <c r="D567">
+        <v>11</v>
+      </c>
+      <c r="E567" s="1">
+        <v>43064</v>
+      </c>
+      <c r="F567" s="2">
+        <v>2599</v>
+      </c>
+      <c r="G567" s="3">
+        <v>120000</v>
       </c>
       <c r="H567" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>-30000</v>
       </c>
       <c r="I567" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J567">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="568" spans="1:10">
@@ -36385,20 +37816,35 @@
         <f t="shared" si="42"/>
         <v>567</v>
       </c>
+      <c r="B568" t="s">
+        <v>109</v>
+      </c>
       <c r="C568">
         <v>1</v>
+      </c>
+      <c r="D568">
+        <v>12</v>
+      </c>
+      <c r="E568" s="1">
+        <v>43064</v>
+      </c>
+      <c r="F568" s="2">
+        <v>2599</v>
+      </c>
+      <c r="G568" s="3">
+        <v>120000</v>
       </c>
       <c r="H568" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>-30000</v>
       </c>
       <c r="I568" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J568">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="569" spans="1:10">
@@ -36406,20 +37852,35 @@
         <f t="shared" si="42"/>
         <v>568</v>
       </c>
+      <c r="B569" t="s">
+        <v>109</v>
+      </c>
       <c r="C569">
         <v>1</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
+      </c>
+      <c r="E569" s="1">
+        <v>43141</v>
+      </c>
+      <c r="F569" s="2">
+        <v>2793</v>
+      </c>
+      <c r="G569" s="3">
+        <v>120000</v>
       </c>
       <c r="H569" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>-30000</v>
       </c>
       <c r="I569" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J569">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:10">
@@ -36427,20 +37888,35 @@
         <f t="shared" si="42"/>
         <v>569</v>
       </c>
+      <c r="B570" t="s">
+        <v>109</v>
+      </c>
       <c r="C570">
         <v>1</v>
+      </c>
+      <c r="D570">
+        <v>2</v>
+      </c>
+      <c r="E570" s="1">
+        <v>43141</v>
+      </c>
+      <c r="F570" s="2">
+        <v>2793</v>
+      </c>
+      <c r="G570" s="3">
+        <v>120000</v>
       </c>
       <c r="H570" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>-30000</v>
       </c>
       <c r="I570" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J570">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:10">

--- a/SPP.xlsx
+++ b/SPP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
   <si>
     <t>Count of SPP</t>
   </si>
@@ -350,6 +350,21 @@
   <si>
     <t>MUHAMMAD ABDUL MU'THI</t>
   </si>
+  <si>
+    <t>ABDULLAH BIN RIAN</t>
+  </si>
+  <si>
+    <t>ABDURRAHMAN BIN HENDY</t>
+  </si>
+  <si>
+    <t>ALI AL AUZAI</t>
+  </si>
+  <si>
+    <t>HANAFI BIN SUDADI</t>
+  </si>
+  <si>
+    <t>IBRAHIM AL ATSARI</t>
+  </si>
 </sst>
 </file>
 
@@ -359,9 +374,9 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -380,9 +395,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,6 +406,22 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,15 +441,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,7 +458,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,22 +481,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -487,6 +495,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -496,9 +511,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,16 +532,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,127 +548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,7 +584,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,25 +680,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,6 +739,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -742,11 +777,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,8 +795,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,52 +831,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,7 +844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -847,130 +862,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -18824,9 +18839,9 @@
   <dimension ref="A1:J1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A555" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E572" sqref="E572"/>
+      <selection pane="bottomLeft" activeCell="B606" sqref="B606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -37924,20 +37939,35 @@
         <f t="shared" si="42"/>
         <v>570</v>
       </c>
+      <c r="B571" t="s">
+        <v>110</v>
+      </c>
       <c r="C571">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D571">
+        <v>7</v>
+      </c>
+      <c r="E571" s="1">
+        <v>42987</v>
+      </c>
+      <c r="F571" s="2">
+        <v>2378</v>
+      </c>
+      <c r="G571" s="3">
+        <v>150000</v>
       </c>
       <c r="H571" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I571" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J571">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="572" spans="1:10">
@@ -37945,20 +37975,35 @@
         <f t="shared" si="42"/>
         <v>571</v>
       </c>
+      <c r="B572" t="s">
+        <v>110</v>
+      </c>
       <c r="C572">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D572">
+        <v>8</v>
+      </c>
+      <c r="E572" s="1">
+        <v>42987</v>
+      </c>
+      <c r="F572" s="2">
+        <v>2378</v>
+      </c>
+      <c r="G572" s="3">
+        <v>150000</v>
       </c>
       <c r="H572" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I572" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J572">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="573" spans="1:10">
@@ -37966,20 +38011,35 @@
         <f t="shared" si="42"/>
         <v>572</v>
       </c>
+      <c r="B573" t="s">
+        <v>110</v>
+      </c>
       <c r="C573">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D573">
+        <v>9</v>
+      </c>
+      <c r="E573" s="1">
+        <v>42987</v>
+      </c>
+      <c r="F573" s="2">
+        <v>2378</v>
+      </c>
+      <c r="G573" s="3">
+        <v>150000</v>
       </c>
       <c r="H573" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I573" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J573">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="574" spans="1:10">
@@ -37987,20 +38047,35 @@
         <f t="shared" si="42"/>
         <v>573</v>
       </c>
+      <c r="B574" t="s">
+        <v>110</v>
+      </c>
       <c r="C574">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D574">
+        <v>10</v>
+      </c>
+      <c r="E574" s="1">
+        <v>43015</v>
+      </c>
+      <c r="F574" s="2">
+        <v>2507</v>
+      </c>
+      <c r="G574" s="3">
+        <v>150000</v>
       </c>
       <c r="H574" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I574" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J574">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="575" spans="1:10">
@@ -38008,20 +38083,35 @@
         <f t="shared" si="42"/>
         <v>574</v>
       </c>
+      <c r="B575" t="s">
+        <v>110</v>
+      </c>
       <c r="C575">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D575">
+        <v>11</v>
+      </c>
+      <c r="E575" s="1">
+        <v>43057</v>
+      </c>
+      <c r="F575" s="2">
+        <v>2581</v>
+      </c>
+      <c r="G575" s="3">
+        <v>150000</v>
       </c>
       <c r="H575" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I575" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J575">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="576" spans="1:10">
@@ -38029,16 +38119,31 @@
         <f t="shared" si="42"/>
         <v>575</v>
       </c>
+      <c r="B576" t="s">
+        <v>110</v>
+      </c>
       <c r="C576">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D576">
+        <v>12</v>
+      </c>
+      <c r="E576" s="1">
+        <v>43104</v>
+      </c>
+      <c r="F576" s="2">
+        <v>2733</v>
+      </c>
+      <c r="G576" s="3">
+        <v>150000</v>
       </c>
       <c r="H576" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I576" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J576">
         <f t="shared" si="44"/>
@@ -38050,20 +38155,35 @@
         <f t="shared" si="42"/>
         <v>576</v>
       </c>
+      <c r="B577" t="s">
+        <v>111</v>
+      </c>
       <c r="C577">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D577">
+        <v>7</v>
+      </c>
+      <c r="E577" s="1">
+        <v>42931</v>
+      </c>
+      <c r="F577" s="2">
+        <v>1212</v>
+      </c>
+      <c r="G577" s="3">
+        <v>150000</v>
       </c>
       <c r="H577" s="3">
         <f t="shared" si="41"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I577" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J577">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="578" spans="1:10">
@@ -38071,20 +38191,35 @@
         <f t="shared" si="42"/>
         <v>577</v>
       </c>
+      <c r="B578" t="s">
+        <v>111</v>
+      </c>
       <c r="C578">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D578">
+        <v>8</v>
+      </c>
+      <c r="E578" s="1">
+        <v>42952</v>
+      </c>
+      <c r="F578" s="2">
+        <v>2262</v>
+      </c>
+      <c r="G578" s="3">
+        <v>150000</v>
       </c>
       <c r="H578" s="3">
         <f t="shared" ref="H578:H641" si="45">G578-150000</f>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I578" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J578">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="579" spans="1:10">
@@ -38092,20 +38227,35 @@
         <f t="shared" ref="A579:A642" si="46">A578+1</f>
         <v>578</v>
       </c>
+      <c r="B579" t="s">
+        <v>111</v>
+      </c>
       <c r="C579">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D579">
+        <v>9</v>
+      </c>
+      <c r="E579" s="1">
+        <v>42987</v>
+      </c>
+      <c r="F579" s="2">
+        <v>2374</v>
+      </c>
+      <c r="G579" s="3">
+        <v>150000</v>
       </c>
       <c r="H579" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I579" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J579">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="580" spans="1:10">
@@ -38113,20 +38263,35 @@
         <f t="shared" si="46"/>
         <v>579</v>
       </c>
+      <c r="B580" t="s">
+        <v>111</v>
+      </c>
       <c r="C580">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D580">
+        <v>10</v>
+      </c>
+      <c r="E580" s="1">
+        <v>43015</v>
+      </c>
+      <c r="F580" s="2">
+        <v>2506</v>
+      </c>
+      <c r="G580" s="3">
+        <v>150000</v>
       </c>
       <c r="H580" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I580" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J580">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="581" spans="1:10">
@@ -38134,20 +38299,35 @@
         <f t="shared" si="46"/>
         <v>580</v>
       </c>
+      <c r="B581" t="s">
+        <v>111</v>
+      </c>
       <c r="C581">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D581">
+        <v>11</v>
+      </c>
+      <c r="E581" s="1">
+        <v>43050</v>
+      </c>
+      <c r="F581" s="2">
+        <v>2564</v>
+      </c>
+      <c r="G581" s="3">
+        <v>150000</v>
       </c>
       <c r="H581" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I581" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J581">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="582" spans="1:10">
@@ -38155,20 +38335,35 @@
         <f t="shared" si="46"/>
         <v>581</v>
       </c>
+      <c r="B582" t="s">
+        <v>111</v>
+      </c>
       <c r="C582">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D582">
+        <v>12</v>
+      </c>
+      <c r="E582" s="1">
+        <v>43071</v>
+      </c>
+      <c r="F582" s="2">
+        <v>2616</v>
+      </c>
+      <c r="G582" s="3">
+        <v>150000</v>
       </c>
       <c r="H582" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I582" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J582">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="583" spans="1:10">
@@ -38176,20 +38371,35 @@
         <f t="shared" si="46"/>
         <v>582</v>
       </c>
+      <c r="B583" t="s">
+        <v>112</v>
+      </c>
       <c r="C583">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D583">
+        <v>7</v>
+      </c>
+      <c r="E583" s="1">
+        <v>42938</v>
+      </c>
+      <c r="F583" s="2">
+        <v>2253</v>
+      </c>
+      <c r="G583" s="3">
+        <v>160000</v>
       </c>
       <c r="H583" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>10000</v>
       </c>
       <c r="I583" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J583">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="584" spans="1:10">
@@ -38197,20 +38407,35 @@
         <f t="shared" si="46"/>
         <v>583</v>
       </c>
+      <c r="B584" t="s">
+        <v>112</v>
+      </c>
       <c r="C584">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D584">
+        <v>8</v>
+      </c>
+      <c r="E584" s="1">
+        <v>42938</v>
+      </c>
+      <c r="F584" s="2">
+        <v>2253</v>
+      </c>
+      <c r="G584" s="3">
+        <v>160000</v>
       </c>
       <c r="H584" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>10000</v>
       </c>
       <c r="I584" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J584">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="585" spans="1:10">
@@ -38218,20 +38443,35 @@
         <f t="shared" si="46"/>
         <v>584</v>
       </c>
+      <c r="B585" t="s">
+        <v>112</v>
+      </c>
       <c r="C585">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D585">
+        <v>9</v>
+      </c>
+      <c r="E585" s="1">
+        <v>42979</v>
+      </c>
+      <c r="F585" s="2">
+        <v>2338</v>
+      </c>
+      <c r="G585" s="3">
+        <v>160000</v>
       </c>
       <c r="H585" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>10000</v>
       </c>
       <c r="I585" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J585">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="586" spans="1:10">
@@ -38239,20 +38479,35 @@
         <f t="shared" si="46"/>
         <v>585</v>
       </c>
+      <c r="B586" t="s">
+        <v>112</v>
+      </c>
       <c r="C586">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D586">
+        <v>10</v>
+      </c>
+      <c r="E586" s="1">
+        <v>43009</v>
+      </c>
+      <c r="F586" s="2">
+        <v>2441</v>
+      </c>
+      <c r="G586" s="3">
+        <v>160000</v>
       </c>
       <c r="H586" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>10000</v>
       </c>
       <c r="I586" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J586">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="587" spans="1:10">
@@ -38260,20 +38515,35 @@
         <f t="shared" si="46"/>
         <v>586</v>
       </c>
+      <c r="B587" t="s">
+        <v>112</v>
+      </c>
       <c r="C587">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D587">
+        <v>11</v>
+      </c>
+      <c r="E587" s="1">
+        <v>43040</v>
+      </c>
+      <c r="F587" s="2">
+        <v>2464</v>
+      </c>
+      <c r="G587" s="3">
+        <v>160000</v>
       </c>
       <c r="H587" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>10000</v>
       </c>
       <c r="I587" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J587">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="588" spans="1:10">
@@ -38281,20 +38551,35 @@
         <f t="shared" si="46"/>
         <v>587</v>
       </c>
+      <c r="B588" t="s">
+        <v>112</v>
+      </c>
       <c r="C588">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D588">
+        <v>12</v>
+      </c>
+      <c r="E588" s="1">
+        <v>43064</v>
+      </c>
+      <c r="F588" s="2">
+        <v>2595</v>
+      </c>
+      <c r="G588" s="3">
+        <v>160000</v>
       </c>
       <c r="H588" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>10000</v>
       </c>
       <c r="I588" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J588">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="589" spans="1:10">
@@ -38302,20 +38587,35 @@
         <f t="shared" si="46"/>
         <v>588</v>
       </c>
+      <c r="B589" t="s">
+        <v>112</v>
+      </c>
       <c r="C589">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D589">
+        <v>1</v>
+      </c>
+      <c r="E589" s="1">
+        <v>43092</v>
+      </c>
+      <c r="F589" s="2">
+        <v>2676</v>
+      </c>
+      <c r="G589" s="3">
+        <v>160000</v>
       </c>
       <c r="H589" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>10000</v>
       </c>
       <c r="I589" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J589">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="590" spans="1:10">
@@ -38323,20 +38623,35 @@
         <f t="shared" si="46"/>
         <v>589</v>
       </c>
+      <c r="B590" t="s">
+        <v>112</v>
+      </c>
       <c r="C590">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D590">
+        <v>2</v>
+      </c>
+      <c r="E590" s="1">
+        <v>43132</v>
+      </c>
+      <c r="F590" s="2">
+        <v>2751</v>
+      </c>
+      <c r="G590" s="3">
+        <v>160000</v>
       </c>
       <c r="H590" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>10000</v>
       </c>
       <c r="I590" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J590">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:10">
@@ -38344,20 +38659,35 @@
         <f t="shared" si="46"/>
         <v>590</v>
       </c>
+      <c r="B591" t="s">
+        <v>113</v>
+      </c>
       <c r="C591">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D591">
+        <v>7</v>
+      </c>
+      <c r="E591" s="1">
+        <v>42936</v>
+      </c>
+      <c r="F591" s="2">
+        <v>1231</v>
+      </c>
+      <c r="G591" s="3">
+        <v>150000</v>
       </c>
       <c r="H591" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I591" s="4">
         <f t="shared" si="43"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J591">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="592" spans="1:10">
@@ -38365,20 +38695,35 @@
         <f t="shared" si="46"/>
         <v>591</v>
       </c>
+      <c r="B592" t="s">
+        <v>113</v>
+      </c>
       <c r="C592">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D592">
+        <v>8</v>
+      </c>
+      <c r="E592" s="1">
+        <v>43084</v>
+      </c>
+      <c r="F592" s="2">
+        <v>2303</v>
+      </c>
+      <c r="G592" s="3">
+        <v>150000</v>
       </c>
       <c r="H592" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I592" s="4">
         <f t="shared" ref="I592:I655" si="47">YEAR(E592)</f>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J592">
         <f t="shared" ref="J592:J655" si="48">MONTH(E592)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="593" spans="1:10">
@@ -38386,20 +38731,35 @@
         <f t="shared" si="46"/>
         <v>592</v>
       </c>
+      <c r="B593" t="s">
+        <v>113</v>
+      </c>
       <c r="C593">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D593">
+        <v>9</v>
+      </c>
+      <c r="E593" s="1">
+        <v>42984</v>
+      </c>
+      <c r="F593" s="2">
+        <v>2347</v>
+      </c>
+      <c r="G593" s="3">
+        <v>150000</v>
       </c>
       <c r="H593" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I593" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J593">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="594" spans="1:10">
@@ -38407,20 +38767,35 @@
         <f t="shared" si="46"/>
         <v>593</v>
       </c>
+      <c r="B594" t="s">
+        <v>113</v>
+      </c>
       <c r="C594">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D594">
+        <v>10</v>
+      </c>
+      <c r="E594" s="1">
+        <v>43022</v>
+      </c>
+      <c r="F594" s="2">
+        <v>2543</v>
+      </c>
+      <c r="G594" s="3">
+        <v>150000</v>
       </c>
       <c r="H594" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I594" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J594">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="595" spans="1:10">
@@ -38428,20 +38803,35 @@
         <f t="shared" si="46"/>
         <v>594</v>
       </c>
+      <c r="B595" t="s">
+        <v>113</v>
+      </c>
       <c r="C595">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D595">
+        <v>11</v>
+      </c>
+      <c r="E595" s="1">
+        <v>43052</v>
+      </c>
+      <c r="F595" s="2">
+        <v>2594</v>
+      </c>
+      <c r="G595" s="3">
+        <v>150000</v>
       </c>
       <c r="H595" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I595" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J595">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="596" spans="1:10">
@@ -38449,20 +38839,35 @@
         <f t="shared" si="46"/>
         <v>595</v>
       </c>
+      <c r="B596" t="s">
+        <v>113</v>
+      </c>
       <c r="C596">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D596">
+        <v>12</v>
+      </c>
+      <c r="E596" s="1">
+        <v>43085</v>
+      </c>
+      <c r="F596" s="2">
+        <v>2652</v>
+      </c>
+      <c r="G596" s="3">
+        <v>150000</v>
       </c>
       <c r="H596" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I596" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J596">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="597" spans="1:10">
@@ -38470,20 +38875,35 @@
         <f t="shared" si="46"/>
         <v>596</v>
       </c>
+      <c r="B597" t="s">
+        <v>113</v>
+      </c>
       <c r="C597">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D597">
+        <v>1</v>
+      </c>
+      <c r="E597" s="1">
+        <v>43141</v>
+      </c>
+      <c r="F597" s="2">
+        <v>2798</v>
+      </c>
+      <c r="G597" s="3">
+        <v>150000</v>
       </c>
       <c r="H597" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I597" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J597">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:10">
@@ -38491,20 +38911,35 @@
         <f t="shared" si="46"/>
         <v>597</v>
       </c>
+      <c r="B598" t="s">
+        <v>113</v>
+      </c>
       <c r="C598">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D598">
+        <v>2</v>
+      </c>
+      <c r="E598" s="1">
+        <v>43141</v>
+      </c>
+      <c r="F598" s="2">
+        <v>2798</v>
+      </c>
+      <c r="G598" s="3">
+        <v>150000</v>
       </c>
       <c r="H598" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I598" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J598">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:10">
@@ -38512,20 +38947,35 @@
         <f t="shared" si="46"/>
         <v>598</v>
       </c>
+      <c r="B599" t="s">
+        <v>114</v>
+      </c>
       <c r="C599">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D599">
+        <v>7</v>
+      </c>
+      <c r="E599" s="1">
+        <v>42967</v>
+      </c>
+      <c r="F599" s="2">
+        <v>2343</v>
+      </c>
+      <c r="G599" s="3">
+        <v>160000</v>
       </c>
       <c r="H599" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>10000</v>
       </c>
       <c r="I599" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J599">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="600" spans="1:10">
@@ -38533,20 +38983,35 @@
         <f t="shared" si="46"/>
         <v>599</v>
       </c>
+      <c r="B600" t="s">
+        <v>114</v>
+      </c>
       <c r="C600">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D600">
+        <v>8</v>
+      </c>
+      <c r="E600" s="1">
+        <v>42967</v>
+      </c>
+      <c r="F600" s="2">
+        <v>2343</v>
+      </c>
+      <c r="G600" s="3">
+        <v>160000</v>
       </c>
       <c r="H600" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>10000</v>
       </c>
       <c r="I600" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J600">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="601" spans="1:10">
@@ -38554,20 +39019,35 @@
         <f t="shared" si="46"/>
         <v>600</v>
       </c>
+      <c r="B601" t="s">
+        <v>114</v>
+      </c>
       <c r="C601">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D601">
+        <v>9</v>
+      </c>
+      <c r="E601" s="1">
+        <v>42994</v>
+      </c>
+      <c r="F601" s="2">
+        <v>2903</v>
+      </c>
+      <c r="G601" s="3">
+        <v>160000</v>
       </c>
       <c r="H601" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>10000</v>
       </c>
       <c r="I601" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J601">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="602" spans="1:10">
@@ -38575,20 +39055,35 @@
         <f t="shared" si="46"/>
         <v>601</v>
       </c>
+      <c r="B602" t="s">
+        <v>114</v>
+      </c>
       <c r="C602">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D602">
+        <v>10</v>
+      </c>
+      <c r="E602" s="1">
+        <v>43022</v>
+      </c>
+      <c r="F602" s="2">
+        <v>2534</v>
+      </c>
+      <c r="G602" s="3">
+        <v>160000</v>
       </c>
       <c r="H602" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>10000</v>
       </c>
       <c r="I602" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J602">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="603" spans="1:10">
@@ -38596,20 +39091,35 @@
         <f t="shared" si="46"/>
         <v>602</v>
       </c>
+      <c r="B603" t="s">
+        <v>114</v>
+      </c>
       <c r="C603">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D603">
+        <v>11</v>
+      </c>
+      <c r="E603" s="1">
+        <v>43050</v>
+      </c>
+      <c r="F603" s="2">
+        <v>2551</v>
+      </c>
+      <c r="G603" s="3">
+        <v>160000</v>
       </c>
       <c r="H603" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>10000</v>
       </c>
       <c r="I603" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J603">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="604" spans="1:10">
@@ -38617,20 +39127,35 @@
         <f t="shared" si="46"/>
         <v>603</v>
       </c>
+      <c r="B604" t="s">
+        <v>114</v>
+      </c>
       <c r="C604">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D604">
+        <v>12</v>
+      </c>
+      <c r="E604" s="1">
+        <v>43092</v>
+      </c>
+      <c r="F604" s="2">
+        <v>2690</v>
+      </c>
+      <c r="G604" s="3">
+        <v>160000</v>
       </c>
       <c r="H604" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>10000</v>
       </c>
       <c r="I604" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J604">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="605" spans="1:10">
@@ -38638,20 +39163,35 @@
         <f t="shared" si="46"/>
         <v>604</v>
       </c>
+      <c r="B605" t="s">
+        <v>114</v>
+      </c>
       <c r="C605">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D605">
+        <v>1</v>
+      </c>
+      <c r="E605" s="1">
+        <v>43141</v>
+      </c>
+      <c r="F605" s="2">
+        <v>2795</v>
+      </c>
+      <c r="G605" s="3">
+        <v>160000</v>
       </c>
       <c r="H605" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>10000</v>
       </c>
       <c r="I605" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J605">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:10">
@@ -38659,20 +39199,35 @@
         <f t="shared" si="46"/>
         <v>605</v>
       </c>
+      <c r="B606" t="s">
+        <v>114</v>
+      </c>
       <c r="C606">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D606">
+        <v>2</v>
+      </c>
+      <c r="E606" s="1">
+        <v>43141</v>
+      </c>
+      <c r="F606" s="2">
+        <v>2795</v>
+      </c>
+      <c r="G606" s="3">
+        <v>160000</v>
       </c>
       <c r="H606" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>10000</v>
       </c>
       <c r="I606" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J606">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:10">
@@ -38681,7 +39236,7 @@
         <v>606</v>
       </c>
       <c r="C607">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H607" s="3">
         <f t="shared" si="45"/>
@@ -38702,7 +39257,7 @@
         <v>607</v>
       </c>
       <c r="C608">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H608" s="3">
         <f t="shared" si="45"/>
@@ -38723,7 +39278,7 @@
         <v>608</v>
       </c>
       <c r="C609">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H609" s="3">
         <f t="shared" si="45"/>
@@ -38744,7 +39299,7 @@
         <v>609</v>
       </c>
       <c r="C610">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H610" s="3">
         <f t="shared" si="45"/>
@@ -38765,7 +39320,7 @@
         <v>610</v>
       </c>
       <c r="C611">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H611" s="3">
         <f t="shared" si="45"/>
@@ -38786,7 +39341,7 @@
         <v>611</v>
       </c>
       <c r="C612">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H612" s="3">
         <f t="shared" si="45"/>
@@ -38807,7 +39362,7 @@
         <v>612</v>
       </c>
       <c r="C613">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H613" s="3">
         <f t="shared" si="45"/>
@@ -38828,7 +39383,7 @@
         <v>613</v>
       </c>
       <c r="C614">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H614" s="3">
         <f t="shared" si="45"/>
@@ -38849,7 +39404,7 @@
         <v>614</v>
       </c>
       <c r="C615">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H615" s="3">
         <f t="shared" si="45"/>
@@ -38870,7 +39425,7 @@
         <v>615</v>
       </c>
       <c r="C616">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H616" s="3">
         <f t="shared" si="45"/>
@@ -38891,7 +39446,7 @@
         <v>616</v>
       </c>
       <c r="C617">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H617" s="3">
         <f t="shared" si="45"/>
@@ -38912,7 +39467,7 @@
         <v>617</v>
       </c>
       <c r="C618">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H618" s="3">
         <f t="shared" si="45"/>
@@ -38933,7 +39488,7 @@
         <v>618</v>
       </c>
       <c r="C619">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H619" s="3">
         <f t="shared" si="45"/>
@@ -38954,7 +39509,7 @@
         <v>619</v>
       </c>
       <c r="C620">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H620" s="3">
         <f t="shared" si="45"/>
@@ -38975,7 +39530,7 @@
         <v>620</v>
       </c>
       <c r="C621">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H621" s="3">
         <f t="shared" si="45"/>
@@ -38996,7 +39551,7 @@
         <v>621</v>
       </c>
       <c r="C622">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H622" s="3">
         <f t="shared" si="45"/>
@@ -39017,7 +39572,7 @@
         <v>622</v>
       </c>
       <c r="C623">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H623" s="3">
         <f t="shared" si="45"/>
@@ -39038,7 +39593,7 @@
         <v>623</v>
       </c>
       <c r="C624">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H624" s="3">
         <f t="shared" si="45"/>
@@ -39059,7 +39614,7 @@
         <v>624</v>
       </c>
       <c r="C625">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H625" s="3">
         <f t="shared" si="45"/>
@@ -39080,7 +39635,7 @@
         <v>625</v>
       </c>
       <c r="C626">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H626" s="3">
         <f t="shared" si="45"/>
@@ -39101,7 +39656,7 @@
         <v>626</v>
       </c>
       <c r="C627">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H627" s="3">
         <f t="shared" si="45"/>
@@ -39122,7 +39677,7 @@
         <v>627</v>
       </c>
       <c r="C628">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H628" s="3">
         <f t="shared" si="45"/>
@@ -39143,7 +39698,7 @@
         <v>628</v>
       </c>
       <c r="C629">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H629" s="3">
         <f t="shared" si="45"/>
@@ -39164,7 +39719,7 @@
         <v>629</v>
       </c>
       <c r="C630">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H630" s="3">
         <f t="shared" si="45"/>
@@ -39185,7 +39740,7 @@
         <v>630</v>
       </c>
       <c r="C631">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H631" s="3">
         <f t="shared" si="45"/>
@@ -39206,7 +39761,7 @@
         <v>631</v>
       </c>
       <c r="C632">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H632" s="3">
         <f t="shared" si="45"/>
@@ -39227,7 +39782,7 @@
         <v>632</v>
       </c>
       <c r="C633">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H633" s="3">
         <f t="shared" si="45"/>
@@ -39248,7 +39803,7 @@
         <v>633</v>
       </c>
       <c r="C634">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H634" s="3">
         <f t="shared" si="45"/>
@@ -39269,7 +39824,7 @@
         <v>634</v>
       </c>
       <c r="C635">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H635" s="3">
         <f t="shared" si="45"/>
@@ -39290,7 +39845,7 @@
         <v>635</v>
       </c>
       <c r="C636">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H636" s="3">
         <f t="shared" si="45"/>
@@ -39311,7 +39866,7 @@
         <v>636</v>
       </c>
       <c r="C637">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H637" s="3">
         <f t="shared" si="45"/>
@@ -39332,7 +39887,7 @@
         <v>637</v>
       </c>
       <c r="C638">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H638" s="3">
         <f t="shared" si="45"/>
@@ -39353,7 +39908,7 @@
         <v>638</v>
       </c>
       <c r="C639">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H639" s="3">
         <f t="shared" si="45"/>
@@ -39374,7 +39929,7 @@
         <v>639</v>
       </c>
       <c r="C640">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H640" s="3">
         <f t="shared" si="45"/>
@@ -39395,7 +39950,7 @@
         <v>640</v>
       </c>
       <c r="C641">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H641" s="3">
         <f t="shared" si="45"/>
@@ -39416,7 +39971,7 @@
         <v>641</v>
       </c>
       <c r="C642">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H642" s="3">
         <f t="shared" ref="H642:H705" si="49">G642-150000</f>
@@ -39437,7 +39992,7 @@
         <v>642</v>
       </c>
       <c r="C643">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H643" s="3">
         <f t="shared" si="49"/>
@@ -39458,7 +40013,7 @@
         <v>643</v>
       </c>
       <c r="C644">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H644" s="3">
         <f t="shared" si="49"/>
@@ -39479,7 +40034,7 @@
         <v>644</v>
       </c>
       <c r="C645">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H645" s="3">
         <f t="shared" si="49"/>
@@ -39500,7 +40055,7 @@
         <v>645</v>
       </c>
       <c r="C646">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H646" s="3">
         <f t="shared" si="49"/>
@@ -39521,7 +40076,7 @@
         <v>646</v>
       </c>
       <c r="C647">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H647" s="3">
         <f t="shared" si="49"/>
@@ -39542,7 +40097,7 @@
         <v>647</v>
       </c>
       <c r="C648">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H648" s="3">
         <f t="shared" si="49"/>
@@ -39563,7 +40118,7 @@
         <v>648</v>
       </c>
       <c r="C649">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H649" s="3">
         <f t="shared" si="49"/>
@@ -39584,7 +40139,7 @@
         <v>649</v>
       </c>
       <c r="C650">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H650" s="3">
         <f t="shared" si="49"/>
@@ -39605,7 +40160,7 @@
         <v>650</v>
       </c>
       <c r="C651">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H651" s="3">
         <f t="shared" si="49"/>
@@ -39626,7 +40181,7 @@
         <v>651</v>
       </c>
       <c r="C652">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H652" s="3">
         <f t="shared" si="49"/>
@@ -39647,7 +40202,7 @@
         <v>652</v>
       </c>
       <c r="C653">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H653" s="3">
         <f t="shared" si="49"/>
@@ -39668,7 +40223,7 @@
         <v>653</v>
       </c>
       <c r="C654">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H654" s="3">
         <f t="shared" si="49"/>
@@ -39689,7 +40244,7 @@
         <v>654</v>
       </c>
       <c r="C655">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H655" s="3">
         <f t="shared" si="49"/>
@@ -39710,7 +40265,7 @@
         <v>655</v>
       </c>
       <c r="C656">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H656" s="3">
         <f t="shared" si="49"/>
@@ -39731,7 +40286,7 @@
         <v>656</v>
       </c>
       <c r="C657">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H657" s="3">
         <f t="shared" si="49"/>
@@ -39752,7 +40307,7 @@
         <v>657</v>
       </c>
       <c r="C658">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H658" s="3">
         <f t="shared" si="49"/>
@@ -39773,7 +40328,7 @@
         <v>658</v>
       </c>
       <c r="C659">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H659" s="3">
         <f t="shared" si="49"/>
@@ -39794,7 +40349,7 @@
         <v>659</v>
       </c>
       <c r="C660">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H660" s="3">
         <f t="shared" si="49"/>
@@ -39815,7 +40370,7 @@
         <v>660</v>
       </c>
       <c r="C661">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H661" s="3">
         <f t="shared" si="49"/>
@@ -39836,7 +40391,7 @@
         <v>661</v>
       </c>
       <c r="C662">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H662" s="3">
         <f t="shared" si="49"/>
@@ -39857,7 +40412,7 @@
         <v>662</v>
       </c>
       <c r="C663">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H663" s="3">
         <f t="shared" si="49"/>
@@ -39878,7 +40433,7 @@
         <v>663</v>
       </c>
       <c r="C664">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H664" s="3">
         <f t="shared" si="49"/>
@@ -39899,7 +40454,7 @@
         <v>664</v>
       </c>
       <c r="C665">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H665" s="3">
         <f t="shared" si="49"/>
@@ -39920,7 +40475,7 @@
         <v>665</v>
       </c>
       <c r="C666">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H666" s="3">
         <f t="shared" si="49"/>
@@ -39941,7 +40496,7 @@
         <v>666</v>
       </c>
       <c r="C667">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H667" s="3">
         <f t="shared" si="49"/>
@@ -39962,7 +40517,7 @@
         <v>667</v>
       </c>
       <c r="C668">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H668" s="3">
         <f t="shared" si="49"/>
@@ -39983,7 +40538,7 @@
         <v>668</v>
       </c>
       <c r="C669">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H669" s="3">
         <f t="shared" si="49"/>
@@ -40004,7 +40559,7 @@
         <v>669</v>
       </c>
       <c r="C670">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H670" s="3">
         <f t="shared" si="49"/>
@@ -40025,7 +40580,7 @@
         <v>670</v>
       </c>
       <c r="C671">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H671" s="3">
         <f t="shared" si="49"/>
@@ -40046,7 +40601,7 @@
         <v>671</v>
       </c>
       <c r="C672">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H672" s="3">
         <f t="shared" si="49"/>
@@ -40067,7 +40622,7 @@
         <v>672</v>
       </c>
       <c r="C673">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H673" s="3">
         <f t="shared" si="49"/>
@@ -40088,7 +40643,7 @@
         <v>673</v>
       </c>
       <c r="C674">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H674" s="3">
         <f t="shared" si="49"/>
@@ -40109,7 +40664,7 @@
         <v>674</v>
       </c>
       <c r="C675">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H675" s="3">
         <f t="shared" si="49"/>
@@ -40130,7 +40685,7 @@
         <v>675</v>
       </c>
       <c r="C676">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H676" s="3">
         <f t="shared" si="49"/>
@@ -40151,7 +40706,7 @@
         <v>676</v>
       </c>
       <c r="C677">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H677" s="3">
         <f t="shared" si="49"/>
@@ -40172,7 +40727,7 @@
         <v>677</v>
       </c>
       <c r="C678">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H678" s="3">
         <f t="shared" si="49"/>
@@ -40193,7 +40748,7 @@
         <v>678</v>
       </c>
       <c r="C679">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H679" s="3">
         <f t="shared" si="49"/>
@@ -40214,7 +40769,7 @@
         <v>679</v>
       </c>
       <c r="C680">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H680" s="3">
         <f t="shared" si="49"/>
@@ -40235,7 +40790,7 @@
         <v>680</v>
       </c>
       <c r="C681">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H681" s="3">
         <f t="shared" si="49"/>
@@ -40256,7 +40811,7 @@
         <v>681</v>
       </c>
       <c r="C682">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H682" s="3">
         <f t="shared" si="49"/>
@@ -40277,7 +40832,7 @@
         <v>682</v>
       </c>
       <c r="C683">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H683" s="3">
         <f t="shared" si="49"/>
@@ -40298,7 +40853,7 @@
         <v>683</v>
       </c>
       <c r="C684">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H684" s="3">
         <f t="shared" si="49"/>
@@ -40319,7 +40874,7 @@
         <v>684</v>
       </c>
       <c r="C685">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H685" s="3">
         <f t="shared" si="49"/>
@@ -40340,7 +40895,7 @@
         <v>685</v>
       </c>
       <c r="C686">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H686" s="3">
         <f t="shared" si="49"/>
@@ -40361,7 +40916,7 @@
         <v>686</v>
       </c>
       <c r="C687">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H687" s="3">
         <f t="shared" si="49"/>
@@ -40382,7 +40937,7 @@
         <v>687</v>
       </c>
       <c r="C688">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H688" s="3">
         <f t="shared" si="49"/>
@@ -40403,7 +40958,7 @@
         <v>688</v>
       </c>
       <c r="C689">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H689" s="3">
         <f t="shared" si="49"/>
@@ -40424,7 +40979,7 @@
         <v>689</v>
       </c>
       <c r="C690">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H690" s="3">
         <f t="shared" si="49"/>
@@ -40445,7 +41000,7 @@
         <v>690</v>
       </c>
       <c r="C691">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H691" s="3">
         <f t="shared" si="49"/>
@@ -40466,7 +41021,7 @@
         <v>691</v>
       </c>
       <c r="C692">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H692" s="3">
         <f t="shared" si="49"/>
@@ -40487,7 +41042,7 @@
         <v>692</v>
       </c>
       <c r="C693">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H693" s="3">
         <f t="shared" si="49"/>
@@ -40508,7 +41063,7 @@
         <v>693</v>
       </c>
       <c r="C694">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H694" s="3">
         <f t="shared" si="49"/>
@@ -40529,7 +41084,7 @@
         <v>694</v>
       </c>
       <c r="C695">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H695" s="3">
         <f t="shared" si="49"/>
@@ -40550,7 +41105,7 @@
         <v>695</v>
       </c>
       <c r="C696">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H696" s="3">
         <f t="shared" si="49"/>
@@ -40571,7 +41126,7 @@
         <v>696</v>
       </c>
       <c r="C697">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H697" s="3">
         <f t="shared" si="49"/>
@@ -40592,7 +41147,7 @@
         <v>697</v>
       </c>
       <c r="C698">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H698" s="3">
         <f t="shared" si="49"/>
@@ -40613,7 +41168,7 @@
         <v>698</v>
       </c>
       <c r="C699">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H699" s="3">
         <f t="shared" si="49"/>
@@ -40634,7 +41189,7 @@
         <v>699</v>
       </c>
       <c r="C700">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H700" s="3">
         <f t="shared" si="49"/>
@@ -40655,7 +41210,7 @@
         <v>700</v>
       </c>
       <c r="C701">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H701" s="3">
         <f t="shared" si="49"/>
@@ -40676,7 +41231,7 @@
         <v>701</v>
       </c>
       <c r="C702">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H702" s="3">
         <f t="shared" si="49"/>
@@ -40697,7 +41252,7 @@
         <v>702</v>
       </c>
       <c r="C703">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H703" s="3">
         <f t="shared" si="49"/>
@@ -40718,7 +41273,7 @@
         <v>703</v>
       </c>
       <c r="C704">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H704" s="3">
         <f t="shared" si="49"/>
@@ -40739,7 +41294,7 @@
         <v>704</v>
       </c>
       <c r="C705">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H705" s="3">
         <f t="shared" si="49"/>
@@ -40760,7 +41315,7 @@
         <v>705</v>
       </c>
       <c r="C706">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H706" s="3">
         <f t="shared" ref="H706:H769" si="53">G706-150000</f>
@@ -40781,7 +41336,7 @@
         <v>706</v>
       </c>
       <c r="C707">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H707" s="3">
         <f t="shared" si="53"/>
@@ -40802,7 +41357,7 @@
         <v>707</v>
       </c>
       <c r="C708">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H708" s="3">
         <f t="shared" si="53"/>
@@ -40823,7 +41378,7 @@
         <v>708</v>
       </c>
       <c r="C709">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H709" s="3">
         <f t="shared" si="53"/>
@@ -40844,7 +41399,7 @@
         <v>709</v>
       </c>
       <c r="C710">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H710" s="3">
         <f t="shared" si="53"/>
@@ -40865,7 +41420,7 @@
         <v>710</v>
       </c>
       <c r="C711">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H711" s="3">
         <f t="shared" si="53"/>
@@ -40886,7 +41441,7 @@
         <v>711</v>
       </c>
       <c r="C712">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H712" s="3">
         <f t="shared" si="53"/>
@@ -40907,7 +41462,7 @@
         <v>712</v>
       </c>
       <c r="C713">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H713" s="3">
         <f t="shared" si="53"/>
@@ -40928,7 +41483,7 @@
         <v>713</v>
       </c>
       <c r="C714">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H714" s="3">
         <f t="shared" si="53"/>
@@ -40949,7 +41504,7 @@
         <v>714</v>
       </c>
       <c r="C715">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H715" s="3">
         <f t="shared" si="53"/>
@@ -40970,7 +41525,7 @@
         <v>715</v>
       </c>
       <c r="C716">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H716" s="3">
         <f t="shared" si="53"/>
@@ -40991,7 +41546,7 @@
         <v>716</v>
       </c>
       <c r="C717">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H717" s="3">
         <f t="shared" si="53"/>
@@ -41012,7 +41567,7 @@
         <v>717</v>
       </c>
       <c r="C718">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H718" s="3">
         <f t="shared" si="53"/>
@@ -41033,7 +41588,7 @@
         <v>718</v>
       </c>
       <c r="C719">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H719" s="3">
         <f t="shared" si="53"/>
@@ -41054,7 +41609,7 @@
         <v>719</v>
       </c>
       <c r="C720">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H720" s="3">
         <f t="shared" si="53"/>
@@ -41075,7 +41630,7 @@
         <v>720</v>
       </c>
       <c r="C721">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H721" s="3">
         <f t="shared" si="53"/>
@@ -41096,7 +41651,7 @@
         <v>721</v>
       </c>
       <c r="C722">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H722" s="3">
         <f t="shared" si="53"/>
@@ -41117,7 +41672,7 @@
         <v>722</v>
       </c>
       <c r="C723">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H723" s="3">
         <f t="shared" si="53"/>
@@ -41138,7 +41693,7 @@
         <v>723</v>
       </c>
       <c r="C724">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H724" s="3">
         <f t="shared" si="53"/>
@@ -41159,7 +41714,7 @@
         <v>724</v>
       </c>
       <c r="C725">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H725" s="3">
         <f t="shared" si="53"/>
@@ -41180,7 +41735,7 @@
         <v>725</v>
       </c>
       <c r="C726">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H726" s="3">
         <f t="shared" si="53"/>
@@ -41201,7 +41756,7 @@
         <v>726</v>
       </c>
       <c r="C727">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H727" s="3">
         <f t="shared" si="53"/>
@@ -41222,7 +41777,7 @@
         <v>727</v>
       </c>
       <c r="C728">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H728" s="3">
         <f t="shared" si="53"/>
@@ -41243,7 +41798,7 @@
         <v>728</v>
       </c>
       <c r="C729">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H729" s="3">
         <f t="shared" si="53"/>
@@ -41264,7 +41819,7 @@
         <v>729</v>
       </c>
       <c r="C730">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H730" s="3">
         <f t="shared" si="53"/>
@@ -41285,7 +41840,7 @@
         <v>730</v>
       </c>
       <c r="C731">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H731" s="3">
         <f t="shared" si="53"/>
@@ -41306,7 +41861,7 @@
         <v>731</v>
       </c>
       <c r="C732">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H732" s="3">
         <f t="shared" si="53"/>
@@ -41327,7 +41882,7 @@
         <v>732</v>
       </c>
       <c r="C733">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H733" s="3">
         <f t="shared" si="53"/>
@@ -41348,7 +41903,7 @@
         <v>733</v>
       </c>
       <c r="C734">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H734" s="3">
         <f t="shared" si="53"/>
@@ -41369,7 +41924,7 @@
         <v>734</v>
       </c>
       <c r="C735">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H735" s="3">
         <f t="shared" si="53"/>
@@ -41390,7 +41945,7 @@
         <v>735</v>
       </c>
       <c r="C736">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H736" s="3">
         <f t="shared" si="53"/>
@@ -41411,7 +41966,7 @@
         <v>736</v>
       </c>
       <c r="C737">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H737" s="3">
         <f t="shared" si="53"/>
@@ -41432,7 +41987,7 @@
         <v>737</v>
       </c>
       <c r="C738">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H738" s="3">
         <f t="shared" si="53"/>
@@ -41453,7 +42008,7 @@
         <v>738</v>
       </c>
       <c r="C739">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H739" s="3">
         <f t="shared" si="53"/>
@@ -41474,7 +42029,7 @@
         <v>739</v>
       </c>
       <c r="C740">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H740" s="3">
         <f t="shared" si="53"/>
@@ -41495,7 +42050,7 @@
         <v>740</v>
       </c>
       <c r="C741">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H741" s="3">
         <f t="shared" si="53"/>
@@ -41516,7 +42071,7 @@
         <v>741</v>
       </c>
       <c r="C742">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H742" s="3">
         <f t="shared" si="53"/>
@@ -41537,7 +42092,7 @@
         <v>742</v>
       </c>
       <c r="C743">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H743" s="3">
         <f t="shared" si="53"/>
@@ -41558,7 +42113,7 @@
         <v>743</v>
       </c>
       <c r="C744">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H744" s="3">
         <f t="shared" si="53"/>
@@ -41579,7 +42134,7 @@
         <v>744</v>
       </c>
       <c r="C745">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H745" s="3">
         <f t="shared" si="53"/>
@@ -41600,7 +42155,7 @@
         <v>745</v>
       </c>
       <c r="C746">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H746" s="3">
         <f t="shared" si="53"/>
@@ -41621,7 +42176,7 @@
         <v>746</v>
       </c>
       <c r="C747">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H747" s="3">
         <f t="shared" si="53"/>
@@ -41642,7 +42197,7 @@
         <v>747</v>
       </c>
       <c r="C748">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H748" s="3">
         <f t="shared" si="53"/>
@@ -41663,7 +42218,7 @@
         <v>748</v>
       </c>
       <c r="C749">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H749" s="3">
         <f t="shared" si="53"/>
@@ -41684,7 +42239,7 @@
         <v>749</v>
       </c>
       <c r="C750">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H750" s="3">
         <f t="shared" si="53"/>
@@ -41705,7 +42260,7 @@
         <v>750</v>
       </c>
       <c r="C751">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H751" s="3">
         <f t="shared" si="53"/>
@@ -41726,7 +42281,7 @@
         <v>751</v>
       </c>
       <c r="C752">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H752" s="3">
         <f t="shared" si="53"/>
@@ -41747,7 +42302,7 @@
         <v>752</v>
       </c>
       <c r="C753">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H753" s="3">
         <f t="shared" si="53"/>
@@ -41768,7 +42323,7 @@
         <v>753</v>
       </c>
       <c r="C754">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H754" s="3">
         <f t="shared" si="53"/>
@@ -41789,7 +42344,7 @@
         <v>754</v>
       </c>
       <c r="C755">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H755" s="3">
         <f t="shared" si="53"/>
@@ -41810,7 +42365,7 @@
         <v>755</v>
       </c>
       <c r="C756">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H756" s="3">
         <f t="shared" si="53"/>
@@ -41831,7 +42386,7 @@
         <v>756</v>
       </c>
       <c r="C757">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H757" s="3">
         <f t="shared" si="53"/>
@@ -41852,7 +42407,7 @@
         <v>757</v>
       </c>
       <c r="C758">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H758" s="3">
         <f t="shared" si="53"/>
@@ -41873,7 +42428,7 @@
         <v>758</v>
       </c>
       <c r="C759">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H759" s="3">
         <f t="shared" si="53"/>
@@ -41894,7 +42449,7 @@
         <v>759</v>
       </c>
       <c r="C760">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H760" s="3">
         <f t="shared" si="53"/>
@@ -41915,7 +42470,7 @@
         <v>760</v>
       </c>
       <c r="C761">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H761" s="3">
         <f t="shared" si="53"/>
@@ -41936,7 +42491,7 @@
         <v>761</v>
       </c>
       <c r="C762">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H762" s="3">
         <f t="shared" si="53"/>
@@ -41957,7 +42512,7 @@
         <v>762</v>
       </c>
       <c r="C763">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H763" s="3">
         <f t="shared" si="53"/>
@@ -41978,7 +42533,7 @@
         <v>763</v>
       </c>
       <c r="C764">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H764" s="3">
         <f t="shared" si="53"/>
@@ -41999,7 +42554,7 @@
         <v>764</v>
       </c>
       <c r="C765">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H765" s="3">
         <f t="shared" si="53"/>
@@ -42020,7 +42575,7 @@
         <v>765</v>
       </c>
       <c r="C766">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H766" s="3">
         <f t="shared" si="53"/>
@@ -42041,7 +42596,7 @@
         <v>766</v>
       </c>
       <c r="C767">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H767" s="3">
         <f t="shared" si="53"/>
@@ -42062,7 +42617,7 @@
         <v>767</v>
       </c>
       <c r="C768">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H768" s="3">
         <f t="shared" si="53"/>
@@ -42083,7 +42638,7 @@
         <v>768</v>
       </c>
       <c r="C769">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H769" s="3">
         <f t="shared" si="53"/>
@@ -42104,7 +42659,7 @@
         <v>769</v>
       </c>
       <c r="C770">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H770" s="3">
         <f t="shared" ref="H770:H833" si="57">G770-150000</f>
@@ -42125,7 +42680,7 @@
         <v>770</v>
       </c>
       <c r="C771">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H771" s="3">
         <f t="shared" si="57"/>
@@ -42146,7 +42701,7 @@
         <v>771</v>
       </c>
       <c r="C772">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H772" s="3">
         <f t="shared" si="57"/>
@@ -42167,7 +42722,7 @@
         <v>772</v>
       </c>
       <c r="C773">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H773" s="3">
         <f t="shared" si="57"/>
@@ -42188,7 +42743,7 @@
         <v>773</v>
       </c>
       <c r="C774">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H774" s="3">
         <f t="shared" si="57"/>
@@ -42209,7 +42764,7 @@
         <v>774</v>
       </c>
       <c r="C775">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H775" s="3">
         <f t="shared" si="57"/>
@@ -42230,7 +42785,7 @@
         <v>775</v>
       </c>
       <c r="C776">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H776" s="3">
         <f t="shared" si="57"/>
@@ -42251,7 +42806,7 @@
         <v>776</v>
       </c>
       <c r="C777">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H777" s="3">
         <f t="shared" si="57"/>
@@ -42272,7 +42827,7 @@
         <v>777</v>
       </c>
       <c r="C778">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H778" s="3">
         <f t="shared" si="57"/>
@@ -42293,7 +42848,7 @@
         <v>778</v>
       </c>
       <c r="C779">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H779" s="3">
         <f t="shared" si="57"/>
@@ -42314,7 +42869,7 @@
         <v>779</v>
       </c>
       <c r="C780">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H780" s="3">
         <f t="shared" si="57"/>
@@ -42335,7 +42890,7 @@
         <v>780</v>
       </c>
       <c r="C781">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H781" s="3">
         <f t="shared" si="57"/>
@@ -42356,7 +42911,7 @@
         <v>781</v>
       </c>
       <c r="C782">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H782" s="3">
         <f t="shared" si="57"/>
@@ -42377,7 +42932,7 @@
         <v>782</v>
       </c>
       <c r="C783">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H783" s="3">
         <f t="shared" si="57"/>
@@ -42398,7 +42953,7 @@
         <v>783</v>
       </c>
       <c r="C784">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H784" s="3">
         <f t="shared" si="57"/>
@@ -42419,7 +42974,7 @@
         <v>784</v>
       </c>
       <c r="C785">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H785" s="3">
         <f t="shared" si="57"/>
@@ -42440,7 +42995,7 @@
         <v>785</v>
       </c>
       <c r="C786">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H786" s="3">
         <f t="shared" si="57"/>
@@ -42461,7 +43016,7 @@
         <v>786</v>
       </c>
       <c r="C787">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H787" s="3">
         <f t="shared" si="57"/>
@@ -42482,7 +43037,7 @@
         <v>787</v>
       </c>
       <c r="C788">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H788" s="3">
         <f t="shared" si="57"/>
@@ -42503,7 +43058,7 @@
         <v>788</v>
       </c>
       <c r="C789">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H789" s="3">
         <f t="shared" si="57"/>
@@ -42524,7 +43079,7 @@
         <v>789</v>
       </c>
       <c r="C790">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H790" s="3">
         <f t="shared" si="57"/>
@@ -42545,7 +43100,7 @@
         <v>790</v>
       </c>
       <c r="C791">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H791" s="3">
         <f t="shared" si="57"/>
@@ -42566,7 +43121,7 @@
         <v>791</v>
       </c>
       <c r="C792">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H792" s="3">
         <f t="shared" si="57"/>
@@ -42587,7 +43142,7 @@
         <v>792</v>
       </c>
       <c r="C793">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H793" s="3">
         <f t="shared" si="57"/>
@@ -42608,7 +43163,7 @@
         <v>793</v>
       </c>
       <c r="C794">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H794" s="3">
         <f t="shared" si="57"/>
@@ -42629,7 +43184,7 @@
         <v>794</v>
       </c>
       <c r="C795">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H795" s="3">
         <f t="shared" si="57"/>
@@ -42650,7 +43205,7 @@
         <v>795</v>
       </c>
       <c r="C796">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H796" s="3">
         <f t="shared" si="57"/>
@@ -42671,7 +43226,7 @@
         <v>796</v>
       </c>
       <c r="C797">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H797" s="3">
         <f t="shared" si="57"/>
@@ -42692,7 +43247,7 @@
         <v>797</v>
       </c>
       <c r="C798">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H798" s="3">
         <f t="shared" si="57"/>
@@ -42713,7 +43268,7 @@
         <v>798</v>
       </c>
       <c r="C799">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H799" s="3">
         <f t="shared" si="57"/>
@@ -42734,7 +43289,7 @@
         <v>799</v>
       </c>
       <c r="C800">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H800" s="3">
         <f t="shared" si="57"/>
@@ -42755,7 +43310,7 @@
         <v>800</v>
       </c>
       <c r="C801">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H801" s="3">
         <f t="shared" si="57"/>
@@ -42776,7 +43331,7 @@
         <v>801</v>
       </c>
       <c r="C802">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H802" s="3">
         <f t="shared" si="57"/>
@@ -42797,7 +43352,7 @@
         <v>802</v>
       </c>
       <c r="C803">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H803" s="3">
         <f t="shared" si="57"/>
@@ -42818,7 +43373,7 @@
         <v>803</v>
       </c>
       <c r="C804">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H804" s="3">
         <f t="shared" si="57"/>
@@ -42839,7 +43394,7 @@
         <v>804</v>
       </c>
       <c r="C805">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H805" s="3">
         <f t="shared" si="57"/>
@@ -42860,7 +43415,7 @@
         <v>805</v>
       </c>
       <c r="C806">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H806" s="3">
         <f t="shared" si="57"/>
@@ -42881,7 +43436,7 @@
         <v>806</v>
       </c>
       <c r="C807">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H807" s="3">
         <f t="shared" si="57"/>
@@ -42902,7 +43457,7 @@
         <v>807</v>
       </c>
       <c r="C808">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H808" s="3">
         <f t="shared" si="57"/>
@@ -42923,7 +43478,7 @@
         <v>808</v>
       </c>
       <c r="C809">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H809" s="3">
         <f t="shared" si="57"/>
@@ -42944,7 +43499,7 @@
         <v>809</v>
       </c>
       <c r="C810">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H810" s="3">
         <f t="shared" si="57"/>
@@ -42965,7 +43520,7 @@
         <v>810</v>
       </c>
       <c r="C811">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H811" s="3">
         <f t="shared" si="57"/>
@@ -42986,7 +43541,7 @@
         <v>811</v>
       </c>
       <c r="C812">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H812" s="3">
         <f t="shared" si="57"/>
@@ -43007,7 +43562,7 @@
         <v>812</v>
       </c>
       <c r="C813">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H813" s="3">
         <f t="shared" si="57"/>
@@ -43028,7 +43583,7 @@
         <v>813</v>
       </c>
       <c r="C814">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H814" s="3">
         <f t="shared" si="57"/>
@@ -43049,7 +43604,7 @@
         <v>814</v>
       </c>
       <c r="C815">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H815" s="3">
         <f t="shared" si="57"/>
@@ -43070,7 +43625,7 @@
         <v>815</v>
       </c>
       <c r="C816">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H816" s="3">
         <f t="shared" si="57"/>
@@ -43091,7 +43646,7 @@
         <v>816</v>
       </c>
       <c r="C817">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H817" s="3">
         <f t="shared" si="57"/>
@@ -43112,7 +43667,7 @@
         <v>817</v>
       </c>
       <c r="C818">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H818" s="3">
         <f t="shared" si="57"/>
@@ -43133,7 +43688,7 @@
         <v>818</v>
       </c>
       <c r="C819">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H819" s="3">
         <f t="shared" si="57"/>
@@ -43154,7 +43709,7 @@
         <v>819</v>
       </c>
       <c r="C820">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H820" s="3">
         <f t="shared" si="57"/>
@@ -43175,7 +43730,7 @@
         <v>820</v>
       </c>
       <c r="C821">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H821" s="3">
         <f t="shared" si="57"/>
@@ -43196,7 +43751,7 @@
         <v>821</v>
       </c>
       <c r="C822">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H822" s="3">
         <f t="shared" si="57"/>
@@ -43217,7 +43772,7 @@
         <v>822</v>
       </c>
       <c r="C823">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H823" s="3">
         <f t="shared" si="57"/>
@@ -43238,7 +43793,7 @@
         <v>823</v>
       </c>
       <c r="C824">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H824" s="3">
         <f t="shared" si="57"/>
@@ -43259,7 +43814,7 @@
         <v>824</v>
       </c>
       <c r="C825">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H825" s="3">
         <f t="shared" si="57"/>
@@ -43280,7 +43835,7 @@
         <v>825</v>
       </c>
       <c r="C826">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H826" s="3">
         <f t="shared" si="57"/>
@@ -43301,7 +43856,7 @@
         <v>826</v>
       </c>
       <c r="C827">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H827" s="3">
         <f t="shared" si="57"/>
@@ -43322,7 +43877,7 @@
         <v>827</v>
       </c>
       <c r="C828">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H828" s="3">
         <f t="shared" si="57"/>
@@ -43343,7 +43898,7 @@
         <v>828</v>
       </c>
       <c r="C829">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H829" s="3">
         <f t="shared" si="57"/>
@@ -43364,7 +43919,7 @@
         <v>829</v>
       </c>
       <c r="C830">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H830" s="3">
         <f t="shared" si="57"/>
@@ -43385,7 +43940,7 @@
         <v>830</v>
       </c>
       <c r="C831">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H831" s="3">
         <f t="shared" si="57"/>
@@ -43406,7 +43961,7 @@
         <v>831</v>
       </c>
       <c r="C832">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H832" s="3">
         <f t="shared" si="57"/>
@@ -43427,7 +43982,7 @@
         <v>832</v>
       </c>
       <c r="C833">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H833" s="3">
         <f t="shared" si="57"/>
@@ -43448,7 +44003,7 @@
         <v>833</v>
       </c>
       <c r="C834">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H834" s="3">
         <f t="shared" ref="H834:H897" si="61">G834-150000</f>
@@ -43469,7 +44024,7 @@
         <v>834</v>
       </c>
       <c r="C835">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H835" s="3">
         <f t="shared" si="61"/>
@@ -43490,7 +44045,7 @@
         <v>835</v>
       </c>
       <c r="C836">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H836" s="3">
         <f t="shared" si="61"/>
@@ -43511,7 +44066,7 @@
         <v>836</v>
       </c>
       <c r="C837">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H837" s="3">
         <f t="shared" si="61"/>
@@ -43532,7 +44087,7 @@
         <v>837</v>
       </c>
       <c r="C838">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H838" s="3">
         <f t="shared" si="61"/>
@@ -43553,7 +44108,7 @@
         <v>838</v>
       </c>
       <c r="C839">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H839" s="3">
         <f t="shared" si="61"/>
@@ -43574,7 +44129,7 @@
         <v>839</v>
       </c>
       <c r="C840">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H840" s="3">
         <f t="shared" si="61"/>
@@ -43595,7 +44150,7 @@
         <v>840</v>
       </c>
       <c r="C841">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H841" s="3">
         <f t="shared" si="61"/>
@@ -43616,7 +44171,7 @@
         <v>841</v>
       </c>
       <c r="C842">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H842" s="3">
         <f t="shared" si="61"/>
@@ -43637,7 +44192,7 @@
         <v>842</v>
       </c>
       <c r="C843">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H843" s="3">
         <f t="shared" si="61"/>
@@ -43658,7 +44213,7 @@
         <v>843</v>
       </c>
       <c r="C844">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H844" s="3">
         <f t="shared" si="61"/>
@@ -43679,7 +44234,7 @@
         <v>844</v>
       </c>
       <c r="C845">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H845" s="3">
         <f t="shared" si="61"/>
@@ -43700,7 +44255,7 @@
         <v>845</v>
       </c>
       <c r="C846">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H846" s="3">
         <f t="shared" si="61"/>
@@ -43721,7 +44276,7 @@
         <v>846</v>
       </c>
       <c r="C847">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H847" s="3">
         <f t="shared" si="61"/>
@@ -43742,7 +44297,7 @@
         <v>847</v>
       </c>
       <c r="C848">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H848" s="3">
         <f t="shared" si="61"/>
@@ -43763,7 +44318,7 @@
         <v>848</v>
       </c>
       <c r="C849">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H849" s="3">
         <f t="shared" si="61"/>
@@ -43784,7 +44339,7 @@
         <v>849</v>
       </c>
       <c r="C850">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H850" s="3">
         <f t="shared" si="61"/>
@@ -43805,7 +44360,7 @@
         <v>850</v>
       </c>
       <c r="C851">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H851" s="3">
         <f t="shared" si="61"/>
@@ -43826,7 +44381,7 @@
         <v>851</v>
       </c>
       <c r="C852">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H852" s="3">
         <f t="shared" si="61"/>
@@ -43847,7 +44402,7 @@
         <v>852</v>
       </c>
       <c r="C853">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H853" s="3">
         <f t="shared" si="61"/>
@@ -43868,7 +44423,7 @@
         <v>853</v>
       </c>
       <c r="C854">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H854" s="3">
         <f t="shared" si="61"/>
@@ -43889,7 +44444,7 @@
         <v>854</v>
       </c>
       <c r="C855">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H855" s="3">
         <f t="shared" si="61"/>
@@ -43910,7 +44465,7 @@
         <v>855</v>
       </c>
       <c r="C856">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H856" s="3">
         <f t="shared" si="61"/>
@@ -43931,7 +44486,7 @@
         <v>856</v>
       </c>
       <c r="C857">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H857" s="3">
         <f t="shared" si="61"/>
@@ -43952,7 +44507,7 @@
         <v>857</v>
       </c>
       <c r="C858">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H858" s="3">
         <f t="shared" si="61"/>
@@ -43973,7 +44528,7 @@
         <v>858</v>
       </c>
       <c r="C859">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H859" s="3">
         <f t="shared" si="61"/>
@@ -43994,7 +44549,7 @@
         <v>859</v>
       </c>
       <c r="C860">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H860" s="3">
         <f t="shared" si="61"/>
@@ -44015,7 +44570,7 @@
         <v>860</v>
       </c>
       <c r="C861">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H861" s="3">
         <f t="shared" si="61"/>
@@ -44036,7 +44591,7 @@
         <v>861</v>
       </c>
       <c r="C862">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H862" s="3">
         <f t="shared" si="61"/>
@@ -44057,7 +44612,7 @@
         <v>862</v>
       </c>
       <c r="C863">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H863" s="3">
         <f t="shared" si="61"/>
@@ -44078,7 +44633,7 @@
         <v>863</v>
       </c>
       <c r="C864">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H864" s="3">
         <f t="shared" si="61"/>
@@ -44099,7 +44654,7 @@
         <v>864</v>
       </c>
       <c r="C865">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H865" s="3">
         <f t="shared" si="61"/>
@@ -44120,7 +44675,7 @@
         <v>865</v>
       </c>
       <c r="C866">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H866" s="3">
         <f t="shared" si="61"/>
@@ -44141,7 +44696,7 @@
         <v>866</v>
       </c>
       <c r="C867">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H867" s="3">
         <f t="shared" si="61"/>
@@ -44162,7 +44717,7 @@
         <v>867</v>
       </c>
       <c r="C868">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H868" s="3">
         <f t="shared" si="61"/>
@@ -44183,7 +44738,7 @@
         <v>868</v>
       </c>
       <c r="C869">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H869" s="3">
         <f t="shared" si="61"/>
@@ -44204,7 +44759,7 @@
         <v>869</v>
       </c>
       <c r="C870">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H870" s="3">
         <f t="shared" si="61"/>
@@ -44225,7 +44780,7 @@
         <v>870</v>
       </c>
       <c r="C871">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H871" s="3">
         <f t="shared" si="61"/>
@@ -44246,7 +44801,7 @@
         <v>871</v>
       </c>
       <c r="C872">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H872" s="3">
         <f t="shared" si="61"/>
@@ -44267,7 +44822,7 @@
         <v>872</v>
       </c>
       <c r="C873">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H873" s="3">
         <f t="shared" si="61"/>
@@ -44288,7 +44843,7 @@
         <v>873</v>
       </c>
       <c r="C874">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H874" s="3">
         <f t="shared" si="61"/>
@@ -44309,7 +44864,7 @@
         <v>874</v>
       </c>
       <c r="C875">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H875" s="3">
         <f t="shared" si="61"/>
@@ -44330,7 +44885,7 @@
         <v>875</v>
       </c>
       <c r="C876">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H876" s="3">
         <f t="shared" si="61"/>
@@ -44351,7 +44906,7 @@
         <v>876</v>
       </c>
       <c r="C877">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H877" s="3">
         <f t="shared" si="61"/>
@@ -44372,7 +44927,7 @@
         <v>877</v>
       </c>
       <c r="C878">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H878" s="3">
         <f t="shared" si="61"/>
@@ -44393,7 +44948,7 @@
         <v>878</v>
       </c>
       <c r="C879">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H879" s="3">
         <f t="shared" si="61"/>
@@ -44414,7 +44969,7 @@
         <v>879</v>
       </c>
       <c r="C880">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H880" s="3">
         <f t="shared" si="61"/>
@@ -44435,7 +44990,7 @@
         <v>880</v>
       </c>
       <c r="C881">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H881" s="3">
         <f t="shared" si="61"/>
@@ -44456,7 +45011,7 @@
         <v>881</v>
       </c>
       <c r="C882">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H882" s="3">
         <f t="shared" si="61"/>
@@ -44477,7 +45032,7 @@
         <v>882</v>
       </c>
       <c r="C883">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H883" s="3">
         <f t="shared" si="61"/>
@@ -44498,7 +45053,7 @@
         <v>883</v>
       </c>
       <c r="C884">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H884" s="3">
         <f t="shared" si="61"/>
@@ -44519,7 +45074,7 @@
         <v>884</v>
       </c>
       <c r="C885">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H885" s="3">
         <f t="shared" si="61"/>
@@ -44540,7 +45095,7 @@
         <v>885</v>
       </c>
       <c r="C886">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H886" s="3">
         <f t="shared" si="61"/>
@@ -44561,7 +45116,7 @@
         <v>886</v>
       </c>
       <c r="C887">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H887" s="3">
         <f t="shared" si="61"/>
@@ -44582,7 +45137,7 @@
         <v>887</v>
       </c>
       <c r="C888">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H888" s="3">
         <f t="shared" si="61"/>
@@ -44603,7 +45158,7 @@
         <v>888</v>
       </c>
       <c r="C889">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H889" s="3">
         <f t="shared" si="61"/>
@@ -44624,7 +45179,7 @@
         <v>889</v>
       </c>
       <c r="C890">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H890" s="3">
         <f t="shared" si="61"/>
@@ -44645,7 +45200,7 @@
         <v>890</v>
       </c>
       <c r="C891">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H891" s="3">
         <f t="shared" si="61"/>
@@ -44666,7 +45221,7 @@
         <v>891</v>
       </c>
       <c r="C892">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H892" s="3">
         <f t="shared" si="61"/>
@@ -44687,7 +45242,7 @@
         <v>892</v>
       </c>
       <c r="C893">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H893" s="3">
         <f t="shared" si="61"/>
@@ -44708,7 +45263,7 @@
         <v>893</v>
       </c>
       <c r="C894">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H894" s="3">
         <f t="shared" si="61"/>
@@ -44729,7 +45284,7 @@
         <v>894</v>
       </c>
       <c r="C895">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H895" s="3">
         <f t="shared" si="61"/>
@@ -44750,7 +45305,7 @@
         <v>895</v>
       </c>
       <c r="C896">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H896" s="3">
         <f t="shared" si="61"/>
@@ -44771,7 +45326,7 @@
         <v>896</v>
       </c>
       <c r="C897">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H897" s="3">
         <f t="shared" si="61"/>
@@ -44792,7 +45347,7 @@
         <v>897</v>
       </c>
       <c r="C898">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H898" s="3">
         <f t="shared" ref="H898:H961" si="65">G898-150000</f>
@@ -44813,7 +45368,7 @@
         <v>898</v>
       </c>
       <c r="C899">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H899" s="3">
         <f t="shared" si="65"/>
@@ -44834,7 +45389,7 @@
         <v>899</v>
       </c>
       <c r="C900">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H900" s="3">
         <f t="shared" si="65"/>
@@ -44855,7 +45410,7 @@
         <v>900</v>
       </c>
       <c r="C901">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H901" s="3">
         <f t="shared" si="65"/>
@@ -44876,7 +45431,7 @@
         <v>901</v>
       </c>
       <c r="C902">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H902" s="3">
         <f t="shared" si="65"/>
@@ -44897,7 +45452,7 @@
         <v>902</v>
       </c>
       <c r="C903">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H903" s="3">
         <f t="shared" si="65"/>
@@ -44918,7 +45473,7 @@
         <v>903</v>
       </c>
       <c r="C904">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H904" s="3">
         <f t="shared" si="65"/>
@@ -44939,7 +45494,7 @@
         <v>904</v>
       </c>
       <c r="C905">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H905" s="3">
         <f t="shared" si="65"/>
@@ -44960,7 +45515,7 @@
         <v>905</v>
       </c>
       <c r="C906">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H906" s="3">
         <f t="shared" si="65"/>
@@ -44981,7 +45536,7 @@
         <v>906</v>
       </c>
       <c r="C907">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H907" s="3">
         <f t="shared" si="65"/>
@@ -45002,7 +45557,7 @@
         <v>907</v>
       </c>
       <c r="C908">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H908" s="3">
         <f t="shared" si="65"/>
@@ -45023,7 +45578,7 @@
         <v>908</v>
       </c>
       <c r="C909">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H909" s="3">
         <f t="shared" si="65"/>
@@ -45044,7 +45599,7 @@
         <v>909</v>
       </c>
       <c r="C910">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H910" s="3">
         <f t="shared" si="65"/>
@@ -45065,7 +45620,7 @@
         <v>910</v>
       </c>
       <c r="C911">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H911" s="3">
         <f t="shared" si="65"/>
@@ -45086,7 +45641,7 @@
         <v>911</v>
       </c>
       <c r="C912">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H912" s="3">
         <f t="shared" si="65"/>
@@ -45107,7 +45662,7 @@
         <v>912</v>
       </c>
       <c r="C913">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H913" s="3">
         <f t="shared" si="65"/>
@@ -45128,7 +45683,7 @@
         <v>913</v>
       </c>
       <c r="C914">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H914" s="3">
         <f t="shared" si="65"/>
@@ -45149,7 +45704,7 @@
         <v>914</v>
       </c>
       <c r="C915">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H915" s="3">
         <f t="shared" si="65"/>
@@ -45170,7 +45725,7 @@
         <v>915</v>
       </c>
       <c r="C916">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H916" s="3">
         <f t="shared" si="65"/>
@@ -45191,7 +45746,7 @@
         <v>916</v>
       </c>
       <c r="C917">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H917" s="3">
         <f t="shared" si="65"/>
@@ -45212,7 +45767,7 @@
         <v>917</v>
       </c>
       <c r="C918">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H918" s="3">
         <f t="shared" si="65"/>
@@ -45233,7 +45788,7 @@
         <v>918</v>
       </c>
       <c r="C919">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H919" s="3">
         <f t="shared" si="65"/>
@@ -45254,7 +45809,7 @@
         <v>919</v>
       </c>
       <c r="C920">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H920" s="3">
         <f t="shared" si="65"/>
@@ -45275,7 +45830,7 @@
         <v>920</v>
       </c>
       <c r="C921">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H921" s="3">
         <f t="shared" si="65"/>
@@ -45296,7 +45851,7 @@
         <v>921</v>
       </c>
       <c r="C922">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H922" s="3">
         <f t="shared" si="65"/>
@@ -45317,7 +45872,7 @@
         <v>922</v>
       </c>
       <c r="C923">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H923" s="3">
         <f t="shared" si="65"/>
@@ -45338,7 +45893,7 @@
         <v>923</v>
       </c>
       <c r="C924">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H924" s="3">
         <f t="shared" si="65"/>
@@ -45359,7 +45914,7 @@
         <v>924</v>
       </c>
       <c r="C925">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H925" s="3">
         <f t="shared" si="65"/>
@@ -45380,7 +45935,7 @@
         <v>925</v>
       </c>
       <c r="C926">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H926" s="3">
         <f t="shared" si="65"/>
@@ -45401,7 +45956,7 @@
         <v>926</v>
       </c>
       <c r="C927">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H927" s="3">
         <f t="shared" si="65"/>
@@ -45422,7 +45977,7 @@
         <v>927</v>
       </c>
       <c r="C928">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H928" s="3">
         <f t="shared" si="65"/>
@@ -45443,7 +45998,7 @@
         <v>928</v>
       </c>
       <c r="C929">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H929" s="3">
         <f t="shared" si="65"/>
@@ -45464,7 +46019,7 @@
         <v>929</v>
       </c>
       <c r="C930">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H930" s="3">
         <f t="shared" si="65"/>
@@ -45485,7 +46040,7 @@
         <v>930</v>
       </c>
       <c r="C931">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H931" s="3">
         <f t="shared" si="65"/>
@@ -45506,7 +46061,7 @@
         <v>931</v>
       </c>
       <c r="C932">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H932" s="3">
         <f t="shared" si="65"/>
@@ -45527,7 +46082,7 @@
         <v>932</v>
       </c>
       <c r="C933">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H933" s="3">
         <f t="shared" si="65"/>
@@ -45548,7 +46103,7 @@
         <v>933</v>
       </c>
       <c r="C934">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H934" s="3">
         <f t="shared" si="65"/>
@@ -45569,7 +46124,7 @@
         <v>934</v>
       </c>
       <c r="C935">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H935" s="3">
         <f t="shared" si="65"/>
@@ -45590,7 +46145,7 @@
         <v>935</v>
       </c>
       <c r="C936">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H936" s="3">
         <f t="shared" si="65"/>
@@ -45611,7 +46166,7 @@
         <v>936</v>
       </c>
       <c r="C937">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H937" s="3">
         <f t="shared" si="65"/>
@@ -45632,7 +46187,7 @@
         <v>937</v>
       </c>
       <c r="C938">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H938" s="3">
         <f t="shared" si="65"/>
@@ -45653,7 +46208,7 @@
         <v>938</v>
       </c>
       <c r="C939">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H939" s="3">
         <f t="shared" si="65"/>
@@ -45674,7 +46229,7 @@
         <v>939</v>
       </c>
       <c r="C940">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H940" s="3">
         <f t="shared" si="65"/>
@@ -45695,7 +46250,7 @@
         <v>940</v>
       </c>
       <c r="C941">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H941" s="3">
         <f t="shared" si="65"/>
@@ -45716,7 +46271,7 @@
         <v>941</v>
       </c>
       <c r="C942">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H942" s="3">
         <f t="shared" si="65"/>
@@ -45737,7 +46292,7 @@
         <v>942</v>
       </c>
       <c r="C943">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H943" s="3">
         <f t="shared" si="65"/>
@@ -45758,7 +46313,7 @@
         <v>943</v>
       </c>
       <c r="C944">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H944" s="3">
         <f t="shared" si="65"/>
@@ -45779,7 +46334,7 @@
         <v>944</v>
       </c>
       <c r="C945">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H945" s="3">
         <f t="shared" si="65"/>
@@ -45800,7 +46355,7 @@
         <v>945</v>
       </c>
       <c r="C946">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H946" s="3">
         <f t="shared" si="65"/>
@@ -45821,7 +46376,7 @@
         <v>946</v>
       </c>
       <c r="C947">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H947" s="3">
         <f t="shared" si="65"/>
@@ -45842,7 +46397,7 @@
         <v>947</v>
       </c>
       <c r="C948">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H948" s="3">
         <f t="shared" si="65"/>
@@ -45863,7 +46418,7 @@
         <v>948</v>
       </c>
       <c r="C949">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H949" s="3">
         <f t="shared" si="65"/>
@@ -45884,7 +46439,7 @@
         <v>949</v>
       </c>
       <c r="C950">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H950" s="3">
         <f t="shared" si="65"/>
@@ -45905,7 +46460,7 @@
         <v>950</v>
       </c>
       <c r="C951">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H951" s="3">
         <f t="shared" si="65"/>
@@ -45926,7 +46481,7 @@
         <v>951</v>
       </c>
       <c r="C952">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H952" s="3">
         <f t="shared" si="65"/>
@@ -45947,7 +46502,7 @@
         <v>952</v>
       </c>
       <c r="C953">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H953" s="3">
         <f t="shared" si="65"/>
@@ -45968,7 +46523,7 @@
         <v>953</v>
       </c>
       <c r="C954">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H954" s="3">
         <f t="shared" si="65"/>
@@ -45989,7 +46544,7 @@
         <v>954</v>
       </c>
       <c r="C955">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H955" s="3">
         <f t="shared" si="65"/>
@@ -46010,7 +46565,7 @@
         <v>955</v>
       </c>
       <c r="C956">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H956" s="3">
         <f t="shared" si="65"/>
@@ -46031,7 +46586,7 @@
         <v>956</v>
       </c>
       <c r="C957">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H957" s="3">
         <f t="shared" si="65"/>
@@ -46052,7 +46607,7 @@
         <v>957</v>
       </c>
       <c r="C958">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H958" s="3">
         <f t="shared" si="65"/>
@@ -46073,7 +46628,7 @@
         <v>958</v>
       </c>
       <c r="C959">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H959" s="3">
         <f t="shared" si="65"/>
@@ -46094,7 +46649,7 @@
         <v>959</v>
       </c>
       <c r="C960">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H960" s="3">
         <f t="shared" si="65"/>
@@ -46115,7 +46670,7 @@
         <v>960</v>
       </c>
       <c r="C961">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H961" s="3">
         <f t="shared" si="65"/>
@@ -46136,7 +46691,7 @@
         <v>961</v>
       </c>
       <c r="C962">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H962" s="3">
         <f t="shared" ref="H962:H1011" si="69">G962-150000</f>
@@ -46157,7 +46712,7 @@
         <v>962</v>
       </c>
       <c r="C963">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H963" s="3">
         <f t="shared" si="69"/>
@@ -46178,7 +46733,7 @@
         <v>963</v>
       </c>
       <c r="C964">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H964" s="3">
         <f t="shared" si="69"/>
@@ -46199,7 +46754,7 @@
         <v>964</v>
       </c>
       <c r="C965">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H965" s="3">
         <f t="shared" si="69"/>
@@ -46220,7 +46775,7 @@
         <v>965</v>
       </c>
       <c r="C966">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H966" s="3">
         <f t="shared" si="69"/>
@@ -46241,7 +46796,7 @@
         <v>966</v>
       </c>
       <c r="C967">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H967" s="3">
         <f t="shared" si="69"/>
@@ -46262,7 +46817,7 @@
         <v>967</v>
       </c>
       <c r="C968">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H968" s="3">
         <f t="shared" si="69"/>
@@ -46283,7 +46838,7 @@
         <v>968</v>
       </c>
       <c r="C969">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H969" s="3">
         <f t="shared" si="69"/>
@@ -46304,7 +46859,7 @@
         <v>969</v>
       </c>
       <c r="C970">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H970" s="3">
         <f t="shared" si="69"/>
@@ -46325,7 +46880,7 @@
         <v>970</v>
       </c>
       <c r="C971">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H971" s="3">
         <f t="shared" si="69"/>
@@ -46346,7 +46901,7 @@
         <v>971</v>
       </c>
       <c r="C972">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H972" s="3">
         <f t="shared" si="69"/>
@@ -46367,7 +46922,7 @@
         <v>972</v>
       </c>
       <c r="C973">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H973" s="3">
         <f t="shared" si="69"/>
@@ -46388,7 +46943,7 @@
         <v>973</v>
       </c>
       <c r="C974">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H974" s="3">
         <f t="shared" si="69"/>
@@ -46409,7 +46964,7 @@
         <v>974</v>
       </c>
       <c r="C975">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H975" s="3">
         <f t="shared" si="69"/>
@@ -46430,7 +46985,7 @@
         <v>975</v>
       </c>
       <c r="C976">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H976" s="3">
         <f t="shared" si="69"/>
@@ -46451,7 +47006,7 @@
         <v>976</v>
       </c>
       <c r="C977">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H977" s="3">
         <f t="shared" si="69"/>
@@ -46472,7 +47027,7 @@
         <v>977</v>
       </c>
       <c r="C978">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H978" s="3">
         <f t="shared" si="69"/>
@@ -46493,7 +47048,7 @@
         <v>978</v>
       </c>
       <c r="C979">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H979" s="3">
         <f t="shared" si="69"/>
@@ -46514,7 +47069,7 @@
         <v>979</v>
       </c>
       <c r="C980">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H980" s="3">
         <f t="shared" si="69"/>
@@ -46535,7 +47090,7 @@
         <v>980</v>
       </c>
       <c r="C981">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H981" s="3">
         <f t="shared" si="69"/>
@@ -46556,7 +47111,7 @@
         <v>981</v>
       </c>
       <c r="C982">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H982" s="3">
         <f t="shared" si="69"/>
@@ -46577,7 +47132,7 @@
         <v>982</v>
       </c>
       <c r="C983">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H983" s="3">
         <f t="shared" si="69"/>
@@ -46598,7 +47153,7 @@
         <v>983</v>
       </c>
       <c r="C984">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H984" s="3">
         <f t="shared" si="69"/>
@@ -46619,7 +47174,7 @@
         <v>984</v>
       </c>
       <c r="C985">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H985" s="3">
         <f t="shared" si="69"/>
@@ -46640,7 +47195,7 @@
         <v>985</v>
       </c>
       <c r="C986">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H986" s="3">
         <f t="shared" si="69"/>
@@ -46661,7 +47216,7 @@
         <v>986</v>
       </c>
       <c r="C987">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H987" s="3">
         <f t="shared" si="69"/>
@@ -46682,7 +47237,7 @@
         <v>987</v>
       </c>
       <c r="C988">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H988" s="3">
         <f t="shared" si="69"/>
@@ -46703,7 +47258,7 @@
         <v>988</v>
       </c>
       <c r="C989">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H989" s="3">
         <f t="shared" si="69"/>
@@ -46724,7 +47279,7 @@
         <v>989</v>
       </c>
       <c r="C990">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H990" s="3">
         <f t="shared" si="69"/>
@@ -46745,7 +47300,7 @@
         <v>990</v>
       </c>
       <c r="C991">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H991" s="3">
         <f t="shared" si="69"/>
@@ -46766,7 +47321,7 @@
         <v>991</v>
       </c>
       <c r="C992">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H992" s="3">
         <f t="shared" si="69"/>
@@ -46787,7 +47342,7 @@
         <v>992</v>
       </c>
       <c r="C993">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H993" s="3">
         <f t="shared" si="69"/>
@@ -46808,7 +47363,7 @@
         <v>993</v>
       </c>
       <c r="C994">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H994" s="3">
         <f t="shared" si="69"/>
@@ -46829,7 +47384,7 @@
         <v>994</v>
       </c>
       <c r="C995">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H995" s="3">
         <f t="shared" si="69"/>
@@ -46850,7 +47405,7 @@
         <v>995</v>
       </c>
       <c r="C996">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H996" s="3">
         <f t="shared" si="69"/>
@@ -46871,7 +47426,7 @@
         <v>996</v>
       </c>
       <c r="C997">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H997" s="3">
         <f t="shared" si="69"/>
@@ -46892,7 +47447,7 @@
         <v>997</v>
       </c>
       <c r="C998">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H998" s="3">
         <f t="shared" si="69"/>
@@ -46913,7 +47468,7 @@
         <v>998</v>
       </c>
       <c r="C999">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H999" s="3">
         <f t="shared" si="69"/>
@@ -46934,7 +47489,7 @@
         <v>999</v>
       </c>
       <c r="C1000">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1000" s="3">
         <f t="shared" si="69"/>
@@ -46955,7 +47510,7 @@
         <v>1000</v>
       </c>
       <c r="C1001">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1001" s="3">
         <f t="shared" si="69"/>
@@ -46976,7 +47531,7 @@
         <v>1001</v>
       </c>
       <c r="C1002">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1002" s="3">
         <f t="shared" si="69"/>
@@ -46997,7 +47552,7 @@
         <v>1002</v>
       </c>
       <c r="C1003">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1003" s="3">
         <f t="shared" si="69"/>
@@ -47018,7 +47573,7 @@
         <v>1003</v>
       </c>
       <c r="C1004">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1004" s="3">
         <f t="shared" si="69"/>
@@ -47039,7 +47594,7 @@
         <v>1004</v>
       </c>
       <c r="C1005">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1005" s="3">
         <f t="shared" si="69"/>
@@ -47060,7 +47615,7 @@
         <v>1005</v>
       </c>
       <c r="C1006">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1006" s="3">
         <f t="shared" si="69"/>
@@ -47081,7 +47636,7 @@
         <v>1006</v>
       </c>
       <c r="C1007">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1007" s="3">
         <f t="shared" si="69"/>
@@ -47102,7 +47657,7 @@
         <v>1007</v>
       </c>
       <c r="C1008">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1008" s="3">
         <f t="shared" si="69"/>
@@ -47123,7 +47678,7 @@
         <v>1008</v>
       </c>
       <c r="C1009">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1009" s="3">
         <f t="shared" si="69"/>
@@ -47144,7 +47699,7 @@
         <v>1009</v>
       </c>
       <c r="C1010">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1010" s="3">
         <f t="shared" si="69"/>
@@ -47165,7 +47720,7 @@
         <v>1010</v>
       </c>
       <c r="C1011">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1011" s="3">
         <f t="shared" si="69"/>

--- a/SPP.xlsx
+++ b/SPP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
   <si>
     <t>Count of SPP</t>
   </si>
@@ -365,6 +365,9 @@
   <si>
     <t>IBRAHIM AL ATSARI</t>
   </si>
+  <si>
+    <t>IKHWANUDDIN HANIF</t>
+  </si>
 </sst>
 </file>
 
@@ -373,10 +376,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -410,30 +413,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -441,9 +420,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,10 +443,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -479,9 +459,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,16 +526,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,20 +541,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -548,13 +551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,13 +563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,13 +581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,109 +593,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,13 +623,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,35 +747,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,6 +779,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -816,21 +808,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -839,18 +816,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -862,130 +865,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -18839,9 +18842,9 @@
   <dimension ref="A1:J1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A592" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B606" sqref="B606"/>
+      <selection pane="bottomLeft" activeCell="C615" sqref="C615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -39235,20 +39238,35 @@
         <f t="shared" si="46"/>
         <v>606</v>
       </c>
+      <c r="B607" t="s">
+        <v>115</v>
+      </c>
       <c r="C607">
         <v>2</v>
+      </c>
+      <c r="D607">
+        <v>7</v>
+      </c>
+      <c r="E607" s="1">
+        <v>42938</v>
+      </c>
+      <c r="F607" s="2">
+        <v>1242</v>
+      </c>
+      <c r="G607" s="3">
+        <v>150000</v>
       </c>
       <c r="H607" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I607" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J607">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="608" spans="1:10">
@@ -39256,20 +39274,35 @@
         <f t="shared" si="46"/>
         <v>607</v>
       </c>
+      <c r="B608" t="s">
+        <v>115</v>
+      </c>
       <c r="C608">
         <v>2</v>
+      </c>
+      <c r="D608">
+        <v>8</v>
+      </c>
+      <c r="E608" s="1">
+        <v>42959</v>
+      </c>
+      <c r="F608" s="2">
+        <v>2288</v>
+      </c>
+      <c r="G608" s="3">
+        <v>150000</v>
       </c>
       <c r="H608" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I608" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J608">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="609" spans="1:10">
@@ -39277,20 +39310,35 @@
         <f t="shared" si="46"/>
         <v>608</v>
       </c>
+      <c r="B609" t="s">
+        <v>115</v>
+      </c>
       <c r="C609">
         <v>2</v>
+      </c>
+      <c r="D609">
+        <v>9</v>
+      </c>
+      <c r="E609" s="1">
+        <v>43008</v>
+      </c>
+      <c r="F609" s="2">
+        <v>2396</v>
+      </c>
+      <c r="G609" s="3">
+        <v>150000</v>
       </c>
       <c r="H609" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I609" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J609">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="610" spans="1:10">
@@ -39298,20 +39346,35 @@
         <f t="shared" si="46"/>
         <v>609</v>
       </c>
+      <c r="B610" t="s">
+        <v>115</v>
+      </c>
       <c r="C610">
         <v>2</v>
+      </c>
+      <c r="D610">
+        <v>10</v>
+      </c>
+      <c r="E610" s="1">
+        <v>43043</v>
+      </c>
+      <c r="F610" s="2">
+        <v>2487</v>
+      </c>
+      <c r="G610" s="3">
+        <v>150000</v>
       </c>
       <c r="H610" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I610" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J610">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="611" spans="1:10">
@@ -39319,20 +39382,35 @@
         <f t="shared" si="46"/>
         <v>610</v>
       </c>
+      <c r="B611" t="s">
+        <v>115</v>
+      </c>
       <c r="C611">
         <v>2</v>
+      </c>
+      <c r="D611">
+        <v>11</v>
+      </c>
+      <c r="E611" s="1">
+        <v>43043</v>
+      </c>
+      <c r="F611" s="2">
+        <v>2487</v>
+      </c>
+      <c r="G611" s="3">
+        <v>150000</v>
       </c>
       <c r="H611" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I611" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J611">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="612" spans="1:10">
@@ -39340,20 +39418,35 @@
         <f t="shared" si="46"/>
         <v>611</v>
       </c>
+      <c r="B612" t="s">
+        <v>115</v>
+      </c>
       <c r="C612">
         <v>2</v>
+      </c>
+      <c r="D612">
+        <v>12</v>
+      </c>
+      <c r="E612" s="1">
+        <v>43085</v>
+      </c>
+      <c r="F612" s="2">
+        <v>2655</v>
+      </c>
+      <c r="G612" s="3">
+        <v>150000</v>
       </c>
       <c r="H612" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I612" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J612">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="613" spans="1:10">
@@ -39364,9 +39457,13 @@
       <c r="C613">
         <v>2</v>
       </c>
+      <c r="D613"/>
+      <c r="G613" s="3">
+        <v>150000</v>
+      </c>
       <c r="H613" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I613" s="4">
         <f t="shared" si="47"/>

--- a/SPP.xlsx
+++ b/SPP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
   <si>
     <t>Count of SPP</t>
   </si>
@@ -368,18 +368,21 @@
   <si>
     <t>IKHWANUDDIN HANIF</t>
   </si>
+  <si>
+    <t>ISMAIL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -398,6 +401,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -413,22 +471,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -437,30 +479,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,7 +495,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,7 +524,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,34 +538,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -551,7 +554,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,7 +650,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,43 +704,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,55 +722,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,54 +735,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,6 +757,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -769,11 +796,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,21 +822,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,33 +845,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -865,130 +868,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -996,13 +999,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
@@ -1011,13 +1014,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2222,7 +2225,7 @@
         <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Tanggal" numFmtId="177">
+    <cacheField name="Tanggal" numFmtId="179">
       <sharedItems containsString="0" containsBlank="1" containsNonDate="0" containsDate="1" minDate="2017-01-04T00:00:00" maxDate="2018-09-17T00:00:00" count="92">
         <d v="2017-09-09T00:00:00"/>
         <d v="2017-11-25T00:00:00"/>
@@ -2351,7 +2354,7 @@
         <n v="2794"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="SPP" numFmtId="176">
+    <cacheField name="SPP" numFmtId="178">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="100000" maxValue="500000" count="13">
         <n v="350000"/>
         <n v="450000"/>
@@ -2368,7 +2371,7 @@
         <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Non Pendidikan" numFmtId="176">
+    <cacheField name="Non Pendidikan" numFmtId="178">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-150000" maxValue="350000" count="13">
         <n v="200000"/>
         <n v="300000"/>
@@ -15669,7 +15672,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="176" showAll="0"/>
+    <pivotField compact="0" numFmtId="178" showAll="0"/>
     <pivotField axis="axisCol" compact="0" showAll="0">
       <items count="4">
         <item x="2"/>
@@ -18842,9 +18845,9 @@
   <dimension ref="A1:J1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A592" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A599" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C615" sqref="C615"/>
+      <selection pane="bottomLeft" activeCell="G622" sqref="G622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -39454,10 +39457,21 @@
         <f t="shared" si="46"/>
         <v>612</v>
       </c>
+      <c r="B613" t="s">
+        <v>116</v>
+      </c>
       <c r="C613">
         <v>2</v>
       </c>
-      <c r="D613"/>
+      <c r="D613">
+        <v>7</v>
+      </c>
+      <c r="E613" s="1">
+        <v>42938</v>
+      </c>
+      <c r="F613" s="2">
+        <v>1240</v>
+      </c>
       <c r="G613" s="3">
         <v>150000</v>
       </c>
@@ -39467,11 +39481,11 @@
       </c>
       <c r="I613" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J613">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="614" spans="1:10">
@@ -39479,20 +39493,35 @@
         <f t="shared" si="46"/>
         <v>613</v>
       </c>
+      <c r="B614" t="s">
+        <v>116</v>
+      </c>
       <c r="C614">
         <v>2</v>
+      </c>
+      <c r="D614">
+        <v>8</v>
+      </c>
+      <c r="E614" s="1">
+        <v>42966</v>
+      </c>
+      <c r="F614" s="2">
+        <v>2323</v>
+      </c>
+      <c r="G614" s="3">
+        <v>150000</v>
       </c>
       <c r="H614" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I614" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J614">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="615" spans="1:10">
@@ -39500,20 +39529,35 @@
         <f t="shared" si="46"/>
         <v>614</v>
       </c>
+      <c r="B615" t="s">
+        <v>116</v>
+      </c>
       <c r="C615">
         <v>2</v>
+      </c>
+      <c r="D615">
+        <v>9</v>
+      </c>
+      <c r="E615" s="1">
+        <v>42987</v>
+      </c>
+      <c r="F615" s="2">
+        <v>2365</v>
+      </c>
+      <c r="G615" s="3">
+        <v>150000</v>
       </c>
       <c r="H615" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I615" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J615">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="616" spans="1:10">
@@ -39521,20 +39565,35 @@
         <f t="shared" si="46"/>
         <v>615</v>
       </c>
+      <c r="B616" t="s">
+        <v>116</v>
+      </c>
       <c r="C616">
         <v>2</v>
+      </c>
+      <c r="D616">
+        <v>10</v>
+      </c>
+      <c r="E616" s="1">
+        <v>43022</v>
+      </c>
+      <c r="F616" s="2">
+        <v>2536</v>
+      </c>
+      <c r="G616" s="3">
+        <v>150000</v>
       </c>
       <c r="H616" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I616" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J616">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="617" spans="1:10">
@@ -39542,20 +39601,35 @@
         <f t="shared" si="46"/>
         <v>616</v>
       </c>
+      <c r="B617" t="s">
+        <v>116</v>
+      </c>
       <c r="C617">
         <v>2</v>
+      </c>
+      <c r="D617">
+        <v>11</v>
+      </c>
+      <c r="E617" s="1">
+        <v>43043</v>
+      </c>
+      <c r="F617" s="2">
+        <v>2484</v>
+      </c>
+      <c r="G617" s="3">
+        <v>150000</v>
       </c>
       <c r="H617" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I617" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J617">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="618" spans="1:10">
@@ -39563,20 +39637,35 @@
         <f t="shared" si="46"/>
         <v>617</v>
       </c>
+      <c r="B618" t="s">
+        <v>116</v>
+      </c>
       <c r="C618">
         <v>2</v>
+      </c>
+      <c r="D618">
+        <v>12</v>
+      </c>
+      <c r="E618" s="1">
+        <v>43071</v>
+      </c>
+      <c r="F618" s="2">
+        <v>2614</v>
+      </c>
+      <c r="G618" s="3">
+        <v>150000</v>
       </c>
       <c r="H618" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I618" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J618">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="619" spans="1:10">
@@ -39584,16 +39673,31 @@
         <f t="shared" si="46"/>
         <v>618</v>
       </c>
+      <c r="B619" t="s">
+        <v>116</v>
+      </c>
       <c r="C619">
         <v>2</v>
+      </c>
+      <c r="D619">
+        <v>1</v>
+      </c>
+      <c r="E619" s="1">
+        <v>43104</v>
+      </c>
+      <c r="F619" s="2">
+        <v>2739</v>
+      </c>
+      <c r="G619" s="3">
+        <v>150000</v>
       </c>
       <c r="H619" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I619" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J619">
         <f t="shared" si="48"/>
@@ -39605,20 +39709,35 @@
         <f t="shared" si="46"/>
         <v>619</v>
       </c>
+      <c r="B620" t="s">
+        <v>116</v>
+      </c>
       <c r="C620">
         <v>2</v>
+      </c>
+      <c r="D620">
+        <v>2</v>
+      </c>
+      <c r="E620" s="1">
+        <v>43134</v>
+      </c>
+      <c r="F620" s="2">
+        <v>2766</v>
+      </c>
+      <c r="G620" s="3">
+        <v>150000</v>
       </c>
       <c r="H620" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I620" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J620">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:10">

--- a/SPP.xlsx
+++ b/SPP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15990" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="19890" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
   <si>
     <t>Tahun Bayar</t>
   </si>
@@ -395,18 +395,27 @@
   <si>
     <t>MUAWIYAH BIN HASAN</t>
   </si>
+  <si>
+    <t>MUHAMMAD FAKHRUDDIN A</t>
+  </si>
+  <si>
+    <t>MUHAMMAD HAIDAR YAHYA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD SUFYAN ATSARI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -425,6 +434,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -433,8 +519,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -450,99 +551,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,7 +565,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,19 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,7 +605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,7 +617,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,13 +659,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,43 +683,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,19 +707,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,13 +719,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,11 +781,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,6 +812,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,43 +861,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,30 +878,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -892,130 +901,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,7 +1032,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1038,7 +1047,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1890,7 +1899,7 @@
         <n v="4"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Tanggal" numFmtId="176">
+    <cacheField name="Tanggal" numFmtId="178">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNonDate="0" containsDate="1" minDate="2017-01-04T00:00:00" maxDate="2018-09-17T00:00:00" count="94">
         <d v="2017-09-09T00:00:00"/>
         <d v="2017-11-25T00:00:00"/>
@@ -10237,9 +10246,27 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="176" showAll="0"/>
+    <pivotField compact="0" numFmtId="178" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="177" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="177" showAll="0">
+      <items count="15">
+        <item x="11"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField compact="0" numFmtId="177" showAll="0">
       <items count="15">
         <item x="11"/>
@@ -10756,9 +10783,9 @@
   <dimension ref="A1:J1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A630" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="G630" sqref="G630"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -31692,6 +31719,9 @@
         <f t="shared" si="46"/>
         <v>621</v>
       </c>
+      <c r="B622" t="s">
+        <v>123</v>
+      </c>
       <c r="C622">
         <v>2</v>
       </c>
@@ -31725,6 +31755,9 @@
         <f t="shared" si="46"/>
         <v>622</v>
       </c>
+      <c r="B623" t="s">
+        <v>123</v>
+      </c>
       <c r="C623">
         <v>2</v>
       </c>
@@ -31758,6 +31791,9 @@
         <f t="shared" si="46"/>
         <v>623</v>
       </c>
+      <c r="B624" t="s">
+        <v>123</v>
+      </c>
       <c r="C624">
         <v>2</v>
       </c>
@@ -31791,6 +31827,9 @@
         <f t="shared" si="46"/>
         <v>624</v>
       </c>
+      <c r="B625" t="s">
+        <v>123</v>
+      </c>
       <c r="C625">
         <v>2</v>
       </c>
@@ -31824,6 +31863,9 @@
         <f t="shared" si="46"/>
         <v>625</v>
       </c>
+      <c r="B626" t="s">
+        <v>123</v>
+      </c>
       <c r="C626">
         <v>2</v>
       </c>
@@ -31857,6 +31899,9 @@
         <f t="shared" si="46"/>
         <v>626</v>
       </c>
+      <c r="B627" t="s">
+        <v>123</v>
+      </c>
       <c r="C627">
         <v>2</v>
       </c>
@@ -31890,20 +31935,35 @@
         <f t="shared" si="46"/>
         <v>627</v>
       </c>
+      <c r="B628" t="s">
+        <v>124</v>
+      </c>
       <c r="C628">
         <v>2</v>
+      </c>
+      <c r="D628">
+        <v>7</v>
+      </c>
+      <c r="E628" s="1">
+        <v>42966</v>
+      </c>
+      <c r="F628" s="2">
+        <v>2321</v>
+      </c>
+      <c r="G628" s="3">
+        <v>150000</v>
       </c>
       <c r="H628" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I628" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J628">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="629" spans="1:10">
@@ -31911,20 +31971,35 @@
         <f t="shared" si="46"/>
         <v>628</v>
       </c>
+      <c r="B629" t="s">
+        <v>124</v>
+      </c>
       <c r="C629">
         <v>2</v>
+      </c>
+      <c r="D629">
+        <v>8</v>
+      </c>
+      <c r="E629" s="1">
+        <v>42994</v>
+      </c>
+      <c r="F629" s="2">
+        <v>2411</v>
+      </c>
+      <c r="G629" s="3">
+        <v>150000</v>
       </c>
       <c r="H629" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I629" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J629">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="630" spans="1:10">
@@ -31932,20 +32007,35 @@
         <f t="shared" si="46"/>
         <v>629</v>
       </c>
+      <c r="B630" t="s">
+        <v>124</v>
+      </c>
       <c r="C630">
         <v>2</v>
+      </c>
+      <c r="D630">
+        <v>9</v>
+      </c>
+      <c r="E630" s="1">
+        <v>42994</v>
+      </c>
+      <c r="F630" s="2">
+        <v>2411</v>
+      </c>
+      <c r="G630" s="3">
+        <v>150000</v>
       </c>
       <c r="H630" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I630" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J630">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="631" spans="1:10">
@@ -31953,20 +32043,35 @@
         <f t="shared" si="46"/>
         <v>630</v>
       </c>
+      <c r="B631" t="s">
+        <v>124</v>
+      </c>
       <c r="C631">
         <v>2</v>
+      </c>
+      <c r="D631">
+        <v>10</v>
+      </c>
+      <c r="E631" s="1">
+        <v>43015</v>
+      </c>
+      <c r="F631" s="2">
+        <v>2508</v>
+      </c>
+      <c r="G631" s="3">
+        <v>150000</v>
       </c>
       <c r="H631" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I631" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J631">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="632" spans="1:10">
@@ -31974,20 +32079,35 @@
         <f t="shared" si="46"/>
         <v>631</v>
       </c>
+      <c r="B632" t="s">
+        <v>124</v>
+      </c>
       <c r="C632">
         <v>2</v>
+      </c>
+      <c r="D632">
+        <v>11</v>
+      </c>
+      <c r="E632" s="1">
+        <v>43050</v>
+      </c>
+      <c r="F632" s="2">
+        <v>2559</v>
+      </c>
+      <c r="G632" s="3">
+        <v>150000</v>
       </c>
       <c r="H632" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I632" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J632">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="633" spans="1:10">
@@ -31995,16 +32115,31 @@
         <f t="shared" si="46"/>
         <v>632</v>
       </c>
+      <c r="B633" t="s">
+        <v>124</v>
+      </c>
       <c r="C633">
         <v>2</v>
+      </c>
+      <c r="D633">
+        <v>12</v>
+      </c>
+      <c r="E633" s="1">
+        <v>43104</v>
+      </c>
+      <c r="F633" s="2">
+        <v>2716</v>
+      </c>
+      <c r="G633" s="3">
+        <v>150000</v>
       </c>
       <c r="H633" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I633" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J633">
         <f t="shared" si="48"/>
@@ -32016,20 +32151,35 @@
         <f t="shared" si="46"/>
         <v>633</v>
       </c>
+      <c r="B634" t="s">
+        <v>124</v>
+      </c>
       <c r="C634">
         <v>2</v>
+      </c>
+      <c r="D634">
+        <v>1</v>
+      </c>
+      <c r="E634" s="1">
+        <v>43141</v>
+      </c>
+      <c r="F634" s="2">
+        <v>2797</v>
+      </c>
+      <c r="G634" s="3">
+        <v>150000</v>
       </c>
       <c r="H634" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I634" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J634">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:10">
@@ -32037,20 +32187,35 @@
         <f t="shared" si="46"/>
         <v>634</v>
       </c>
+      <c r="B635" t="s">
+        <v>124</v>
+      </c>
       <c r="C635">
         <v>2</v>
+      </c>
+      <c r="D635">
+        <v>2</v>
+      </c>
+      <c r="E635" s="1">
+        <v>43141</v>
+      </c>
+      <c r="F635" s="2">
+        <v>2797</v>
+      </c>
+      <c r="G635" s="3">
+        <v>150000</v>
       </c>
       <c r="H635" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I635" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J635">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:10">
@@ -32058,20 +32223,32 @@
         <f t="shared" si="46"/>
         <v>635</v>
       </c>
+      <c r="B636" t="s">
+        <v>125</v>
+      </c>
       <c r="C636">
         <v>2</v>
+      </c>
+      <c r="D636">
+        <v>7</v>
+      </c>
+      <c r="E636" s="1">
+        <v>42938</v>
+      </c>
+      <c r="G636" s="3">
+        <v>200000</v>
       </c>
       <c r="H636" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>50000</v>
       </c>
       <c r="I636" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J636">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="637" spans="1:10">
@@ -32079,20 +32256,32 @@
         <f t="shared" si="46"/>
         <v>636</v>
       </c>
+      <c r="B637" t="s">
+        <v>125</v>
+      </c>
       <c r="C637">
         <v>2</v>
+      </c>
+      <c r="D637">
+        <v>8</v>
+      </c>
+      <c r="E637" s="1">
+        <v>42966</v>
+      </c>
+      <c r="G637" s="3">
+        <v>200000</v>
       </c>
       <c r="H637" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>50000</v>
       </c>
       <c r="I637" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J637">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="638" spans="1:10">
@@ -32100,20 +32289,32 @@
         <f t="shared" si="46"/>
         <v>637</v>
       </c>
+      <c r="B638" t="s">
+        <v>125</v>
+      </c>
       <c r="C638">
         <v>2</v>
+      </c>
+      <c r="D638">
+        <v>9</v>
+      </c>
+      <c r="E638" s="1">
+        <v>42994</v>
+      </c>
+      <c r="G638" s="3">
+        <v>200000</v>
       </c>
       <c r="H638" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>50000</v>
       </c>
       <c r="I638" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J638">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="639" spans="1:10">
@@ -32121,20 +32322,32 @@
         <f t="shared" si="46"/>
         <v>638</v>
       </c>
+      <c r="B639" t="s">
+        <v>125</v>
+      </c>
       <c r="C639">
         <v>2</v>
+      </c>
+      <c r="D639">
+        <v>10</v>
+      </c>
+      <c r="E639" s="1">
+        <v>43039</v>
+      </c>
+      <c r="G639" s="3">
+        <v>200000</v>
       </c>
       <c r="H639" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>50000</v>
       </c>
       <c r="I639" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J639">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="640" spans="1:10">
@@ -32142,20 +32355,32 @@
         <f t="shared" si="46"/>
         <v>639</v>
       </c>
+      <c r="B640" t="s">
+        <v>125</v>
+      </c>
       <c r="C640">
         <v>2</v>
+      </c>
+      <c r="D640">
+        <v>11</v>
+      </c>
+      <c r="E640" s="1">
+        <v>43050</v>
+      </c>
+      <c r="G640" s="3">
+        <v>200000</v>
       </c>
       <c r="H640" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>50000</v>
       </c>
       <c r="I640" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J640">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="641" spans="1:10">
@@ -32163,16 +32388,28 @@
         <f t="shared" si="46"/>
         <v>640</v>
       </c>
+      <c r="B641" t="s">
+        <v>125</v>
+      </c>
       <c r="C641">
         <v>2</v>
+      </c>
+      <c r="D641">
+        <v>12</v>
+      </c>
+      <c r="E641" s="1">
+        <v>43104</v>
+      </c>
+      <c r="G641" s="3">
+        <v>200000</v>
       </c>
       <c r="H641" s="3">
         <f t="shared" si="45"/>
-        <v>-150000</v>
+        <v>50000</v>
       </c>
       <c r="I641" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J641">
         <f t="shared" si="48"/>
@@ -32184,16 +32421,28 @@
         <f t="shared" si="46"/>
         <v>641</v>
       </c>
+      <c r="B642" t="s">
+        <v>125</v>
+      </c>
       <c r="C642">
         <v>2</v>
+      </c>
+      <c r="D642">
+        <v>1</v>
+      </c>
+      <c r="E642" s="1">
+        <v>43104</v>
+      </c>
+      <c r="G642" s="3">
+        <v>200000</v>
       </c>
       <c r="H642" s="3">
         <f t="shared" ref="H642:H705" si="49">G642-150000</f>
-        <v>-150000</v>
+        <v>50000</v>
       </c>
       <c r="I642" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J642">
         <f t="shared" si="48"/>
@@ -32205,26 +32454,41 @@
         <f t="shared" ref="A643:A706" si="50">A642+1</f>
         <v>642</v>
       </c>
+      <c r="B643" t="s">
+        <v>125</v>
+      </c>
       <c r="C643">
         <v>2</v>
+      </c>
+      <c r="D643">
+        <v>2</v>
+      </c>
+      <c r="E643" s="1">
+        <v>43148</v>
+      </c>
+      <c r="G643" s="3">
+        <v>200000</v>
       </c>
       <c r="H643" s="3">
         <f t="shared" si="49"/>
-        <v>-150000</v>
+        <v>50000</v>
       </c>
       <c r="I643" s="4">
         <f t="shared" si="47"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J643">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:10">
       <c r="A644">
         <f t="shared" si="50"/>
         <v>643</v>
+      </c>
+      <c r="B644" t="s">
+        <v>126</v>
       </c>
       <c r="C644">
         <v>2</v>

--- a/SPP.xlsx
+++ b/SPP.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138">
   <si>
     <t>Tahun Bayar</t>
   </si>
@@ -412,6 +412,12 @@
     <t>MUHAMMAD ARIFAN</t>
   </si>
   <si>
+    <t>MUHAMMAD ZUHDI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD SHALIH</t>
+  </si>
+  <si>
     <t>Pemasukan Yang Harus Dicek ulang</t>
   </si>
   <si>
@@ -439,10 +445,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -470,7 +476,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,7 +507,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,29 +515,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -538,14 +537,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -560,16 +551,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,22 +575,37 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -615,13 +621,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,31 +717,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,19 +747,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,13 +777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,85 +789,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,30 +812,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -844,6 +826,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,11 +898,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,13 +917,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -929,40 +935,40 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -971,88 +977,88 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,7 +1066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1081,7 +1087,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1090,7 +1096,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1156,7 +1162,7 @@
       <numFmt numFmtId="180" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2126,7 +2132,7 @@
         <n v="2766"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="SPP" numFmtId="177">
+    <cacheField name="SPP" numFmtId="178">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100000" maxValue="500000" count="14">
         <n v="350000"/>
         <n v="450000"/>
@@ -2144,7 +2150,7 @@
         <n v="160000"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Non Pendidikan" numFmtId="177">
+    <cacheField name="Non Pendidikan" numFmtId="178">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-50000" maxValue="350000" count="14">
         <n v="200000"/>
         <n v="300000"/>
@@ -10276,7 +10282,7 @@
     </pivotField>
     <pivotField compact="0" numFmtId="176" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="177" showAll="0">
+    <pivotField dataField="1" compact="0" numFmtId="178" showAll="0">
       <items count="15">
         <item x="11"/>
         <item x="12"/>
@@ -10295,7 +10301,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="177" showAll="0">
+    <pivotField compact="0" numFmtId="178" showAll="0">
       <items count="15">
         <item x="11"/>
         <item x="12"/>
@@ -10811,9 +10817,9 @@
   <dimension ref="A1:J1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A641" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A654" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G644" sqref="G644"/>
+      <selection pane="bottomLeft" activeCell="F677" sqref="F677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -33151,20 +33157,35 @@
         <f t="shared" si="50"/>
         <v>660</v>
       </c>
+      <c r="B661" t="s">
+        <v>129</v>
+      </c>
       <c r="C661">
         <v>2</v>
+      </c>
+      <c r="D661">
+        <v>7</v>
+      </c>
+      <c r="E661" s="2">
+        <v>42966</v>
+      </c>
+      <c r="F661" s="3">
+        <v>2320</v>
+      </c>
+      <c r="G661" s="1">
+        <v>150000</v>
       </c>
       <c r="H661" s="1">
         <f t="shared" si="49"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I661" s="4">
         <f t="shared" si="51"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J661">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="662" spans="1:10">
@@ -33172,20 +33193,35 @@
         <f t="shared" si="50"/>
         <v>661</v>
       </c>
+      <c r="B662" t="s">
+        <v>129</v>
+      </c>
       <c r="C662">
         <v>2</v>
+      </c>
+      <c r="D662">
+        <v>8</v>
+      </c>
+      <c r="E662" s="2">
+        <v>42966</v>
+      </c>
+      <c r="F662" s="3">
+        <v>2320</v>
+      </c>
+      <c r="G662" s="1">
+        <v>150000</v>
       </c>
       <c r="H662" s="1">
         <f t="shared" si="49"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I662" s="4">
         <f t="shared" si="51"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J662">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="663" spans="1:10">
@@ -33193,20 +33229,35 @@
         <f t="shared" si="50"/>
         <v>662</v>
       </c>
+      <c r="B663" t="s">
+        <v>129</v>
+      </c>
       <c r="C663">
         <v>2</v>
+      </c>
+      <c r="D663">
+        <v>9</v>
+      </c>
+      <c r="E663" s="2">
+        <v>43008</v>
+      </c>
+      <c r="F663" s="3">
+        <v>2429</v>
+      </c>
+      <c r="G663" s="1">
+        <v>150000</v>
       </c>
       <c r="H663" s="1">
         <f t="shared" si="49"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I663" s="4">
         <f t="shared" si="51"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J663">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="664" spans="1:10">
@@ -33214,20 +33265,35 @@
         <f t="shared" si="50"/>
         <v>663</v>
       </c>
+      <c r="B664" t="s">
+        <v>129</v>
+      </c>
       <c r="C664">
         <v>2</v>
+      </c>
+      <c r="D664">
+        <v>10</v>
+      </c>
+      <c r="E664" s="2">
+        <v>43029</v>
+      </c>
+      <c r="F664" s="3">
+        <v>2462</v>
+      </c>
+      <c r="G664" s="1">
+        <v>150000</v>
       </c>
       <c r="H664" s="1">
         <f t="shared" si="49"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I664" s="4">
         <f t="shared" si="51"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J664">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="665" spans="1:10">
@@ -33235,20 +33301,35 @@
         <f t="shared" si="50"/>
         <v>664</v>
       </c>
+      <c r="B665" t="s">
+        <v>129</v>
+      </c>
       <c r="C665">
         <v>2</v>
+      </c>
+      <c r="D665">
+        <v>11</v>
+      </c>
+      <c r="E665" s="2">
+        <v>43085</v>
+      </c>
+      <c r="F665" s="3">
+        <v>2646</v>
+      </c>
+      <c r="G665" s="1">
+        <v>150000</v>
       </c>
       <c r="H665" s="1">
         <f t="shared" si="49"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I665" s="4">
         <f t="shared" si="51"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J665">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="666" spans="1:10">
@@ -33256,16 +33337,31 @@
         <f t="shared" si="50"/>
         <v>665</v>
       </c>
+      <c r="B666" t="s">
+        <v>129</v>
+      </c>
       <c r="C666">
         <v>2</v>
+      </c>
+      <c r="D666">
+        <v>12</v>
+      </c>
+      <c r="E666" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F666" s="3">
+        <v>2706</v>
+      </c>
+      <c r="G666" s="1">
+        <v>150000</v>
       </c>
       <c r="H666" s="1">
         <f t="shared" si="49"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I666" s="4">
         <f t="shared" si="51"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J666">
         <f t="shared" si="52"/>
@@ -33277,20 +33373,35 @@
         <f t="shared" si="50"/>
         <v>666</v>
       </c>
+      <c r="B667" t="s">
+        <v>129</v>
+      </c>
       <c r="C667">
         <v>2</v>
+      </c>
+      <c r="D667">
+        <v>1</v>
+      </c>
+      <c r="E667" s="2">
+        <v>43148</v>
+      </c>
+      <c r="F667" s="3">
+        <v>2814</v>
+      </c>
+      <c r="G667" s="1">
+        <v>150000</v>
       </c>
       <c r="H667" s="1">
         <f t="shared" si="49"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I667" s="4">
         <f t="shared" si="51"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J667">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:10">
@@ -33298,20 +33409,35 @@
         <f t="shared" si="50"/>
         <v>667</v>
       </c>
+      <c r="B668" t="s">
+        <v>129</v>
+      </c>
       <c r="C668">
         <v>2</v>
+      </c>
+      <c r="D668">
+        <v>2</v>
+      </c>
+      <c r="E668" s="2">
+        <v>43162</v>
+      </c>
+      <c r="F668" s="3">
+        <v>2845</v>
+      </c>
+      <c r="G668" s="1">
+        <v>150000</v>
       </c>
       <c r="H668" s="1">
         <f t="shared" si="49"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I668" s="4">
         <f t="shared" si="51"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J668">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="669" spans="1:10">
@@ -33319,20 +33445,35 @@
         <f t="shared" si="50"/>
         <v>668</v>
       </c>
+      <c r="B669" t="s">
+        <v>130</v>
+      </c>
       <c r="C669">
         <v>2</v>
+      </c>
+      <c r="D669">
+        <v>7</v>
+      </c>
+      <c r="E669" s="2">
+        <v>42969</v>
+      </c>
+      <c r="F669" s="3">
+        <v>2313</v>
+      </c>
+      <c r="G669" s="1">
+        <v>150000</v>
       </c>
       <c r="H669" s="1">
         <f t="shared" si="49"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I669" s="4">
         <f t="shared" si="51"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J669">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="670" spans="1:10">
@@ -33340,20 +33481,35 @@
         <f t="shared" si="50"/>
         <v>669</v>
       </c>
+      <c r="B670" t="s">
+        <v>130</v>
+      </c>
       <c r="C670">
         <v>2</v>
+      </c>
+      <c r="D670">
+        <v>8</v>
+      </c>
+      <c r="E670" s="2">
+        <v>42969</v>
+      </c>
+      <c r="F670" s="3">
+        <v>2313</v>
+      </c>
+      <c r="G670" s="1">
+        <v>150000</v>
       </c>
       <c r="H670" s="1">
         <f t="shared" si="49"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I670" s="4">
         <f t="shared" si="51"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J670">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="671" spans="1:10">
@@ -33361,20 +33517,35 @@
         <f t="shared" si="50"/>
         <v>670</v>
       </c>
+      <c r="B671" t="s">
+        <v>130</v>
+      </c>
       <c r="C671">
         <v>2</v>
+      </c>
+      <c r="D671">
+        <v>9</v>
+      </c>
+      <c r="E671" s="2">
+        <v>43008</v>
+      </c>
+      <c r="F671" s="3">
+        <v>2392</v>
+      </c>
+      <c r="G671" s="1">
+        <v>150000</v>
       </c>
       <c r="H671" s="1">
         <f t="shared" si="49"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I671" s="4">
         <f t="shared" si="51"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J671">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="672" spans="1:10">
@@ -33382,20 +33553,35 @@
         <f t="shared" si="50"/>
         <v>671</v>
       </c>
+      <c r="B672" t="s">
+        <v>130</v>
+      </c>
       <c r="C672">
         <v>2</v>
+      </c>
+      <c r="D672">
+        <v>10</v>
+      </c>
+      <c r="E672" s="2">
+        <v>43057</v>
+      </c>
+      <c r="F672" s="3">
+        <v>2575</v>
+      </c>
+      <c r="G672" s="1">
+        <v>150000</v>
       </c>
       <c r="H672" s="1">
         <f t="shared" si="49"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I672" s="4">
         <f t="shared" si="51"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J672">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="673" spans="1:10">
@@ -33403,20 +33589,35 @@
         <f t="shared" si="50"/>
         <v>672</v>
       </c>
+      <c r="B673" t="s">
+        <v>130</v>
+      </c>
       <c r="C673">
         <v>2</v>
+      </c>
+      <c r="D673">
+        <v>11</v>
+      </c>
+      <c r="E673" s="2">
+        <v>43057</v>
+      </c>
+      <c r="F673" s="3">
+        <v>2575</v>
+      </c>
+      <c r="G673" s="1">
+        <v>150000</v>
       </c>
       <c r="H673" s="1">
         <f t="shared" si="49"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I673" s="4">
         <f t="shared" si="51"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J673">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="674" spans="1:10">
@@ -33424,16 +33625,31 @@
         <f t="shared" si="50"/>
         <v>673</v>
       </c>
+      <c r="B674" t="s">
+        <v>130</v>
+      </c>
       <c r="C674">
         <v>2</v>
+      </c>
+      <c r="D674">
+        <v>12</v>
+      </c>
+      <c r="E674" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F674" s="3">
+        <v>2759</v>
+      </c>
+      <c r="G674" s="1">
+        <v>150000</v>
       </c>
       <c r="H674" s="1">
         <f t="shared" si="49"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I674" s="4">
         <f t="shared" si="51"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J674">
         <f t="shared" si="52"/>
@@ -33445,20 +33661,35 @@
         <f t="shared" si="50"/>
         <v>674</v>
       </c>
+      <c r="B675" t="s">
+        <v>130</v>
+      </c>
       <c r="C675">
         <v>2</v>
+      </c>
+      <c r="D675">
+        <v>1</v>
+      </c>
+      <c r="E675" s="2">
+        <v>43162</v>
+      </c>
+      <c r="F675" s="3">
+        <v>2850</v>
+      </c>
+      <c r="G675" s="1">
+        <v>150000</v>
       </c>
       <c r="H675" s="1">
         <f t="shared" si="49"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I675" s="4">
         <f t="shared" si="51"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J675">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="676" spans="1:10">
@@ -33466,20 +33697,35 @@
         <f t="shared" si="50"/>
         <v>675</v>
       </c>
+      <c r="B676" t="s">
+        <v>130</v>
+      </c>
       <c r="C676">
         <v>2</v>
+      </c>
+      <c r="D676">
+        <v>2</v>
+      </c>
+      <c r="E676" s="2">
+        <v>43162</v>
+      </c>
+      <c r="F676" s="3">
+        <v>2850</v>
+      </c>
+      <c r="G676" s="1">
+        <v>150000</v>
       </c>
       <c r="H676" s="1">
         <f t="shared" si="49"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I676" s="4">
         <f t="shared" si="51"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J676">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="677" spans="1:10">
@@ -40560,7 +40806,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -40571,13 +40817,13 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -40588,13 +40834,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E3" s="1">
         <v>2000000</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -40602,13 +40848,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E4" s="1">
         <v>2000000</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -40616,7 +40862,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E5" s="1">
         <v>600000</v>

--- a/SPP.xlsx
+++ b/SPP.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DETAIL!$A$1:$J$706</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DETAIL!$A$1:$J$908</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
   <si>
     <t>Tahun Bayar</t>
   </si>
@@ -430,6 +430,66 @@
     <t>AHMAD BIN SUTRIS</t>
   </si>
   <si>
+    <t>ISA BIN FATHONI</t>
+  </si>
+  <si>
+    <t>KHUZAIMAH</t>
+  </si>
+  <si>
+    <t>HAMAM BIN MARYONO</t>
+  </si>
+  <si>
+    <t>ISMAIL BIN PANUJU</t>
+  </si>
+  <si>
+    <t>TAYMULLAH BIN TANTO</t>
+  </si>
+  <si>
+    <t>ABDULLAH BIN HARI</t>
+  </si>
+  <si>
+    <t>YUSUF BIN POLO</t>
+  </si>
+  <si>
+    <t>AYYUB BIN POLO</t>
+  </si>
+  <si>
+    <t>MUSA BIN ICOK</t>
+  </si>
+  <si>
+    <t>TUBAGUS M HAFIDH</t>
+  </si>
+  <si>
+    <t>UBAIDULLAH</t>
+  </si>
+  <si>
+    <t>USAMAH BIN KAMTO</t>
+  </si>
+  <si>
+    <t>ZAKARIA BIN AMIN</t>
+  </si>
+  <si>
+    <t>ZIDANE FATHURRAHMAN</t>
+  </si>
+  <si>
+    <t>THUFAIL</t>
+  </si>
+  <si>
+    <t>ABDUL AZIZ BIN AGUNG</t>
+  </si>
+  <si>
+    <t>AMJAD AL MURTADLO</t>
+  </si>
+  <si>
+    <t>YAZID BIN YANI</t>
+  </si>
+  <si>
+    <t>ANAS AL ATSARI</t>
+  </si>
+  <si>
+    <t>ABDURRAZAQ BIN ICOK</t>
+  </si>
+  <si>
     <t>Pemasukan Yang Harus Dicek ulang</t>
   </si>
   <si>
@@ -456,12 +516,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -487,6 +547,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -494,8 +570,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -511,15 +594,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,29 +603,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,30 +619,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,29 +633,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,19 +693,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,19 +729,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,73 +771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,6 +789,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -789,19 +837,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,24 +913,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -893,19 +940,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,18 +960,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -947,130 +1007,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,10 +1138,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1093,13 +1153,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1111,7 +1171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1177,7 +1237,7 @@
       <numFmt numFmtId="180" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1948,7 +2008,7 @@
         <n v="4"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Tanggal" numFmtId="176">
+    <cacheField name="Tanggal" numFmtId="178">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNonDate="0" containsDate="1" minDate="2017-01-04T00:00:00" maxDate="2018-09-17T00:00:00" count="94">
         <d v="2017-09-09T00:00:00"/>
         <d v="2017-11-25T00:00:00"/>
@@ -2147,7 +2207,7 @@
         <n v="2766"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="SPP" numFmtId="177">
+    <cacheField name="SPP" numFmtId="179">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100000" maxValue="500000" count="14">
         <n v="350000"/>
         <n v="450000"/>
@@ -2165,7 +2225,7 @@
         <n v="160000"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Non Pendidikan" numFmtId="177">
+    <cacheField name="Non Pendidikan" numFmtId="179">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-50000" maxValue="350000" count="14">
         <n v="200000"/>
         <n v="300000"/>
@@ -10295,9 +10355,9 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="176" showAll="0"/>
+    <pivotField compact="0" numFmtId="178" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="177" showAll="0">
+    <pivotField dataField="1" compact="0" numFmtId="179" showAll="0">
       <items count="15">
         <item x="11"/>
         <item x="12"/>
@@ -10316,7 +10376,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="177" showAll="0">
+    <pivotField compact="0" numFmtId="179" showAll="0">
       <items count="15">
         <item x="11"/>
         <item x="12"/>
@@ -10829,12 +10889,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J712"/>
+  <dimension ref="A1:J917"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A691" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A905" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D713" sqref="D713"/>
+      <selection pane="bottomLeft" activeCell="A918" sqref="A918"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -14660,21 +14720,21 @@
         <v>200000</v>
       </c>
       <c r="H114" s="1">
-        <f>G114-150000</f>
+        <f t="shared" si="6"/>
         <v>50000</v>
       </c>
       <c r="I114" s="4">
-        <f>YEAR(E114)</f>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="J114">
-        <f>MONTH(E114)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115">
-        <f>A114+1</f>
+        <f t="shared" si="9"/>
         <v>114</v>
       </c>
       <c r="B115" t="s">
@@ -14694,21 +14754,21 @@
         <v>200000</v>
       </c>
       <c r="H115" s="1">
-        <f>G115-150000</f>
+        <f t="shared" si="6"/>
         <v>50000</v>
       </c>
       <c r="I115" s="4">
-        <f>YEAR(E115)</f>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="J115">
-        <f>MONTH(E115)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116">
-        <f>A115+1</f>
+        <f t="shared" si="9"/>
         <v>115</v>
       </c>
       <c r="B116" t="s">
@@ -14728,21 +14788,21 @@
         <v>200000</v>
       </c>
       <c r="H116" s="1">
-        <f>G116-150000</f>
+        <f t="shared" si="6"/>
         <v>50000</v>
       </c>
       <c r="I116" s="4">
-        <f>YEAR(E116)</f>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="J116">
-        <f>MONTH(E116)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117">
-        <f>A116+1</f>
+        <f t="shared" si="9"/>
         <v>116</v>
       </c>
       <c r="B117" t="s">
@@ -14762,21 +14822,21 @@
         <v>200000</v>
       </c>
       <c r="H117" s="1">
-        <f>G117-150000</f>
+        <f t="shared" si="6"/>
         <v>50000</v>
       </c>
       <c r="I117" s="4">
-        <f>YEAR(E117)</f>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="J117">
-        <f>MONTH(E117)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118">
-        <f>A117+1</f>
+        <f t="shared" si="9"/>
         <v>117</v>
       </c>
       <c r="B118" t="s">
@@ -14796,21 +14856,21 @@
         <v>200000</v>
       </c>
       <c r="H118" s="1">
-        <f>G118-150000</f>
+        <f t="shared" si="6"/>
         <v>50000</v>
       </c>
       <c r="I118" s="4">
-        <f>YEAR(E118)</f>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="J118">
-        <f>MONTH(E118)</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119">
-        <f>A118+1</f>
+        <f t="shared" si="9"/>
         <v>118</v>
       </c>
       <c r="B119" t="s">
@@ -14830,21 +14890,21 @@
         <v>200000</v>
       </c>
       <c r="H119" s="1">
-        <f>G119-150000</f>
+        <f t="shared" si="6"/>
         <v>50000</v>
       </c>
       <c r="I119" s="4">
-        <f>YEAR(E119)</f>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="J119">
-        <f>MONTH(E119)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120">
-        <f>A119+1</f>
+        <f t="shared" si="9"/>
         <v>119</v>
       </c>
       <c r="B120" t="s">
@@ -14864,21 +14924,21 @@
         <v>200000</v>
       </c>
       <c r="H120" s="1">
-        <f>G120-150000</f>
+        <f t="shared" si="6"/>
         <v>50000</v>
       </c>
       <c r="I120" s="4">
-        <f>YEAR(E120)</f>
+        <f t="shared" si="7"/>
         <v>2018</v>
       </c>
       <c r="J120">
-        <f>MONTH(E120)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121">
-        <f>A120+1</f>
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
       <c r="B121" t="s">
@@ -14897,21 +14957,21 @@
         <v>375000</v>
       </c>
       <c r="H121" s="1">
-        <f>G121-150000</f>
+        <f t="shared" si="6"/>
         <v>225000</v>
       </c>
       <c r="I121" s="4">
-        <f>YEAR(E121)</f>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="J121">
-        <f>MONTH(E121)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122">
-        <f>A121+1</f>
+        <f t="shared" si="9"/>
         <v>121</v>
       </c>
       <c r="B122" t="s">
@@ -14930,21 +14990,21 @@
         <v>375000</v>
       </c>
       <c r="H122" s="1">
-        <f>G122-150000</f>
+        <f t="shared" si="6"/>
         <v>225000</v>
       </c>
       <c r="I122" s="4">
-        <f>YEAR(E122)</f>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="J122">
-        <f>MONTH(E122)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123">
-        <f>A122+1</f>
+        <f t="shared" si="9"/>
         <v>122</v>
       </c>
       <c r="B123" t="s">
@@ -14963,21 +15023,21 @@
         <v>375000</v>
       </c>
       <c r="H123" s="1">
-        <f>G123-150000</f>
+        <f t="shared" si="6"/>
         <v>225000</v>
       </c>
       <c r="I123" s="4">
-        <f>YEAR(E123)</f>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="J123">
-        <f>MONTH(E123)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124">
-        <f>A123+1</f>
+        <f t="shared" si="9"/>
         <v>123</v>
       </c>
       <c r="B124" t="s">
@@ -14996,21 +15056,21 @@
         <v>375000</v>
       </c>
       <c r="H124" s="1">
-        <f>G124-150000</f>
+        <f t="shared" si="6"/>
         <v>225000</v>
       </c>
       <c r="I124" s="4">
-        <f>YEAR(E124)</f>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="J124">
-        <f>MONTH(E124)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125">
-        <f>A124+1</f>
+        <f t="shared" si="9"/>
         <v>124</v>
       </c>
       <c r="B125" t="s">
@@ -15029,21 +15089,21 @@
         <v>375000</v>
       </c>
       <c r="H125" s="1">
-        <f>G125-150000</f>
+        <f t="shared" si="6"/>
         <v>225000</v>
       </c>
       <c r="I125" s="4">
-        <f>YEAR(E125)</f>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="J125">
-        <f>MONTH(E125)</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126">
-        <f>A125+1</f>
+        <f t="shared" si="9"/>
         <v>125</v>
       </c>
       <c r="B126" t="s">
@@ -15062,21 +15122,21 @@
         <v>375000</v>
       </c>
       <c r="H126" s="1">
-        <f>G126-150000</f>
+        <f t="shared" si="6"/>
         <v>225000</v>
       </c>
       <c r="I126" s="4">
-        <f>YEAR(E126)</f>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="J126">
-        <f>MONTH(E126)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127">
-        <f>A126+1</f>
+        <f t="shared" si="9"/>
         <v>126</v>
       </c>
       <c r="B127" t="s">
@@ -15095,21 +15155,21 @@
         <v>375000</v>
       </c>
       <c r="H127" s="1">
-        <f>G127-150000</f>
+        <f t="shared" si="6"/>
         <v>225000</v>
       </c>
       <c r="I127" s="4">
-        <f>YEAR(E127)</f>
+        <f t="shared" si="7"/>
         <v>2018</v>
       </c>
       <c r="J127">
-        <f>MONTH(E127)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128">
-        <f>A127+1</f>
+        <f t="shared" si="9"/>
         <v>127</v>
       </c>
       <c r="B128" t="s">
@@ -15128,21 +15188,21 @@
         <v>450000</v>
       </c>
       <c r="H128" s="1">
-        <f>G128-150000</f>
+        <f t="shared" si="6"/>
         <v>300000</v>
       </c>
       <c r="I128" s="4">
-        <f>YEAR(E128)</f>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="J128">
-        <f>MONTH(E128)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129">
-        <f>A128+1</f>
+        <f t="shared" si="9"/>
         <v>128</v>
       </c>
       <c r="B129" t="s">
@@ -24901,6 +24961,9 @@
       <c r="E423" s="2">
         <v>42932</v>
       </c>
+      <c r="F423" s="3">
+        <v>2258</v>
+      </c>
       <c r="G423" s="1">
         <v>450000</v>
       </c>
@@ -24934,6 +24997,9 @@
       <c r="E424" s="2">
         <v>42932</v>
       </c>
+      <c r="F424" s="3">
+        <v>2258</v>
+      </c>
       <c r="G424" s="1">
         <v>450000</v>
       </c>
@@ -24967,6 +25033,9 @@
       <c r="E425" s="2">
         <v>42983</v>
       </c>
+      <c r="F425" s="3">
+        <v>2350</v>
+      </c>
       <c r="G425" s="1">
         <v>450000</v>
       </c>
@@ -25000,6 +25069,9 @@
       <c r="E426" s="2">
         <v>43019</v>
       </c>
+      <c r="F426" s="3">
+        <v>2527</v>
+      </c>
       <c r="G426" s="1">
         <v>450000</v>
       </c>
@@ -25033,6 +25105,9 @@
       <c r="E427" s="2">
         <v>43019</v>
       </c>
+      <c r="F427" s="3">
+        <v>2527</v>
+      </c>
       <c r="G427" s="1">
         <v>450000</v>
       </c>
@@ -25066,6 +25141,9 @@
       <c r="E428" s="2">
         <v>43085</v>
       </c>
+      <c r="F428" s="3">
+        <v>2649</v>
+      </c>
       <c r="G428" s="1">
         <v>450000</v>
       </c>
@@ -25099,6 +25177,9 @@
       <c r="E429" s="2">
         <v>43131</v>
       </c>
+      <c r="F429" s="3">
+        <v>2754</v>
+      </c>
       <c r="G429" s="1">
         <v>450000</v>
       </c>
@@ -25132,6 +25213,9 @@
       <c r="E430" s="2">
         <v>43131</v>
       </c>
+      <c r="F430" s="3">
+        <v>2754</v>
+      </c>
       <c r="G430" s="1">
         <v>450000</v>
       </c>
@@ -25163,7 +25247,10 @@
         <v>3</v>
       </c>
       <c r="E431" s="2">
-        <v>43134</v>
+        <v>43176</v>
+      </c>
+      <c r="F431" s="3">
+        <v>2896</v>
       </c>
       <c r="G431" s="1">
         <v>450000</v>
@@ -25178,7 +25265,7 @@
       </c>
       <c r="J431">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="432" spans="1:10">
@@ -25196,7 +25283,10 @@
         <v>4</v>
       </c>
       <c r="E432" s="2">
-        <v>43134</v>
+        <v>43176</v>
+      </c>
+      <c r="F432" s="3">
+        <v>2896</v>
       </c>
       <c r="G432" s="1">
         <v>450000</v>
@@ -25211,7 +25301,7 @@
       </c>
       <c r="J432">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433" spans="1:10">
@@ -33853,7 +33943,7 @@
     </row>
     <row r="677" spans="1:10">
       <c r="A677">
-        <f t="shared" ref="A677:A712" si="53">A676+1</f>
+        <f t="shared" ref="A677:A740" si="53">A676+1</f>
         <v>676</v>
       </c>
       <c r="B677" t="s">
@@ -33875,15 +33965,15 @@
         <v>150000</v>
       </c>
       <c r="H677" s="1">
-        <f t="shared" ref="H677:H712" si="54">G677-150000</f>
+        <f t="shared" ref="H677:H740" si="54">G677-150000</f>
         <v>0</v>
       </c>
       <c r="I677" s="4">
-        <f t="shared" ref="I677:I712" si="55">YEAR(E677)</f>
+        <f t="shared" ref="I677:I740" si="55">YEAR(E677)</f>
         <v>2018</v>
       </c>
       <c r="J677">
-        <f t="shared" ref="J677:J712" si="56">MONTH(E677)</f>
+        <f t="shared" ref="J677:J740" si="56">MONTH(E677)</f>
         <v>10</v>
       </c>
     </row>
@@ -35147,8 +35237,7273 @@
         <v>3</v>
       </c>
     </row>
+    <row r="713" spans="1:10">
+      <c r="A713">
+        <f t="shared" si="53"/>
+        <v>712</v>
+      </c>
+      <c r="B713" t="s">
+        <v>79</v>
+      </c>
+      <c r="C713">
+        <v>9</v>
+      </c>
+      <c r="D713">
+        <v>3</v>
+      </c>
+      <c r="E713" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F713" s="3">
+        <v>2894</v>
+      </c>
+      <c r="G713" s="1">
+        <v>300000</v>
+      </c>
+      <c r="H713" s="1">
+        <f t="shared" si="54"/>
+        <v>150000</v>
+      </c>
+      <c r="I713" s="4">
+        <f t="shared" si="55"/>
+        <v>2018</v>
+      </c>
+      <c r="J713">
+        <f t="shared" si="56"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="714" spans="1:10">
+      <c r="A714">
+        <f t="shared" si="53"/>
+        <v>713</v>
+      </c>
+      <c r="B714" t="s">
+        <v>79</v>
+      </c>
+      <c r="C714">
+        <v>9</v>
+      </c>
+      <c r="D714">
+        <v>4</v>
+      </c>
+      <c r="E714" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F714" s="3">
+        <v>2894</v>
+      </c>
+      <c r="G714" s="1">
+        <v>300000</v>
+      </c>
+      <c r="H714" s="1">
+        <f t="shared" si="54"/>
+        <v>150000</v>
+      </c>
+      <c r="I714" s="4">
+        <f t="shared" si="55"/>
+        <v>2018</v>
+      </c>
+      <c r="J714">
+        <f t="shared" si="56"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="715" spans="1:10">
+      <c r="A715">
+        <f t="shared" si="53"/>
+        <v>714</v>
+      </c>
+      <c r="B715" t="s">
+        <v>123</v>
+      </c>
+      <c r="C715">
+        <v>2</v>
+      </c>
+      <c r="D715">
+        <v>2</v>
+      </c>
+      <c r="E715" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F715" s="3">
+        <v>2895</v>
+      </c>
+      <c r="G715" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H715" s="1">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="I715" s="4">
+        <f t="shared" si="55"/>
+        <v>2018</v>
+      </c>
+      <c r="J715">
+        <f t="shared" si="56"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="716" spans="1:10">
+      <c r="A716">
+        <f t="shared" si="53"/>
+        <v>715</v>
+      </c>
+      <c r="B716" t="s">
+        <v>103</v>
+      </c>
+      <c r="C716">
+        <v>1</v>
+      </c>
+      <c r="D716">
+        <v>11</v>
+      </c>
+      <c r="E716" s="2">
+        <v>43148</v>
+      </c>
+      <c r="F716" s="3">
+        <v>2818</v>
+      </c>
+      <c r="G716" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H716" s="1">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="I716" s="4">
+        <f t="shared" si="55"/>
+        <v>2018</v>
+      </c>
+      <c r="J716">
+        <f t="shared" si="56"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="717" spans="1:10">
+      <c r="A717">
+        <f t="shared" si="53"/>
+        <v>716</v>
+      </c>
+      <c r="B717" t="s">
+        <v>103</v>
+      </c>
+      <c r="C717">
+        <v>1</v>
+      </c>
+      <c r="D717">
+        <v>12</v>
+      </c>
+      <c r="E717" s="2">
+        <v>43148</v>
+      </c>
+      <c r="F717" s="3">
+        <v>2818</v>
+      </c>
+      <c r="G717" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H717" s="1">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="I717" s="4">
+        <f t="shared" si="55"/>
+        <v>2018</v>
+      </c>
+      <c r="J717">
+        <f t="shared" si="56"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="718" spans="1:10">
+      <c r="A718">
+        <f t="shared" si="53"/>
+        <v>717</v>
+      </c>
+      <c r="B718" t="s">
+        <v>103</v>
+      </c>
+      <c r="C718">
+        <v>1</v>
+      </c>
+      <c r="D718">
+        <v>1</v>
+      </c>
+      <c r="E718" s="2">
+        <v>43148</v>
+      </c>
+      <c r="F718" s="3">
+        <v>2818</v>
+      </c>
+      <c r="G718" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H718" s="1">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="I718" s="4">
+        <f t="shared" si="55"/>
+        <v>2018</v>
+      </c>
+      <c r="J718">
+        <f t="shared" si="56"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="719" spans="1:10">
+      <c r="A719">
+        <f t="shared" si="53"/>
+        <v>718</v>
+      </c>
+      <c r="B719" t="s">
+        <v>103</v>
+      </c>
+      <c r="C719">
+        <v>1</v>
+      </c>
+      <c r="D719">
+        <v>2</v>
+      </c>
+      <c r="E719" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F719" s="3">
+        <v>2897</v>
+      </c>
+      <c r="G719" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H719" s="1">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="I719" s="4">
+        <f t="shared" si="55"/>
+        <v>2018</v>
+      </c>
+      <c r="J719">
+        <f t="shared" si="56"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="720" spans="1:10">
+      <c r="A720">
+        <f t="shared" si="53"/>
+        <v>719</v>
+      </c>
+      <c r="B720" t="s">
+        <v>135</v>
+      </c>
+      <c r="C720">
+        <v>3</v>
+      </c>
+      <c r="D720">
+        <v>7</v>
+      </c>
+      <c r="E720" s="2">
+        <v>42917</v>
+      </c>
+      <c r="G720" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H720" s="1">
+        <f t="shared" si="54"/>
+        <v>-50000</v>
+      </c>
+      <c r="I720" s="4">
+        <f t="shared" si="55"/>
+        <v>2017</v>
+      </c>
+      <c r="J720">
+        <f t="shared" si="56"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="721" spans="1:10">
+      <c r="A721">
+        <f t="shared" si="53"/>
+        <v>720</v>
+      </c>
+      <c r="B721" t="s">
+        <v>135</v>
+      </c>
+      <c r="C721">
+        <v>3</v>
+      </c>
+      <c r="D721">
+        <v>8</v>
+      </c>
+      <c r="E721" s="2">
+        <f t="shared" ref="E721:E727" si="57">E720+31</f>
+        <v>42948</v>
+      </c>
+      <c r="G721" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H721" s="1">
+        <f t="shared" si="54"/>
+        <v>-50000</v>
+      </c>
+      <c r="I721" s="4">
+        <f t="shared" si="55"/>
+        <v>2017</v>
+      </c>
+      <c r="J721">
+        <f t="shared" si="56"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="722" spans="1:10">
+      <c r="A722">
+        <f t="shared" si="53"/>
+        <v>721</v>
+      </c>
+      <c r="B722" t="s">
+        <v>135</v>
+      </c>
+      <c r="C722">
+        <v>3</v>
+      </c>
+      <c r="D722">
+        <v>9</v>
+      </c>
+      <c r="E722" s="2">
+        <f t="shared" si="57"/>
+        <v>42979</v>
+      </c>
+      <c r="G722" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H722" s="1">
+        <f t="shared" si="54"/>
+        <v>-50000</v>
+      </c>
+      <c r="I722" s="4">
+        <f t="shared" si="55"/>
+        <v>2017</v>
+      </c>
+      <c r="J722">
+        <f t="shared" si="56"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="723" spans="1:10">
+      <c r="A723">
+        <f t="shared" si="53"/>
+        <v>722</v>
+      </c>
+      <c r="B723" t="s">
+        <v>135</v>
+      </c>
+      <c r="C723">
+        <v>3</v>
+      </c>
+      <c r="D723">
+        <v>10</v>
+      </c>
+      <c r="E723" s="2">
+        <f t="shared" si="57"/>
+        <v>43010</v>
+      </c>
+      <c r="G723" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H723" s="1">
+        <f t="shared" si="54"/>
+        <v>-50000</v>
+      </c>
+      <c r="I723" s="4">
+        <f t="shared" si="55"/>
+        <v>2017</v>
+      </c>
+      <c r="J723">
+        <f t="shared" si="56"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="724" spans="1:10">
+      <c r="A724">
+        <f t="shared" si="53"/>
+        <v>723</v>
+      </c>
+      <c r="B724" t="s">
+        <v>135</v>
+      </c>
+      <c r="C724">
+        <v>3</v>
+      </c>
+      <c r="D724">
+        <v>11</v>
+      </c>
+      <c r="E724" s="2">
+        <f t="shared" si="57"/>
+        <v>43041</v>
+      </c>
+      <c r="G724" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H724" s="1">
+        <f t="shared" si="54"/>
+        <v>-50000</v>
+      </c>
+      <c r="I724" s="4">
+        <f t="shared" si="55"/>
+        <v>2017</v>
+      </c>
+      <c r="J724">
+        <f t="shared" si="56"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="725" spans="1:10">
+      <c r="A725">
+        <f t="shared" si="53"/>
+        <v>724</v>
+      </c>
+      <c r="B725" t="s">
+        <v>135</v>
+      </c>
+      <c r="C725">
+        <v>3</v>
+      </c>
+      <c r="D725">
+        <v>12</v>
+      </c>
+      <c r="E725" s="2">
+        <f t="shared" si="57"/>
+        <v>43072</v>
+      </c>
+      <c r="G725" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H725" s="1">
+        <f t="shared" si="54"/>
+        <v>-50000</v>
+      </c>
+      <c r="I725" s="4">
+        <f t="shared" si="55"/>
+        <v>2017</v>
+      </c>
+      <c r="J725">
+        <f t="shared" si="56"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="726" spans="1:10">
+      <c r="A726">
+        <f t="shared" si="53"/>
+        <v>725</v>
+      </c>
+      <c r="B726" t="s">
+        <v>135</v>
+      </c>
+      <c r="C726">
+        <v>3</v>
+      </c>
+      <c r="D726">
+        <v>1</v>
+      </c>
+      <c r="E726" s="2">
+        <f t="shared" si="57"/>
+        <v>43103</v>
+      </c>
+      <c r="G726" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H726" s="1">
+        <f t="shared" si="54"/>
+        <v>-50000</v>
+      </c>
+      <c r="I726" s="4">
+        <f t="shared" si="55"/>
+        <v>2018</v>
+      </c>
+      <c r="J726">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:10">
+      <c r="A727">
+        <f t="shared" si="53"/>
+        <v>726</v>
+      </c>
+      <c r="B727" t="s">
+        <v>135</v>
+      </c>
+      <c r="C727">
+        <v>3</v>
+      </c>
+      <c r="D727">
+        <v>2</v>
+      </c>
+      <c r="E727" s="2">
+        <f t="shared" si="57"/>
+        <v>43134</v>
+      </c>
+      <c r="G727" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H727" s="1">
+        <f t="shared" si="54"/>
+        <v>-50000</v>
+      </c>
+      <c r="I727" s="4">
+        <f t="shared" si="55"/>
+        <v>2018</v>
+      </c>
+      <c r="J727">
+        <f t="shared" si="56"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="728" spans="1:10">
+      <c r="A728">
+        <f t="shared" si="53"/>
+        <v>727</v>
+      </c>
+      <c r="B728" t="s">
+        <v>135</v>
+      </c>
+      <c r="C728">
+        <v>3</v>
+      </c>
+      <c r="D728">
+        <v>3</v>
+      </c>
+      <c r="E728" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F728" s="3">
+        <v>2898</v>
+      </c>
+      <c r="G728" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H728" s="1">
+        <f t="shared" si="54"/>
+        <v>-50000</v>
+      </c>
+      <c r="I728" s="4">
+        <f t="shared" si="55"/>
+        <v>2018</v>
+      </c>
+      <c r="J728">
+        <f t="shared" si="56"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="729" spans="1:10">
+      <c r="A729">
+        <f t="shared" si="53"/>
+        <v>728</v>
+      </c>
+      <c r="B729" t="s">
+        <v>136</v>
+      </c>
+      <c r="C729">
+        <v>3</v>
+      </c>
+      <c r="D729">
+        <v>7</v>
+      </c>
+      <c r="E729" s="2">
+        <v>42917</v>
+      </c>
+      <c r="G729" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H729" s="1">
+        <f t="shared" si="54"/>
+        <v>-50000</v>
+      </c>
+      <c r="I729" s="4">
+        <f t="shared" si="55"/>
+        <v>2017</v>
+      </c>
+      <c r="J729">
+        <f t="shared" si="56"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="730" spans="1:10">
+      <c r="A730">
+        <f t="shared" si="53"/>
+        <v>729</v>
+      </c>
+      <c r="B730" t="s">
+        <v>136</v>
+      </c>
+      <c r="C730">
+        <v>3</v>
+      </c>
+      <c r="D730">
+        <v>8</v>
+      </c>
+      <c r="E730" s="2">
+        <f t="shared" ref="E730:E736" si="58">E729+31</f>
+        <v>42948</v>
+      </c>
+      <c r="G730" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H730" s="1">
+        <f t="shared" si="54"/>
+        <v>-50000</v>
+      </c>
+      <c r="I730" s="4">
+        <f t="shared" si="55"/>
+        <v>2017</v>
+      </c>
+      <c r="J730">
+        <f t="shared" si="56"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="731" spans="1:10">
+      <c r="A731">
+        <f t="shared" si="53"/>
+        <v>730</v>
+      </c>
+      <c r="B731" t="s">
+        <v>136</v>
+      </c>
+      <c r="C731">
+        <v>3</v>
+      </c>
+      <c r="D731">
+        <v>9</v>
+      </c>
+      <c r="E731" s="2">
+        <f t="shared" si="58"/>
+        <v>42979</v>
+      </c>
+      <c r="G731" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H731" s="1">
+        <f t="shared" si="54"/>
+        <v>-50000</v>
+      </c>
+      <c r="I731" s="4">
+        <f t="shared" si="55"/>
+        <v>2017</v>
+      </c>
+      <c r="J731">
+        <f t="shared" si="56"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="732" spans="1:10">
+      <c r="A732">
+        <f t="shared" si="53"/>
+        <v>731</v>
+      </c>
+      <c r="B732" t="s">
+        <v>136</v>
+      </c>
+      <c r="C732">
+        <v>3</v>
+      </c>
+      <c r="D732">
+        <v>10</v>
+      </c>
+      <c r="E732" s="2">
+        <f t="shared" si="58"/>
+        <v>43010</v>
+      </c>
+      <c r="G732" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H732" s="1">
+        <f t="shared" si="54"/>
+        <v>-50000</v>
+      </c>
+      <c r="I732" s="4">
+        <f t="shared" si="55"/>
+        <v>2017</v>
+      </c>
+      <c r="J732">
+        <f t="shared" si="56"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="733" spans="1:10">
+      <c r="A733">
+        <f t="shared" si="53"/>
+        <v>732</v>
+      </c>
+      <c r="B733" t="s">
+        <v>136</v>
+      </c>
+      <c r="C733">
+        <v>3</v>
+      </c>
+      <c r="D733">
+        <v>11</v>
+      </c>
+      <c r="E733" s="2">
+        <f t="shared" si="58"/>
+        <v>43041</v>
+      </c>
+      <c r="G733" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H733" s="1">
+        <f t="shared" si="54"/>
+        <v>-50000</v>
+      </c>
+      <c r="I733" s="4">
+        <f t="shared" si="55"/>
+        <v>2017</v>
+      </c>
+      <c r="J733">
+        <f t="shared" si="56"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="734" spans="1:10">
+      <c r="A734">
+        <f t="shared" si="53"/>
+        <v>733</v>
+      </c>
+      <c r="B734" t="s">
+        <v>136</v>
+      </c>
+      <c r="C734">
+        <v>3</v>
+      </c>
+      <c r="D734">
+        <v>12</v>
+      </c>
+      <c r="E734" s="2">
+        <f t="shared" si="58"/>
+        <v>43072</v>
+      </c>
+      <c r="G734" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H734" s="1">
+        <f t="shared" si="54"/>
+        <v>-50000</v>
+      </c>
+      <c r="I734" s="4">
+        <f t="shared" si="55"/>
+        <v>2017</v>
+      </c>
+      <c r="J734">
+        <f t="shared" si="56"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="735" spans="1:10">
+      <c r="A735">
+        <f t="shared" si="53"/>
+        <v>734</v>
+      </c>
+      <c r="B735" t="s">
+        <v>136</v>
+      </c>
+      <c r="C735">
+        <v>3</v>
+      </c>
+      <c r="D735">
+        <v>1</v>
+      </c>
+      <c r="E735" s="2">
+        <f t="shared" si="58"/>
+        <v>43103</v>
+      </c>
+      <c r="G735" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H735" s="1">
+        <f t="shared" si="54"/>
+        <v>-50000</v>
+      </c>
+      <c r="I735" s="4">
+        <f t="shared" si="55"/>
+        <v>2018</v>
+      </c>
+      <c r="J735">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:10">
+      <c r="A736">
+        <f t="shared" si="53"/>
+        <v>735</v>
+      </c>
+      <c r="B736" t="s">
+        <v>136</v>
+      </c>
+      <c r="C736">
+        <v>3</v>
+      </c>
+      <c r="D736">
+        <v>2</v>
+      </c>
+      <c r="E736" s="2">
+        <f t="shared" si="58"/>
+        <v>43134</v>
+      </c>
+      <c r="G736" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H736" s="1">
+        <f t="shared" si="54"/>
+        <v>-50000</v>
+      </c>
+      <c r="I736" s="4">
+        <f t="shared" si="55"/>
+        <v>2018</v>
+      </c>
+      <c r="J736">
+        <f t="shared" si="56"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="737" spans="1:10">
+      <c r="A737">
+        <f t="shared" si="53"/>
+        <v>736</v>
+      </c>
+      <c r="B737" t="s">
+        <v>136</v>
+      </c>
+      <c r="C737">
+        <v>3</v>
+      </c>
+      <c r="D737">
+        <v>3</v>
+      </c>
+      <c r="E737" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F737" s="3">
+        <v>2898</v>
+      </c>
+      <c r="G737" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H737" s="1">
+        <f t="shared" si="54"/>
+        <v>-50000</v>
+      </c>
+      <c r="I737" s="4">
+        <f t="shared" si="55"/>
+        <v>2018</v>
+      </c>
+      <c r="J737">
+        <f t="shared" si="56"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="738" spans="1:10">
+      <c r="A738">
+        <f t="shared" si="53"/>
+        <v>737</v>
+      </c>
+      <c r="B738" t="s">
+        <v>90</v>
+      </c>
+      <c r="C738">
+        <v>9</v>
+      </c>
+      <c r="D738">
+        <v>1</v>
+      </c>
+      <c r="E738" s="2">
+        <f>E451+31</f>
+        <v>43135</v>
+      </c>
+      <c r="F738"/>
+      <c r="G738" s="1">
+        <v>300000</v>
+      </c>
+      <c r="H738" s="1">
+        <f t="shared" si="54"/>
+        <v>150000</v>
+      </c>
+      <c r="I738" s="4">
+        <f t="shared" si="55"/>
+        <v>2018</v>
+      </c>
+      <c r="J738">
+        <f t="shared" si="56"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="739" spans="1:10">
+      <c r="A739">
+        <f t="shared" si="53"/>
+        <v>738</v>
+      </c>
+      <c r="B739" t="s">
+        <v>90</v>
+      </c>
+      <c r="C739">
+        <v>9</v>
+      </c>
+      <c r="D739">
+        <v>1</v>
+      </c>
+      <c r="E739" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F739" s="3">
+        <v>2898</v>
+      </c>
+      <c r="G739" s="1">
+        <v>300000</v>
+      </c>
+      <c r="H739" s="1">
+        <f t="shared" si="54"/>
+        <v>150000</v>
+      </c>
+      <c r="I739" s="4">
+        <f t="shared" si="55"/>
+        <v>2018</v>
+      </c>
+      <c r="J739">
+        <f t="shared" si="56"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="740" spans="1:10">
+      <c r="A740">
+        <f t="shared" si="53"/>
+        <v>739</v>
+      </c>
+      <c r="B740" t="s">
+        <v>137</v>
+      </c>
+      <c r="C740">
+        <v>3</v>
+      </c>
+      <c r="D740">
+        <v>7</v>
+      </c>
+      <c r="E740" s="2">
+        <v>42917</v>
+      </c>
+      <c r="G740" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H740" s="1">
+        <f t="shared" si="54"/>
+        <v>-50000</v>
+      </c>
+      <c r="I740" s="4">
+        <f t="shared" si="55"/>
+        <v>2017</v>
+      </c>
+      <c r="J740">
+        <f t="shared" si="56"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="741" spans="1:10">
+      <c r="A741">
+        <f t="shared" ref="A741:A804" si="59">A740+1</f>
+        <v>740</v>
+      </c>
+      <c r="B741" t="s">
+        <v>137</v>
+      </c>
+      <c r="C741">
+        <v>3</v>
+      </c>
+      <c r="D741">
+        <v>8</v>
+      </c>
+      <c r="E741" s="2">
+        <f t="shared" ref="E741:E747" si="60">E740+31</f>
+        <v>42948</v>
+      </c>
+      <c r="G741" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H741" s="1">
+        <f t="shared" ref="H741:H804" si="61">G741-150000</f>
+        <v>-50000</v>
+      </c>
+      <c r="I741" s="4">
+        <f t="shared" ref="I741:I804" si="62">YEAR(E741)</f>
+        <v>2017</v>
+      </c>
+      <c r="J741">
+        <f t="shared" ref="J741:J804" si="63">MONTH(E741)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="742" spans="1:10">
+      <c r="A742">
+        <f t="shared" si="59"/>
+        <v>741</v>
+      </c>
+      <c r="B742" t="s">
+        <v>137</v>
+      </c>
+      <c r="C742">
+        <v>3</v>
+      </c>
+      <c r="D742">
+        <v>9</v>
+      </c>
+      <c r="E742" s="2">
+        <f t="shared" si="60"/>
+        <v>42979</v>
+      </c>
+      <c r="G742" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H742" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I742" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J742">
+        <f t="shared" si="63"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="743" spans="1:10">
+      <c r="A743">
+        <f t="shared" si="59"/>
+        <v>742</v>
+      </c>
+      <c r="B743" t="s">
+        <v>137</v>
+      </c>
+      <c r="C743">
+        <v>3</v>
+      </c>
+      <c r="D743">
+        <v>10</v>
+      </c>
+      <c r="E743" s="2">
+        <f t="shared" si="60"/>
+        <v>43010</v>
+      </c>
+      <c r="G743" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H743" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I743" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J743">
+        <f t="shared" si="63"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="744" spans="1:10">
+      <c r="A744">
+        <f t="shared" si="59"/>
+        <v>743</v>
+      </c>
+      <c r="B744" t="s">
+        <v>137</v>
+      </c>
+      <c r="C744">
+        <v>3</v>
+      </c>
+      <c r="D744">
+        <v>11</v>
+      </c>
+      <c r="E744" s="2">
+        <f t="shared" si="60"/>
+        <v>43041</v>
+      </c>
+      <c r="G744" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H744" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I744" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J744">
+        <f t="shared" si="63"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="745" spans="1:10">
+      <c r="A745">
+        <f t="shared" si="59"/>
+        <v>744</v>
+      </c>
+      <c r="B745" t="s">
+        <v>137</v>
+      </c>
+      <c r="C745">
+        <v>3</v>
+      </c>
+      <c r="D745">
+        <v>12</v>
+      </c>
+      <c r="E745" s="2">
+        <f t="shared" si="60"/>
+        <v>43072</v>
+      </c>
+      <c r="G745" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H745" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I745" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J745">
+        <f t="shared" si="63"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="746" spans="1:10">
+      <c r="A746">
+        <f t="shared" si="59"/>
+        <v>745</v>
+      </c>
+      <c r="B746" t="s">
+        <v>137</v>
+      </c>
+      <c r="C746">
+        <v>3</v>
+      </c>
+      <c r="D746">
+        <v>1</v>
+      </c>
+      <c r="E746" s="2">
+        <f t="shared" si="60"/>
+        <v>43103</v>
+      </c>
+      <c r="G746" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H746" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I746" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J746">
+        <f t="shared" si="63"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:10">
+      <c r="A747">
+        <f t="shared" si="59"/>
+        <v>746</v>
+      </c>
+      <c r="B747" t="s">
+        <v>137</v>
+      </c>
+      <c r="C747">
+        <v>3</v>
+      </c>
+      <c r="D747">
+        <v>2</v>
+      </c>
+      <c r="E747" s="2">
+        <f t="shared" si="60"/>
+        <v>43134</v>
+      </c>
+      <c r="G747" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H747" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I747" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J747">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="748" spans="1:10">
+      <c r="A748">
+        <f t="shared" si="59"/>
+        <v>747</v>
+      </c>
+      <c r="B748" t="s">
+        <v>137</v>
+      </c>
+      <c r="C748">
+        <v>3</v>
+      </c>
+      <c r="D748">
+        <v>3</v>
+      </c>
+      <c r="E748" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F748" s="3">
+        <v>2898</v>
+      </c>
+      <c r="G748" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H748" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I748" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J748">
+        <f t="shared" si="63"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="749" spans="1:10">
+      <c r="A749">
+        <f t="shared" si="59"/>
+        <v>748</v>
+      </c>
+      <c r="B749" t="s">
+        <v>27</v>
+      </c>
+      <c r="C749">
+        <v>6</v>
+      </c>
+      <c r="D749">
+        <v>2</v>
+      </c>
+      <c r="E749" s="2">
+        <v>43132</v>
+      </c>
+      <c r="G749" s="1">
+        <v>300000</v>
+      </c>
+      <c r="H749" s="1">
+        <f t="shared" si="61"/>
+        <v>150000</v>
+      </c>
+      <c r="I749" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J749">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="750" spans="1:10">
+      <c r="A750">
+        <f t="shared" si="59"/>
+        <v>749</v>
+      </c>
+      <c r="B750" t="s">
+        <v>27</v>
+      </c>
+      <c r="C750">
+        <v>6</v>
+      </c>
+      <c r="D750">
+        <v>3</v>
+      </c>
+      <c r="E750" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F750" s="3">
+        <v>2898</v>
+      </c>
+      <c r="G750" s="1">
+        <v>300000</v>
+      </c>
+      <c r="H750" s="1">
+        <f t="shared" si="61"/>
+        <v>150000</v>
+      </c>
+      <c r="I750" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J750">
+        <f t="shared" si="63"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="751" spans="1:10">
+      <c r="A751">
+        <f t="shared" si="59"/>
+        <v>750</v>
+      </c>
+      <c r="B751" t="s">
+        <v>28</v>
+      </c>
+      <c r="C751">
+        <v>6</v>
+      </c>
+      <c r="D751">
+        <v>2</v>
+      </c>
+      <c r="E751" s="2">
+        <v>43132</v>
+      </c>
+      <c r="G751" s="1">
+        <v>300000</v>
+      </c>
+      <c r="H751" s="1">
+        <f t="shared" si="61"/>
+        <v>150000</v>
+      </c>
+      <c r="I751" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J751">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="752" spans="1:10">
+      <c r="A752">
+        <f t="shared" si="59"/>
+        <v>751</v>
+      </c>
+      <c r="B752" t="s">
+        <v>28</v>
+      </c>
+      <c r="C752">
+        <v>6</v>
+      </c>
+      <c r="D752">
+        <v>3</v>
+      </c>
+      <c r="E752" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F752" s="3">
+        <v>2898</v>
+      </c>
+      <c r="G752" s="1">
+        <v>300000</v>
+      </c>
+      <c r="H752" s="1">
+        <f t="shared" si="61"/>
+        <v>150000</v>
+      </c>
+      <c r="I752" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J752">
+        <f t="shared" si="63"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="753" spans="1:10">
+      <c r="A753">
+        <f t="shared" si="59"/>
+        <v>752</v>
+      </c>
+      <c r="B753" t="s">
+        <v>138</v>
+      </c>
+      <c r="C753">
+        <v>5</v>
+      </c>
+      <c r="D753">
+        <v>7</v>
+      </c>
+      <c r="E753" s="2">
+        <v>42917</v>
+      </c>
+      <c r="G753" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H753" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I753" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J753">
+        <f t="shared" si="63"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="754" spans="1:10">
+      <c r="A754">
+        <f t="shared" si="59"/>
+        <v>753</v>
+      </c>
+      <c r="B754" t="s">
+        <v>138</v>
+      </c>
+      <c r="C754">
+        <v>5</v>
+      </c>
+      <c r="D754">
+        <v>8</v>
+      </c>
+      <c r="E754" s="2">
+        <f t="shared" ref="E754:E760" si="64">E753+31</f>
+        <v>42948</v>
+      </c>
+      <c r="G754" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H754" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I754" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J754">
+        <f t="shared" si="63"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="755" spans="1:10">
+      <c r="A755">
+        <f t="shared" si="59"/>
+        <v>754</v>
+      </c>
+      <c r="B755" t="s">
+        <v>138</v>
+      </c>
+      <c r="C755">
+        <v>5</v>
+      </c>
+      <c r="D755">
+        <v>9</v>
+      </c>
+      <c r="E755" s="2">
+        <f t="shared" si="64"/>
+        <v>42979</v>
+      </c>
+      <c r="G755" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H755" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I755" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J755">
+        <f t="shared" si="63"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="756" spans="1:10">
+      <c r="A756">
+        <f t="shared" si="59"/>
+        <v>755</v>
+      </c>
+      <c r="B756" t="s">
+        <v>138</v>
+      </c>
+      <c r="C756">
+        <v>5</v>
+      </c>
+      <c r="D756">
+        <v>10</v>
+      </c>
+      <c r="E756" s="2">
+        <f t="shared" si="64"/>
+        <v>43010</v>
+      </c>
+      <c r="G756" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H756" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I756" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J756">
+        <f t="shared" si="63"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="757" spans="1:10">
+      <c r="A757">
+        <f t="shared" si="59"/>
+        <v>756</v>
+      </c>
+      <c r="B757" t="s">
+        <v>138</v>
+      </c>
+      <c r="C757">
+        <v>5</v>
+      </c>
+      <c r="D757">
+        <v>11</v>
+      </c>
+      <c r="E757" s="2">
+        <f t="shared" si="64"/>
+        <v>43041</v>
+      </c>
+      <c r="G757" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H757" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I757" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J757">
+        <f t="shared" si="63"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="758" spans="1:10">
+      <c r="A758">
+        <f t="shared" si="59"/>
+        <v>757</v>
+      </c>
+      <c r="B758" t="s">
+        <v>138</v>
+      </c>
+      <c r="C758">
+        <v>5</v>
+      </c>
+      <c r="D758">
+        <v>12</v>
+      </c>
+      <c r="E758" s="2">
+        <f t="shared" si="64"/>
+        <v>43072</v>
+      </c>
+      <c r="G758" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H758" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I758" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J758">
+        <f t="shared" si="63"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="759" spans="1:10">
+      <c r="A759">
+        <f t="shared" si="59"/>
+        <v>758</v>
+      </c>
+      <c r="B759" t="s">
+        <v>138</v>
+      </c>
+      <c r="C759">
+        <v>5</v>
+      </c>
+      <c r="D759">
+        <v>1</v>
+      </c>
+      <c r="E759" s="2">
+        <f t="shared" si="64"/>
+        <v>43103</v>
+      </c>
+      <c r="G759" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H759" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I759" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J759">
+        <f t="shared" si="63"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:10">
+      <c r="A760">
+        <f t="shared" si="59"/>
+        <v>759</v>
+      </c>
+      <c r="B760" t="s">
+        <v>138</v>
+      </c>
+      <c r="C760">
+        <v>5</v>
+      </c>
+      <c r="D760">
+        <v>2</v>
+      </c>
+      <c r="E760" s="2">
+        <f t="shared" si="64"/>
+        <v>43134</v>
+      </c>
+      <c r="G760" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H760" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I760" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J760">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="761" spans="1:10">
+      <c r="A761">
+        <f t="shared" si="59"/>
+        <v>760</v>
+      </c>
+      <c r="B761" t="s">
+        <v>138</v>
+      </c>
+      <c r="C761">
+        <v>5</v>
+      </c>
+      <c r="D761">
+        <v>3</v>
+      </c>
+      <c r="E761" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F761" s="3">
+        <v>2898</v>
+      </c>
+      <c r="G761" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H761" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I761" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J761">
+        <f t="shared" si="63"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="762" spans="1:10">
+      <c r="A762">
+        <f t="shared" si="59"/>
+        <v>761</v>
+      </c>
+      <c r="B762" t="s">
+        <v>40</v>
+      </c>
+      <c r="C762">
+        <v>7</v>
+      </c>
+      <c r="D762">
+        <v>2</v>
+      </c>
+      <c r="E762" s="2">
+        <v>43132</v>
+      </c>
+      <c r="F762" s="3"/>
+      <c r="G762" s="1">
+        <v>200000</v>
+      </c>
+      <c r="H762" s="1">
+        <f t="shared" si="61"/>
+        <v>50000</v>
+      </c>
+      <c r="I762" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J762">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="763" spans="1:10">
+      <c r="A763">
+        <f t="shared" si="59"/>
+        <v>762</v>
+      </c>
+      <c r="B763" t="s">
+        <v>40</v>
+      </c>
+      <c r="C763">
+        <v>7</v>
+      </c>
+      <c r="D763">
+        <v>3</v>
+      </c>
+      <c r="E763" s="2">
+        <v>42811</v>
+      </c>
+      <c r="F763" s="3">
+        <v>2898</v>
+      </c>
+      <c r="G763" s="1">
+        <v>200000</v>
+      </c>
+      <c r="H763" s="1">
+        <f t="shared" si="61"/>
+        <v>50000</v>
+      </c>
+      <c r="I763" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J763">
+        <f t="shared" si="63"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="764" spans="1:10">
+      <c r="A764">
+        <f t="shared" si="59"/>
+        <v>763</v>
+      </c>
+      <c r="B764" t="s">
+        <v>36</v>
+      </c>
+      <c r="C764">
+        <v>7</v>
+      </c>
+      <c r="D764">
+        <v>2</v>
+      </c>
+      <c r="E764" s="2">
+        <v>43132</v>
+      </c>
+      <c r="G764" s="1">
+        <v>200000</v>
+      </c>
+      <c r="H764" s="1">
+        <f t="shared" si="61"/>
+        <v>50000</v>
+      </c>
+      <c r="I764" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J764">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="765" spans="1:10">
+      <c r="A765">
+        <f t="shared" si="59"/>
+        <v>764</v>
+      </c>
+      <c r="B765" t="s">
+        <v>36</v>
+      </c>
+      <c r="C765">
+        <v>7</v>
+      </c>
+      <c r="D765">
+        <v>2</v>
+      </c>
+      <c r="E765" s="2">
+        <v>42811</v>
+      </c>
+      <c r="F765" s="3">
+        <v>2898</v>
+      </c>
+      <c r="G765" s="1">
+        <v>200000</v>
+      </c>
+      <c r="H765" s="1">
+        <f t="shared" si="61"/>
+        <v>50000</v>
+      </c>
+      <c r="I765" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J765">
+        <f t="shared" si="63"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="766" spans="1:10">
+      <c r="A766">
+        <f t="shared" si="59"/>
+        <v>765</v>
+      </c>
+      <c r="B766" t="s">
+        <v>76</v>
+      </c>
+      <c r="C766">
+        <v>9</v>
+      </c>
+      <c r="D766">
+        <v>1</v>
+      </c>
+      <c r="E766" s="2">
+        <v>43132</v>
+      </c>
+      <c r="G766" s="1">
+        <v>300000</v>
+      </c>
+      <c r="H766" s="1">
+        <f t="shared" si="61"/>
+        <v>150000</v>
+      </c>
+      <c r="I766" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J766">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="767" spans="1:10">
+      <c r="A767">
+        <f t="shared" si="59"/>
+        <v>766</v>
+      </c>
+      <c r="B767" t="s">
+        <v>76</v>
+      </c>
+      <c r="C767">
+        <v>9</v>
+      </c>
+      <c r="D767">
+        <v>1</v>
+      </c>
+      <c r="E767" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F767" s="3">
+        <v>2898</v>
+      </c>
+      <c r="G767" s="1">
+        <v>300000</v>
+      </c>
+      <c r="H767" s="1">
+        <f t="shared" si="61"/>
+        <v>150000</v>
+      </c>
+      <c r="I767" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J767">
+        <f t="shared" si="63"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="768" spans="1:10">
+      <c r="A768">
+        <f t="shared" si="59"/>
+        <v>767</v>
+      </c>
+      <c r="B768" t="s">
+        <v>139</v>
+      </c>
+      <c r="C768">
+        <v>3</v>
+      </c>
+      <c r="D768">
+        <v>7</v>
+      </c>
+      <c r="E768" s="2">
+        <v>42917</v>
+      </c>
+      <c r="G768" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H768" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I768" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J768">
+        <f t="shared" si="63"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="769" spans="1:10">
+      <c r="A769">
+        <f t="shared" si="59"/>
+        <v>768</v>
+      </c>
+      <c r="B769" t="s">
+        <v>139</v>
+      </c>
+      <c r="C769">
+        <v>3</v>
+      </c>
+      <c r="D769">
+        <v>8</v>
+      </c>
+      <c r="E769" s="2">
+        <f t="shared" ref="E769:E775" si="65">E768+31</f>
+        <v>42948</v>
+      </c>
+      <c r="G769" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H769" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I769" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J769">
+        <f t="shared" si="63"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="770" spans="1:10">
+      <c r="A770">
+        <f t="shared" si="59"/>
+        <v>769</v>
+      </c>
+      <c r="B770" t="s">
+        <v>139</v>
+      </c>
+      <c r="C770">
+        <v>3</v>
+      </c>
+      <c r="D770">
+        <v>9</v>
+      </c>
+      <c r="E770" s="2">
+        <f t="shared" si="65"/>
+        <v>42979</v>
+      </c>
+      <c r="G770" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H770" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I770" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J770">
+        <f t="shared" si="63"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="771" spans="1:10">
+      <c r="A771">
+        <f t="shared" si="59"/>
+        <v>770</v>
+      </c>
+      <c r="B771" t="s">
+        <v>139</v>
+      </c>
+      <c r="C771">
+        <v>3</v>
+      </c>
+      <c r="D771">
+        <v>10</v>
+      </c>
+      <c r="E771" s="2">
+        <f t="shared" si="65"/>
+        <v>43010</v>
+      </c>
+      <c r="G771" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H771" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I771" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J771">
+        <f t="shared" si="63"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="772" spans="1:10">
+      <c r="A772">
+        <f t="shared" si="59"/>
+        <v>771</v>
+      </c>
+      <c r="B772" t="s">
+        <v>139</v>
+      </c>
+      <c r="C772">
+        <v>3</v>
+      </c>
+      <c r="D772">
+        <v>11</v>
+      </c>
+      <c r="E772" s="2">
+        <f t="shared" si="65"/>
+        <v>43041</v>
+      </c>
+      <c r="G772" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H772" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I772" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J772">
+        <f t="shared" si="63"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="773" spans="1:10">
+      <c r="A773">
+        <f t="shared" si="59"/>
+        <v>772</v>
+      </c>
+      <c r="B773" t="s">
+        <v>139</v>
+      </c>
+      <c r="C773">
+        <v>3</v>
+      </c>
+      <c r="D773">
+        <v>12</v>
+      </c>
+      <c r="E773" s="2">
+        <f t="shared" si="65"/>
+        <v>43072</v>
+      </c>
+      <c r="G773" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H773" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I773" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J773">
+        <f t="shared" si="63"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="774" spans="1:10">
+      <c r="A774">
+        <f t="shared" si="59"/>
+        <v>773</v>
+      </c>
+      <c r="B774" t="s">
+        <v>139</v>
+      </c>
+      <c r="C774">
+        <v>3</v>
+      </c>
+      <c r="D774">
+        <v>1</v>
+      </c>
+      <c r="E774" s="2">
+        <f t="shared" si="65"/>
+        <v>43103</v>
+      </c>
+      <c r="G774" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H774" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I774" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J774">
+        <f t="shared" si="63"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:10">
+      <c r="A775">
+        <f t="shared" si="59"/>
+        <v>774</v>
+      </c>
+      <c r="B775" t="s">
+        <v>139</v>
+      </c>
+      <c r="C775">
+        <v>3</v>
+      </c>
+      <c r="D775">
+        <v>2</v>
+      </c>
+      <c r="E775" s="2">
+        <f t="shared" si="65"/>
+        <v>43134</v>
+      </c>
+      <c r="G775" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H775" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I775" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J775">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="776" spans="1:10">
+      <c r="A776">
+        <f t="shared" si="59"/>
+        <v>775</v>
+      </c>
+      <c r="B776" t="s">
+        <v>139</v>
+      </c>
+      <c r="C776">
+        <v>3</v>
+      </c>
+      <c r="D776">
+        <v>3</v>
+      </c>
+      <c r="E776" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F776" s="3">
+        <v>2898</v>
+      </c>
+      <c r="G776" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H776" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I776" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J776">
+        <f t="shared" si="63"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="777" spans="1:10">
+      <c r="A777">
+        <f t="shared" si="59"/>
+        <v>776</v>
+      </c>
+      <c r="B777" t="s">
+        <v>48</v>
+      </c>
+      <c r="C777">
+        <v>7</v>
+      </c>
+      <c r="D777">
+        <v>2</v>
+      </c>
+      <c r="E777" s="2">
+        <v>43132</v>
+      </c>
+      <c r="G777" s="1">
+        <v>175000</v>
+      </c>
+      <c r="H777" s="1">
+        <f t="shared" si="61"/>
+        <v>25000</v>
+      </c>
+      <c r="I777" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J777">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="778" spans="1:10">
+      <c r="A778">
+        <f t="shared" si="59"/>
+        <v>777</v>
+      </c>
+      <c r="B778" t="s">
+        <v>48</v>
+      </c>
+      <c r="C778">
+        <v>7</v>
+      </c>
+      <c r="D778">
+        <v>3</v>
+      </c>
+      <c r="E778" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F778" s="3">
+        <v>2898</v>
+      </c>
+      <c r="G778" s="1">
+        <v>175000</v>
+      </c>
+      <c r="H778" s="1">
+        <f t="shared" si="61"/>
+        <v>25000</v>
+      </c>
+      <c r="I778" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J778">
+        <f t="shared" si="63"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="779" spans="1:10">
+      <c r="A779">
+        <f t="shared" si="59"/>
+        <v>778</v>
+      </c>
+      <c r="B779" t="s">
+        <v>85</v>
+      </c>
+      <c r="C779">
+        <v>9</v>
+      </c>
+      <c r="D779">
+        <v>2</v>
+      </c>
+      <c r="E779" s="2">
+        <v>43132</v>
+      </c>
+      <c r="G779" s="1">
+        <v>175000</v>
+      </c>
+      <c r="H779" s="1">
+        <f t="shared" si="61"/>
+        <v>25000</v>
+      </c>
+      <c r="I779" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J779">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="780" spans="1:10">
+      <c r="A780">
+        <f t="shared" si="59"/>
+        <v>779</v>
+      </c>
+      <c r="B780" t="s">
+        <v>85</v>
+      </c>
+      <c r="C780">
+        <v>9</v>
+      </c>
+      <c r="D780">
+        <v>3</v>
+      </c>
+      <c r="E780" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F780" s="3">
+        <v>2898</v>
+      </c>
+      <c r="G780" s="1">
+        <v>175000</v>
+      </c>
+      <c r="H780" s="1">
+        <f t="shared" si="61"/>
+        <v>25000</v>
+      </c>
+      <c r="I780" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J780">
+        <f t="shared" si="63"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="781" spans="1:10">
+      <c r="A781">
+        <f t="shared" si="59"/>
+        <v>780</v>
+      </c>
+      <c r="B781" t="s">
+        <v>43</v>
+      </c>
+      <c r="C781">
+        <v>7</v>
+      </c>
+      <c r="D781">
+        <v>2</v>
+      </c>
+      <c r="E781" s="2">
+        <v>43132</v>
+      </c>
+      <c r="G781" s="1">
+        <v>300000</v>
+      </c>
+      <c r="H781" s="1">
+        <f t="shared" si="61"/>
+        <v>150000</v>
+      </c>
+      <c r="I781" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J781">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="782" spans="1:10">
+      <c r="A782">
+        <f t="shared" si="59"/>
+        <v>781</v>
+      </c>
+      <c r="B782" t="s">
+        <v>43</v>
+      </c>
+      <c r="C782">
+        <v>7</v>
+      </c>
+      <c r="D782">
+        <v>3</v>
+      </c>
+      <c r="E782" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F782" s="3">
+        <v>2898</v>
+      </c>
+      <c r="G782" s="1">
+        <v>300000</v>
+      </c>
+      <c r="H782" s="1">
+        <f t="shared" si="61"/>
+        <v>150000</v>
+      </c>
+      <c r="I782" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J782">
+        <f t="shared" si="63"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="783" spans="1:10">
+      <c r="A783">
+        <f t="shared" si="59"/>
+        <v>782</v>
+      </c>
+      <c r="B783" t="s">
+        <v>140</v>
+      </c>
+      <c r="C783">
+        <v>3</v>
+      </c>
+      <c r="D783">
+        <v>7</v>
+      </c>
+      <c r="E783" s="2">
+        <v>42986</v>
+      </c>
+      <c r="F783" s="3">
+        <v>2360</v>
+      </c>
+      <c r="G783" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H783" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I783" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J783">
+        <f t="shared" si="63"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="784" spans="1:10">
+      <c r="A784">
+        <f t="shared" si="59"/>
+        <v>783</v>
+      </c>
+      <c r="B784" t="s">
+        <v>140</v>
+      </c>
+      <c r="C784">
+        <v>3</v>
+      </c>
+      <c r="D784">
+        <v>8</v>
+      </c>
+      <c r="E784" s="2">
+        <v>42986</v>
+      </c>
+      <c r="F784" s="3">
+        <v>2360</v>
+      </c>
+      <c r="G784" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H784" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I784" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J784">
+        <f t="shared" si="63"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="785" spans="1:10">
+      <c r="A785">
+        <f t="shared" si="59"/>
+        <v>784</v>
+      </c>
+      <c r="B785" t="s">
+        <v>140</v>
+      </c>
+      <c r="C785">
+        <v>3</v>
+      </c>
+      <c r="D785">
+        <v>9</v>
+      </c>
+      <c r="E785" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F785" s="3">
+        <v>2434</v>
+      </c>
+      <c r="G785" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H785" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I785" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J785">
+        <f t="shared" si="63"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="786" spans="1:10">
+      <c r="A786">
+        <f t="shared" si="59"/>
+        <v>785</v>
+      </c>
+      <c r="B786" t="s">
+        <v>140</v>
+      </c>
+      <c r="C786">
+        <v>3</v>
+      </c>
+      <c r="D786">
+        <v>10</v>
+      </c>
+      <c r="E786" s="2">
+        <v>43057</v>
+      </c>
+      <c r="F786" s="3">
+        <v>2576</v>
+      </c>
+      <c r="G786" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H786" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I786" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J786">
+        <f t="shared" si="63"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="787" spans="1:10">
+      <c r="A787">
+        <f t="shared" si="59"/>
+        <v>786</v>
+      </c>
+      <c r="B787" t="s">
+        <v>140</v>
+      </c>
+      <c r="C787">
+        <v>3</v>
+      </c>
+      <c r="D787">
+        <v>11</v>
+      </c>
+      <c r="E787" s="2">
+        <v>43057</v>
+      </c>
+      <c r="F787" s="3">
+        <v>2576</v>
+      </c>
+      <c r="G787" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H787" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I787" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J787">
+        <f t="shared" si="63"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="788" spans="1:10">
+      <c r="A788">
+        <f t="shared" si="59"/>
+        <v>787</v>
+      </c>
+      <c r="B788" t="s">
+        <v>140</v>
+      </c>
+      <c r="C788">
+        <v>3</v>
+      </c>
+      <c r="D788">
+        <v>12</v>
+      </c>
+      <c r="E788" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F788" s="3">
+        <v>2715</v>
+      </c>
+      <c r="G788" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H788" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I788" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J788">
+        <f t="shared" si="63"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:10">
+      <c r="A789">
+        <f t="shared" si="59"/>
+        <v>788</v>
+      </c>
+      <c r="B789" t="s">
+        <v>140</v>
+      </c>
+      <c r="C789">
+        <v>3</v>
+      </c>
+      <c r="D789">
+        <v>1</v>
+      </c>
+      <c r="E789" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F789" s="3">
+        <v>2899</v>
+      </c>
+      <c r="G789" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H789" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I789" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J789">
+        <f t="shared" si="63"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="790" spans="1:10">
+      <c r="A790">
+        <f t="shared" si="59"/>
+        <v>789</v>
+      </c>
+      <c r="B790" t="s">
+        <v>140</v>
+      </c>
+      <c r="C790">
+        <v>3</v>
+      </c>
+      <c r="D790">
+        <v>2</v>
+      </c>
+      <c r="E790" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F790" s="3">
+        <v>2899</v>
+      </c>
+      <c r="G790" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H790" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I790" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J790">
+        <f t="shared" si="63"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="791" spans="1:10">
+      <c r="A791">
+        <f t="shared" si="59"/>
+        <v>790</v>
+      </c>
+      <c r="B791" t="s">
+        <v>140</v>
+      </c>
+      <c r="C791">
+        <v>3</v>
+      </c>
+      <c r="D791">
+        <v>3</v>
+      </c>
+      <c r="E791" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F791" s="3">
+        <v>2899</v>
+      </c>
+      <c r="G791" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H791" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I791" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J791">
+        <f t="shared" si="63"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="792" spans="1:10">
+      <c r="A792">
+        <f t="shared" si="59"/>
+        <v>791</v>
+      </c>
+      <c r="B792" t="s">
+        <v>141</v>
+      </c>
+      <c r="C792">
+        <v>4</v>
+      </c>
+      <c r="D792">
+        <v>7</v>
+      </c>
+      <c r="E792" s="2">
+        <v>42933</v>
+      </c>
+      <c r="F792" s="3">
+        <v>1223</v>
+      </c>
+      <c r="G792" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H792" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I792" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J792">
+        <f t="shared" si="63"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="793" spans="1:10">
+      <c r="A793">
+        <f t="shared" si="59"/>
+        <v>792</v>
+      </c>
+      <c r="B793" t="s">
+        <v>141</v>
+      </c>
+      <c r="C793">
+        <v>4</v>
+      </c>
+      <c r="D793">
+        <v>8</v>
+      </c>
+      <c r="E793" s="2">
+        <v>42962</v>
+      </c>
+      <c r="F793" s="3">
+        <v>2304</v>
+      </c>
+      <c r="G793" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H793" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I793" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J793">
+        <f t="shared" si="63"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="794" spans="1:10">
+      <c r="A794">
+        <f t="shared" si="59"/>
+        <v>793</v>
+      </c>
+      <c r="B794" t="s">
+        <v>141</v>
+      </c>
+      <c r="C794">
+        <v>4</v>
+      </c>
+      <c r="D794">
+        <v>9</v>
+      </c>
+      <c r="E794" s="2">
+        <v>43008</v>
+      </c>
+      <c r="F794" s="3">
+        <v>2442</v>
+      </c>
+      <c r="G794" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H794" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I794" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J794">
+        <f t="shared" si="63"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="795" spans="1:10">
+      <c r="A795">
+        <f t="shared" si="59"/>
+        <v>794</v>
+      </c>
+      <c r="B795" t="s">
+        <v>141</v>
+      </c>
+      <c r="C795">
+        <v>4</v>
+      </c>
+      <c r="D795">
+        <v>10</v>
+      </c>
+      <c r="E795" s="2">
+        <v>43015</v>
+      </c>
+      <c r="F795" s="3">
+        <v>2513</v>
+      </c>
+      <c r="G795" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H795" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I795" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J795">
+        <f t="shared" si="63"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="796" spans="1:10">
+      <c r="A796">
+        <f t="shared" si="59"/>
+        <v>795</v>
+      </c>
+      <c r="B796" t="s">
+        <v>141</v>
+      </c>
+      <c r="C796">
+        <v>4</v>
+      </c>
+      <c r="D796">
+        <v>11</v>
+      </c>
+      <c r="E796" s="2">
+        <v>43043</v>
+      </c>
+      <c r="F796" s="3">
+        <v>2481</v>
+      </c>
+      <c r="G796" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H796" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I796" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J796">
+        <f t="shared" si="63"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="797" spans="1:10">
+      <c r="A797">
+        <f t="shared" si="59"/>
+        <v>796</v>
+      </c>
+      <c r="B797" t="s">
+        <v>141</v>
+      </c>
+      <c r="C797">
+        <v>4</v>
+      </c>
+      <c r="D797">
+        <v>12</v>
+      </c>
+      <c r="E797" s="2">
+        <v>43101</v>
+      </c>
+      <c r="F797" s="3">
+        <v>2693</v>
+      </c>
+      <c r="G797" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H797" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I797" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J797">
+        <f t="shared" si="63"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:10">
+      <c r="A798">
+        <f t="shared" si="59"/>
+        <v>797</v>
+      </c>
+      <c r="B798" t="s">
+        <v>141</v>
+      </c>
+      <c r="C798">
+        <v>4</v>
+      </c>
+      <c r="D798">
+        <v>1</v>
+      </c>
+      <c r="E798" s="2">
+        <v>43101</v>
+      </c>
+      <c r="F798" s="3">
+        <v>2693</v>
+      </c>
+      <c r="G798" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H798" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I798" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J798">
+        <f t="shared" si="63"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799" spans="1:10">
+      <c r="A799">
+        <f t="shared" si="59"/>
+        <v>798</v>
+      </c>
+      <c r="B799" t="s">
+        <v>141</v>
+      </c>
+      <c r="C799">
+        <v>4</v>
+      </c>
+      <c r="D799">
+        <v>2</v>
+      </c>
+      <c r="E799" s="2">
+        <v>43161</v>
+      </c>
+      <c r="F799" s="3">
+        <v>2761</v>
+      </c>
+      <c r="G799" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H799" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I799" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J799">
+        <f t="shared" si="63"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="800" spans="1:10">
+      <c r="A800">
+        <f t="shared" si="59"/>
+        <v>799</v>
+      </c>
+      <c r="B800" t="s">
+        <v>141</v>
+      </c>
+      <c r="C800">
+        <v>4</v>
+      </c>
+      <c r="D800">
+        <v>3</v>
+      </c>
+      <c r="E800" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F800" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G800" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H800" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I800" s="4">
+        <f t="shared" si="62"/>
+        <v>2018</v>
+      </c>
+      <c r="J800">
+        <f t="shared" si="63"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="801" spans="1:10">
+      <c r="A801">
+        <f t="shared" si="59"/>
+        <v>800</v>
+      </c>
+      <c r="B801" t="s">
+        <v>142</v>
+      </c>
+      <c r="C801">
+        <v>3</v>
+      </c>
+      <c r="D801">
+        <v>7</v>
+      </c>
+      <c r="E801" s="2">
+        <v>42933</v>
+      </c>
+      <c r="F801" s="3">
+        <v>1223</v>
+      </c>
+      <c r="G801" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H801" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I801" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J801">
+        <f t="shared" si="63"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="802" spans="1:10">
+      <c r="A802">
+        <f t="shared" si="59"/>
+        <v>801</v>
+      </c>
+      <c r="B802" t="s">
+        <v>142</v>
+      </c>
+      <c r="C802">
+        <v>3</v>
+      </c>
+      <c r="D802">
+        <v>8</v>
+      </c>
+      <c r="E802" s="2">
+        <v>42962</v>
+      </c>
+      <c r="F802" s="3">
+        <v>2304</v>
+      </c>
+      <c r="G802" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H802" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I802" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J802">
+        <f t="shared" si="63"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="803" spans="1:10">
+      <c r="A803">
+        <f t="shared" si="59"/>
+        <v>802</v>
+      </c>
+      <c r="B803" t="s">
+        <v>142</v>
+      </c>
+      <c r="C803">
+        <v>3</v>
+      </c>
+      <c r="D803">
+        <v>9</v>
+      </c>
+      <c r="E803" s="2">
+        <v>43008</v>
+      </c>
+      <c r="F803" s="3">
+        <v>2442</v>
+      </c>
+      <c r="G803" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H803" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I803" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J803">
+        <f t="shared" si="63"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="804" spans="1:10">
+      <c r="A804">
+        <f t="shared" si="59"/>
+        <v>803</v>
+      </c>
+      <c r="B804" t="s">
+        <v>142</v>
+      </c>
+      <c r="C804">
+        <v>3</v>
+      </c>
+      <c r="D804">
+        <v>10</v>
+      </c>
+      <c r="E804" s="2">
+        <v>43015</v>
+      </c>
+      <c r="F804" s="3">
+        <v>2513</v>
+      </c>
+      <c r="G804" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H804" s="1">
+        <f t="shared" si="61"/>
+        <v>-50000</v>
+      </c>
+      <c r="I804" s="4">
+        <f t="shared" si="62"/>
+        <v>2017</v>
+      </c>
+      <c r="J804">
+        <f t="shared" si="63"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="805" spans="1:10">
+      <c r="A805">
+        <f>A804+1</f>
+        <v>804</v>
+      </c>
+      <c r="B805" t="s">
+        <v>142</v>
+      </c>
+      <c r="C805">
+        <v>3</v>
+      </c>
+      <c r="D805">
+        <v>11</v>
+      </c>
+      <c r="E805" s="2">
+        <v>43043</v>
+      </c>
+      <c r="F805" s="3">
+        <v>2481</v>
+      </c>
+      <c r="G805" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H805" s="1">
+        <f>G805-150000</f>
+        <v>-50000</v>
+      </c>
+      <c r="I805" s="4">
+        <f>YEAR(E805)</f>
+        <v>2017</v>
+      </c>
+      <c r="J805">
+        <f>MONTH(E805)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="806" spans="1:10">
+      <c r="A806">
+        <f>A805+1</f>
+        <v>805</v>
+      </c>
+      <c r="B806" t="s">
+        <v>142</v>
+      </c>
+      <c r="C806">
+        <v>3</v>
+      </c>
+      <c r="D806">
+        <v>12</v>
+      </c>
+      <c r="E806" s="2">
+        <v>43101</v>
+      </c>
+      <c r="F806" s="3">
+        <v>2693</v>
+      </c>
+      <c r="G806" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H806" s="1">
+        <f>G806-150000</f>
+        <v>-50000</v>
+      </c>
+      <c r="I806" s="4">
+        <f>YEAR(E806)</f>
+        <v>2018</v>
+      </c>
+      <c r="J806">
+        <f>MONTH(E806)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:10">
+      <c r="A807">
+        <f>A806+1</f>
+        <v>806</v>
+      </c>
+      <c r="B807" t="s">
+        <v>142</v>
+      </c>
+      <c r="C807">
+        <v>3</v>
+      </c>
+      <c r="D807">
+        <v>1</v>
+      </c>
+      <c r="E807" s="2">
+        <v>43101</v>
+      </c>
+      <c r="F807" s="3">
+        <v>2693</v>
+      </c>
+      <c r="G807" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H807" s="1">
+        <f>G807-150000</f>
+        <v>-50000</v>
+      </c>
+      <c r="I807" s="4">
+        <f>YEAR(E807)</f>
+        <v>2018</v>
+      </c>
+      <c r="J807">
+        <f>MONTH(E807)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:10">
+      <c r="A808">
+        <f>A807+1</f>
+        <v>807</v>
+      </c>
+      <c r="B808" t="s">
+        <v>142</v>
+      </c>
+      <c r="C808">
+        <v>3</v>
+      </c>
+      <c r="D808">
+        <v>2</v>
+      </c>
+      <c r="E808" s="2">
+        <v>43161</v>
+      </c>
+      <c r="F808" s="3">
+        <v>2761</v>
+      </c>
+      <c r="G808" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H808" s="1">
+        <f>G808-150000</f>
+        <v>-50000</v>
+      </c>
+      <c r="I808" s="4">
+        <f>YEAR(E808)</f>
+        <v>2018</v>
+      </c>
+      <c r="J808">
+        <f>MONTH(E808)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="809" spans="1:10">
+      <c r="A809">
+        <f>A808+1</f>
+        <v>808</v>
+      </c>
+      <c r="B809" t="s">
+        <v>142</v>
+      </c>
+      <c r="C809">
+        <v>3</v>
+      </c>
+      <c r="D809">
+        <v>3</v>
+      </c>
+      <c r="E809" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F809" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G809" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H809" s="1">
+        <f>G809-150000</f>
+        <v>-50000</v>
+      </c>
+      <c r="I809" s="4">
+        <f>YEAR(E809)</f>
+        <v>2018</v>
+      </c>
+      <c r="J809">
+        <f>MONTH(E809)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="810" spans="1:10">
+      <c r="A810">
+        <f>A809+1</f>
+        <v>809</v>
+      </c>
+      <c r="B810" t="s">
+        <v>143</v>
+      </c>
+      <c r="C810">
+        <v>2</v>
+      </c>
+      <c r="D810">
+        <v>7</v>
+      </c>
+      <c r="E810" s="2">
+        <v>42952</v>
+      </c>
+      <c r="F810" s="3">
+        <v>2271</v>
+      </c>
+      <c r="G810" s="1">
+        <v>160000</v>
+      </c>
+      <c r="H810" s="1">
+        <f>G810-150000</f>
+        <v>10000</v>
+      </c>
+      <c r="I810" s="4">
+        <f>YEAR(E810)</f>
+        <v>2017</v>
+      </c>
+      <c r="J810">
+        <f>MONTH(E810)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="811" spans="1:10">
+      <c r="A811">
+        <f>A810+1</f>
+        <v>810</v>
+      </c>
+      <c r="B811" t="s">
+        <v>143</v>
+      </c>
+      <c r="C811">
+        <v>2</v>
+      </c>
+      <c r="D811">
+        <v>8</v>
+      </c>
+      <c r="E811" s="2">
+        <v>42952</v>
+      </c>
+      <c r="F811" s="3">
+        <v>2271</v>
+      </c>
+      <c r="G811" s="1">
+        <v>160000</v>
+      </c>
+      <c r="H811" s="1">
+        <f>G811-150000</f>
+        <v>10000</v>
+      </c>
+      <c r="I811" s="4">
+        <f>YEAR(E811)</f>
+        <v>2017</v>
+      </c>
+      <c r="J811">
+        <f>MONTH(E811)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="812" spans="1:10">
+      <c r="A812">
+        <f>A811+1</f>
+        <v>811</v>
+      </c>
+      <c r="B812" t="s">
+        <v>143</v>
+      </c>
+      <c r="C812">
+        <v>2</v>
+      </c>
+      <c r="D812">
+        <v>9</v>
+      </c>
+      <c r="E812" s="2">
+        <v>42994</v>
+      </c>
+      <c r="F812" s="3">
+        <v>2422</v>
+      </c>
+      <c r="G812" s="1">
+        <v>160000</v>
+      </c>
+      <c r="H812" s="1">
+        <f>G812-150000</f>
+        <v>10000</v>
+      </c>
+      <c r="I812" s="4">
+        <f>YEAR(E812)</f>
+        <v>2017</v>
+      </c>
+      <c r="J812">
+        <f>MONTH(E812)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="813" spans="1:10">
+      <c r="A813">
+        <f>A812+1</f>
+        <v>812</v>
+      </c>
+      <c r="B813" t="s">
+        <v>143</v>
+      </c>
+      <c r="C813">
+        <v>2</v>
+      </c>
+      <c r="D813">
+        <v>10</v>
+      </c>
+      <c r="E813" s="2">
+        <v>43015</v>
+      </c>
+      <c r="F813" s="3">
+        <v>2514</v>
+      </c>
+      <c r="G813" s="1">
+        <v>160000</v>
+      </c>
+      <c r="H813" s="1">
+        <f>G813-150000</f>
+        <v>10000</v>
+      </c>
+      <c r="I813" s="4">
+        <f>YEAR(E813)</f>
+        <v>2017</v>
+      </c>
+      <c r="J813">
+        <f>MONTH(E813)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="814" spans="1:10">
+      <c r="A814">
+        <f>A813+1</f>
+        <v>813</v>
+      </c>
+      <c r="B814" t="s">
+        <v>143</v>
+      </c>
+      <c r="C814">
+        <v>2</v>
+      </c>
+      <c r="D814">
+        <v>11</v>
+      </c>
+      <c r="E814" s="2">
+        <v>43057</v>
+      </c>
+      <c r="F814" s="3">
+        <v>2579</v>
+      </c>
+      <c r="G814" s="1">
+        <v>160000</v>
+      </c>
+      <c r="H814" s="1">
+        <f>G814-150000</f>
+        <v>10000</v>
+      </c>
+      <c r="I814" s="4">
+        <f>YEAR(E814)</f>
+        <v>2017</v>
+      </c>
+      <c r="J814">
+        <f>MONTH(E814)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="815" spans="1:10">
+      <c r="A815">
+        <f>A814+1</f>
+        <v>814</v>
+      </c>
+      <c r="B815" t="s">
+        <v>143</v>
+      </c>
+      <c r="C815">
+        <v>2</v>
+      </c>
+      <c r="D815">
+        <v>12</v>
+      </c>
+      <c r="E815" s="2">
+        <v>43085</v>
+      </c>
+      <c r="F815" s="3">
+        <v>2650</v>
+      </c>
+      <c r="G815" s="1">
+        <v>160000</v>
+      </c>
+      <c r="H815" s="1">
+        <f>G815-150000</f>
+        <v>10000</v>
+      </c>
+      <c r="I815" s="4">
+        <f>YEAR(E815)</f>
+        <v>2017</v>
+      </c>
+      <c r="J815">
+        <f>MONTH(E815)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="816" spans="1:10">
+      <c r="A816">
+        <f>A815+1</f>
+        <v>815</v>
+      </c>
+      <c r="B816" t="s">
+        <v>143</v>
+      </c>
+      <c r="C816">
+        <v>2</v>
+      </c>
+      <c r="D816">
+        <v>1</v>
+      </c>
+      <c r="E816" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F816" s="3">
+        <v>2731</v>
+      </c>
+      <c r="G816" s="1">
+        <v>160000</v>
+      </c>
+      <c r="H816" s="1">
+        <f>G816-150000</f>
+        <v>10000</v>
+      </c>
+      <c r="I816" s="4">
+        <f>YEAR(E816)</f>
+        <v>2018</v>
+      </c>
+      <c r="J816">
+        <f>MONTH(E816)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" spans="1:10">
+      <c r="A817">
+        <f>A816+1</f>
+        <v>816</v>
+      </c>
+      <c r="B817" t="s">
+        <v>143</v>
+      </c>
+      <c r="C817">
+        <v>2</v>
+      </c>
+      <c r="D817">
+        <v>2</v>
+      </c>
+      <c r="E817" s="2">
+        <v>43134</v>
+      </c>
+      <c r="F817" s="3">
+        <v>2777</v>
+      </c>
+      <c r="G817" s="1">
+        <v>160000</v>
+      </c>
+      <c r="H817" s="1">
+        <f>G817-150000</f>
+        <v>10000</v>
+      </c>
+      <c r="I817" s="4">
+        <f>YEAR(E817)</f>
+        <v>2018</v>
+      </c>
+      <c r="J817">
+        <f>MONTH(E817)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="818" spans="1:10">
+      <c r="A818">
+        <f>A817+1</f>
+        <v>817</v>
+      </c>
+      <c r="B818" t="s">
+        <v>143</v>
+      </c>
+      <c r="C818">
+        <v>2</v>
+      </c>
+      <c r="D818">
+        <v>3</v>
+      </c>
+      <c r="E818" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F818" s="3">
+        <v>2901</v>
+      </c>
+      <c r="G818" s="1">
+        <v>160000</v>
+      </c>
+      <c r="H818" s="1">
+        <f>G818-150000</f>
+        <v>10000</v>
+      </c>
+      <c r="I818" s="4">
+        <f>YEAR(E818)</f>
+        <v>2018</v>
+      </c>
+      <c r="J818">
+        <f>MONTH(E818)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="819" spans="1:10">
+      <c r="A819">
+        <f>A818+1</f>
+        <v>818</v>
+      </c>
+      <c r="B819" t="s">
+        <v>132</v>
+      </c>
+      <c r="C819">
+        <v>2</v>
+      </c>
+      <c r="D819">
+        <v>7</v>
+      </c>
+      <c r="E819" s="2">
+        <v>43296</v>
+      </c>
+      <c r="F819" s="3">
+        <v>1206</v>
+      </c>
+      <c r="G819" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H819" s="1">
+        <f>G819-150000</f>
+        <v>0</v>
+      </c>
+      <c r="I819" s="4">
+        <f>YEAR(E819)</f>
+        <v>2018</v>
+      </c>
+      <c r="J819">
+        <f>MONTH(E819)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="820" spans="1:10">
+      <c r="A820">
+        <f>A819+1</f>
+        <v>819</v>
+      </c>
+      <c r="B820" t="s">
+        <v>132</v>
+      </c>
+      <c r="C820">
+        <v>2</v>
+      </c>
+      <c r="D820">
+        <v>8</v>
+      </c>
+      <c r="E820" s="2">
+        <v>43296</v>
+      </c>
+      <c r="F820" s="3">
+        <v>1206</v>
+      </c>
+      <c r="G820" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H820" s="1">
+        <f t="shared" ref="H820:H883" si="66">G820-150000</f>
+        <v>0</v>
+      </c>
+      <c r="I820" s="4">
+        <f t="shared" ref="I820:I883" si="67">YEAR(E820)</f>
+        <v>2018</v>
+      </c>
+      <c r="J820">
+        <f t="shared" ref="J820:J883" si="68">MONTH(E820)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="821" spans="1:10">
+      <c r="A821">
+        <f>A820+1</f>
+        <v>820</v>
+      </c>
+      <c r="B821" t="s">
+        <v>132</v>
+      </c>
+      <c r="C821">
+        <v>2</v>
+      </c>
+      <c r="D821">
+        <v>9</v>
+      </c>
+      <c r="E821" s="2">
+        <v>42952</v>
+      </c>
+      <c r="F821" s="3">
+        <v>2265</v>
+      </c>
+      <c r="G821" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H821" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I821" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J821">
+        <f t="shared" si="68"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="822" spans="1:10">
+      <c r="A822">
+        <f>A821+1</f>
+        <v>821</v>
+      </c>
+      <c r="B822" t="s">
+        <v>132</v>
+      </c>
+      <c r="C822">
+        <v>2</v>
+      </c>
+      <c r="D822">
+        <v>10</v>
+      </c>
+      <c r="E822" s="2">
+        <v>42987</v>
+      </c>
+      <c r="F822" s="3">
+        <v>2368</v>
+      </c>
+      <c r="G822" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H822" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I822" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J822">
+        <f t="shared" si="68"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="823" spans="1:10">
+      <c r="A823">
+        <f>A822+1</f>
+        <v>822</v>
+      </c>
+      <c r="B823" t="s">
+        <v>132</v>
+      </c>
+      <c r="C823">
+        <v>2</v>
+      </c>
+      <c r="D823">
+        <v>11</v>
+      </c>
+      <c r="E823" s="2">
+        <v>43043</v>
+      </c>
+      <c r="F823" s="3">
+        <v>2486</v>
+      </c>
+      <c r="G823" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H823" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I823" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J823">
+        <f t="shared" si="68"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="824" spans="1:10">
+      <c r="A824">
+        <f>A823+1</f>
+        <v>823</v>
+      </c>
+      <c r="B824" t="s">
+        <v>132</v>
+      </c>
+      <c r="C824">
+        <v>2</v>
+      </c>
+      <c r="D824">
+        <v>12</v>
+      </c>
+      <c r="E824" s="2">
+        <v>43078</v>
+      </c>
+      <c r="F824" s="3">
+        <v>2620</v>
+      </c>
+      <c r="G824" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H824" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I824" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J824">
+        <f t="shared" si="68"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="825" spans="1:10">
+      <c r="A825">
+        <f>A824+1</f>
+        <v>824</v>
+      </c>
+      <c r="B825" t="s">
+        <v>132</v>
+      </c>
+      <c r="C825">
+        <v>2</v>
+      </c>
+      <c r="D825">
+        <v>1</v>
+      </c>
+      <c r="E825" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F825" s="3">
+        <v>2722</v>
+      </c>
+      <c r="G825" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H825" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I825" s="4">
+        <f t="shared" si="67"/>
+        <v>2018</v>
+      </c>
+      <c r="J825">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:10">
+      <c r="A826">
+        <f>A825+1</f>
+        <v>825</v>
+      </c>
+      <c r="B826" t="s">
+        <v>132</v>
+      </c>
+      <c r="C826">
+        <v>2</v>
+      </c>
+      <c r="D826">
+        <v>2</v>
+      </c>
+      <c r="E826" s="2">
+        <v>43134</v>
+      </c>
+      <c r="F826" s="3">
+        <v>2775</v>
+      </c>
+      <c r="G826" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H826" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I826" s="4">
+        <f t="shared" si="67"/>
+        <v>2018</v>
+      </c>
+      <c r="J826">
+        <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="827" spans="1:10">
+      <c r="A827">
+        <f>A826+1</f>
+        <v>826</v>
+      </c>
+      <c r="B827" t="s">
+        <v>144</v>
+      </c>
+      <c r="C827">
+        <v>2</v>
+      </c>
+      <c r="D827">
+        <v>7</v>
+      </c>
+      <c r="E827" s="2">
+        <v>42952</v>
+      </c>
+      <c r="F827" s="3">
+        <v>2272</v>
+      </c>
+      <c r="G827" s="1">
+        <v>250000</v>
+      </c>
+      <c r="H827" s="1">
+        <f t="shared" si="66"/>
+        <v>100000</v>
+      </c>
+      <c r="I827" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J827">
+        <f t="shared" si="68"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="828" spans="1:10">
+      <c r="A828">
+        <f>A827+1</f>
+        <v>827</v>
+      </c>
+      <c r="B828" t="s">
+        <v>144</v>
+      </c>
+      <c r="C828">
+        <v>2</v>
+      </c>
+      <c r="D828">
+        <v>8</v>
+      </c>
+      <c r="E828" s="2">
+        <v>42952</v>
+      </c>
+      <c r="F828" s="3">
+        <v>2272</v>
+      </c>
+      <c r="G828" s="1">
+        <v>250000</v>
+      </c>
+      <c r="H828" s="1">
+        <f t="shared" si="66"/>
+        <v>100000</v>
+      </c>
+      <c r="I828" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J828">
+        <f t="shared" si="68"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="829" spans="1:10">
+      <c r="A829">
+        <f>A828+1</f>
+        <v>828</v>
+      </c>
+      <c r="B829" t="s">
+        <v>144</v>
+      </c>
+      <c r="C829">
+        <v>2</v>
+      </c>
+      <c r="D829">
+        <v>9</v>
+      </c>
+      <c r="E829" s="2">
+        <v>42987</v>
+      </c>
+      <c r="F829" s="3">
+        <v>2370</v>
+      </c>
+      <c r="G829" s="1">
+        <v>250000</v>
+      </c>
+      <c r="H829" s="1">
+        <f t="shared" si="66"/>
+        <v>100000</v>
+      </c>
+      <c r="I829" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J829">
+        <f t="shared" si="68"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="830" spans="1:10">
+      <c r="A830">
+        <f t="shared" ref="A830:A893" si="69">A829+1</f>
+        <v>829</v>
+      </c>
+      <c r="B830" t="s">
+        <v>144</v>
+      </c>
+      <c r="C830">
+        <v>2</v>
+      </c>
+      <c r="D830">
+        <v>10</v>
+      </c>
+      <c r="E830" s="2">
+        <v>43015</v>
+      </c>
+      <c r="F830" s="3">
+        <v>2516</v>
+      </c>
+      <c r="G830" s="1">
+        <v>250000</v>
+      </c>
+      <c r="H830" s="1">
+        <f t="shared" si="66"/>
+        <v>100000</v>
+      </c>
+      <c r="I830" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J830">
+        <f t="shared" si="68"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="831" spans="1:10">
+      <c r="A831">
+        <f t="shared" si="69"/>
+        <v>830</v>
+      </c>
+      <c r="B831" t="s">
+        <v>144</v>
+      </c>
+      <c r="C831">
+        <v>2</v>
+      </c>
+      <c r="D831">
+        <v>11</v>
+      </c>
+      <c r="E831" s="2">
+        <v>43050</v>
+      </c>
+      <c r="F831" s="3">
+        <v>2558</v>
+      </c>
+      <c r="G831" s="1">
+        <v>250000</v>
+      </c>
+      <c r="H831" s="1">
+        <f t="shared" si="66"/>
+        <v>100000</v>
+      </c>
+      <c r="I831" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J831">
+        <f t="shared" si="68"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="832" spans="1:10">
+      <c r="A832">
+        <f t="shared" si="69"/>
+        <v>831</v>
+      </c>
+      <c r="B832" t="s">
+        <v>144</v>
+      </c>
+      <c r="C832">
+        <v>2</v>
+      </c>
+      <c r="D832">
+        <v>12</v>
+      </c>
+      <c r="E832" s="2">
+        <v>43078</v>
+      </c>
+      <c r="F832" s="3">
+        <v>2628</v>
+      </c>
+      <c r="G832" s="1">
+        <v>250000</v>
+      </c>
+      <c r="H832" s="1">
+        <f t="shared" si="66"/>
+        <v>100000</v>
+      </c>
+      <c r="I832" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J832">
+        <f t="shared" si="68"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="833" spans="1:10">
+      <c r="A833">
+        <f t="shared" si="69"/>
+        <v>832</v>
+      </c>
+      <c r="B833" t="s">
+        <v>144</v>
+      </c>
+      <c r="C833">
+        <v>2</v>
+      </c>
+      <c r="D833">
+        <v>1</v>
+      </c>
+      <c r="E833" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F833" s="3">
+        <v>2735</v>
+      </c>
+      <c r="G833" s="1">
+        <v>250000</v>
+      </c>
+      <c r="H833" s="1">
+        <f t="shared" si="66"/>
+        <v>100000</v>
+      </c>
+      <c r="I833" s="4">
+        <f t="shared" si="67"/>
+        <v>2018</v>
+      </c>
+      <c r="J833">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" spans="1:10">
+      <c r="A834">
+        <f t="shared" si="69"/>
+        <v>833</v>
+      </c>
+      <c r="B834" t="s">
+        <v>144</v>
+      </c>
+      <c r="C834">
+        <v>2</v>
+      </c>
+      <c r="D834">
+        <v>2</v>
+      </c>
+      <c r="E834" s="2">
+        <v>43140</v>
+      </c>
+      <c r="F834" s="3">
+        <v>2784</v>
+      </c>
+      <c r="G834" s="1">
+        <v>250000</v>
+      </c>
+      <c r="H834" s="1">
+        <f t="shared" si="66"/>
+        <v>100000</v>
+      </c>
+      <c r="I834" s="4">
+        <f t="shared" si="67"/>
+        <v>2018</v>
+      </c>
+      <c r="J834">
+        <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="835" spans="1:10">
+      <c r="A835">
+        <f t="shared" si="69"/>
+        <v>834</v>
+      </c>
+      <c r="B835" t="s">
+        <v>145</v>
+      </c>
+      <c r="C835">
+        <v>2</v>
+      </c>
+      <c r="D835">
+        <v>7</v>
+      </c>
+      <c r="E835" s="2">
+        <v>43085</v>
+      </c>
+      <c r="F835" s="3">
+        <v>2658</v>
+      </c>
+      <c r="G835" s="1">
+        <v>120000</v>
+      </c>
+      <c r="H835" s="1">
+        <f t="shared" si="66"/>
+        <v>-30000</v>
+      </c>
+      <c r="I835" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J835">
+        <f t="shared" si="68"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="836" spans="1:10">
+      <c r="A836">
+        <f t="shared" si="69"/>
+        <v>835</v>
+      </c>
+      <c r="B836" t="s">
+        <v>145</v>
+      </c>
+      <c r="C836">
+        <v>2</v>
+      </c>
+      <c r="D836">
+        <v>8</v>
+      </c>
+      <c r="E836" s="2">
+        <v>43085</v>
+      </c>
+      <c r="F836" s="3">
+        <v>2658</v>
+      </c>
+      <c r="G836" s="1">
+        <v>120000</v>
+      </c>
+      <c r="H836" s="1">
+        <f t="shared" si="66"/>
+        <v>-30000</v>
+      </c>
+      <c r="I836" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J836">
+        <f t="shared" si="68"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="837" spans="1:10">
+      <c r="A837">
+        <f t="shared" si="69"/>
+        <v>836</v>
+      </c>
+      <c r="B837" t="s">
+        <v>145</v>
+      </c>
+      <c r="C837">
+        <v>2</v>
+      </c>
+      <c r="D837">
+        <v>9</v>
+      </c>
+      <c r="E837" s="2">
+        <v>43085</v>
+      </c>
+      <c r="F837" s="3">
+        <v>2658</v>
+      </c>
+      <c r="G837" s="1">
+        <v>120000</v>
+      </c>
+      <c r="H837" s="1">
+        <f t="shared" si="66"/>
+        <v>-30000</v>
+      </c>
+      <c r="I837" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J837">
+        <f t="shared" si="68"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="838" spans="1:10">
+      <c r="A838">
+        <f t="shared" si="69"/>
+        <v>837</v>
+      </c>
+      <c r="B838" t="s">
+        <v>145</v>
+      </c>
+      <c r="C838">
+        <v>2</v>
+      </c>
+      <c r="D838">
+        <v>10</v>
+      </c>
+      <c r="E838" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F838" s="3">
+        <v>2760</v>
+      </c>
+      <c r="G838" s="1">
+        <v>120000</v>
+      </c>
+      <c r="H838" s="1">
+        <f t="shared" si="66"/>
+        <v>-30000</v>
+      </c>
+      <c r="I838" s="4">
+        <f t="shared" si="67"/>
+        <v>2018</v>
+      </c>
+      <c r="J838">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:10">
+      <c r="A839">
+        <f t="shared" si="69"/>
+        <v>838</v>
+      </c>
+      <c r="B839" t="s">
+        <v>145</v>
+      </c>
+      <c r="C839">
+        <v>2</v>
+      </c>
+      <c r="D839">
+        <v>11</v>
+      </c>
+      <c r="E839" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F839" s="3">
+        <v>2760</v>
+      </c>
+      <c r="G839" s="1">
+        <v>120000</v>
+      </c>
+      <c r="H839" s="1">
+        <f t="shared" si="66"/>
+        <v>-30000</v>
+      </c>
+      <c r="I839" s="4">
+        <f t="shared" si="67"/>
+        <v>2018</v>
+      </c>
+      <c r="J839">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840" spans="1:10">
+      <c r="A840">
+        <f t="shared" si="69"/>
+        <v>839</v>
+      </c>
+      <c r="B840" t="s">
+        <v>145</v>
+      </c>
+      <c r="C840">
+        <v>2</v>
+      </c>
+      <c r="D840">
+        <v>12</v>
+      </c>
+      <c r="E840" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F840" s="3">
+        <v>2760</v>
+      </c>
+      <c r="G840" s="1">
+        <v>120000</v>
+      </c>
+      <c r="H840" s="1">
+        <f t="shared" si="66"/>
+        <v>-30000</v>
+      </c>
+      <c r="I840" s="4">
+        <f t="shared" si="67"/>
+        <v>2018</v>
+      </c>
+      <c r="J840">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:10">
+      <c r="A841">
+        <f t="shared" si="69"/>
+        <v>840</v>
+      </c>
+      <c r="B841" t="s">
+        <v>146</v>
+      </c>
+      <c r="C841">
+        <v>2</v>
+      </c>
+      <c r="D841">
+        <v>7</v>
+      </c>
+      <c r="E841" s="2">
+        <v>42952</v>
+      </c>
+      <c r="F841" s="3">
+        <v>2266</v>
+      </c>
+      <c r="G841" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H841" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I841" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J841">
+        <f t="shared" si="68"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="842" spans="1:10">
+      <c r="A842">
+        <f t="shared" si="69"/>
+        <v>841</v>
+      </c>
+      <c r="B842" t="s">
+        <v>146</v>
+      </c>
+      <c r="C842">
+        <v>2</v>
+      </c>
+      <c r="D842">
+        <v>8</v>
+      </c>
+      <c r="E842" s="2">
+        <v>43015</v>
+      </c>
+      <c r="F842" s="3">
+        <v>2505</v>
+      </c>
+      <c r="G842" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H842" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I842" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J842">
+        <f t="shared" si="68"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="843" spans="1:10">
+      <c r="A843">
+        <f t="shared" si="69"/>
+        <v>842</v>
+      </c>
+      <c r="B843" t="s">
+        <v>146</v>
+      </c>
+      <c r="C843">
+        <v>2</v>
+      </c>
+      <c r="D843">
+        <v>9</v>
+      </c>
+      <c r="E843" s="2">
+        <v>43015</v>
+      </c>
+      <c r="F843" s="3">
+        <v>2505</v>
+      </c>
+      <c r="G843" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H843" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I843" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J843">
+        <f t="shared" si="68"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="844" spans="1:10">
+      <c r="A844">
+        <f t="shared" si="69"/>
+        <v>843</v>
+      </c>
+      <c r="B844" t="s">
+        <v>146</v>
+      </c>
+      <c r="C844">
+        <v>2</v>
+      </c>
+      <c r="D844">
+        <v>10</v>
+      </c>
+      <c r="E844" s="2">
+        <v>43057</v>
+      </c>
+      <c r="F844" s="3">
+        <v>2570</v>
+      </c>
+      <c r="G844" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H844" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I844" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J844">
+        <f t="shared" si="68"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="845" spans="1:10">
+      <c r="A845">
+        <f t="shared" si="69"/>
+        <v>844</v>
+      </c>
+      <c r="B845" t="s">
+        <v>146</v>
+      </c>
+      <c r="C845">
+        <v>2</v>
+      </c>
+      <c r="D845">
+        <v>11</v>
+      </c>
+      <c r="E845" s="2">
+        <v>43134</v>
+      </c>
+      <c r="F845" s="3">
+        <v>2768</v>
+      </c>
+      <c r="G845" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H845" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I845" s="4">
+        <f t="shared" si="67"/>
+        <v>2018</v>
+      </c>
+      <c r="J845">
+        <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="846" spans="1:10">
+      <c r="A846">
+        <f t="shared" si="69"/>
+        <v>845</v>
+      </c>
+      <c r="B846" t="s">
+        <v>146</v>
+      </c>
+      <c r="C846">
+        <v>2</v>
+      </c>
+      <c r="D846">
+        <v>12</v>
+      </c>
+      <c r="E846" s="2">
+        <v>43134</v>
+      </c>
+      <c r="F846" s="3">
+        <v>2768</v>
+      </c>
+      <c r="G846" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H846" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I846" s="4">
+        <f t="shared" si="67"/>
+        <v>2018</v>
+      </c>
+      <c r="J846">
+        <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="847" spans="1:10">
+      <c r="A847">
+        <f t="shared" si="69"/>
+        <v>846</v>
+      </c>
+      <c r="B847" t="s">
+        <v>147</v>
+      </c>
+      <c r="C847">
+        <v>2</v>
+      </c>
+      <c r="D847">
+        <v>7</v>
+      </c>
+      <c r="E847" s="2">
+        <v>42959</v>
+      </c>
+      <c r="F847" s="3">
+        <v>2282</v>
+      </c>
+      <c r="G847" s="1">
+        <v>350000</v>
+      </c>
+      <c r="H847" s="1">
+        <f t="shared" si="66"/>
+        <v>200000</v>
+      </c>
+      <c r="I847" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J847">
+        <f t="shared" si="68"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="848" spans="1:10">
+      <c r="A848">
+        <f t="shared" si="69"/>
+        <v>847</v>
+      </c>
+      <c r="B848" t="s">
+        <v>147</v>
+      </c>
+      <c r="C848">
+        <v>2</v>
+      </c>
+      <c r="D848">
+        <v>8</v>
+      </c>
+      <c r="E848" s="2">
+        <v>42959</v>
+      </c>
+      <c r="F848" s="3">
+        <v>2282</v>
+      </c>
+      <c r="G848" s="1">
+        <v>350000</v>
+      </c>
+      <c r="H848" s="1">
+        <f t="shared" si="66"/>
+        <v>200000</v>
+      </c>
+      <c r="I848" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J848">
+        <f t="shared" si="68"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="849" spans="1:10">
+      <c r="A849">
+        <f t="shared" si="69"/>
+        <v>848</v>
+      </c>
+      <c r="B849" t="s">
+        <v>147</v>
+      </c>
+      <c r="C849">
+        <v>2</v>
+      </c>
+      <c r="D849">
+        <v>9</v>
+      </c>
+      <c r="E849" s="2">
+        <v>42986</v>
+      </c>
+      <c r="F849" s="3">
+        <v>2361</v>
+      </c>
+      <c r="G849" s="1">
+        <v>350000</v>
+      </c>
+      <c r="H849" s="1">
+        <f t="shared" si="66"/>
+        <v>200000</v>
+      </c>
+      <c r="I849" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J849">
+        <f t="shared" si="68"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="850" spans="1:10">
+      <c r="A850">
+        <f t="shared" si="69"/>
+        <v>849</v>
+      </c>
+      <c r="B850" t="s">
+        <v>147</v>
+      </c>
+      <c r="C850">
+        <v>2</v>
+      </c>
+      <c r="D850">
+        <v>10</v>
+      </c>
+      <c r="E850" s="2">
+        <v>43022</v>
+      </c>
+      <c r="F850" s="3">
+        <v>2532</v>
+      </c>
+      <c r="G850" s="1">
+        <v>350000</v>
+      </c>
+      <c r="H850" s="1">
+        <f t="shared" si="66"/>
+        <v>200000</v>
+      </c>
+      <c r="I850" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J850">
+        <f t="shared" si="68"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="851" spans="1:10">
+      <c r="A851">
+        <f t="shared" si="69"/>
+        <v>850</v>
+      </c>
+      <c r="B851" t="s">
+        <v>147</v>
+      </c>
+      <c r="C851">
+        <v>2</v>
+      </c>
+      <c r="D851">
+        <v>11</v>
+      </c>
+      <c r="E851" s="2">
+        <v>43085</v>
+      </c>
+      <c r="F851" s="3">
+        <v>2647</v>
+      </c>
+      <c r="G851" s="1">
+        <v>350000</v>
+      </c>
+      <c r="H851" s="1">
+        <f t="shared" si="66"/>
+        <v>200000</v>
+      </c>
+      <c r="I851" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J851">
+        <f t="shared" si="68"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="852" spans="1:10">
+      <c r="A852">
+        <f t="shared" si="69"/>
+        <v>851</v>
+      </c>
+      <c r="B852" t="s">
+        <v>147</v>
+      </c>
+      <c r="C852">
+        <v>2</v>
+      </c>
+      <c r="D852">
+        <v>12</v>
+      </c>
+      <c r="E852" s="2">
+        <v>43085</v>
+      </c>
+      <c r="F852" s="3">
+        <v>2647</v>
+      </c>
+      <c r="G852" s="1">
+        <v>350000</v>
+      </c>
+      <c r="H852" s="1">
+        <f t="shared" si="66"/>
+        <v>200000</v>
+      </c>
+      <c r="I852" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J852">
+        <f t="shared" si="68"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="853" spans="1:10">
+      <c r="A853">
+        <f t="shared" si="69"/>
+        <v>852</v>
+      </c>
+      <c r="B853" t="s">
+        <v>148</v>
+      </c>
+      <c r="C853">
+        <v>2</v>
+      </c>
+      <c r="D853">
+        <v>7</v>
+      </c>
+      <c r="E853" s="2">
+        <v>42988</v>
+      </c>
+      <c r="F853" s="3">
+        <v>2437</v>
+      </c>
+      <c r="G853" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H853" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I853" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J853">
+        <f t="shared" si="68"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="854" spans="1:10">
+      <c r="A854">
+        <f t="shared" si="69"/>
+        <v>853</v>
+      </c>
+      <c r="B854" t="s">
+        <v>148</v>
+      </c>
+      <c r="C854">
+        <v>2</v>
+      </c>
+      <c r="D854">
+        <v>8</v>
+      </c>
+      <c r="E854" s="2">
+        <v>42988</v>
+      </c>
+      <c r="F854" s="3">
+        <v>2437</v>
+      </c>
+      <c r="G854" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H854" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I854" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J854">
+        <f t="shared" si="68"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="855" spans="1:10">
+      <c r="A855">
+        <f t="shared" si="69"/>
+        <v>854</v>
+      </c>
+      <c r="B855" t="s">
+        <v>148</v>
+      </c>
+      <c r="C855">
+        <v>2</v>
+      </c>
+      <c r="D855">
+        <v>9</v>
+      </c>
+      <c r="E855" s="2">
+        <v>43015</v>
+      </c>
+      <c r="F855" s="3">
+        <v>2518</v>
+      </c>
+      <c r="G855" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H855" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I855" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J855">
+        <f t="shared" si="68"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="856" spans="1:10">
+      <c r="A856">
+        <f t="shared" si="69"/>
+        <v>855</v>
+      </c>
+      <c r="B856" t="s">
+        <v>148</v>
+      </c>
+      <c r="C856">
+        <v>2</v>
+      </c>
+      <c r="D856">
+        <v>10</v>
+      </c>
+      <c r="E856" s="2">
+        <v>43092</v>
+      </c>
+      <c r="F856" s="3">
+        <v>2680</v>
+      </c>
+      <c r="G856" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H856" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I856" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J856">
+        <f t="shared" si="68"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="857" spans="1:10">
+      <c r="A857">
+        <f t="shared" si="69"/>
+        <v>856</v>
+      </c>
+      <c r="B857" t="s">
+        <v>148</v>
+      </c>
+      <c r="C857">
+        <v>2</v>
+      </c>
+      <c r="D857">
+        <v>11</v>
+      </c>
+      <c r="E857" s="2">
+        <v>43092</v>
+      </c>
+      <c r="F857" s="3">
+        <v>2680</v>
+      </c>
+      <c r="G857" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H857" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I857" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J857">
+        <f t="shared" si="68"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="858" spans="1:10">
+      <c r="A858">
+        <f t="shared" si="69"/>
+        <v>857</v>
+      </c>
+      <c r="B858" t="s">
+        <v>148</v>
+      </c>
+      <c r="C858">
+        <v>2</v>
+      </c>
+      <c r="D858">
+        <v>12</v>
+      </c>
+      <c r="E858" s="2">
+        <v>43092</v>
+      </c>
+      <c r="F858" s="3">
+        <v>2680</v>
+      </c>
+      <c r="G858" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H858" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I858" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J858">
+        <f t="shared" si="68"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="859" spans="1:10">
+      <c r="A859">
+        <f t="shared" si="69"/>
+        <v>858</v>
+      </c>
+      <c r="B859" t="s">
+        <v>45</v>
+      </c>
+      <c r="C859">
+        <v>3</v>
+      </c>
+      <c r="D859">
+        <v>7</v>
+      </c>
+      <c r="E859" s="2">
+        <v>42867</v>
+      </c>
+      <c r="F859" s="3">
+        <v>2294</v>
+      </c>
+      <c r="G859" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H859" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I859" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J859">
+        <f t="shared" si="68"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="860" spans="1:10">
+      <c r="A860">
+        <f t="shared" si="69"/>
+        <v>859</v>
+      </c>
+      <c r="B860" t="s">
+        <v>45</v>
+      </c>
+      <c r="C860">
+        <v>3</v>
+      </c>
+      <c r="D860">
+        <v>8</v>
+      </c>
+      <c r="E860" s="2">
+        <v>42973</v>
+      </c>
+      <c r="F860" s="3">
+        <v>2342</v>
+      </c>
+      <c r="G860" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H860" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I860" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J860">
+        <f t="shared" si="68"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="861" spans="1:10">
+      <c r="A861">
+        <f t="shared" si="69"/>
+        <v>860</v>
+      </c>
+      <c r="B861" t="s">
+        <v>45</v>
+      </c>
+      <c r="C861">
+        <v>3</v>
+      </c>
+      <c r="D861">
+        <v>9</v>
+      </c>
+      <c r="E861" s="2">
+        <v>42994</v>
+      </c>
+      <c r="F861" s="3">
+        <v>2414</v>
+      </c>
+      <c r="G861" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H861" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I861" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J861">
+        <f t="shared" si="68"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="862" spans="1:10">
+      <c r="A862">
+        <f t="shared" si="69"/>
+        <v>861</v>
+      </c>
+      <c r="B862" t="s">
+        <v>45</v>
+      </c>
+      <c r="C862">
+        <v>3</v>
+      </c>
+      <c r="D862">
+        <v>10</v>
+      </c>
+      <c r="E862" s="2">
+        <v>43022</v>
+      </c>
+      <c r="F862" s="3">
+        <v>2541</v>
+      </c>
+      <c r="G862" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H862" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I862" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J862">
+        <f t="shared" si="68"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="863" spans="1:10">
+      <c r="A863">
+        <f t="shared" si="69"/>
+        <v>862</v>
+      </c>
+      <c r="B863" t="s">
+        <v>45</v>
+      </c>
+      <c r="C863">
+        <v>3</v>
+      </c>
+      <c r="D863">
+        <v>11</v>
+      </c>
+      <c r="E863" s="2">
+        <v>43050</v>
+      </c>
+      <c r="F863" s="3">
+        <v>2562</v>
+      </c>
+      <c r="G863" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H863" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I863" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J863">
+        <f t="shared" si="68"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="864" spans="1:10">
+      <c r="A864">
+        <f t="shared" si="69"/>
+        <v>863</v>
+      </c>
+      <c r="B864" t="s">
+        <v>45</v>
+      </c>
+      <c r="C864">
+        <v>3</v>
+      </c>
+      <c r="D864">
+        <v>12</v>
+      </c>
+      <c r="E864" s="2">
+        <v>43078</v>
+      </c>
+      <c r="F864" s="3">
+        <v>2630</v>
+      </c>
+      <c r="G864" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H864" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I864" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J864">
+        <f t="shared" si="68"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="865" spans="1:10">
+      <c r="A865">
+        <f t="shared" si="69"/>
+        <v>864</v>
+      </c>
+      <c r="B865" t="s">
+        <v>45</v>
+      </c>
+      <c r="C865">
+        <v>3</v>
+      </c>
+      <c r="D865">
+        <v>1</v>
+      </c>
+      <c r="E865" s="2">
+        <v>42797</v>
+      </c>
+      <c r="F865" s="3">
+        <v>2852</v>
+      </c>
+      <c r="G865" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H865" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I865" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J865">
+        <f t="shared" si="68"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="866" spans="1:10">
+      <c r="A866">
+        <f t="shared" si="69"/>
+        <v>865</v>
+      </c>
+      <c r="B866" t="s">
+        <v>45</v>
+      </c>
+      <c r="C866">
+        <v>3</v>
+      </c>
+      <c r="D866">
+        <v>2</v>
+      </c>
+      <c r="E866" s="2">
+        <v>42797</v>
+      </c>
+      <c r="F866" s="3">
+        <v>2852</v>
+      </c>
+      <c r="G866" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H866" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I866" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J866">
+        <f t="shared" si="68"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="867" spans="1:10">
+      <c r="A867">
+        <f t="shared" si="69"/>
+        <v>866</v>
+      </c>
+      <c r="B867" t="s">
+        <v>149</v>
+      </c>
+      <c r="C867">
+        <v>3</v>
+      </c>
+      <c r="D867">
+        <v>7</v>
+      </c>
+      <c r="E867" s="2">
+        <v>42938</v>
+      </c>
+      <c r="F867" s="3">
+        <v>1236</v>
+      </c>
+      <c r="G867" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H867" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I867" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J867">
+        <f t="shared" si="68"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="868" spans="1:10">
+      <c r="A868">
+        <f t="shared" si="69"/>
+        <v>867</v>
+      </c>
+      <c r="B868" t="s">
+        <v>149</v>
+      </c>
+      <c r="C868">
+        <v>3</v>
+      </c>
+      <c r="D868">
+        <v>8</v>
+      </c>
+      <c r="E868" s="2">
+        <v>42959</v>
+      </c>
+      <c r="F868" s="3">
+        <v>2289</v>
+      </c>
+      <c r="G868" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H868" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I868" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J868">
+        <f t="shared" si="68"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="869" spans="1:10">
+      <c r="A869">
+        <f t="shared" si="69"/>
+        <v>868</v>
+      </c>
+      <c r="B869" t="s">
+        <v>149</v>
+      </c>
+      <c r="C869">
+        <v>3</v>
+      </c>
+      <c r="D869">
+        <v>9</v>
+      </c>
+      <c r="E869" s="2">
+        <v>42994</v>
+      </c>
+      <c r="F869" s="3">
+        <v>2412</v>
+      </c>
+      <c r="G869" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H869" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I869" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J869">
+        <f t="shared" si="68"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="870" spans="1:10">
+      <c r="A870">
+        <f t="shared" si="69"/>
+        <v>869</v>
+      </c>
+      <c r="B870" t="s">
+        <v>149</v>
+      </c>
+      <c r="C870">
+        <v>3</v>
+      </c>
+      <c r="D870">
+        <v>10</v>
+      </c>
+      <c r="E870" s="2">
+        <v>43022</v>
+      </c>
+      <c r="F870" s="3">
+        <v>2533</v>
+      </c>
+      <c r="G870" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H870" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I870" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J870">
+        <f t="shared" si="68"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="871" spans="1:10">
+      <c r="A871">
+        <f t="shared" si="69"/>
+        <v>870</v>
+      </c>
+      <c r="B871" t="s">
+        <v>149</v>
+      </c>
+      <c r="C871">
+        <v>3</v>
+      </c>
+      <c r="D871">
+        <v>11</v>
+      </c>
+      <c r="E871" s="2">
+        <v>43057</v>
+      </c>
+      <c r="F871" s="3">
+        <v>2580</v>
+      </c>
+      <c r="G871" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H871" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I871" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J871">
+        <f t="shared" si="68"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="872" spans="1:10">
+      <c r="A872">
+        <f t="shared" si="69"/>
+        <v>871</v>
+      </c>
+      <c r="B872" t="s">
+        <v>149</v>
+      </c>
+      <c r="C872">
+        <v>3</v>
+      </c>
+      <c r="D872">
+        <v>12</v>
+      </c>
+      <c r="E872" s="2">
+        <v>43085</v>
+      </c>
+      <c r="F872" s="3">
+        <v>2653</v>
+      </c>
+      <c r="G872" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H872" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I872" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J872">
+        <f t="shared" si="68"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="873" spans="1:10">
+      <c r="A873">
+        <f t="shared" si="69"/>
+        <v>872</v>
+      </c>
+      <c r="B873" t="s">
+        <v>149</v>
+      </c>
+      <c r="C873">
+        <v>3</v>
+      </c>
+      <c r="D873">
+        <v>1</v>
+      </c>
+      <c r="E873" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F873" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G873" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H873" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I873" s="4">
+        <f t="shared" si="67"/>
+        <v>2018</v>
+      </c>
+      <c r="J873">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874" spans="1:10">
+      <c r="A874">
+        <f t="shared" si="69"/>
+        <v>873</v>
+      </c>
+      <c r="B874" t="s">
+        <v>149</v>
+      </c>
+      <c r="C874">
+        <v>3</v>
+      </c>
+      <c r="D874">
+        <v>2</v>
+      </c>
+      <c r="E874" s="2">
+        <v>43141</v>
+      </c>
+      <c r="F874" s="3">
+        <v>2804</v>
+      </c>
+      <c r="G874" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H874" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I874" s="4">
+        <f t="shared" si="67"/>
+        <v>2018</v>
+      </c>
+      <c r="J874">
+        <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="875" spans="1:10">
+      <c r="A875">
+        <f t="shared" si="69"/>
+        <v>874</v>
+      </c>
+      <c r="B875" t="s">
+        <v>149</v>
+      </c>
+      <c r="C875">
+        <v>3</v>
+      </c>
+      <c r="D875">
+        <v>3</v>
+      </c>
+      <c r="E875" s="2">
+        <v>42797</v>
+      </c>
+      <c r="F875" s="3">
+        <v>2854</v>
+      </c>
+      <c r="G875" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H875" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I875" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J875">
+        <f t="shared" si="68"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="876" spans="1:10">
+      <c r="A876">
+        <f t="shared" si="69"/>
+        <v>875</v>
+      </c>
+      <c r="B876" t="s">
+        <v>150</v>
+      </c>
+      <c r="C876">
+        <v>3</v>
+      </c>
+      <c r="D876">
+        <v>7</v>
+      </c>
+      <c r="E876" s="2">
+        <v>42931</v>
+      </c>
+      <c r="F876" s="3">
+        <v>1216</v>
+      </c>
+      <c r="G876" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H876" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I876" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J876">
+        <f t="shared" si="68"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="877" spans="1:10">
+      <c r="A877">
+        <f t="shared" si="69"/>
+        <v>876</v>
+      </c>
+      <c r="B877" t="s">
+        <v>150</v>
+      </c>
+      <c r="C877">
+        <v>3</v>
+      </c>
+      <c r="D877">
+        <v>8</v>
+      </c>
+      <c r="E877" s="2">
+        <v>42986</v>
+      </c>
+      <c r="F877" s="3">
+        <v>2356</v>
+      </c>
+      <c r="G877" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H877" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I877" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J877">
+        <f t="shared" si="68"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="878" spans="1:10">
+      <c r="A878">
+        <f t="shared" si="69"/>
+        <v>877</v>
+      </c>
+      <c r="B878" t="s">
+        <v>150</v>
+      </c>
+      <c r="C878">
+        <v>3</v>
+      </c>
+      <c r="D878">
+        <v>9</v>
+      </c>
+      <c r="E878" s="2">
+        <v>42986</v>
+      </c>
+      <c r="F878" s="3">
+        <v>2356</v>
+      </c>
+      <c r="G878" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H878" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I878" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J878">
+        <f t="shared" si="68"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="879" spans="1:10">
+      <c r="A879">
+        <f t="shared" si="69"/>
+        <v>878</v>
+      </c>
+      <c r="B879" t="s">
+        <v>150</v>
+      </c>
+      <c r="C879">
+        <v>3</v>
+      </c>
+      <c r="D879">
+        <v>10</v>
+      </c>
+      <c r="E879" s="2">
+        <v>43015</v>
+      </c>
+      <c r="F879" s="3">
+        <v>2510</v>
+      </c>
+      <c r="G879" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H879" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I879" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J879">
+        <f t="shared" si="68"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="880" spans="1:10">
+      <c r="A880">
+        <f t="shared" si="69"/>
+        <v>879</v>
+      </c>
+      <c r="B880" t="s">
+        <v>150</v>
+      </c>
+      <c r="C880">
+        <v>3</v>
+      </c>
+      <c r="D880">
+        <v>11</v>
+      </c>
+      <c r="E880" s="2">
+        <v>43043</v>
+      </c>
+      <c r="F880" s="3">
+        <v>2489</v>
+      </c>
+      <c r="G880" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H880" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I880" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J880">
+        <f t="shared" si="68"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="881" spans="1:10">
+      <c r="A881">
+        <f t="shared" si="69"/>
+        <v>880</v>
+      </c>
+      <c r="B881" t="s">
+        <v>150</v>
+      </c>
+      <c r="C881">
+        <v>3</v>
+      </c>
+      <c r="D881">
+        <v>12</v>
+      </c>
+      <c r="E881" s="2">
+        <v>43092</v>
+      </c>
+      <c r="F881" s="3">
+        <v>2671</v>
+      </c>
+      <c r="G881" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H881" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I881" s="4">
+        <f t="shared" si="67"/>
+        <v>2017</v>
+      </c>
+      <c r="J881">
+        <f t="shared" si="68"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="882" spans="1:10">
+      <c r="A882">
+        <f t="shared" si="69"/>
+        <v>881</v>
+      </c>
+      <c r="B882" t="s">
+        <v>150</v>
+      </c>
+      <c r="C882">
+        <v>3</v>
+      </c>
+      <c r="D882">
+        <v>1</v>
+      </c>
+      <c r="E882" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F882" s="3">
+        <v>2730</v>
+      </c>
+      <c r="G882" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H882" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I882" s="4">
+        <f t="shared" si="67"/>
+        <v>2018</v>
+      </c>
+      <c r="J882">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883" spans="1:10">
+      <c r="A883">
+        <f t="shared" si="69"/>
+        <v>882</v>
+      </c>
+      <c r="B883" t="s">
+        <v>150</v>
+      </c>
+      <c r="C883">
+        <v>3</v>
+      </c>
+      <c r="D883">
+        <v>2</v>
+      </c>
+      <c r="E883" s="2">
+        <v>43134</v>
+      </c>
+      <c r="F883" s="3">
+        <v>2778</v>
+      </c>
+      <c r="G883" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H883" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="I883" s="4">
+        <f t="shared" si="67"/>
+        <v>2018</v>
+      </c>
+      <c r="J883">
+        <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="884" spans="1:10">
+      <c r="A884">
+        <f t="shared" si="69"/>
+        <v>883</v>
+      </c>
+      <c r="B884" t="s">
+        <v>150</v>
+      </c>
+      <c r="C884">
+        <v>3</v>
+      </c>
+      <c r="D884">
+        <v>3</v>
+      </c>
+      <c r="E884" s="2">
+        <v>43169</v>
+      </c>
+      <c r="F884" s="3">
+        <v>2889</v>
+      </c>
+      <c r="G884" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H884" s="1">
+        <f t="shared" ref="H884:H917" si="70">G884-150000</f>
+        <v>0</v>
+      </c>
+      <c r="I884" s="4">
+        <f t="shared" ref="I884:I917" si="71">YEAR(E884)</f>
+        <v>2018</v>
+      </c>
+      <c r="J884">
+        <f t="shared" ref="J884:J917" si="72">MONTH(E884)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="885" spans="1:10">
+      <c r="A885">
+        <f t="shared" si="69"/>
+        <v>884</v>
+      </c>
+      <c r="B885" t="s">
+        <v>151</v>
+      </c>
+      <c r="C885">
+        <v>3</v>
+      </c>
+      <c r="D885">
+        <v>7</v>
+      </c>
+      <c r="E885" s="2">
+        <v>42938</v>
+      </c>
+      <c r="F885" s="3">
+        <v>1237</v>
+      </c>
+      <c r="G885" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H885" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I885" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J885">
+        <f t="shared" si="72"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="886" spans="1:10">
+      <c r="A886">
+        <f t="shared" si="69"/>
+        <v>885</v>
+      </c>
+      <c r="B886" t="s">
+        <v>151</v>
+      </c>
+      <c r="C886">
+        <v>3</v>
+      </c>
+      <c r="D886">
+        <v>8</v>
+      </c>
+      <c r="E886" s="2">
+        <v>42965</v>
+      </c>
+      <c r="F886" s="3">
+        <v>2312</v>
+      </c>
+      <c r="G886" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H886" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I886" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J886">
+        <f t="shared" si="72"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="887" spans="1:10">
+      <c r="A887">
+        <f t="shared" si="69"/>
+        <v>886</v>
+      </c>
+      <c r="B887" t="s">
+        <v>151</v>
+      </c>
+      <c r="C887">
+        <v>3</v>
+      </c>
+      <c r="D887">
+        <v>9</v>
+      </c>
+      <c r="E887" s="2">
+        <v>42986</v>
+      </c>
+      <c r="F887" s="3">
+        <v>2355</v>
+      </c>
+      <c r="G887" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H887" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I887" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J887">
+        <f t="shared" si="72"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="888" spans="1:10">
+      <c r="A888">
+        <f t="shared" si="69"/>
+        <v>887</v>
+      </c>
+      <c r="B888" t="s">
+        <v>151</v>
+      </c>
+      <c r="C888">
+        <v>3</v>
+      </c>
+      <c r="D888">
+        <v>10</v>
+      </c>
+      <c r="E888" s="2">
+        <v>43008</v>
+      </c>
+      <c r="F888" s="3">
+        <v>2386</v>
+      </c>
+      <c r="G888" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H888" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I888" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J888">
+        <f t="shared" si="72"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="889" spans="1:10">
+      <c r="A889">
+        <f t="shared" si="69"/>
+        <v>888</v>
+      </c>
+      <c r="B889" t="s">
+        <v>151</v>
+      </c>
+      <c r="C889">
+        <v>3</v>
+      </c>
+      <c r="D889">
+        <v>11</v>
+      </c>
+      <c r="E889" s="2">
+        <v>43057</v>
+      </c>
+      <c r="F889" s="3">
+        <v>2582</v>
+      </c>
+      <c r="G889" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H889" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I889" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J889">
+        <f t="shared" si="72"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="890" spans="1:10">
+      <c r="A890">
+        <f t="shared" si="69"/>
+        <v>889</v>
+      </c>
+      <c r="B890" t="s">
+        <v>151</v>
+      </c>
+      <c r="C890">
+        <v>3</v>
+      </c>
+      <c r="D890">
+        <v>12</v>
+      </c>
+      <c r="E890" s="2">
+        <v>43092</v>
+      </c>
+      <c r="F890" s="3">
+        <v>2685</v>
+      </c>
+      <c r="G890" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H890" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I890" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J890">
+        <f t="shared" si="72"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="891" spans="1:10">
+      <c r="A891">
+        <f t="shared" si="69"/>
+        <v>890</v>
+      </c>
+      <c r="B891" t="s">
+        <v>151</v>
+      </c>
+      <c r="C891">
+        <v>3</v>
+      </c>
+      <c r="D891">
+        <v>1</v>
+      </c>
+      <c r="E891" s="2">
+        <v>43092</v>
+      </c>
+      <c r="F891" s="3">
+        <v>2685</v>
+      </c>
+      <c r="G891" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H891" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I891" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J891">
+        <f t="shared" si="72"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="892" spans="1:10">
+      <c r="A892">
+        <f t="shared" si="69"/>
+        <v>891</v>
+      </c>
+      <c r="B892" t="s">
+        <v>151</v>
+      </c>
+      <c r="C892">
+        <v>3</v>
+      </c>
+      <c r="D892">
+        <v>2</v>
+      </c>
+      <c r="E892" s="2">
+        <v>43141</v>
+      </c>
+      <c r="F892" s="3">
+        <v>2790</v>
+      </c>
+      <c r="G892" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H892" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I892" s="4">
+        <f t="shared" si="71"/>
+        <v>2018</v>
+      </c>
+      <c r="J892">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="893" spans="1:10">
+      <c r="A893">
+        <f t="shared" si="69"/>
+        <v>892</v>
+      </c>
+      <c r="B893" t="s">
+        <v>151</v>
+      </c>
+      <c r="C893">
+        <v>3</v>
+      </c>
+      <c r="D893">
+        <v>3</v>
+      </c>
+      <c r="E893" s="2">
+        <v>43169</v>
+      </c>
+      <c r="F893" s="3">
+        <v>2865</v>
+      </c>
+      <c r="G893" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H893" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I893" s="4">
+        <f t="shared" si="71"/>
+        <v>2018</v>
+      </c>
+      <c r="J893">
+        <f t="shared" si="72"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="894" spans="1:10">
+      <c r="A894">
+        <f t="shared" ref="A894:A917" si="73">A893+1</f>
+        <v>893</v>
+      </c>
+      <c r="B894" t="s">
+        <v>152</v>
+      </c>
+      <c r="C894">
+        <v>3</v>
+      </c>
+      <c r="D894">
+        <v>7</v>
+      </c>
+      <c r="E894" s="2">
+        <v>42994</v>
+      </c>
+      <c r="F894" s="3">
+        <v>2404</v>
+      </c>
+      <c r="G894" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H894" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I894" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J894">
+        <f t="shared" si="72"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="895" spans="1:10">
+      <c r="A895">
+        <f t="shared" si="73"/>
+        <v>894</v>
+      </c>
+      <c r="B895" t="s">
+        <v>152</v>
+      </c>
+      <c r="C895">
+        <v>3</v>
+      </c>
+      <c r="D895">
+        <v>8</v>
+      </c>
+      <c r="E895" s="2">
+        <v>42994</v>
+      </c>
+      <c r="F895" s="3">
+        <v>2404</v>
+      </c>
+      <c r="G895" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H895" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I895" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J895">
+        <f t="shared" si="72"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="896" spans="1:10">
+      <c r="A896">
+        <f t="shared" si="73"/>
+        <v>895</v>
+      </c>
+      <c r="B896" t="s">
+        <v>152</v>
+      </c>
+      <c r="C896">
+        <v>3</v>
+      </c>
+      <c r="D896">
+        <v>9</v>
+      </c>
+      <c r="E896" s="2">
+        <v>42739</v>
+      </c>
+      <c r="F896" s="3">
+        <v>2725</v>
+      </c>
+      <c r="G896" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H896" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I896" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J896">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897" spans="1:10">
+      <c r="A897">
+        <f t="shared" si="73"/>
+        <v>896</v>
+      </c>
+      <c r="B897" t="s">
+        <v>152</v>
+      </c>
+      <c r="C897">
+        <v>3</v>
+      </c>
+      <c r="D897">
+        <v>10</v>
+      </c>
+      <c r="E897" s="2">
+        <v>42739</v>
+      </c>
+      <c r="F897" s="3">
+        <v>2725</v>
+      </c>
+      <c r="G897" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H897" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I897" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J897">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="898" spans="1:10">
+      <c r="A898">
+        <f t="shared" si="73"/>
+        <v>897</v>
+      </c>
+      <c r="B898" t="s">
+        <v>152</v>
+      </c>
+      <c r="C898">
+        <v>3</v>
+      </c>
+      <c r="D898">
+        <v>11</v>
+      </c>
+      <c r="E898" s="2">
+        <v>42739</v>
+      </c>
+      <c r="F898" s="3">
+        <v>2725</v>
+      </c>
+      <c r="G898" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H898" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I898" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J898">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="899" spans="1:10">
+      <c r="A899">
+        <f t="shared" si="73"/>
+        <v>898</v>
+      </c>
+      <c r="B899" t="s">
+        <v>152</v>
+      </c>
+      <c r="C899">
+        <v>3</v>
+      </c>
+      <c r="D899">
+        <v>12</v>
+      </c>
+      <c r="E899" s="2">
+        <v>42739</v>
+      </c>
+      <c r="F899" s="3">
+        <v>2725</v>
+      </c>
+      <c r="G899" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H899" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I899" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J899">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" spans="1:10">
+      <c r="A900">
+        <f t="shared" si="73"/>
+        <v>899</v>
+      </c>
+      <c r="B900" t="s">
+        <v>152</v>
+      </c>
+      <c r="C900">
+        <v>3</v>
+      </c>
+      <c r="D900">
+        <v>1</v>
+      </c>
+      <c r="E900" s="2">
+        <v>42739</v>
+      </c>
+      <c r="F900" s="3">
+        <v>2725</v>
+      </c>
+      <c r="G900" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H900" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I900" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J900">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="901" spans="1:10">
+      <c r="A901">
+        <f t="shared" si="73"/>
+        <v>900</v>
+      </c>
+      <c r="B901" t="s">
+        <v>153</v>
+      </c>
+      <c r="C901">
+        <v>3</v>
+      </c>
+      <c r="D901"/>
+      <c r="E901" s="2"/>
+      <c r="F901" s="3"/>
+      <c r="G901" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H901" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I901" s="4">
+        <f t="shared" si="71"/>
+        <v>1900</v>
+      </c>
+      <c r="J901">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902" spans="1:10">
+      <c r="A902">
+        <f t="shared" si="73"/>
+        <v>901</v>
+      </c>
+      <c r="B902" t="s">
+        <v>134</v>
+      </c>
+      <c r="C902">
+        <v>3</v>
+      </c>
+      <c r="D902">
+        <v>7</v>
+      </c>
+      <c r="E902" s="2">
+        <v>42986</v>
+      </c>
+      <c r="F902" s="3">
+        <v>2359</v>
+      </c>
+      <c r="G902" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H902" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I902" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J902">
+        <f t="shared" si="72"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="903" spans="1:10">
+      <c r="A903">
+        <f t="shared" si="73"/>
+        <v>902</v>
+      </c>
+      <c r="B903" t="s">
+        <v>134</v>
+      </c>
+      <c r="C903">
+        <v>3</v>
+      </c>
+      <c r="D903">
+        <v>8</v>
+      </c>
+      <c r="E903" s="2">
+        <v>42986</v>
+      </c>
+      <c r="F903" s="3">
+        <v>2359</v>
+      </c>
+      <c r="G903" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H903" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I903" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J903">
+        <f t="shared" si="72"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="904" spans="1:10">
+      <c r="A904">
+        <f t="shared" si="73"/>
+        <v>903</v>
+      </c>
+      <c r="B904" t="s">
+        <v>134</v>
+      </c>
+      <c r="C904">
+        <v>3</v>
+      </c>
+      <c r="D904">
+        <v>9</v>
+      </c>
+      <c r="E904" s="2">
+        <v>43022</v>
+      </c>
+      <c r="F904" s="3">
+        <v>2452</v>
+      </c>
+      <c r="G904" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H904" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I904" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J904">
+        <f t="shared" si="72"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="905" spans="1:10">
+      <c r="A905">
+        <f t="shared" si="73"/>
+        <v>904</v>
+      </c>
+      <c r="B905" t="s">
+        <v>134</v>
+      </c>
+      <c r="C905">
+        <v>3</v>
+      </c>
+      <c r="D905">
+        <v>10</v>
+      </c>
+      <c r="E905" s="2">
+        <v>43022</v>
+      </c>
+      <c r="F905" s="3">
+        <v>2452</v>
+      </c>
+      <c r="G905" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H905" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I905" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J905">
+        <f t="shared" si="72"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="906" spans="1:10">
+      <c r="A906">
+        <f t="shared" si="73"/>
+        <v>905</v>
+      </c>
+      <c r="B906" t="s">
+        <v>134</v>
+      </c>
+      <c r="C906">
+        <v>3</v>
+      </c>
+      <c r="D906">
+        <v>11</v>
+      </c>
+      <c r="E906" s="2">
+        <v>43085</v>
+      </c>
+      <c r="F906" s="3">
+        <v>2462</v>
+      </c>
+      <c r="G906" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H906" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I906" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J906">
+        <f t="shared" si="72"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="907" spans="1:10">
+      <c r="A907">
+        <f t="shared" si="73"/>
+        <v>906</v>
+      </c>
+      <c r="B907" t="s">
+        <v>134</v>
+      </c>
+      <c r="C907">
+        <v>3</v>
+      </c>
+      <c r="D907">
+        <v>12</v>
+      </c>
+      <c r="E907" s="2">
+        <v>43085</v>
+      </c>
+      <c r="F907" s="3">
+        <v>2462</v>
+      </c>
+      <c r="G907" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H907" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I907" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J907">
+        <f t="shared" si="72"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="908" spans="1:10">
+      <c r="A908">
+        <f t="shared" si="73"/>
+        <v>907</v>
+      </c>
+      <c r="B908" t="s">
+        <v>134</v>
+      </c>
+      <c r="C908">
+        <v>3</v>
+      </c>
+      <c r="D908">
+        <v>1</v>
+      </c>
+      <c r="E908" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F908" s="3">
+        <v>2705</v>
+      </c>
+      <c r="G908" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H908" s="1">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I908" s="4">
+        <f t="shared" si="71"/>
+        <v>2018</v>
+      </c>
+      <c r="J908">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909" spans="1:10">
+      <c r="A909">
+        <f t="shared" si="73"/>
+        <v>908</v>
+      </c>
+      <c r="B909" t="s">
+        <v>154</v>
+      </c>
+      <c r="C909">
+        <v>3</v>
+      </c>
+      <c r="D909">
+        <v>7</v>
+      </c>
+      <c r="E909" s="2">
+        <v>42952</v>
+      </c>
+      <c r="F909" s="3">
+        <v>2271</v>
+      </c>
+      <c r="G909" s="1">
+        <v>160000</v>
+      </c>
+      <c r="H909" s="1">
+        <f t="shared" si="70"/>
+        <v>10000</v>
+      </c>
+      <c r="I909" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J909">
+        <f t="shared" si="72"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="910" spans="1:10">
+      <c r="A910">
+        <f t="shared" si="73"/>
+        <v>909</v>
+      </c>
+      <c r="B910" t="s">
+        <v>154</v>
+      </c>
+      <c r="C910">
+        <v>3</v>
+      </c>
+      <c r="D910">
+        <v>8</v>
+      </c>
+      <c r="E910" s="2">
+        <v>42952</v>
+      </c>
+      <c r="F910" s="3">
+        <v>2271</v>
+      </c>
+      <c r="G910" s="1">
+        <v>160000</v>
+      </c>
+      <c r="H910" s="1">
+        <f t="shared" si="70"/>
+        <v>10000</v>
+      </c>
+      <c r="I910" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J910">
+        <f t="shared" si="72"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="911" spans="1:10">
+      <c r="A911">
+        <f t="shared" si="73"/>
+        <v>910</v>
+      </c>
+      <c r="B911" t="s">
+        <v>154</v>
+      </c>
+      <c r="C911">
+        <v>3</v>
+      </c>
+      <c r="D911">
+        <v>9</v>
+      </c>
+      <c r="E911" s="2">
+        <v>42994</v>
+      </c>
+      <c r="F911" s="3">
+        <v>2422</v>
+      </c>
+      <c r="G911" s="1">
+        <v>160000</v>
+      </c>
+      <c r="H911" s="1">
+        <f t="shared" si="70"/>
+        <v>10000</v>
+      </c>
+      <c r="I911" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J911">
+        <f t="shared" si="72"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="912" spans="1:10">
+      <c r="A912">
+        <f t="shared" si="73"/>
+        <v>911</v>
+      </c>
+      <c r="B912" t="s">
+        <v>154</v>
+      </c>
+      <c r="C912">
+        <v>3</v>
+      </c>
+      <c r="D912">
+        <v>10</v>
+      </c>
+      <c r="E912" s="2">
+        <v>43015</v>
+      </c>
+      <c r="F912" s="3">
+        <v>2514</v>
+      </c>
+      <c r="G912" s="1">
+        <v>160000</v>
+      </c>
+      <c r="H912" s="1">
+        <f t="shared" si="70"/>
+        <v>10000</v>
+      </c>
+      <c r="I912" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J912">
+        <f t="shared" si="72"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="913" spans="1:10">
+      <c r="A913">
+        <f t="shared" si="73"/>
+        <v>912</v>
+      </c>
+      <c r="B913" t="s">
+        <v>154</v>
+      </c>
+      <c r="C913">
+        <v>3</v>
+      </c>
+      <c r="D913">
+        <v>11</v>
+      </c>
+      <c r="E913" s="2">
+        <v>43057</v>
+      </c>
+      <c r="F913" s="3">
+        <v>2579</v>
+      </c>
+      <c r="G913" s="1">
+        <v>160000</v>
+      </c>
+      <c r="H913" s="1">
+        <f t="shared" si="70"/>
+        <v>10000</v>
+      </c>
+      <c r="I913" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J913">
+        <f t="shared" si="72"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="914" spans="1:10">
+      <c r="A914">
+        <f t="shared" si="73"/>
+        <v>913</v>
+      </c>
+      <c r="B914" t="s">
+        <v>154</v>
+      </c>
+      <c r="C914">
+        <v>3</v>
+      </c>
+      <c r="D914">
+        <v>12</v>
+      </c>
+      <c r="E914" s="2">
+        <v>43085</v>
+      </c>
+      <c r="F914" s="3">
+        <v>2650</v>
+      </c>
+      <c r="G914" s="1">
+        <v>160000</v>
+      </c>
+      <c r="H914" s="1">
+        <f t="shared" si="70"/>
+        <v>10000</v>
+      </c>
+      <c r="I914" s="4">
+        <f t="shared" si="71"/>
+        <v>2017</v>
+      </c>
+      <c r="J914">
+        <f t="shared" si="72"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="915" spans="1:10">
+      <c r="A915">
+        <f t="shared" si="73"/>
+        <v>914</v>
+      </c>
+      <c r="B915" t="s">
+        <v>154</v>
+      </c>
+      <c r="C915">
+        <v>3</v>
+      </c>
+      <c r="D915">
+        <v>1</v>
+      </c>
+      <c r="E915" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F915" s="3">
+        <v>2731</v>
+      </c>
+      <c r="G915" s="1">
+        <v>160000</v>
+      </c>
+      <c r="H915" s="1">
+        <f t="shared" si="70"/>
+        <v>10000</v>
+      </c>
+      <c r="I915" s="4">
+        <f t="shared" si="71"/>
+        <v>2018</v>
+      </c>
+      <c r="J915">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="916" spans="1:10">
+      <c r="A916">
+        <f t="shared" si="73"/>
+        <v>915</v>
+      </c>
+      <c r="B916" t="s">
+        <v>154</v>
+      </c>
+      <c r="C916">
+        <v>3</v>
+      </c>
+      <c r="D916">
+        <v>2</v>
+      </c>
+      <c r="E916" s="2">
+        <v>43134</v>
+      </c>
+      <c r="F916" s="3">
+        <v>2777</v>
+      </c>
+      <c r="G916" s="1">
+        <v>160000</v>
+      </c>
+      <c r="H916" s="1">
+        <f t="shared" si="70"/>
+        <v>10000</v>
+      </c>
+      <c r="I916" s="4">
+        <f t="shared" si="71"/>
+        <v>2018</v>
+      </c>
+      <c r="J916">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="917" spans="1:10">
+      <c r="A917">
+        <f t="shared" si="73"/>
+        <v>916</v>
+      </c>
+      <c r="B917" t="s">
+        <v>154</v>
+      </c>
+      <c r="C917">
+        <v>3</v>
+      </c>
+      <c r="D917">
+        <v>3</v>
+      </c>
+      <c r="E917" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F917" s="3">
+        <v>2901</v>
+      </c>
+      <c r="G917" s="1">
+        <v>160000</v>
+      </c>
+      <c r="H917" s="1">
+        <f t="shared" si="70"/>
+        <v>10000</v>
+      </c>
+      <c r="I917" s="4">
+        <f t="shared" si="71"/>
+        <v>2018</v>
+      </c>
+      <c r="J917">
+        <f t="shared" si="72"/>
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J706"/>
+  <autoFilter ref="A1:J908"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -35190,7 +42545,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -35201,13 +42556,13 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -35218,13 +42573,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="E3" s="1">
         <v>2000000</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -35232,13 +42587,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="E4" s="1">
         <v>2000000</v>
       </c>
       <c r="F4" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -35246,7 +42601,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="E5" s="1">
         <v>600000</v>

--- a/SPP.xlsx
+++ b/SPP.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DETAIL!$A$1:$J$908</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DETAIL!$A$1:$J$917</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169">
   <si>
     <t>Tahun Bayar</t>
   </si>
@@ -490,6 +490,27 @@
     <t>ABDURRAZAQ BIN ICOK</t>
   </si>
   <si>
+    <t>HASAN</t>
+  </si>
+  <si>
+    <t>IHSAN</t>
+  </si>
+  <si>
+    <t>ABDURRAHMAN BIN JAROT</t>
+  </si>
+  <si>
+    <t>ISHAQ</t>
+  </si>
+  <si>
+    <t>ABU MUBAROK UWAIS</t>
+  </si>
+  <si>
+    <t>AZZAM</t>
+  </si>
+  <si>
+    <t>URWAH ABDURRAHMAN</t>
+  </si>
+  <si>
     <t>Pemasukan Yang Harus Dicek ulang</t>
   </si>
   <si>
@@ -516,12 +537,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -541,7 +562,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,7 +662,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -564,68 +670,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,37 +685,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -678,7 +692,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,7 +714,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,55 +792,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,91 +834,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,13 +852,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,6 +913,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,6 +959,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -945,57 +1005,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1007,130 +1028,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,10 +1159,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1153,13 +1174,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1171,7 +1192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1237,7 +1258,7 @@
       <numFmt numFmtId="180" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2008,7 +2029,7 @@
         <n v="4"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Tanggal" numFmtId="178">
+    <cacheField name="Tanggal" numFmtId="176">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNonDate="0" containsDate="1" minDate="2017-01-04T00:00:00" maxDate="2018-09-17T00:00:00" count="94">
         <d v="2017-09-09T00:00:00"/>
         <d v="2017-11-25T00:00:00"/>
@@ -2207,7 +2228,7 @@
         <n v="2766"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="SPP" numFmtId="179">
+    <cacheField name="SPP" numFmtId="177">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100000" maxValue="500000" count="14">
         <n v="350000"/>
         <n v="450000"/>
@@ -2225,7 +2246,7 @@
         <n v="160000"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Non Pendidikan" numFmtId="179">
+    <cacheField name="Non Pendidikan" numFmtId="177">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-50000" maxValue="350000" count="14">
         <n v="200000"/>
         <n v="300000"/>
@@ -10355,9 +10376,9 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="178" showAll="0"/>
+    <pivotField compact="0" numFmtId="176" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="179" showAll="0">
+    <pivotField dataField="1" compact="0" numFmtId="177" showAll="0">
       <items count="15">
         <item x="11"/>
         <item x="12"/>
@@ -10376,7 +10397,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="179" showAll="0">
+    <pivotField compact="0" numFmtId="177" showAll="0">
       <items count="15">
         <item x="11"/>
         <item x="12"/>
@@ -10889,12 +10910,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J917"/>
+  <dimension ref="A1:J969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A905" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A946" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A918" sqref="A918"/>
+      <selection pane="bottomLeft" activeCell="E963" sqref="E963"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -36943,7 +36964,6 @@
       <c r="E762" s="2">
         <v>43132</v>
       </c>
-      <c r="F762" s="3"/>
       <c r="G762" s="1">
         <v>200000</v>
       </c>
@@ -38442,7 +38462,7 @@
     </row>
     <row r="805" spans="1:10">
       <c r="A805">
-        <f>A804+1</f>
+        <f t="shared" ref="A805:A829" si="66">A804+1</f>
         <v>804</v>
       </c>
       <c r="B805" t="s">
@@ -38464,21 +38484,21 @@
         <v>100000</v>
       </c>
       <c r="H805" s="1">
-        <f>G805-150000</f>
+        <f t="shared" ref="H805:H819" si="67">G805-150000</f>
         <v>-50000</v>
       </c>
       <c r="I805" s="4">
-        <f>YEAR(E805)</f>
+        <f t="shared" ref="I805:I819" si="68">YEAR(E805)</f>
         <v>2017</v>
       </c>
       <c r="J805">
-        <f>MONTH(E805)</f>
+        <f t="shared" ref="J805:J819" si="69">MONTH(E805)</f>
         <v>11</v>
       </c>
     </row>
     <row r="806" spans="1:10">
       <c r="A806">
-        <f>A805+1</f>
+        <f t="shared" si="66"/>
         <v>805</v>
       </c>
       <c r="B806" t="s">
@@ -38500,21 +38520,21 @@
         <v>100000</v>
       </c>
       <c r="H806" s="1">
-        <f>G806-150000</f>
+        <f t="shared" si="67"/>
         <v>-50000</v>
       </c>
       <c r="I806" s="4">
-        <f>YEAR(E806)</f>
+        <f t="shared" si="68"/>
         <v>2018</v>
       </c>
       <c r="J806">
-        <f>MONTH(E806)</f>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:10">
       <c r="A807">
-        <f>A806+1</f>
+        <f t="shared" si="66"/>
         <v>806</v>
       </c>
       <c r="B807" t="s">
@@ -38536,21 +38556,21 @@
         <v>100000</v>
       </c>
       <c r="H807" s="1">
-        <f>G807-150000</f>
+        <f t="shared" si="67"/>
         <v>-50000</v>
       </c>
       <c r="I807" s="4">
-        <f>YEAR(E807)</f>
+        <f t="shared" si="68"/>
         <v>2018</v>
       </c>
       <c r="J807">
-        <f>MONTH(E807)</f>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:10">
       <c r="A808">
-        <f>A807+1</f>
+        <f t="shared" si="66"/>
         <v>807</v>
       </c>
       <c r="B808" t="s">
@@ -38572,21 +38592,21 @@
         <v>100000</v>
       </c>
       <c r="H808" s="1">
-        <f>G808-150000</f>
+        <f t="shared" si="67"/>
         <v>-50000</v>
       </c>
       <c r="I808" s="4">
-        <f>YEAR(E808)</f>
+        <f t="shared" si="68"/>
         <v>2018</v>
       </c>
       <c r="J808">
-        <f>MONTH(E808)</f>
+        <f t="shared" si="69"/>
         <v>3</v>
       </c>
     </row>
     <row r="809" spans="1:10">
       <c r="A809">
-        <f>A808+1</f>
+        <f t="shared" si="66"/>
         <v>808</v>
       </c>
       <c r="B809" t="s">
@@ -38608,21 +38628,21 @@
         <v>100000</v>
       </c>
       <c r="H809" s="1">
-        <f>G809-150000</f>
+        <f t="shared" si="67"/>
         <v>-50000</v>
       </c>
       <c r="I809" s="4">
-        <f>YEAR(E809)</f>
+        <f t="shared" si="68"/>
         <v>2018</v>
       </c>
       <c r="J809">
-        <f>MONTH(E809)</f>
+        <f t="shared" si="69"/>
         <v>3</v>
       </c>
     </row>
     <row r="810" spans="1:10">
       <c r="A810">
-        <f>A809+1</f>
+        <f t="shared" si="66"/>
         <v>809</v>
       </c>
       <c r="B810" t="s">
@@ -38644,21 +38664,21 @@
         <v>160000</v>
       </c>
       <c r="H810" s="1">
-        <f>G810-150000</f>
+        <f t="shared" si="67"/>
         <v>10000</v>
       </c>
       <c r="I810" s="4">
-        <f>YEAR(E810)</f>
+        <f t="shared" si="68"/>
         <v>2017</v>
       </c>
       <c r="J810">
-        <f>MONTH(E810)</f>
+        <f t="shared" si="69"/>
         <v>8</v>
       </c>
     </row>
     <row r="811" spans="1:10">
       <c r="A811">
-        <f>A810+1</f>
+        <f t="shared" si="66"/>
         <v>810</v>
       </c>
       <c r="B811" t="s">
@@ -38680,21 +38700,21 @@
         <v>160000</v>
       </c>
       <c r="H811" s="1">
-        <f>G811-150000</f>
+        <f t="shared" si="67"/>
         <v>10000</v>
       </c>
       <c r="I811" s="4">
-        <f>YEAR(E811)</f>
+        <f t="shared" si="68"/>
         <v>2017</v>
       </c>
       <c r="J811">
-        <f>MONTH(E811)</f>
+        <f t="shared" si="69"/>
         <v>8</v>
       </c>
     </row>
     <row r="812" spans="1:10">
       <c r="A812">
-        <f>A811+1</f>
+        <f t="shared" si="66"/>
         <v>811</v>
       </c>
       <c r="B812" t="s">
@@ -38716,21 +38736,21 @@
         <v>160000</v>
       </c>
       <c r="H812" s="1">
-        <f>G812-150000</f>
+        <f t="shared" si="67"/>
         <v>10000</v>
       </c>
       <c r="I812" s="4">
-        <f>YEAR(E812)</f>
+        <f t="shared" si="68"/>
         <v>2017</v>
       </c>
       <c r="J812">
-        <f>MONTH(E812)</f>
+        <f t="shared" si="69"/>
         <v>9</v>
       </c>
     </row>
     <row r="813" spans="1:10">
       <c r="A813">
-        <f>A812+1</f>
+        <f t="shared" si="66"/>
         <v>812</v>
       </c>
       <c r="B813" t="s">
@@ -38752,21 +38772,21 @@
         <v>160000</v>
       </c>
       <c r="H813" s="1">
-        <f>G813-150000</f>
+        <f t="shared" si="67"/>
         <v>10000</v>
       </c>
       <c r="I813" s="4">
-        <f>YEAR(E813)</f>
+        <f t="shared" si="68"/>
         <v>2017</v>
       </c>
       <c r="J813">
-        <f>MONTH(E813)</f>
+        <f t="shared" si="69"/>
         <v>10</v>
       </c>
     </row>
     <row r="814" spans="1:10">
       <c r="A814">
-        <f>A813+1</f>
+        <f t="shared" si="66"/>
         <v>813</v>
       </c>
       <c r="B814" t="s">
@@ -38788,21 +38808,21 @@
         <v>160000</v>
       </c>
       <c r="H814" s="1">
-        <f>G814-150000</f>
+        <f t="shared" si="67"/>
         <v>10000</v>
       </c>
       <c r="I814" s="4">
-        <f>YEAR(E814)</f>
+        <f t="shared" si="68"/>
         <v>2017</v>
       </c>
       <c r="J814">
-        <f>MONTH(E814)</f>
+        <f t="shared" si="69"/>
         <v>11</v>
       </c>
     </row>
     <row r="815" spans="1:10">
       <c r="A815">
-        <f>A814+1</f>
+        <f t="shared" si="66"/>
         <v>814</v>
       </c>
       <c r="B815" t="s">
@@ -38824,21 +38844,21 @@
         <v>160000</v>
       </c>
       <c r="H815" s="1">
-        <f>G815-150000</f>
+        <f t="shared" si="67"/>
         <v>10000</v>
       </c>
       <c r="I815" s="4">
-        <f>YEAR(E815)</f>
+        <f t="shared" si="68"/>
         <v>2017</v>
       </c>
       <c r="J815">
-        <f>MONTH(E815)</f>
+        <f t="shared" si="69"/>
         <v>12</v>
       </c>
     </row>
     <row r="816" spans="1:10">
       <c r="A816">
-        <f>A815+1</f>
+        <f t="shared" si="66"/>
         <v>815</v>
       </c>
       <c r="B816" t="s">
@@ -38860,21 +38880,21 @@
         <v>160000</v>
       </c>
       <c r="H816" s="1">
-        <f>G816-150000</f>
+        <f t="shared" si="67"/>
         <v>10000</v>
       </c>
       <c r="I816" s="4">
-        <f>YEAR(E816)</f>
+        <f t="shared" si="68"/>
         <v>2018</v>
       </c>
       <c r="J816">
-        <f>MONTH(E816)</f>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:10">
       <c r="A817">
-        <f>A816+1</f>
+        <f t="shared" si="66"/>
         <v>816</v>
       </c>
       <c r="B817" t="s">
@@ -38896,21 +38916,21 @@
         <v>160000</v>
       </c>
       <c r="H817" s="1">
-        <f>G817-150000</f>
+        <f t="shared" si="67"/>
         <v>10000</v>
       </c>
       <c r="I817" s="4">
-        <f>YEAR(E817)</f>
+        <f t="shared" si="68"/>
         <v>2018</v>
       </c>
       <c r="J817">
-        <f>MONTH(E817)</f>
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:10">
       <c r="A818">
-        <f>A817+1</f>
+        <f t="shared" si="66"/>
         <v>817</v>
       </c>
       <c r="B818" t="s">
@@ -38932,21 +38952,21 @@
         <v>160000</v>
       </c>
       <c r="H818" s="1">
-        <f>G818-150000</f>
+        <f t="shared" si="67"/>
         <v>10000</v>
       </c>
       <c r="I818" s="4">
-        <f>YEAR(E818)</f>
+        <f t="shared" si="68"/>
         <v>2018</v>
       </c>
       <c r="J818">
-        <f>MONTH(E818)</f>
+        <f t="shared" si="69"/>
         <v>3</v>
       </c>
     </row>
     <row r="819" spans="1:10">
       <c r="A819">
-        <f>A818+1</f>
+        <f t="shared" si="66"/>
         <v>818</v>
       </c>
       <c r="B819" t="s">
@@ -38968,21 +38988,21 @@
         <v>150000</v>
       </c>
       <c r="H819" s="1">
-        <f>G819-150000</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I819" s="4">
-        <f>YEAR(E819)</f>
+        <f t="shared" si="68"/>
         <v>2018</v>
       </c>
       <c r="J819">
-        <f>MONTH(E819)</f>
+        <f t="shared" si="69"/>
         <v>7</v>
       </c>
     </row>
     <row r="820" spans="1:10">
       <c r="A820">
-        <f>A819+1</f>
+        <f t="shared" si="66"/>
         <v>819</v>
       </c>
       <c r="B820" t="s">
@@ -39004,21 +39024,21 @@
         <v>150000</v>
       </c>
       <c r="H820" s="1">
-        <f t="shared" ref="H820:H883" si="66">G820-150000</f>
+        <f t="shared" ref="H820:H883" si="70">G820-150000</f>
         <v>0</v>
       </c>
       <c r="I820" s="4">
-        <f t="shared" ref="I820:I883" si="67">YEAR(E820)</f>
+        <f t="shared" ref="I820:I883" si="71">YEAR(E820)</f>
         <v>2018</v>
       </c>
       <c r="J820">
-        <f t="shared" ref="J820:J883" si="68">MONTH(E820)</f>
+        <f t="shared" ref="J820:J883" si="72">MONTH(E820)</f>
         <v>7</v>
       </c>
     </row>
     <row r="821" spans="1:10">
       <c r="A821">
-        <f>A820+1</f>
+        <f t="shared" si="66"/>
         <v>820</v>
       </c>
       <c r="B821" t="s">
@@ -39040,21 +39060,21 @@
         <v>150000</v>
       </c>
       <c r="H821" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I821" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J821">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>8</v>
       </c>
     </row>
     <row r="822" spans="1:10">
       <c r="A822">
-        <f>A821+1</f>
+        <f t="shared" si="66"/>
         <v>821</v>
       </c>
       <c r="B822" t="s">
@@ -39076,21 +39096,21 @@
         <v>150000</v>
       </c>
       <c r="H822" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I822" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J822">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>9</v>
       </c>
     </row>
     <row r="823" spans="1:10">
       <c r="A823">
-        <f>A822+1</f>
+        <f t="shared" si="66"/>
         <v>822</v>
       </c>
       <c r="B823" t="s">
@@ -39112,21 +39132,21 @@
         <v>150000</v>
       </c>
       <c r="H823" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I823" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J823">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>11</v>
       </c>
     </row>
     <row r="824" spans="1:10">
       <c r="A824">
-        <f>A823+1</f>
+        <f t="shared" si="66"/>
         <v>823</v>
       </c>
       <c r="B824" t="s">
@@ -39148,21 +39168,21 @@
         <v>150000</v>
       </c>
       <c r="H824" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I824" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J824">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>12</v>
       </c>
     </row>
     <row r="825" spans="1:10">
       <c r="A825">
-        <f>A824+1</f>
+        <f t="shared" si="66"/>
         <v>824</v>
       </c>
       <c r="B825" t="s">
@@ -39184,21 +39204,21 @@
         <v>150000</v>
       </c>
       <c r="H825" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I825" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2018</v>
       </c>
       <c r="J825">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:10">
       <c r="A826">
-        <f>A825+1</f>
+        <f t="shared" si="66"/>
         <v>825</v>
       </c>
       <c r="B826" t="s">
@@ -39220,21 +39240,21 @@
         <v>150000</v>
       </c>
       <c r="H826" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I826" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2018</v>
       </c>
       <c r="J826">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:10">
       <c r="A827">
-        <f>A826+1</f>
+        <f t="shared" si="66"/>
         <v>826</v>
       </c>
       <c r="B827" t="s">
@@ -39256,21 +39276,21 @@
         <v>250000</v>
       </c>
       <c r="H827" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>100000</v>
       </c>
       <c r="I827" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J827">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>8</v>
       </c>
     </row>
     <row r="828" spans="1:10">
       <c r="A828">
-        <f>A827+1</f>
+        <f t="shared" si="66"/>
         <v>827</v>
       </c>
       <c r="B828" t="s">
@@ -39292,21 +39312,21 @@
         <v>250000</v>
       </c>
       <c r="H828" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>100000</v>
       </c>
       <c r="I828" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J828">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>8</v>
       </c>
     </row>
     <row r="829" spans="1:10">
       <c r="A829">
-        <f>A828+1</f>
+        <f t="shared" si="66"/>
         <v>828</v>
       </c>
       <c r="B829" t="s">
@@ -39328,21 +39348,21 @@
         <v>250000</v>
       </c>
       <c r="H829" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>100000</v>
       </c>
       <c r="I829" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J829">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>9</v>
       </c>
     </row>
     <row r="830" spans="1:10">
       <c r="A830">
-        <f t="shared" ref="A830:A893" si="69">A829+1</f>
+        <f t="shared" ref="A830:A893" si="73">A829+1</f>
         <v>829</v>
       </c>
       <c r="B830" t="s">
@@ -39364,21 +39384,21 @@
         <v>250000</v>
       </c>
       <c r="H830" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>100000</v>
       </c>
       <c r="I830" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J830">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>10</v>
       </c>
     </row>
     <row r="831" spans="1:10">
       <c r="A831">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>830</v>
       </c>
       <c r="B831" t="s">
@@ -39400,21 +39420,21 @@
         <v>250000</v>
       </c>
       <c r="H831" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>100000</v>
       </c>
       <c r="I831" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J831">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>11</v>
       </c>
     </row>
     <row r="832" spans="1:10">
       <c r="A832">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>831</v>
       </c>
       <c r="B832" t="s">
@@ -39436,21 +39456,21 @@
         <v>250000</v>
       </c>
       <c r="H832" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>100000</v>
       </c>
       <c r="I832" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J832">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>12</v>
       </c>
     </row>
     <row r="833" spans="1:10">
       <c r="A833">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>832</v>
       </c>
       <c r="B833" t="s">
@@ -39472,21 +39492,21 @@
         <v>250000</v>
       </c>
       <c r="H833" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>100000</v>
       </c>
       <c r="I833" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2018</v>
       </c>
       <c r="J833">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:10">
       <c r="A834">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>833</v>
       </c>
       <c r="B834" t="s">
@@ -39508,21 +39528,21 @@
         <v>250000</v>
       </c>
       <c r="H834" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>100000</v>
       </c>
       <c r="I834" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2018</v>
       </c>
       <c r="J834">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:10">
       <c r="A835">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>834</v>
       </c>
       <c r="B835" t="s">
@@ -39544,21 +39564,21 @@
         <v>120000</v>
       </c>
       <c r="H835" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-30000</v>
       </c>
       <c r="I835" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J835">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>12</v>
       </c>
     </row>
     <row r="836" spans="1:10">
       <c r="A836">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>835</v>
       </c>
       <c r="B836" t="s">
@@ -39580,21 +39600,21 @@
         <v>120000</v>
       </c>
       <c r="H836" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-30000</v>
       </c>
       <c r="I836" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J836">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>12</v>
       </c>
     </row>
     <row r="837" spans="1:10">
       <c r="A837">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>836</v>
       </c>
       <c r="B837" t="s">
@@ -39616,21 +39636,21 @@
         <v>120000</v>
       </c>
       <c r="H837" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-30000</v>
       </c>
       <c r="I837" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J837">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>12</v>
       </c>
     </row>
     <row r="838" spans="1:10">
       <c r="A838">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>837</v>
       </c>
       <c r="B838" t="s">
@@ -39652,21 +39672,21 @@
         <v>120000</v>
       </c>
       <c r="H838" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-30000</v>
       </c>
       <c r="I838" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2018</v>
       </c>
       <c r="J838">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:10">
       <c r="A839">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>838</v>
       </c>
       <c r="B839" t="s">
@@ -39688,21 +39708,21 @@
         <v>120000</v>
       </c>
       <c r="H839" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-30000</v>
       </c>
       <c r="I839" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2018</v>
       </c>
       <c r="J839">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:10">
       <c r="A840">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>839</v>
       </c>
       <c r="B840" t="s">
@@ -39724,21 +39744,21 @@
         <v>120000</v>
       </c>
       <c r="H840" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-30000</v>
       </c>
       <c r="I840" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2018</v>
       </c>
       <c r="J840">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:10">
       <c r="A841">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>840</v>
       </c>
       <c r="B841" t="s">
@@ -39760,21 +39780,21 @@
         <v>150000</v>
       </c>
       <c r="H841" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I841" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J841">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>8</v>
       </c>
     </row>
     <row r="842" spans="1:10">
       <c r="A842">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>841</v>
       </c>
       <c r="B842" t="s">
@@ -39796,21 +39816,21 @@
         <v>150000</v>
       </c>
       <c r="H842" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I842" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J842">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>10</v>
       </c>
     </row>
     <row r="843" spans="1:10">
       <c r="A843">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>842</v>
       </c>
       <c r="B843" t="s">
@@ -39832,21 +39852,21 @@
         <v>150000</v>
       </c>
       <c r="H843" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I843" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J843">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>10</v>
       </c>
     </row>
     <row r="844" spans="1:10">
       <c r="A844">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>843</v>
       </c>
       <c r="B844" t="s">
@@ -39868,21 +39888,21 @@
         <v>150000</v>
       </c>
       <c r="H844" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I844" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J844">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>11</v>
       </c>
     </row>
     <row r="845" spans="1:10">
       <c r="A845">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>844</v>
       </c>
       <c r="B845" t="s">
@@ -39904,21 +39924,21 @@
         <v>150000</v>
       </c>
       <c r="H845" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I845" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2018</v>
       </c>
       <c r="J845">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:10">
       <c r="A846">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>845</v>
       </c>
       <c r="B846" t="s">
@@ -39940,21 +39960,21 @@
         <v>150000</v>
       </c>
       <c r="H846" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I846" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2018</v>
       </c>
       <c r="J846">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:10">
       <c r="A847">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>846</v>
       </c>
       <c r="B847" t="s">
@@ -39976,21 +39996,21 @@
         <v>350000</v>
       </c>
       <c r="H847" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>200000</v>
       </c>
       <c r="I847" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J847">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>8</v>
       </c>
     </row>
     <row r="848" spans="1:10">
       <c r="A848">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>847</v>
       </c>
       <c r="B848" t="s">
@@ -40012,21 +40032,21 @@
         <v>350000</v>
       </c>
       <c r="H848" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>200000</v>
       </c>
       <c r="I848" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J848">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>8</v>
       </c>
     </row>
     <row r="849" spans="1:10">
       <c r="A849">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>848</v>
       </c>
       <c r="B849" t="s">
@@ -40048,21 +40068,21 @@
         <v>350000</v>
       </c>
       <c r="H849" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>200000</v>
       </c>
       <c r="I849" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J849">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>9</v>
       </c>
     </row>
     <row r="850" spans="1:10">
       <c r="A850">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>849</v>
       </c>
       <c r="B850" t="s">
@@ -40084,21 +40104,21 @@
         <v>350000</v>
       </c>
       <c r="H850" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>200000</v>
       </c>
       <c r="I850" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J850">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>10</v>
       </c>
     </row>
     <row r="851" spans="1:10">
       <c r="A851">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>850</v>
       </c>
       <c r="B851" t="s">
@@ -40120,21 +40140,21 @@
         <v>350000</v>
       </c>
       <c r="H851" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>200000</v>
       </c>
       <c r="I851" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J851">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>12</v>
       </c>
     </row>
     <row r="852" spans="1:10">
       <c r="A852">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>851</v>
       </c>
       <c r="B852" t="s">
@@ -40156,21 +40176,21 @@
         <v>350000</v>
       </c>
       <c r="H852" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>200000</v>
       </c>
       <c r="I852" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J852">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>12</v>
       </c>
     </row>
     <row r="853" spans="1:10">
       <c r="A853">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>852</v>
       </c>
       <c r="B853" t="s">
@@ -40192,21 +40212,21 @@
         <v>150000</v>
       </c>
       <c r="H853" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I853" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J853">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>9</v>
       </c>
     </row>
     <row r="854" spans="1:10">
       <c r="A854">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>853</v>
       </c>
       <c r="B854" t="s">
@@ -40228,21 +40248,21 @@
         <v>150000</v>
       </c>
       <c r="H854" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I854" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J854">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>9</v>
       </c>
     </row>
     <row r="855" spans="1:10">
       <c r="A855">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>854</v>
       </c>
       <c r="B855" t="s">
@@ -40264,21 +40284,21 @@
         <v>150000</v>
       </c>
       <c r="H855" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I855" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J855">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>10</v>
       </c>
     </row>
     <row r="856" spans="1:10">
       <c r="A856">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>855</v>
       </c>
       <c r="B856" t="s">
@@ -40300,21 +40320,21 @@
         <v>150000</v>
       </c>
       <c r="H856" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I856" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J856">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>12</v>
       </c>
     </row>
     <row r="857" spans="1:10">
       <c r="A857">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>856</v>
       </c>
       <c r="B857" t="s">
@@ -40336,21 +40356,21 @@
         <v>150000</v>
       </c>
       <c r="H857" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I857" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J857">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>12</v>
       </c>
     </row>
     <row r="858" spans="1:10">
       <c r="A858">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>857</v>
       </c>
       <c r="B858" t="s">
@@ -40372,21 +40392,21 @@
         <v>150000</v>
       </c>
       <c r="H858" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I858" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J858">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>12</v>
       </c>
     </row>
     <row r="859" spans="1:10">
       <c r="A859">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>858</v>
       </c>
       <c r="B859" t="s">
@@ -40408,21 +40428,21 @@
         <v>150000</v>
       </c>
       <c r="H859" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I859" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J859">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>5</v>
       </c>
     </row>
     <row r="860" spans="1:10">
       <c r="A860">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>859</v>
       </c>
       <c r="B860" t="s">
@@ -40444,21 +40464,21 @@
         <v>150000</v>
       </c>
       <c r="H860" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I860" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J860">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>8</v>
       </c>
     </row>
     <row r="861" spans="1:10">
       <c r="A861">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>860</v>
       </c>
       <c r="B861" t="s">
@@ -40480,21 +40500,21 @@
         <v>150000</v>
       </c>
       <c r="H861" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I861" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J861">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>9</v>
       </c>
     </row>
     <row r="862" spans="1:10">
       <c r="A862">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>861</v>
       </c>
       <c r="B862" t="s">
@@ -40516,21 +40536,21 @@
         <v>150000</v>
       </c>
       <c r="H862" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I862" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J862">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>10</v>
       </c>
     </row>
     <row r="863" spans="1:10">
       <c r="A863">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>862</v>
       </c>
       <c r="B863" t="s">
@@ -40552,21 +40572,21 @@
         <v>150000</v>
       </c>
       <c r="H863" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I863" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J863">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>11</v>
       </c>
     </row>
     <row r="864" spans="1:10">
       <c r="A864">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>863</v>
       </c>
       <c r="B864" t="s">
@@ -40588,21 +40608,21 @@
         <v>150000</v>
       </c>
       <c r="H864" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I864" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J864">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>12</v>
       </c>
     </row>
     <row r="865" spans="1:10">
       <c r="A865">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>864</v>
       </c>
       <c r="B865" t="s">
@@ -40624,21 +40644,21 @@
         <v>150000</v>
       </c>
       <c r="H865" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I865" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J865">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>3</v>
       </c>
     </row>
     <row r="866" spans="1:10">
       <c r="A866">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>865</v>
       </c>
       <c r="B866" t="s">
@@ -40660,21 +40680,21 @@
         <v>150000</v>
       </c>
       <c r="H866" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I866" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J866">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>3</v>
       </c>
     </row>
     <row r="867" spans="1:10">
       <c r="A867">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>866</v>
       </c>
       <c r="B867" t="s">
@@ -40696,21 +40716,21 @@
         <v>150000</v>
       </c>
       <c r="H867" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I867" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J867">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>7</v>
       </c>
     </row>
     <row r="868" spans="1:10">
       <c r="A868">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>867</v>
       </c>
       <c r="B868" t="s">
@@ -40732,21 +40752,21 @@
         <v>150000</v>
       </c>
       <c r="H868" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I868" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J868">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>8</v>
       </c>
     </row>
     <row r="869" spans="1:10">
       <c r="A869">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>868</v>
       </c>
       <c r="B869" t="s">
@@ -40768,21 +40788,21 @@
         <v>150000</v>
       </c>
       <c r="H869" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I869" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J869">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>9</v>
       </c>
     </row>
     <row r="870" spans="1:10">
       <c r="A870">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>869</v>
       </c>
       <c r="B870" t="s">
@@ -40804,21 +40824,21 @@
         <v>150000</v>
       </c>
       <c r="H870" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I870" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J870">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>10</v>
       </c>
     </row>
     <row r="871" spans="1:10">
       <c r="A871">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>870</v>
       </c>
       <c r="B871" t="s">
@@ -40840,21 +40860,21 @@
         <v>150000</v>
       </c>
       <c r="H871" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I871" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J871">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>11</v>
       </c>
     </row>
     <row r="872" spans="1:10">
       <c r="A872">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>871</v>
       </c>
       <c r="B872" t="s">
@@ -40876,21 +40896,21 @@
         <v>150000</v>
       </c>
       <c r="H872" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I872" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J872">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>12</v>
       </c>
     </row>
     <row r="873" spans="1:10">
       <c r="A873">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>872</v>
       </c>
       <c r="B873" t="s">
@@ -40912,21 +40932,21 @@
         <v>150000</v>
       </c>
       <c r="H873" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I873" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2018</v>
       </c>
       <c r="J873">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:10">
       <c r="A874">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>873</v>
       </c>
       <c r="B874" t="s">
@@ -40948,21 +40968,21 @@
         <v>150000</v>
       </c>
       <c r="H874" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I874" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2018</v>
       </c>
       <c r="J874">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:10">
       <c r="A875">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>874</v>
       </c>
       <c r="B875" t="s">
@@ -40984,21 +41004,21 @@
         <v>150000</v>
       </c>
       <c r="H875" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I875" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J875">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>3</v>
       </c>
     </row>
     <row r="876" spans="1:10">
       <c r="A876">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>875</v>
       </c>
       <c r="B876" t="s">
@@ -41020,21 +41040,21 @@
         <v>150000</v>
       </c>
       <c r="H876" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I876" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J876">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>7</v>
       </c>
     </row>
     <row r="877" spans="1:10">
       <c r="A877">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>876</v>
       </c>
       <c r="B877" t="s">
@@ -41056,21 +41076,21 @@
         <v>150000</v>
       </c>
       <c r="H877" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I877" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J877">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>9</v>
       </c>
     </row>
     <row r="878" spans="1:10">
       <c r="A878">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>877</v>
       </c>
       <c r="B878" t="s">
@@ -41092,21 +41112,21 @@
         <v>150000</v>
       </c>
       <c r="H878" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I878" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J878">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>9</v>
       </c>
     </row>
     <row r="879" spans="1:10">
       <c r="A879">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>878</v>
       </c>
       <c r="B879" t="s">
@@ -41128,21 +41148,21 @@
         <v>150000</v>
       </c>
       <c r="H879" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I879" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J879">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>10</v>
       </c>
     </row>
     <row r="880" spans="1:10">
       <c r="A880">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>879</v>
       </c>
       <c r="B880" t="s">
@@ -41164,21 +41184,21 @@
         <v>150000</v>
       </c>
       <c r="H880" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I880" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J880">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>11</v>
       </c>
     </row>
     <row r="881" spans="1:10">
       <c r="A881">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>880</v>
       </c>
       <c r="B881" t="s">
@@ -41200,21 +41220,21 @@
         <v>150000</v>
       </c>
       <c r="H881" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I881" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2017</v>
       </c>
       <c r="J881">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>12</v>
       </c>
     </row>
     <row r="882" spans="1:10">
       <c r="A882">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>881</v>
       </c>
       <c r="B882" t="s">
@@ -41236,21 +41256,21 @@
         <v>150000</v>
       </c>
       <c r="H882" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I882" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2018</v>
       </c>
       <c r="J882">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:10">
       <c r="A883">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>882</v>
       </c>
       <c r="B883" t="s">
@@ -41272,21 +41292,21 @@
         <v>150000</v>
       </c>
       <c r="H883" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I883" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2018</v>
       </c>
       <c r="J883">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:10">
       <c r="A884">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>883</v>
       </c>
       <c r="B884" t="s">
@@ -41308,21 +41328,21 @@
         <v>150000</v>
       </c>
       <c r="H884" s="1">
-        <f t="shared" ref="H884:H917" si="70">G884-150000</f>
+        <f t="shared" ref="H884:H947" si="74">G884-150000</f>
         <v>0</v>
       </c>
       <c r="I884" s="4">
-        <f t="shared" ref="I884:I917" si="71">YEAR(E884)</f>
+        <f t="shared" ref="I884:I947" si="75">YEAR(E884)</f>
         <v>2018</v>
       </c>
       <c r="J884">
-        <f t="shared" ref="J884:J917" si="72">MONTH(E884)</f>
+        <f t="shared" ref="J884:J947" si="76">MONTH(E884)</f>
         <v>3</v>
       </c>
     </row>
     <row r="885" spans="1:10">
       <c r="A885">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>884</v>
       </c>
       <c r="B885" t="s">
@@ -41344,21 +41364,21 @@
         <v>150000</v>
       </c>
       <c r="H885" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I885" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J885">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>7</v>
       </c>
     </row>
     <row r="886" spans="1:10">
       <c r="A886">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>885</v>
       </c>
       <c r="B886" t="s">
@@ -41380,21 +41400,21 @@
         <v>150000</v>
       </c>
       <c r="H886" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I886" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J886">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>8</v>
       </c>
     </row>
     <row r="887" spans="1:10">
       <c r="A887">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>886</v>
       </c>
       <c r="B887" t="s">
@@ -41416,21 +41436,21 @@
         <v>150000</v>
       </c>
       <c r="H887" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I887" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J887">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>9</v>
       </c>
     </row>
     <row r="888" spans="1:10">
       <c r="A888">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>887</v>
       </c>
       <c r="B888" t="s">
@@ -41452,21 +41472,21 @@
         <v>150000</v>
       </c>
       <c r="H888" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I888" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J888">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>9</v>
       </c>
     </row>
     <row r="889" spans="1:10">
       <c r="A889">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>888</v>
       </c>
       <c r="B889" t="s">
@@ -41488,21 +41508,21 @@
         <v>150000</v>
       </c>
       <c r="H889" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I889" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J889">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>11</v>
       </c>
     </row>
     <row r="890" spans="1:10">
       <c r="A890">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>889</v>
       </c>
       <c r="B890" t="s">
@@ -41524,21 +41544,21 @@
         <v>150000</v>
       </c>
       <c r="H890" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I890" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J890">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>12</v>
       </c>
     </row>
     <row r="891" spans="1:10">
       <c r="A891">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>890</v>
       </c>
       <c r="B891" t="s">
@@ -41560,21 +41580,21 @@
         <v>150000</v>
       </c>
       <c r="H891" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I891" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J891">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>12</v>
       </c>
     </row>
     <row r="892" spans="1:10">
       <c r="A892">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>891</v>
       </c>
       <c r="B892" t="s">
@@ -41596,21 +41616,21 @@
         <v>150000</v>
       </c>
       <c r="H892" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I892" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2018</v>
       </c>
       <c r="J892">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:10">
       <c r="A893">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>892</v>
       </c>
       <c r="B893" t="s">
@@ -41632,21 +41652,21 @@
         <v>150000</v>
       </c>
       <c r="H893" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I893" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2018</v>
       </c>
       <c r="J893">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>3</v>
       </c>
     </row>
     <row r="894" spans="1:10">
       <c r="A894">
-        <f t="shared" ref="A894:A917" si="73">A893+1</f>
+        <f t="shared" ref="A894:A957" si="77">A893+1</f>
         <v>893</v>
       </c>
       <c r="B894" t="s">
@@ -41668,21 +41688,21 @@
         <v>150000</v>
       </c>
       <c r="H894" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I894" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J894">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>9</v>
       </c>
     </row>
     <row r="895" spans="1:10">
       <c r="A895">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>894</v>
       </c>
       <c r="B895" t="s">
@@ -41704,21 +41724,21 @@
         <v>150000</v>
       </c>
       <c r="H895" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I895" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J895">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>9</v>
       </c>
     </row>
     <row r="896" spans="1:10">
       <c r="A896">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>895</v>
       </c>
       <c r="B896" t="s">
@@ -41740,21 +41760,21 @@
         <v>150000</v>
       </c>
       <c r="H896" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I896" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J896">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:10">
       <c r="A897">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>896</v>
       </c>
       <c r="B897" t="s">
@@ -41776,21 +41796,21 @@
         <v>150000</v>
       </c>
       <c r="H897" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I897" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J897">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:10">
       <c r="A898">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>897</v>
       </c>
       <c r="B898" t="s">
@@ -41812,21 +41832,21 @@
         <v>150000</v>
       </c>
       <c r="H898" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I898" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J898">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:10">
       <c r="A899">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>898</v>
       </c>
       <c r="B899" t="s">
@@ -41848,21 +41868,21 @@
         <v>150000</v>
       </c>
       <c r="H899" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I899" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J899">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:10">
       <c r="A900">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>899</v>
       </c>
       <c r="B900" t="s">
@@ -41884,21 +41904,21 @@
         <v>150000</v>
       </c>
       <c r="H900" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I900" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J900">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:10">
       <c r="A901">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>900</v>
       </c>
       <c r="B901" t="s">
@@ -41907,28 +41927,25 @@
       <c r="C901">
         <v>3</v>
       </c>
-      <c r="D901"/>
-      <c r="E901" s="2"/>
-      <c r="F901" s="3"/>
       <c r="G901" s="1">
         <v>150000</v>
       </c>
       <c r="H901" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I901" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>1900</v>
       </c>
       <c r="J901">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:10">
       <c r="A902">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>901</v>
       </c>
       <c r="B902" t="s">
@@ -41950,21 +41967,21 @@
         <v>150000</v>
       </c>
       <c r="H902" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I902" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J902">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>9</v>
       </c>
     </row>
     <row r="903" spans="1:10">
       <c r="A903">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>902</v>
       </c>
       <c r="B903" t="s">
@@ -41986,21 +42003,21 @@
         <v>150000</v>
       </c>
       <c r="H903" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I903" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J903">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>9</v>
       </c>
     </row>
     <row r="904" spans="1:10">
       <c r="A904">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>903</v>
       </c>
       <c r="B904" t="s">
@@ -42022,21 +42039,21 @@
         <v>150000</v>
       </c>
       <c r="H904" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I904" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J904">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>10</v>
       </c>
     </row>
     <row r="905" spans="1:10">
       <c r="A905">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>904</v>
       </c>
       <c r="B905" t="s">
@@ -42058,21 +42075,21 @@
         <v>150000</v>
       </c>
       <c r="H905" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I905" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J905">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>10</v>
       </c>
     </row>
     <row r="906" spans="1:10">
       <c r="A906">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>905</v>
       </c>
       <c r="B906" t="s">
@@ -42094,21 +42111,21 @@
         <v>150000</v>
       </c>
       <c r="H906" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I906" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J906">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>12</v>
       </c>
     </row>
     <row r="907" spans="1:10">
       <c r="A907">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>906</v>
       </c>
       <c r="B907" t="s">
@@ -42130,21 +42147,21 @@
         <v>150000</v>
       </c>
       <c r="H907" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I907" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J907">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>12</v>
       </c>
     </row>
     <row r="908" spans="1:10">
       <c r="A908">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>907</v>
       </c>
       <c r="B908" t="s">
@@ -42166,21 +42183,21 @@
         <v>150000</v>
       </c>
       <c r="H908" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I908" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2018</v>
       </c>
       <c r="J908">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:10">
       <c r="A909">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>908</v>
       </c>
       <c r="B909" t="s">
@@ -42202,21 +42219,21 @@
         <v>160000</v>
       </c>
       <c r="H909" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>10000</v>
       </c>
       <c r="I909" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J909">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>8</v>
       </c>
     </row>
     <row r="910" spans="1:10">
       <c r="A910">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>909</v>
       </c>
       <c r="B910" t="s">
@@ -42238,21 +42255,21 @@
         <v>160000</v>
       </c>
       <c r="H910" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>10000</v>
       </c>
       <c r="I910" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J910">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>8</v>
       </c>
     </row>
     <row r="911" spans="1:10">
       <c r="A911">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>910</v>
       </c>
       <c r="B911" t="s">
@@ -42274,21 +42291,21 @@
         <v>160000</v>
       </c>
       <c r="H911" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>10000</v>
       </c>
       <c r="I911" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J911">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>9</v>
       </c>
     </row>
     <row r="912" spans="1:10">
       <c r="A912">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>911</v>
       </c>
       <c r="B912" t="s">
@@ -42310,21 +42327,21 @@
         <v>160000</v>
       </c>
       <c r="H912" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>10000</v>
       </c>
       <c r="I912" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J912">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>10</v>
       </c>
     </row>
     <row r="913" spans="1:10">
       <c r="A913">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>912</v>
       </c>
       <c r="B913" t="s">
@@ -42346,21 +42363,21 @@
         <v>160000</v>
       </c>
       <c r="H913" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>10000</v>
       </c>
       <c r="I913" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J913">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>11</v>
       </c>
     </row>
     <row r="914" spans="1:10">
       <c r="A914">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>913</v>
       </c>
       <c r="B914" t="s">
@@ -42382,21 +42399,21 @@
         <v>160000</v>
       </c>
       <c r="H914" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>10000</v>
       </c>
       <c r="I914" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2017</v>
       </c>
       <c r="J914">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>12</v>
       </c>
     </row>
     <row r="915" spans="1:10">
       <c r="A915">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>914</v>
       </c>
       <c r="B915" t="s">
@@ -42418,21 +42435,21 @@
         <v>160000</v>
       </c>
       <c r="H915" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>10000</v>
       </c>
       <c r="I915" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2018</v>
       </c>
       <c r="J915">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:10">
       <c r="A916">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>915</v>
       </c>
       <c r="B916" t="s">
@@ -42454,21 +42471,21 @@
         <v>160000</v>
       </c>
       <c r="H916" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>10000</v>
       </c>
       <c r="I916" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2018</v>
       </c>
       <c r="J916">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:10">
       <c r="A917">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>916</v>
       </c>
       <c r="B917" t="s">
@@ -42490,20 +42507,1864 @@
         <v>160000</v>
       </c>
       <c r="H917" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>10000</v>
       </c>
       <c r="I917" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>2018</v>
       </c>
       <c r="J917">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>3</v>
       </c>
     </row>
+    <row r="918" spans="1:10">
+      <c r="A918">
+        <f t="shared" si="77"/>
+        <v>917</v>
+      </c>
+      <c r="B918" t="s">
+        <v>155</v>
+      </c>
+      <c r="C918">
+        <v>3</v>
+      </c>
+      <c r="D918">
+        <v>7</v>
+      </c>
+      <c r="E918" s="2">
+        <v>42938</v>
+      </c>
+      <c r="F918" s="3">
+        <v>1235</v>
+      </c>
+      <c r="G918" s="1">
+        <v>75000</v>
+      </c>
+      <c r="H918" s="1">
+        <f t="shared" si="74"/>
+        <v>-75000</v>
+      </c>
+      <c r="I918" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J918">
+        <f t="shared" si="76"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="919" spans="1:10">
+      <c r="A919">
+        <f t="shared" si="77"/>
+        <v>918</v>
+      </c>
+      <c r="B919" t="s">
+        <v>155</v>
+      </c>
+      <c r="C919">
+        <v>3</v>
+      </c>
+      <c r="D919">
+        <v>8</v>
+      </c>
+      <c r="E919" s="2">
+        <v>42959</v>
+      </c>
+      <c r="F919" s="3">
+        <v>2287</v>
+      </c>
+      <c r="G919" s="1">
+        <v>75000</v>
+      </c>
+      <c r="H919" s="1">
+        <f t="shared" si="74"/>
+        <v>-75000</v>
+      </c>
+      <c r="I919" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J919">
+        <f t="shared" si="76"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="920" spans="1:10">
+      <c r="A920">
+        <f t="shared" si="77"/>
+        <v>919</v>
+      </c>
+      <c r="B920" t="s">
+        <v>155</v>
+      </c>
+      <c r="C920">
+        <v>3</v>
+      </c>
+      <c r="D920">
+        <v>9</v>
+      </c>
+      <c r="E920" s="2">
+        <v>42994</v>
+      </c>
+      <c r="F920" s="3">
+        <v>2413</v>
+      </c>
+      <c r="G920" s="1">
+        <v>75000</v>
+      </c>
+      <c r="H920" s="1">
+        <f t="shared" si="74"/>
+        <v>-75000</v>
+      </c>
+      <c r="I920" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J920">
+        <f t="shared" si="76"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="921" spans="1:10">
+      <c r="A921">
+        <f t="shared" si="77"/>
+        <v>920</v>
+      </c>
+      <c r="B921" t="s">
+        <v>155</v>
+      </c>
+      <c r="C921">
+        <v>3</v>
+      </c>
+      <c r="D921">
+        <v>10</v>
+      </c>
+      <c r="E921" s="2">
+        <v>43043</v>
+      </c>
+      <c r="F921" s="3">
+        <v>2488</v>
+      </c>
+      <c r="G921" s="1">
+        <v>75000</v>
+      </c>
+      <c r="H921" s="1">
+        <f t="shared" si="74"/>
+        <v>-75000</v>
+      </c>
+      <c r="I921" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J921">
+        <f t="shared" si="76"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="922" spans="1:10">
+      <c r="A922">
+        <f t="shared" si="77"/>
+        <v>921</v>
+      </c>
+      <c r="B922" t="s">
+        <v>155</v>
+      </c>
+      <c r="C922">
+        <v>3</v>
+      </c>
+      <c r="D922">
+        <v>11</v>
+      </c>
+      <c r="E922" s="2">
+        <v>43043</v>
+      </c>
+      <c r="F922" s="3">
+        <v>2488</v>
+      </c>
+      <c r="G922" s="1">
+        <v>75000</v>
+      </c>
+      <c r="H922" s="1">
+        <f t="shared" si="74"/>
+        <v>-75000</v>
+      </c>
+      <c r="I922" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J922">
+        <f t="shared" si="76"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="923" spans="1:10">
+      <c r="A923">
+        <f t="shared" si="77"/>
+        <v>922</v>
+      </c>
+      <c r="B923" t="s">
+        <v>155</v>
+      </c>
+      <c r="C923">
+        <v>3</v>
+      </c>
+      <c r="D923">
+        <v>12</v>
+      </c>
+      <c r="E923" s="2">
+        <v>43092</v>
+      </c>
+      <c r="F923" s="3">
+        <v>2679</v>
+      </c>
+      <c r="G923" s="1">
+        <v>75000</v>
+      </c>
+      <c r="H923" s="1">
+        <f t="shared" si="74"/>
+        <v>-75000</v>
+      </c>
+      <c r="I923" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J923">
+        <f t="shared" si="76"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="924" spans="1:10">
+      <c r="A924">
+        <f t="shared" si="77"/>
+        <v>923</v>
+      </c>
+      <c r="B924" t="s">
+        <v>155</v>
+      </c>
+      <c r="C924">
+        <v>3</v>
+      </c>
+      <c r="D924">
+        <v>1</v>
+      </c>
+      <c r="E924" s="2">
+        <v>42776</v>
+      </c>
+      <c r="F924" s="3">
+        <v>2799</v>
+      </c>
+      <c r="G924" s="1">
+        <v>75000</v>
+      </c>
+      <c r="H924" s="1">
+        <f t="shared" si="74"/>
+        <v>-75000</v>
+      </c>
+      <c r="I924" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J924">
+        <f t="shared" si="76"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="925" spans="1:10">
+      <c r="A925">
+        <f t="shared" si="77"/>
+        <v>924</v>
+      </c>
+      <c r="B925" t="s">
+        <v>155</v>
+      </c>
+      <c r="C925">
+        <v>3</v>
+      </c>
+      <c r="D925">
+        <v>2</v>
+      </c>
+      <c r="E925" s="2">
+        <v>42776</v>
+      </c>
+      <c r="F925" s="3">
+        <v>2799</v>
+      </c>
+      <c r="G925" s="1">
+        <v>75000</v>
+      </c>
+      <c r="H925" s="1">
+        <f t="shared" si="74"/>
+        <v>-75000</v>
+      </c>
+      <c r="I925" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J925">
+        <f t="shared" si="76"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="926" spans="1:10">
+      <c r="A926">
+        <f t="shared" si="77"/>
+        <v>925</v>
+      </c>
+      <c r="B926" t="s">
+        <v>156</v>
+      </c>
+      <c r="C926">
+        <v>3</v>
+      </c>
+      <c r="D926">
+        <v>7</v>
+      </c>
+      <c r="E926" s="2">
+        <v>42938</v>
+      </c>
+      <c r="F926" s="3">
+        <v>1235</v>
+      </c>
+      <c r="G926" s="1">
+        <v>75000</v>
+      </c>
+      <c r="H926" s="1">
+        <f t="shared" si="74"/>
+        <v>-75000</v>
+      </c>
+      <c r="I926" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J926">
+        <f t="shared" si="76"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="927" spans="1:10">
+      <c r="A927">
+        <f t="shared" si="77"/>
+        <v>926</v>
+      </c>
+      <c r="B927" t="s">
+        <v>156</v>
+      </c>
+      <c r="C927">
+        <v>3</v>
+      </c>
+      <c r="D927">
+        <v>8</v>
+      </c>
+      <c r="E927" s="2">
+        <v>42959</v>
+      </c>
+      <c r="F927" s="3">
+        <v>2287</v>
+      </c>
+      <c r="G927" s="1">
+        <v>75000</v>
+      </c>
+      <c r="H927" s="1">
+        <f t="shared" si="74"/>
+        <v>-75000</v>
+      </c>
+      <c r="I927" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J927">
+        <f t="shared" si="76"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="928" spans="1:10">
+      <c r="A928">
+        <f t="shared" si="77"/>
+        <v>927</v>
+      </c>
+      <c r="B928" t="s">
+        <v>156</v>
+      </c>
+      <c r="C928">
+        <v>3</v>
+      </c>
+      <c r="D928">
+        <v>9</v>
+      </c>
+      <c r="E928" s="2">
+        <v>42994</v>
+      </c>
+      <c r="F928" s="3">
+        <v>2413</v>
+      </c>
+      <c r="G928" s="1">
+        <v>75000</v>
+      </c>
+      <c r="H928" s="1">
+        <f t="shared" si="74"/>
+        <v>-75000</v>
+      </c>
+      <c r="I928" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J928">
+        <f t="shared" si="76"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="929" spans="1:10">
+      <c r="A929">
+        <f t="shared" si="77"/>
+        <v>928</v>
+      </c>
+      <c r="B929" t="s">
+        <v>156</v>
+      </c>
+      <c r="C929">
+        <v>3</v>
+      </c>
+      <c r="D929">
+        <v>10</v>
+      </c>
+      <c r="E929" s="2">
+        <v>43043</v>
+      </c>
+      <c r="F929" s="3">
+        <v>2488</v>
+      </c>
+      <c r="G929" s="1">
+        <v>75000</v>
+      </c>
+      <c r="H929" s="1">
+        <f t="shared" si="74"/>
+        <v>-75000</v>
+      </c>
+      <c r="I929" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J929">
+        <f t="shared" si="76"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="930" spans="1:10">
+      <c r="A930">
+        <f t="shared" si="77"/>
+        <v>929</v>
+      </c>
+      <c r="B930" t="s">
+        <v>156</v>
+      </c>
+      <c r="C930">
+        <v>3</v>
+      </c>
+      <c r="D930">
+        <v>11</v>
+      </c>
+      <c r="E930" s="2">
+        <v>43043</v>
+      </c>
+      <c r="F930" s="3">
+        <v>2488</v>
+      </c>
+      <c r="G930" s="1">
+        <v>75000</v>
+      </c>
+      <c r="H930" s="1">
+        <f t="shared" si="74"/>
+        <v>-75000</v>
+      </c>
+      <c r="I930" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J930">
+        <f t="shared" si="76"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="931" spans="1:10">
+      <c r="A931">
+        <f t="shared" si="77"/>
+        <v>930</v>
+      </c>
+      <c r="B931" t="s">
+        <v>156</v>
+      </c>
+      <c r="C931">
+        <v>3</v>
+      </c>
+      <c r="D931">
+        <v>12</v>
+      </c>
+      <c r="E931" s="2">
+        <v>43092</v>
+      </c>
+      <c r="F931" s="3">
+        <v>2679</v>
+      </c>
+      <c r="G931" s="1">
+        <v>75000</v>
+      </c>
+      <c r="H931" s="1">
+        <f t="shared" si="74"/>
+        <v>-75000</v>
+      </c>
+      <c r="I931" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J931">
+        <f t="shared" si="76"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="932" spans="1:10">
+      <c r="A932">
+        <f t="shared" si="77"/>
+        <v>931</v>
+      </c>
+      <c r="B932" t="s">
+        <v>156</v>
+      </c>
+      <c r="C932">
+        <v>3</v>
+      </c>
+      <c r="D932">
+        <v>1</v>
+      </c>
+      <c r="E932" s="2">
+        <v>42776</v>
+      </c>
+      <c r="F932" s="3">
+        <v>2799</v>
+      </c>
+      <c r="G932" s="1">
+        <v>75000</v>
+      </c>
+      <c r="H932" s="1">
+        <f t="shared" si="74"/>
+        <v>-75000</v>
+      </c>
+      <c r="I932" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J932">
+        <f t="shared" si="76"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="933" spans="1:10">
+      <c r="A933">
+        <f t="shared" si="77"/>
+        <v>932</v>
+      </c>
+      <c r="B933" t="s">
+        <v>156</v>
+      </c>
+      <c r="C933">
+        <v>3</v>
+      </c>
+      <c r="D933">
+        <v>2</v>
+      </c>
+      <c r="E933" s="2">
+        <v>42776</v>
+      </c>
+      <c r="F933" s="3">
+        <v>2799</v>
+      </c>
+      <c r="G933" s="1">
+        <v>75000</v>
+      </c>
+      <c r="H933" s="1">
+        <f t="shared" si="74"/>
+        <v>-75000</v>
+      </c>
+      <c r="I933" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J933">
+        <f t="shared" si="76"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="934" spans="1:10">
+      <c r="A934">
+        <f t="shared" si="77"/>
+        <v>933</v>
+      </c>
+      <c r="B934" t="s">
+        <v>157</v>
+      </c>
+      <c r="C934">
+        <v>3</v>
+      </c>
+      <c r="D934">
+        <v>7</v>
+      </c>
+      <c r="E934" s="2">
+        <v>42923</v>
+      </c>
+      <c r="F934" s="3">
+        <v>1221</v>
+      </c>
+      <c r="G934" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H934" s="1">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="I934" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J934">
+        <f t="shared" si="76"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="935" spans="1:10">
+      <c r="A935">
+        <f t="shared" si="77"/>
+        <v>934</v>
+      </c>
+      <c r="B935" t="s">
+        <v>157</v>
+      </c>
+      <c r="C935">
+        <v>3</v>
+      </c>
+      <c r="D935">
+        <v>8</v>
+      </c>
+      <c r="E935" s="2">
+        <v>42959</v>
+      </c>
+      <c r="F935" s="3">
+        <v>2285</v>
+      </c>
+      <c r="G935" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H935" s="1">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="I935" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J935">
+        <f t="shared" si="76"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="936" spans="1:10">
+      <c r="A936">
+        <f t="shared" si="77"/>
+        <v>935</v>
+      </c>
+      <c r="B936" t="s">
+        <v>157</v>
+      </c>
+      <c r="C936">
+        <v>3</v>
+      </c>
+      <c r="D936">
+        <v>9</v>
+      </c>
+      <c r="E936" s="2">
+        <v>42986</v>
+      </c>
+      <c r="F936" s="3">
+        <v>2357</v>
+      </c>
+      <c r="G936" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H936" s="1">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="I936" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J936">
+        <f t="shared" si="76"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="937" spans="1:10">
+      <c r="A937">
+        <f t="shared" si="77"/>
+        <v>936</v>
+      </c>
+      <c r="B937" t="s">
+        <v>157</v>
+      </c>
+      <c r="C937">
+        <v>3</v>
+      </c>
+      <c r="D937">
+        <v>10</v>
+      </c>
+      <c r="E937" s="2">
+        <v>43022</v>
+      </c>
+      <c r="F937" s="3">
+        <v>2531</v>
+      </c>
+      <c r="G937" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H937" s="1">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="I937" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J937">
+        <f t="shared" si="76"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="938" spans="1:10">
+      <c r="A938">
+        <f t="shared" si="77"/>
+        <v>937</v>
+      </c>
+      <c r="B938" t="s">
+        <v>157</v>
+      </c>
+      <c r="C938">
+        <v>3</v>
+      </c>
+      <c r="D938">
+        <v>11</v>
+      </c>
+      <c r="E938" s="2">
+        <v>43050</v>
+      </c>
+      <c r="F938" s="3">
+        <v>2553</v>
+      </c>
+      <c r="G938" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H938" s="1">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="I938" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J938">
+        <f t="shared" si="76"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="939" spans="1:10">
+      <c r="A939">
+        <f t="shared" si="77"/>
+        <v>938</v>
+      </c>
+      <c r="B939" t="s">
+        <v>157</v>
+      </c>
+      <c r="C939">
+        <v>3</v>
+      </c>
+      <c r="D939">
+        <v>12</v>
+      </c>
+      <c r="E939" s="2">
+        <v>43078</v>
+      </c>
+      <c r="F939" s="3">
+        <v>2627</v>
+      </c>
+      <c r="G939" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H939" s="1">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="I939" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J939">
+        <f t="shared" si="76"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="940" spans="1:10">
+      <c r="A940">
+        <f t="shared" si="77"/>
+        <v>939</v>
+      </c>
+      <c r="B940" t="s">
+        <v>157</v>
+      </c>
+      <c r="C940">
+        <v>3</v>
+      </c>
+      <c r="D940">
+        <v>1</v>
+      </c>
+      <c r="E940" s="2">
+        <v>43134</v>
+      </c>
+      <c r="F940" s="3">
+        <v>2762</v>
+      </c>
+      <c r="G940" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H940" s="1">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="I940" s="4">
+        <f t="shared" si="75"/>
+        <v>2018</v>
+      </c>
+      <c r="J940">
+        <f t="shared" si="76"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="941" spans="1:10">
+      <c r="A941">
+        <f t="shared" si="77"/>
+        <v>940</v>
+      </c>
+      <c r="B941" t="s">
+        <v>157</v>
+      </c>
+      <c r="C941">
+        <v>3</v>
+      </c>
+      <c r="D941">
+        <v>2</v>
+      </c>
+      <c r="E941" s="2">
+        <v>43169</v>
+      </c>
+      <c r="F941" s="3">
+        <v>2874</v>
+      </c>
+      <c r="G941" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H941" s="1">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="I941" s="4">
+        <f t="shared" si="75"/>
+        <v>2018</v>
+      </c>
+      <c r="J941">
+        <f t="shared" si="76"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="942" spans="1:10">
+      <c r="A942">
+        <f t="shared" si="77"/>
+        <v>941</v>
+      </c>
+      <c r="B942" t="s">
+        <v>157</v>
+      </c>
+      <c r="C942">
+        <v>3</v>
+      </c>
+      <c r="D942">
+        <v>3</v>
+      </c>
+      <c r="E942" s="2">
+        <v>43169</v>
+      </c>
+      <c r="F942" s="3">
+        <v>2874</v>
+      </c>
+      <c r="G942" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H942" s="1">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="I942" s="4">
+        <f t="shared" si="75"/>
+        <v>2018</v>
+      </c>
+      <c r="J942">
+        <f t="shared" si="76"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="943" spans="1:10">
+      <c r="A943">
+        <f t="shared" si="77"/>
+        <v>942</v>
+      </c>
+      <c r="B943" t="s">
+        <v>158</v>
+      </c>
+      <c r="C943">
+        <v>3</v>
+      </c>
+      <c r="D943">
+        <v>7</v>
+      </c>
+      <c r="E943" s="2">
+        <v>42959</v>
+      </c>
+      <c r="F943" s="3">
+        <v>2301</v>
+      </c>
+      <c r="G943" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H943" s="1">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="I943" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J943">
+        <f t="shared" si="76"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="944" spans="1:10">
+      <c r="A944">
+        <f t="shared" si="77"/>
+        <v>943</v>
+      </c>
+      <c r="B944" t="s">
+        <v>158</v>
+      </c>
+      <c r="C944">
+        <v>3</v>
+      </c>
+      <c r="D944">
+        <v>8</v>
+      </c>
+      <c r="E944" s="2">
+        <v>42959</v>
+      </c>
+      <c r="F944" s="3">
+        <v>2301</v>
+      </c>
+      <c r="G944" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H944" s="1">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="I944" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J944">
+        <f t="shared" si="76"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="945" spans="1:10">
+      <c r="A945">
+        <f t="shared" si="77"/>
+        <v>944</v>
+      </c>
+      <c r="B945" t="s">
+        <v>158</v>
+      </c>
+      <c r="C945">
+        <v>3</v>
+      </c>
+      <c r="D945">
+        <v>9</v>
+      </c>
+      <c r="E945" s="2">
+        <v>42987</v>
+      </c>
+      <c r="F945" s="3">
+        <v>2379</v>
+      </c>
+      <c r="G945" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H945" s="1">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="I945" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J945">
+        <f t="shared" si="76"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="946" spans="1:10">
+      <c r="A946">
+        <f t="shared" si="77"/>
+        <v>945</v>
+      </c>
+      <c r="B946" t="s">
+        <v>158</v>
+      </c>
+      <c r="C946">
+        <v>3</v>
+      </c>
+      <c r="D946">
+        <v>10</v>
+      </c>
+      <c r="E946" s="2">
+        <v>43022</v>
+      </c>
+      <c r="F946" s="3">
+        <v>2451</v>
+      </c>
+      <c r="G946" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H946" s="1">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="I946" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J946">
+        <f t="shared" si="76"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="947" spans="1:10">
+      <c r="A947">
+        <f t="shared" si="77"/>
+        <v>946</v>
+      </c>
+      <c r="B947" t="s">
+        <v>158</v>
+      </c>
+      <c r="C947">
+        <v>3</v>
+      </c>
+      <c r="D947">
+        <v>11</v>
+      </c>
+      <c r="E947" s="2">
+        <v>43064</v>
+      </c>
+      <c r="F947" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G947" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H947" s="1">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="I947" s="4">
+        <f t="shared" si="75"/>
+        <v>2017</v>
+      </c>
+      <c r="J947">
+        <f t="shared" si="76"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="948" spans="1:10">
+      <c r="A948">
+        <f t="shared" si="77"/>
+        <v>947</v>
+      </c>
+      <c r="B948" t="s">
+        <v>158</v>
+      </c>
+      <c r="C948">
+        <v>3</v>
+      </c>
+      <c r="D948">
+        <v>12</v>
+      </c>
+      <c r="E948" s="2">
+        <v>43085</v>
+      </c>
+      <c r="F948" s="3">
+        <v>2639</v>
+      </c>
+      <c r="G948" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H948" s="1">
+        <f t="shared" ref="H948:H969" si="78">G948-150000</f>
+        <v>0</v>
+      </c>
+      <c r="I948" s="4">
+        <f t="shared" ref="I948:I969" si="79">YEAR(E948)</f>
+        <v>2017</v>
+      </c>
+      <c r="J948">
+        <f t="shared" ref="J948:J969" si="80">MONTH(E948)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="949" spans="1:10">
+      <c r="A949">
+        <f t="shared" si="77"/>
+        <v>948</v>
+      </c>
+      <c r="B949" t="s">
+        <v>159</v>
+      </c>
+      <c r="C949">
+        <v>3</v>
+      </c>
+      <c r="D949">
+        <v>7</v>
+      </c>
+      <c r="E949" s="2">
+        <v>42994</v>
+      </c>
+      <c r="F949" s="3">
+        <v>2420</v>
+      </c>
+      <c r="G949" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H949" s="1">
+        <f t="shared" si="78"/>
+        <v>-50000</v>
+      </c>
+      <c r="I949" s="4">
+        <f t="shared" si="79"/>
+        <v>2017</v>
+      </c>
+      <c r="J949">
+        <f t="shared" si="80"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="950" spans="1:10">
+      <c r="A950">
+        <f t="shared" si="77"/>
+        <v>949</v>
+      </c>
+      <c r="B950" t="s">
+        <v>159</v>
+      </c>
+      <c r="C950">
+        <v>3</v>
+      </c>
+      <c r="D950">
+        <v>8</v>
+      </c>
+      <c r="E950" s="2">
+        <v>42994</v>
+      </c>
+      <c r="F950" s="3">
+        <v>2420</v>
+      </c>
+      <c r="G950" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H950" s="1">
+        <f t="shared" si="78"/>
+        <v>-50000</v>
+      </c>
+      <c r="I950" s="4">
+        <f t="shared" si="79"/>
+        <v>2017</v>
+      </c>
+      <c r="J950">
+        <f t="shared" si="80"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="951" spans="1:10">
+      <c r="A951">
+        <f t="shared" si="77"/>
+        <v>950</v>
+      </c>
+      <c r="B951" t="s">
+        <v>159</v>
+      </c>
+      <c r="C951">
+        <v>3</v>
+      </c>
+      <c r="D951">
+        <v>9</v>
+      </c>
+      <c r="E951" s="2">
+        <v>43064</v>
+      </c>
+      <c r="F951" s="3">
+        <v>2612</v>
+      </c>
+      <c r="G951" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H951" s="1">
+        <f t="shared" si="78"/>
+        <v>-50000</v>
+      </c>
+      <c r="I951" s="4">
+        <f t="shared" si="79"/>
+        <v>2017</v>
+      </c>
+      <c r="J951">
+        <f t="shared" si="80"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="952" spans="1:10">
+      <c r="A952">
+        <f t="shared" si="77"/>
+        <v>951</v>
+      </c>
+      <c r="B952" t="s">
+        <v>159</v>
+      </c>
+      <c r="C952">
+        <v>3</v>
+      </c>
+      <c r="D952">
+        <v>10</v>
+      </c>
+      <c r="E952" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F952" s="3">
+        <v>2741</v>
+      </c>
+      <c r="G952" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H952" s="1">
+        <f t="shared" si="78"/>
+        <v>-50000</v>
+      </c>
+      <c r="I952" s="4">
+        <f t="shared" si="79"/>
+        <v>2018</v>
+      </c>
+      <c r="J952">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="953" spans="1:10">
+      <c r="A953">
+        <f t="shared" si="77"/>
+        <v>952</v>
+      </c>
+      <c r="B953" t="s">
+        <v>159</v>
+      </c>
+      <c r="C953">
+        <v>3</v>
+      </c>
+      <c r="D953">
+        <v>11</v>
+      </c>
+      <c r="E953" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F953" s="3">
+        <v>2741</v>
+      </c>
+      <c r="G953" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H953" s="1">
+        <f t="shared" si="78"/>
+        <v>-50000</v>
+      </c>
+      <c r="I953" s="4">
+        <f t="shared" si="79"/>
+        <v>2018</v>
+      </c>
+      <c r="J953">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="954" spans="1:10">
+      <c r="A954">
+        <f t="shared" si="77"/>
+        <v>953</v>
+      </c>
+      <c r="B954" t="s">
+        <v>159</v>
+      </c>
+      <c r="C954">
+        <v>3</v>
+      </c>
+      <c r="D954">
+        <v>12</v>
+      </c>
+      <c r="E954" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F954" s="3">
+        <v>2741</v>
+      </c>
+      <c r="G954" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H954" s="1">
+        <f t="shared" si="78"/>
+        <v>-50000</v>
+      </c>
+      <c r="I954" s="4">
+        <f t="shared" si="79"/>
+        <v>2018</v>
+      </c>
+      <c r="J954">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="955" spans="1:10">
+      <c r="A955">
+        <f t="shared" si="77"/>
+        <v>954</v>
+      </c>
+      <c r="B955" t="s">
+        <v>159</v>
+      </c>
+      <c r="C955">
+        <v>3</v>
+      </c>
+      <c r="D955">
+        <v>1</v>
+      </c>
+      <c r="E955" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F955" s="3">
+        <v>2902</v>
+      </c>
+      <c r="G955" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H955" s="1">
+        <f t="shared" si="78"/>
+        <v>-50000</v>
+      </c>
+      <c r="I955" s="4">
+        <f t="shared" si="79"/>
+        <v>2018</v>
+      </c>
+      <c r="J955">
+        <f t="shared" si="80"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="956" spans="1:10">
+      <c r="A956">
+        <f t="shared" si="77"/>
+        <v>955</v>
+      </c>
+      <c r="B956" t="s">
+        <v>160</v>
+      </c>
+      <c r="C956">
+        <v>3</v>
+      </c>
+      <c r="D956">
+        <v>7</v>
+      </c>
+      <c r="E956" s="2">
+        <v>42959</v>
+      </c>
+      <c r="F956" s="3">
+        <v>2295</v>
+      </c>
+      <c r="G956" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H956" s="1">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I956" s="4">
+        <f t="shared" si="79"/>
+        <v>2017</v>
+      </c>
+      <c r="J956">
+        <f t="shared" si="80"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="957" spans="1:10">
+      <c r="A957">
+        <f t="shared" si="77"/>
+        <v>956</v>
+      </c>
+      <c r="B957" t="s">
+        <v>160</v>
+      </c>
+      <c r="C957">
+        <v>3</v>
+      </c>
+      <c r="D957">
+        <v>8</v>
+      </c>
+      <c r="E957" s="2">
+        <v>42959</v>
+      </c>
+      <c r="F957" s="3">
+        <v>2295</v>
+      </c>
+      <c r="G957" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H957" s="1">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I957" s="4">
+        <f t="shared" si="79"/>
+        <v>2017</v>
+      </c>
+      <c r="J957">
+        <f t="shared" si="80"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="958" spans="1:10">
+      <c r="A958">
+        <f t="shared" ref="A958:A969" si="81">A957+1</f>
+        <v>957</v>
+      </c>
+      <c r="B958" t="s">
+        <v>160</v>
+      </c>
+      <c r="C958">
+        <v>3</v>
+      </c>
+      <c r="D958">
+        <v>9</v>
+      </c>
+      <c r="E958" s="2">
+        <v>42959</v>
+      </c>
+      <c r="F958" s="3">
+        <v>2295</v>
+      </c>
+      <c r="G958" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H958" s="1">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I958" s="4">
+        <f t="shared" si="79"/>
+        <v>2017</v>
+      </c>
+      <c r="J958">
+        <f t="shared" si="80"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="959" spans="1:10">
+      <c r="A959">
+        <f t="shared" si="81"/>
+        <v>958</v>
+      </c>
+      <c r="B959" t="s">
+        <v>160</v>
+      </c>
+      <c r="C959">
+        <v>3</v>
+      </c>
+      <c r="D959">
+        <v>10</v>
+      </c>
+      <c r="E959" s="2">
+        <v>43092</v>
+      </c>
+      <c r="F959" s="3">
+        <v>2684</v>
+      </c>
+      <c r="G959" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H959" s="1">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I959" s="4">
+        <f t="shared" si="79"/>
+        <v>2017</v>
+      </c>
+      <c r="J959">
+        <f t="shared" si="80"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="960" spans="1:10">
+      <c r="A960">
+        <f t="shared" si="81"/>
+        <v>959</v>
+      </c>
+      <c r="B960" t="s">
+        <v>160</v>
+      </c>
+      <c r="C960">
+        <v>3</v>
+      </c>
+      <c r="D960">
+        <v>11</v>
+      </c>
+      <c r="E960" s="2">
+        <v>43092</v>
+      </c>
+      <c r="F960" s="3">
+        <v>2684</v>
+      </c>
+      <c r="G960" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H960" s="1">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I960" s="4">
+        <f t="shared" si="79"/>
+        <v>2017</v>
+      </c>
+      <c r="J960">
+        <f t="shared" si="80"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="961" spans="1:10">
+      <c r="A961">
+        <f t="shared" si="81"/>
+        <v>960</v>
+      </c>
+      <c r="B961" t="s">
+        <v>160</v>
+      </c>
+      <c r="C961">
+        <v>3</v>
+      </c>
+      <c r="D961">
+        <v>12</v>
+      </c>
+      <c r="E961" s="2">
+        <v>43092</v>
+      </c>
+      <c r="F961" s="3">
+        <v>2684</v>
+      </c>
+      <c r="G961" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H961" s="1">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I961" s="4">
+        <f t="shared" si="79"/>
+        <v>2017</v>
+      </c>
+      <c r="J961">
+        <f t="shared" si="80"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="962" spans="1:10">
+      <c r="A962">
+        <f t="shared" si="81"/>
+        <v>961</v>
+      </c>
+      <c r="B962" t="s">
+        <v>160</v>
+      </c>
+      <c r="C962">
+        <v>3</v>
+      </c>
+      <c r="D962">
+        <v>1</v>
+      </c>
+      <c r="E962" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F962" s="3">
+        <v>2738</v>
+      </c>
+      <c r="G962" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H962" s="1">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I962" s="4">
+        <f t="shared" si="79"/>
+        <v>2018</v>
+      </c>
+      <c r="J962">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="963" spans="1:10">
+      <c r="A963">
+        <f t="shared" si="81"/>
+        <v>962</v>
+      </c>
+      <c r="B963" t="s">
+        <v>161</v>
+      </c>
+      <c r="C963">
+        <v>3</v>
+      </c>
+      <c r="D963">
+        <v>7</v>
+      </c>
+      <c r="E963" s="2"/>
+      <c r="F963" s="3"/>
+      <c r="G963" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H963" s="1">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I963" s="4">
+        <f t="shared" si="79"/>
+        <v>1900</v>
+      </c>
+      <c r="J963">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="964" spans="1:10">
+      <c r="A964">
+        <f t="shared" si="81"/>
+        <v>963</v>
+      </c>
+      <c r="B964" t="s">
+        <v>161</v>
+      </c>
+      <c r="C964">
+        <v>3</v>
+      </c>
+      <c r="D964">
+        <v>8</v>
+      </c>
+      <c r="E964" s="2"/>
+      <c r="F964" s="3"/>
+      <c r="G964" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H964" s="1">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I964" s="4">
+        <f t="shared" si="79"/>
+        <v>1900</v>
+      </c>
+      <c r="J964">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="965" spans="1:10">
+      <c r="A965">
+        <f t="shared" si="81"/>
+        <v>964</v>
+      </c>
+      <c r="B965" t="s">
+        <v>161</v>
+      </c>
+      <c r="C965">
+        <v>3</v>
+      </c>
+      <c r="D965">
+        <v>9</v>
+      </c>
+      <c r="E965" s="2"/>
+      <c r="F965" s="3"/>
+      <c r="G965" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H965" s="1">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I965" s="4">
+        <f t="shared" si="79"/>
+        <v>1900</v>
+      </c>
+      <c r="J965">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="966" spans="1:10">
+      <c r="A966">
+        <f t="shared" si="81"/>
+        <v>965</v>
+      </c>
+      <c r="B966" t="s">
+        <v>161</v>
+      </c>
+      <c r="C966">
+        <v>3</v>
+      </c>
+      <c r="D966">
+        <v>10</v>
+      </c>
+      <c r="E966" s="2"/>
+      <c r="F966" s="3"/>
+      <c r="G966" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H966" s="1">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I966" s="4">
+        <f t="shared" si="79"/>
+        <v>1900</v>
+      </c>
+      <c r="J966">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="967" spans="1:10">
+      <c r="A967">
+        <f t="shared" si="81"/>
+        <v>966</v>
+      </c>
+      <c r="B967" t="s">
+        <v>161</v>
+      </c>
+      <c r="C967">
+        <v>3</v>
+      </c>
+      <c r="D967">
+        <v>11</v>
+      </c>
+      <c r="E967" s="2"/>
+      <c r="F967" s="3"/>
+      <c r="G967" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H967" s="1">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I967" s="4">
+        <f t="shared" si="79"/>
+        <v>1900</v>
+      </c>
+      <c r="J967">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="968" spans="1:10">
+      <c r="A968">
+        <f t="shared" si="81"/>
+        <v>967</v>
+      </c>
+      <c r="B968" t="s">
+        <v>161</v>
+      </c>
+      <c r="C968">
+        <v>3</v>
+      </c>
+      <c r="D968">
+        <v>12</v>
+      </c>
+      <c r="E968" s="2"/>
+      <c r="F968" s="3"/>
+      <c r="G968" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H968" s="1">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I968" s="4">
+        <f t="shared" si="79"/>
+        <v>1900</v>
+      </c>
+      <c r="J968">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="969" spans="1:10">
+      <c r="A969">
+        <f t="shared" si="81"/>
+        <v>968</v>
+      </c>
+      <c r="B969" t="s">
+        <v>161</v>
+      </c>
+      <c r="C969">
+        <v>3</v>
+      </c>
+      <c r="D969">
+        <v>1</v>
+      </c>
+      <c r="E969" s="2"/>
+      <c r="F969" s="3"/>
+      <c r="G969" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H969" s="1">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I969" s="4">
+        <f t="shared" si="79"/>
+        <v>1900</v>
+      </c>
+      <c r="J969">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J908"/>
+  <autoFilter ref="A1:J917"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -42545,7 +44406,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -42556,13 +44417,13 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -42573,13 +44434,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E3" s="1">
         <v>2000000</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -42587,13 +44448,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E4" s="1">
         <v>2000000</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -42601,7 +44462,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E5" s="1">
         <v>600000</v>

--- a/SPP.xlsx
+++ b/SPP.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DETAIL!$A$1:$J$917</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DETAIL!$A$1:$J$976</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171">
   <si>
     <t>Tahun Bayar</t>
   </si>
@@ -511,6 +511,12 @@
     <t>URWAH ABDURRAHMAN</t>
   </si>
   <si>
+    <t>MUHAMMAD BIN PANUJU</t>
+  </si>
+  <si>
+    <t>HANIF ASY SYIDAD</t>
+  </si>
+  <si>
     <t>Pemasukan Yang Harus Dicek ulang</t>
   </si>
   <si>
@@ -537,9 +543,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -562,14 +568,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,32 +682,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,55 +696,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,27 +706,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,7 +720,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,73 +822,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,37 +852,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,19 +876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,25 +888,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,16 +924,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,16 +965,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,6 +984,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,21 +1011,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1028,130 +1034,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,10 +1165,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1174,13 +1180,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1192,7 +1198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1258,7 +1264,7 @@
       <numFmt numFmtId="180" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2029,7 +2035,7 @@
         <n v="4"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Tanggal" numFmtId="176">
+    <cacheField name="Tanggal" numFmtId="177">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNonDate="0" containsDate="1" minDate="2017-01-04T00:00:00" maxDate="2018-09-17T00:00:00" count="94">
         <d v="2017-09-09T00:00:00"/>
         <d v="2017-11-25T00:00:00"/>
@@ -2228,7 +2234,7 @@
         <n v="2766"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="SPP" numFmtId="177">
+    <cacheField name="SPP" numFmtId="176">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100000" maxValue="500000" count="14">
         <n v="350000"/>
         <n v="450000"/>
@@ -2246,7 +2252,7 @@
         <n v="160000"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Non Pendidikan" numFmtId="177">
+    <cacheField name="Non Pendidikan" numFmtId="176">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-50000" maxValue="350000" count="14">
         <n v="200000"/>
         <n v="300000"/>
@@ -10376,9 +10382,9 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="176" showAll="0"/>
+    <pivotField compact="0" numFmtId="177" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="177" showAll="0">
+    <pivotField dataField="1" compact="0" numFmtId="176" showAll="0">
       <items count="15">
         <item x="11"/>
         <item x="12"/>
@@ -10397,7 +10403,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="177" showAll="0">
+    <pivotField compact="0" numFmtId="176" showAll="0">
       <items count="15">
         <item x="11"/>
         <item x="12"/>
@@ -10910,12 +10916,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J969"/>
+  <dimension ref="A1:J976"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A946" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A954" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E963" sqref="E963"/>
+      <selection pane="bottomLeft" activeCell="B976" sqref="B976"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -19144,6 +19150,9 @@
       <c r="E247" s="2">
         <v>42938</v>
       </c>
+      <c r="F247" s="3">
+        <v>1241</v>
+      </c>
       <c r="G247" s="1">
         <v>300000</v>
       </c>
@@ -19177,6 +19186,9 @@
       <c r="E248" s="2">
         <v>42973</v>
       </c>
+      <c r="F248" s="3">
+        <v>2345</v>
+      </c>
       <c r="G248" s="1">
         <v>300000</v>
       </c>
@@ -19210,6 +19222,9 @@
       <c r="E249" s="2">
         <v>43008</v>
       </c>
+      <c r="F249" s="3">
+        <v>2427</v>
+      </c>
       <c r="G249" s="1">
         <v>300000</v>
       </c>
@@ -19243,6 +19258,9 @@
       <c r="E250" s="2">
         <v>43038</v>
       </c>
+      <c r="F250" s="3">
+        <v>2461</v>
+      </c>
       <c r="G250" s="1">
         <v>300000</v>
       </c>
@@ -19276,6 +19294,9 @@
       <c r="E251" s="2">
         <v>43050</v>
       </c>
+      <c r="F251" s="3">
+        <v>2498</v>
+      </c>
       <c r="G251" s="1">
         <v>300000</v>
       </c>
@@ -19309,6 +19330,9 @@
       <c r="E252" s="2">
         <v>43085</v>
       </c>
+      <c r="F252" s="3">
+        <v>2656</v>
+      </c>
       <c r="G252" s="1">
         <v>300000</v>
       </c>
@@ -43623,15 +43647,15 @@
         <v>150000</v>
       </c>
       <c r="H948" s="1">
-        <f t="shared" ref="H948:H969" si="78">G948-150000</f>
+        <f t="shared" ref="H948:H976" si="78">G948-150000</f>
         <v>0</v>
       </c>
       <c r="I948" s="4">
-        <f t="shared" ref="I948:I969" si="79">YEAR(E948)</f>
+        <f t="shared" ref="I948:I976" si="79">YEAR(E948)</f>
         <v>2017</v>
       </c>
       <c r="J948">
-        <f t="shared" ref="J948:J969" si="80">MONTH(E948)</f>
+        <f t="shared" ref="J948:J976" si="80">MONTH(E948)</f>
         <v>12</v>
       </c>
     </row>
@@ -44153,8 +44177,12 @@
       <c r="D963">
         <v>7</v>
       </c>
-      <c r="E963" s="2"/>
-      <c r="F963" s="3"/>
+      <c r="E963" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F963" s="3">
+        <v>2720</v>
+      </c>
       <c r="G963" s="1">
         <v>150000</v>
       </c>
@@ -44164,7 +44192,7 @@
       </c>
       <c r="I963" s="4">
         <f t="shared" si="79"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J963">
         <f t="shared" si="80"/>
@@ -44185,8 +44213,12 @@
       <c r="D964">
         <v>8</v>
       </c>
-      <c r="E964" s="2"/>
-      <c r="F964" s="3"/>
+      <c r="E964" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F964" s="3">
+        <v>2720</v>
+      </c>
       <c r="G964" s="1">
         <v>150000</v>
       </c>
@@ -44196,7 +44228,7 @@
       </c>
       <c r="I964" s="4">
         <f t="shared" si="79"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J964">
         <f t="shared" si="80"/>
@@ -44217,8 +44249,12 @@
       <c r="D965">
         <v>9</v>
       </c>
-      <c r="E965" s="2"/>
-      <c r="F965" s="3"/>
+      <c r="E965" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F965" s="3">
+        <v>2720</v>
+      </c>
       <c r="G965" s="1">
         <v>150000</v>
       </c>
@@ -44228,7 +44264,7 @@
       </c>
       <c r="I965" s="4">
         <f t="shared" si="79"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J965">
         <f t="shared" si="80"/>
@@ -44249,8 +44285,12 @@
       <c r="D966">
         <v>10</v>
       </c>
-      <c r="E966" s="2"/>
-      <c r="F966" s="3"/>
+      <c r="E966" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F966" s="3">
+        <v>2720</v>
+      </c>
       <c r="G966" s="1">
         <v>150000</v>
       </c>
@@ -44260,7 +44300,7 @@
       </c>
       <c r="I966" s="4">
         <f t="shared" si="79"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J966">
         <f t="shared" si="80"/>
@@ -44281,8 +44321,12 @@
       <c r="D967">
         <v>11</v>
       </c>
-      <c r="E967" s="2"/>
-      <c r="F967" s="3"/>
+      <c r="E967" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F967" s="3">
+        <v>2720</v>
+      </c>
       <c r="G967" s="1">
         <v>150000</v>
       </c>
@@ -44292,7 +44336,7 @@
       </c>
       <c r="I967" s="4">
         <f t="shared" si="79"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J967">
         <f t="shared" si="80"/>
@@ -44313,8 +44357,12 @@
       <c r="D968">
         <v>12</v>
       </c>
-      <c r="E968" s="2"/>
-      <c r="F968" s="3"/>
+      <c r="E968" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F968" s="3">
+        <v>2720</v>
+      </c>
       <c r="G968" s="1">
         <v>150000</v>
       </c>
@@ -44324,7 +44372,7 @@
       </c>
       <c r="I968" s="4">
         <f t="shared" si="79"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J968">
         <f t="shared" si="80"/>
@@ -44345,8 +44393,12 @@
       <c r="D969">
         <v>1</v>
       </c>
-      <c r="E969" s="2"/>
-      <c r="F969" s="3"/>
+      <c r="E969" s="2">
+        <v>43134</v>
+      </c>
+      <c r="F969" s="3">
+        <v>2772</v>
+      </c>
       <c r="G969" s="1">
         <v>150000</v>
       </c>
@@ -44356,15 +44408,266 @@
       </c>
       <c r="I969" s="4">
         <f t="shared" si="79"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J969">
         <f t="shared" si="80"/>
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="970" spans="1:10">
+      <c r="A970">
+        <v>969</v>
+      </c>
+      <c r="B970" t="s">
+        <v>162</v>
+      </c>
+      <c r="C970">
+        <v>3</v>
+      </c>
+      <c r="D970">
+        <v>7</v>
+      </c>
+      <c r="E970" s="2">
+        <v>43022</v>
+      </c>
+      <c r="F970" s="3">
+        <v>2550</v>
+      </c>
+      <c r="G970" s="1">
+        <v>120000</v>
+      </c>
+      <c r="H970" s="1">
+        <f t="shared" si="78"/>
+        <v>-30000</v>
+      </c>
+      <c r="I970" s="4">
+        <f t="shared" si="79"/>
+        <v>2017</v>
+      </c>
+      <c r="J970">
+        <f t="shared" si="80"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="971" spans="1:10">
+      <c r="A971">
+        <f t="shared" ref="A971:A976" si="82">A970+1</f>
+        <v>970</v>
+      </c>
+      <c r="B971" t="s">
+        <v>163</v>
+      </c>
+      <c r="C971">
+        <v>3</v>
+      </c>
+      <c r="D971">
+        <v>7</v>
+      </c>
+      <c r="E971" s="2">
+        <v>42931</v>
+      </c>
+      <c r="F971" s="3">
+        <v>1211</v>
+      </c>
+      <c r="G971" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H971" s="1">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I971" s="4">
+        <f t="shared" si="79"/>
+        <v>2017</v>
+      </c>
+      <c r="J971">
+        <f t="shared" si="80"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="972" spans="1:10">
+      <c r="A972">
+        <f t="shared" si="82"/>
+        <v>971</v>
+      </c>
+      <c r="B972" t="s">
+        <v>163</v>
+      </c>
+      <c r="C972">
+        <v>3</v>
+      </c>
+      <c r="D972">
+        <v>8</v>
+      </c>
+      <c r="E972" s="2">
+        <v>42959</v>
+      </c>
+      <c r="F972" s="3">
+        <v>2297</v>
+      </c>
+      <c r="G972" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H972" s="1">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I972" s="4">
+        <f t="shared" si="79"/>
+        <v>2017</v>
+      </c>
+      <c r="J972">
+        <f t="shared" si="80"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="973" spans="1:10">
+      <c r="A973">
+        <f t="shared" si="82"/>
+        <v>972</v>
+      </c>
+      <c r="B973" t="s">
+        <v>163</v>
+      </c>
+      <c r="C973">
+        <v>3</v>
+      </c>
+      <c r="D973">
+        <v>9</v>
+      </c>
+      <c r="E973" s="2">
+        <v>43008</v>
+      </c>
+      <c r="F973" s="3">
+        <v>2427</v>
+      </c>
+      <c r="G973" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H973" s="1">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I973" s="4">
+        <f t="shared" si="79"/>
+        <v>2017</v>
+      </c>
+      <c r="J973">
+        <f t="shared" si="80"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="974" spans="1:10">
+      <c r="A974">
+        <f t="shared" si="82"/>
+        <v>973</v>
+      </c>
+      <c r="B974" t="s">
+        <v>163</v>
+      </c>
+      <c r="C974">
+        <v>3</v>
+      </c>
+      <c r="D974">
+        <v>10</v>
+      </c>
+      <c r="E974" s="2">
+        <v>43029</v>
+      </c>
+      <c r="F974" s="3">
+        <v>2461</v>
+      </c>
+      <c r="G974" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H974" s="1">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I974" s="4">
+        <f t="shared" si="79"/>
+        <v>2017</v>
+      </c>
+      <c r="J974">
+        <f t="shared" si="80"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="975" spans="1:10">
+      <c r="A975">
+        <f t="shared" si="82"/>
+        <v>974</v>
+      </c>
+      <c r="B975" t="s">
+        <v>163</v>
+      </c>
+      <c r="C975">
+        <v>3</v>
+      </c>
+      <c r="D975">
+        <v>11</v>
+      </c>
+      <c r="E975" s="2">
+        <v>43043</v>
+      </c>
+      <c r="F975" s="3">
+        <v>2483</v>
+      </c>
+      <c r="G975" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H975" s="1">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I975" s="4">
+        <f t="shared" si="79"/>
+        <v>2017</v>
+      </c>
+      <c r="J975">
+        <f t="shared" si="80"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="976" spans="1:10">
+      <c r="A976">
+        <f t="shared" si="82"/>
+        <v>975</v>
+      </c>
+      <c r="B976" t="s">
+        <v>163</v>
+      </c>
+      <c r="C976">
+        <v>3</v>
+      </c>
+      <c r="D976">
+        <v>12</v>
+      </c>
+      <c r="E976" s="2">
+        <v>43085</v>
+      </c>
+      <c r="F976" s="3">
+        <v>2656</v>
+      </c>
+      <c r="G976" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H976" s="1">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I976" s="4">
+        <f t="shared" si="79"/>
+        <v>2017</v>
+      </c>
+      <c r="J976">
+        <f t="shared" si="80"/>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J917"/>
+  <autoFilter ref="A1:J976"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -44406,7 +44709,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -44417,13 +44720,13 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -44434,13 +44737,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E3" s="1">
         <v>2000000</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -44448,13 +44751,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E4" s="1">
         <v>2000000</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -44462,7 +44765,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E5" s="1">
         <v>600000</v>

--- a/SPP.xlsx
+++ b/SPP.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DETAIL!$A$1:$J$1289</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DETAIL!$A$1:$J$1291</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
@@ -673,11 +673,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -703,6 +703,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -712,9 +719,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -733,25 +801,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,14 +818,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,54 +832,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,13 +849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,7 +861,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,7 +891,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,7 +975,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,13 +1011,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,109 +1029,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,6 +1048,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1082,11 +1091,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,41 +1140,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1163,138 +1163,138 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1315,7 +1315,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1324,10 +1324,13 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1393,7 +1396,7 @@
       <numFmt numFmtId="180" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2363,7 +2366,7 @@
         <n v="2766"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="SPP" numFmtId="179">
+    <cacheField name="SPP" numFmtId="177">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100000" maxValue="500000" count="14">
         <n v="350000"/>
         <n v="450000"/>
@@ -2381,7 +2384,7 @@
         <n v="160000"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Non Pendidikan" numFmtId="179">
+    <cacheField name="Non Pendidikan" numFmtId="177">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-50000" maxValue="350000" count="14">
         <n v="200000"/>
         <n v="300000"/>
@@ -10513,7 +10516,7 @@
     </pivotField>
     <pivotField compact="0" numFmtId="178" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="179" showAll="0">
+    <pivotField dataField="1" compact="0" numFmtId="177" showAll="0">
       <items count="15">
         <item x="11"/>
         <item x="12"/>
@@ -10532,7 +10535,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="179" showAll="0">
+    <pivotField compact="0" numFmtId="177" showAll="0">
       <items count="15">
         <item x="11"/>
         <item x="12"/>
@@ -10896,7 +10899,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="12">
         <v>2018</v>
       </c>
     </row>
@@ -10923,16 +10926,16 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="13">
         <v>30980000</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="13">
         <v>14680000</v>
       </c>
-      <c r="D5" s="12">
-        <v>150000</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="D5" s="13">
+        <v>150000</v>
+      </c>
+      <c r="E5" s="13">
         <v>45810000</v>
       </c>
     </row>
@@ -10941,20 +10944,20 @@
       <c r="F13" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="7:7">
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="7:7">
-      <c r="G15" s="14"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="7:8">
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="15" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="1">
@@ -10963,7 +10966,7 @@
       </c>
     </row>
     <row r="17" spans="7:8">
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="1">
@@ -10972,7 +10975,7 @@
       </c>
     </row>
     <row r="18" spans="7:8">
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="1">
@@ -10980,7 +10983,7 @@
       </c>
     </row>
     <row r="19" spans="7:8">
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H19" s="1">
@@ -10989,11 +10992,11 @@
       </c>
     </row>
     <row r="20" spans="7:8">
-      <c r="G20" s="14"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="7:8">
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="15" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="1">
@@ -11002,7 +11005,7 @@
       </c>
     </row>
     <row r="22" ht="45" spans="7:8">
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="1" t="e">
@@ -11011,7 +11014,7 @@
       </c>
     </row>
     <row r="23" ht="30" spans="7:8">
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="1" t="e">
@@ -11020,21 +11023,21 @@
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="14"/>
-      <c r="C24" s="12"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="14"/>
+      <c r="B26" s="15"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="14"/>
+      <c r="B27" s="15"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="14"/>
+      <c r="B28" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -11045,12 +11048,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1289"/>
+  <dimension ref="A1:J1291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1191" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1268" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E1214" sqref="E1214"/>
+      <selection pane="bottomLeft" activeCell="E1282" sqref="E1282:F1290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -47166,7 +47169,12 @@
       <c r="D1074">
         <v>10</v>
       </c>
-      <c r="E1074" s="3"/>
+      <c r="E1074" s="10">
+        <v>43091</v>
+      </c>
+      <c r="F1074" s="3">
+        <v>2668</v>
+      </c>
       <c r="G1074" s="1">
         <v>120000</v>
       </c>
@@ -47176,11 +47184,11 @@
       </c>
       <c r="I1074" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1074">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1075" spans="1:10">
@@ -47197,7 +47205,12 @@
       <c r="D1075">
         <v>11</v>
       </c>
-      <c r="E1075" s="3"/>
+      <c r="E1075" s="10">
+        <v>43091</v>
+      </c>
+      <c r="F1075" s="3">
+        <v>2668</v>
+      </c>
       <c r="G1075" s="1">
         <v>120000</v>
       </c>
@@ -47207,11 +47220,11 @@
       </c>
       <c r="I1075" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1075">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1076" spans="1:10">
@@ -47228,7 +47241,12 @@
       <c r="D1076">
         <v>12</v>
       </c>
-      <c r="E1076" s="3"/>
+      <c r="E1076" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F1076" s="3">
+        <v>2729</v>
+      </c>
       <c r="G1076" s="1">
         <v>120000</v>
       </c>
@@ -47238,7 +47256,7 @@
       </c>
       <c r="I1076" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1076">
         <f t="shared" si="85"/>
@@ -47367,7 +47385,12 @@
       <c r="D1080">
         <v>10</v>
       </c>
-      <c r="E1080" s="3"/>
+      <c r="E1080" s="10">
+        <v>43020</v>
+      </c>
+      <c r="F1080" s="3">
+        <v>2525</v>
+      </c>
       <c r="G1080" s="1">
         <v>150000</v>
       </c>
@@ -47377,11 +47400,11 @@
       </c>
       <c r="I1080" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1080">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1081" spans="1:10">
@@ -47398,7 +47421,12 @@
       <c r="D1081">
         <v>11</v>
       </c>
-      <c r="E1081" s="3"/>
+      <c r="E1081" s="10">
+        <v>43045</v>
+      </c>
+      <c r="F1081" s="3">
+        <v>2490</v>
+      </c>
       <c r="G1081" s="1">
         <v>150000</v>
       </c>
@@ -47408,11 +47436,11 @@
       </c>
       <c r="I1081" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1081">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1082" spans="1:10">
@@ -47429,7 +47457,12 @@
       <c r="D1082">
         <v>12</v>
       </c>
-      <c r="E1082" s="3"/>
+      <c r="E1082" s="10">
+        <v>43074</v>
+      </c>
+      <c r="F1082" s="3">
+        <v>2669</v>
+      </c>
       <c r="G1082" s="1">
         <v>150000</v>
       </c>
@@ -47439,11 +47472,11 @@
       </c>
       <c r="I1082" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1082">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1083" spans="1:10">
@@ -47460,7 +47493,12 @@
       <c r="D1083">
         <v>1</v>
       </c>
-      <c r="E1083" s="3"/>
+      <c r="E1083" s="11">
+        <v>43116</v>
+      </c>
+      <c r="F1083" s="3">
+        <v>2752</v>
+      </c>
       <c r="G1083" s="1">
         <v>150000</v>
       </c>
@@ -47470,7 +47508,7 @@
       </c>
       <c r="I1083" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1083">
         <f t="shared" si="85"/>
@@ -47491,7 +47529,12 @@
       <c r="D1084">
         <v>2</v>
       </c>
-      <c r="E1084" s="3"/>
+      <c r="E1084" s="10">
+        <v>43146</v>
+      </c>
+      <c r="F1084" s="3">
+        <v>2807</v>
+      </c>
       <c r="G1084" s="1">
         <v>150000</v>
       </c>
@@ -47501,11 +47544,11 @@
       </c>
       <c r="I1084" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1084">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1085" spans="1:10">
@@ -47661,7 +47704,12 @@
       <c r="D1089">
         <v>10</v>
       </c>
-      <c r="E1089" s="3"/>
+      <c r="E1089" s="10">
+        <v>43017</v>
+      </c>
+      <c r="F1089" s="3">
+        <v>2524</v>
+      </c>
       <c r="G1089" s="1">
         <v>150000</v>
       </c>
@@ -47671,11 +47719,11 @@
       </c>
       <c r="I1089" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1089">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1090" spans="1:10">
@@ -47692,7 +47740,12 @@
       <c r="D1090">
         <v>11</v>
       </c>
-      <c r="E1090" s="3"/>
+      <c r="E1090" s="10">
+        <v>43053</v>
+      </c>
+      <c r="F1090" s="3">
+        <v>2567</v>
+      </c>
       <c r="G1090" s="1">
         <v>150000</v>
       </c>
@@ -47702,11 +47755,11 @@
       </c>
       <c r="I1090" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1090">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1091" spans="1:10">
@@ -47723,7 +47776,12 @@
       <c r="D1091">
         <v>12</v>
       </c>
-      <c r="E1091" s="3"/>
+      <c r="E1091" s="10">
+        <v>43082</v>
+      </c>
+      <c r="F1091" s="3">
+        <v>2636</v>
+      </c>
       <c r="G1091" s="1">
         <v>150000</v>
       </c>
@@ -47733,11 +47791,11 @@
       </c>
       <c r="I1091" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1091">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1092" spans="1:10">
@@ -47754,7 +47812,12 @@
       <c r="D1092">
         <v>1</v>
       </c>
-      <c r="E1092" s="3"/>
+      <c r="E1092" s="10">
+        <v>43127</v>
+      </c>
+      <c r="F1092" s="3">
+        <v>2746</v>
+      </c>
       <c r="G1092" s="1">
         <v>150000</v>
       </c>
@@ -47764,7 +47827,7 @@
       </c>
       <c r="I1092" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1092">
         <f t="shared" si="85"/>
@@ -47785,7 +47848,12 @@
       <c r="D1093">
         <v>2</v>
       </c>
-      <c r="E1093" s="3"/>
+      <c r="E1093" s="10">
+        <v>43156</v>
+      </c>
+      <c r="F1093" s="3">
+        <v>2827</v>
+      </c>
       <c r="G1093" s="1">
         <v>150000</v>
       </c>
@@ -47795,11 +47863,11 @@
       </c>
       <c r="I1093" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1093">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1094" spans="1:10">
@@ -47924,6 +47992,12 @@
       <c r="D1097">
         <v>10</v>
       </c>
+      <c r="E1097" s="2">
+        <v>43022</v>
+      </c>
+      <c r="F1097" s="3">
+        <v>2531</v>
+      </c>
       <c r="G1097" s="1">
         <v>150000</v>
       </c>
@@ -47933,11 +48007,11 @@
       </c>
       <c r="I1097" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1097">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1098" spans="1:10">
@@ -47954,6 +48028,12 @@
       <c r="D1098">
         <v>11</v>
       </c>
+      <c r="E1098" s="2">
+        <v>43050</v>
+      </c>
+      <c r="F1098" s="3">
+        <v>2553</v>
+      </c>
       <c r="G1098" s="1">
         <v>150000</v>
       </c>
@@ -47963,11 +48043,11 @@
       </c>
       <c r="I1098" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1098">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1099" spans="1:10">
@@ -47984,6 +48064,12 @@
       <c r="D1099">
         <v>12</v>
       </c>
+      <c r="E1099" s="2">
+        <v>43078</v>
+      </c>
+      <c r="F1099" s="3">
+        <v>2627</v>
+      </c>
       <c r="G1099" s="1">
         <v>150000</v>
       </c>
@@ -47993,11 +48079,11 @@
       </c>
       <c r="I1099" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1099">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1100" spans="1:10">
@@ -48014,6 +48100,12 @@
       <c r="D1100">
         <v>1</v>
       </c>
+      <c r="E1100" s="2">
+        <v>43134</v>
+      </c>
+      <c r="F1100" s="3">
+        <v>2762</v>
+      </c>
       <c r="G1100" s="1">
         <v>150000</v>
       </c>
@@ -48023,11 +48115,11 @@
       </c>
       <c r="I1100" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1100">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1101" spans="1:10">
@@ -48044,6 +48136,12 @@
       <c r="D1101">
         <v>2</v>
       </c>
+      <c r="E1101" s="2">
+        <v>43169</v>
+      </c>
+      <c r="F1101" s="3">
+        <v>2874</v>
+      </c>
       <c r="G1101" s="1">
         <v>150000</v>
       </c>
@@ -48053,11 +48151,11 @@
       </c>
       <c r="I1101" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1101">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1102" spans="1:10">
@@ -48074,6 +48172,12 @@
       <c r="D1102">
         <v>3</v>
       </c>
+      <c r="E1102" s="2">
+        <v>43169</v>
+      </c>
+      <c r="F1102" s="3">
+        <v>2874</v>
+      </c>
       <c r="G1102" s="1">
         <v>150000</v>
       </c>
@@ -48083,11 +48187,11 @@
       </c>
       <c r="I1102" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1102">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1103" spans="1:10">
@@ -48347,18 +48451,26 @@
       <c r="D1110">
         <v>10</v>
       </c>
-      <c r="E1110" s="3"/>
+      <c r="E1110" s="10">
+        <v>43031</v>
+      </c>
+      <c r="F1110" s="3">
+        <v>2475</v>
+      </c>
+      <c r="G1110" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1110" s="1">
         <f t="shared" si="83"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1110" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1110">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1111" spans="1:10">
@@ -48375,18 +48487,26 @@
       <c r="D1111">
         <v>11</v>
       </c>
-      <c r="E1111" s="3"/>
+      <c r="E1111" s="10">
+        <v>43046</v>
+      </c>
+      <c r="F1111" s="3">
+        <v>2591</v>
+      </c>
+      <c r="G1111" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1111" s="1">
         <f t="shared" si="83"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1111" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1111">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1112" spans="1:10">
@@ -48403,18 +48523,26 @@
       <c r="D1112">
         <v>12</v>
       </c>
-      <c r="E1112" s="3"/>
+      <c r="E1112" s="10">
+        <v>43083</v>
+      </c>
+      <c r="F1112" s="3">
+        <v>2664</v>
+      </c>
+      <c r="G1112" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1112" s="1">
         <f t="shared" si="83"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1112" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1112">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1113" spans="1:10">
@@ -48431,14 +48559,22 @@
       <c r="D1113">
         <v>1</v>
       </c>
-      <c r="E1113" s="3"/>
+      <c r="E1113" s="10">
+        <v>43101</v>
+      </c>
+      <c r="F1113" s="3">
+        <v>2698</v>
+      </c>
+      <c r="G1113" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1113" s="1">
         <f t="shared" si="83"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1113" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1113">
         <f t="shared" si="85"/>
@@ -48459,18 +48595,26 @@
       <c r="D1114">
         <v>2</v>
       </c>
-      <c r="E1114" s="3"/>
+      <c r="E1114" s="11">
+        <v>43134</v>
+      </c>
+      <c r="F1114" s="3">
+        <v>2782</v>
+      </c>
+      <c r="G1114" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1114" s="1">
         <f t="shared" si="83"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1114" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1114">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1115" spans="1:10">
@@ -48487,18 +48631,26 @@
       <c r="D1115">
         <v>3</v>
       </c>
-      <c r="E1115" s="3"/>
+      <c r="E1115" s="10">
+        <v>43168</v>
+      </c>
+      <c r="F1115" s="3">
+        <v>2863</v>
+      </c>
+      <c r="G1115" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1115" s="1">
         <f t="shared" si="83"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1115" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1115">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1116" spans="1:10">
@@ -48623,18 +48775,26 @@
       <c r="D1119">
         <v>10</v>
       </c>
-      <c r="E1119" s="3"/>
+      <c r="E1119" s="10">
+        <v>43057</v>
+      </c>
+      <c r="F1119" s="3">
+        <v>2572</v>
+      </c>
+      <c r="G1119" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1119" s="1">
         <f t="shared" si="83"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1119" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1119">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1120" spans="1:10">
@@ -48651,14 +48811,22 @@
       <c r="D1120">
         <v>11</v>
       </c>
-      <c r="E1120" s="3"/>
+      <c r="E1120" s="10">
+        <v>43101</v>
+      </c>
+      <c r="F1120" s="3">
+        <v>2694</v>
+      </c>
+      <c r="G1120" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1120" s="1">
         <f t="shared" si="83"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1120" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1120">
         <f t="shared" si="85"/>
@@ -48679,14 +48847,22 @@
       <c r="D1121">
         <v>12</v>
       </c>
-      <c r="E1121" s="3"/>
+      <c r="E1121" s="10">
+        <v>43101</v>
+      </c>
+      <c r="F1121" s="3">
+        <v>2694</v>
+      </c>
+      <c r="G1121" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1121" s="1">
         <f t="shared" si="83"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1121" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1121">
         <f t="shared" si="85"/>
@@ -48707,14 +48883,22 @@
       <c r="D1122">
         <v>1</v>
       </c>
-      <c r="E1122" s="3"/>
+      <c r="E1122" s="10">
+        <v>43101</v>
+      </c>
+      <c r="F1122" s="3">
+        <v>2694</v>
+      </c>
+      <c r="G1122" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1122" s="1">
         <f t="shared" si="83"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1122" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1122">
         <f t="shared" si="85"/>
@@ -48735,18 +48919,26 @@
       <c r="D1123">
         <v>2</v>
       </c>
-      <c r="E1123" s="3"/>
+      <c r="E1123" s="10">
+        <v>43169</v>
+      </c>
+      <c r="F1123" s="3">
+        <v>2870</v>
+      </c>
+      <c r="G1123" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1123" s="1">
         <f t="shared" si="83"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1123" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1123">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1124" spans="1:10">
@@ -48871,18 +49063,26 @@
       <c r="D1127">
         <v>10</v>
       </c>
-      <c r="E1127" s="3"/>
+      <c r="E1127" s="10">
+        <v>43052</v>
+      </c>
+      <c r="F1127" s="3">
+        <v>2566</v>
+      </c>
+      <c r="G1127" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1127" s="1">
         <f t="shared" si="83"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1127" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1127">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1128" spans="1:10">
@@ -48899,18 +49099,26 @@
       <c r="D1128">
         <v>11</v>
       </c>
-      <c r="E1128" s="3"/>
+      <c r="E1128" s="10">
+        <v>43052</v>
+      </c>
+      <c r="F1128" s="3">
+        <v>2566</v>
+      </c>
+      <c r="G1128" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1128" s="1">
         <f t="shared" si="83"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1128" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1128">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1129" spans="1:10">
@@ -48927,18 +49135,26 @@
       <c r="D1129">
         <v>12</v>
       </c>
-      <c r="E1129" s="3"/>
+      <c r="E1129" s="10">
+        <v>43092</v>
+      </c>
+      <c r="F1129" s="3">
+        <v>2682</v>
+      </c>
+      <c r="G1129" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1129" s="1">
         <f t="shared" si="83"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1129" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1129">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1130" spans="1:10">
@@ -49063,18 +49279,26 @@
       <c r="D1133">
         <v>10</v>
       </c>
-      <c r="E1133" s="3"/>
+      <c r="E1133" s="10">
+        <v>43029</v>
+      </c>
+      <c r="F1133" s="3">
+        <v>2463</v>
+      </c>
+      <c r="G1133" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1133" s="1">
         <f t="shared" si="83"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1133" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1133">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1134" spans="1:10">
@@ -49091,18 +49315,26 @@
       <c r="D1134">
         <v>11</v>
       </c>
-      <c r="E1134" s="3"/>
+      <c r="E1134" s="10">
+        <v>43064</v>
+      </c>
+      <c r="F1134" s="3">
+        <v>2605</v>
+      </c>
+      <c r="G1134" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1134" s="1">
         <f t="shared" si="83"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1134" s="4">
         <f t="shared" si="84"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1134">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1135" spans="1:10">
@@ -49119,14 +49351,22 @@
       <c r="D1135">
         <v>12</v>
       </c>
-      <c r="E1135" s="3"/>
+      <c r="E1135" s="10">
+        <v>43104</v>
+      </c>
+      <c r="F1135" s="3">
+        <v>2780</v>
+      </c>
+      <c r="G1135" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1135" s="1">
         <f t="shared" ref="H1135:H1198" si="87">G1135-150000</f>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1135" s="4">
         <f t="shared" ref="I1135:I1198" si="88">YEAR(E1135)</f>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1135">
         <f t="shared" ref="J1135:J1198" si="89">MONTH(E1135)</f>
@@ -49147,14 +49387,22 @@
       <c r="D1136">
         <v>1</v>
       </c>
-      <c r="E1136" s="3"/>
+      <c r="E1136" s="10">
+        <v>43104</v>
+      </c>
+      <c r="F1136" s="3">
+        <v>2780</v>
+      </c>
+      <c r="G1136" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1136" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1136" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1136">
         <f t="shared" si="89"/>
@@ -49175,18 +49423,26 @@
       <c r="D1137">
         <v>2</v>
       </c>
-      <c r="E1137" s="3"/>
+      <c r="E1137" s="10">
+        <v>43148</v>
+      </c>
+      <c r="F1137" s="3">
+        <v>2812</v>
+      </c>
+      <c r="G1137" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1137" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1137" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1137">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1138" spans="1:10">
@@ -49311,14 +49567,22 @@
       <c r="D1141">
         <v>10</v>
       </c>
-      <c r="E1141" s="3"/>
+      <c r="E1141" s="10">
+        <v>42739</v>
+      </c>
+      <c r="F1141" s="3">
+        <v>2736</v>
+      </c>
+      <c r="G1141" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1141" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1141" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1141">
         <f t="shared" si="89"/>
@@ -49339,14 +49603,22 @@
       <c r="D1142">
         <v>11</v>
       </c>
-      <c r="E1142" s="3"/>
+      <c r="E1142" s="10">
+        <v>42739</v>
+      </c>
+      <c r="F1142" s="3">
+        <v>2736</v>
+      </c>
+      <c r="G1142" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1142" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1142" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1142">
         <f t="shared" si="89"/>
@@ -49367,14 +49639,22 @@
       <c r="D1143">
         <v>12</v>
       </c>
-      <c r="E1143" s="3"/>
+      <c r="E1143" s="10">
+        <v>42739</v>
+      </c>
+      <c r="F1143" s="3">
+        <v>2736</v>
+      </c>
+      <c r="G1143" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1143" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1143" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1143">
         <f t="shared" si="89"/>
@@ -49503,18 +49783,26 @@
       <c r="D1147">
         <v>10</v>
       </c>
-      <c r="E1147" s="3"/>
+      <c r="E1147" s="10">
+        <v>43022</v>
+      </c>
+      <c r="F1147" s="3">
+        <v>2494</v>
+      </c>
+      <c r="G1147" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1147" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1147" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1147">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1148" spans="1:10">
@@ -49531,18 +49819,26 @@
       <c r="D1148">
         <v>11</v>
       </c>
-      <c r="E1148" s="3"/>
+      <c r="E1148" s="10">
+        <v>43057</v>
+      </c>
+      <c r="F1148" s="3">
+        <v>2592</v>
+      </c>
+      <c r="G1148" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1148" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1148" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1148">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1149" spans="1:10">
@@ -49559,18 +49855,26 @@
       <c r="D1149">
         <v>12</v>
       </c>
-      <c r="E1149" s="3"/>
+      <c r="E1149" s="10">
+        <v>43086</v>
+      </c>
+      <c r="F1149" s="3">
+        <v>2663</v>
+      </c>
+      <c r="G1149" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1149" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1149" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1149">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1150" spans="1:10">
@@ -49587,18 +49891,26 @@
       <c r="D1150">
         <v>1</v>
       </c>
-      <c r="E1150" s="3"/>
+      <c r="E1150" s="10">
+        <v>43165</v>
+      </c>
+      <c r="F1150" s="3">
+        <v>2862</v>
+      </c>
+      <c r="G1150" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1150" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1150" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1150">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1151" spans="1:10">
@@ -49615,18 +49927,26 @@
       <c r="D1151">
         <v>2</v>
       </c>
-      <c r="E1151" s="3"/>
+      <c r="E1151" s="10">
+        <v>43165</v>
+      </c>
+      <c r="F1151" s="3">
+        <v>2862</v>
+      </c>
+      <c r="G1151" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1151" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1151" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1151">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1152" spans="1:10">
@@ -49751,18 +50071,26 @@
       <c r="D1155">
         <v>10</v>
       </c>
-      <c r="E1155" s="3"/>
+      <c r="E1155" s="10">
+        <v>43015</v>
+      </c>
+      <c r="F1155" s="3">
+        <v>2752</v>
+      </c>
+      <c r="G1155" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1155" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1155" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1155">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1156" spans="1:10">
@@ -49779,18 +50107,26 @@
       <c r="D1156">
         <v>11</v>
       </c>
-      <c r="E1156" s="3"/>
+      <c r="E1156" s="10">
+        <v>43050</v>
+      </c>
+      <c r="F1156" s="3">
+        <v>2496</v>
+      </c>
+      <c r="G1156" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1156" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1156" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1156">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1157" spans="1:10">
@@ -49807,14 +50143,22 @@
       <c r="D1157">
         <v>12</v>
       </c>
-      <c r="E1157" s="3"/>
+      <c r="E1157" s="10">
+        <v>43104</v>
+      </c>
+      <c r="F1157" s="3">
+        <v>2727</v>
+      </c>
+      <c r="G1157" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1157" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1157" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1157">
         <f t="shared" si="89"/>
@@ -49835,18 +50179,26 @@
       <c r="D1158">
         <v>1</v>
       </c>
-      <c r="E1158" s="3"/>
+      <c r="E1158" s="10">
+        <v>43161</v>
+      </c>
+      <c r="F1158" s="3">
+        <v>2761</v>
+      </c>
+      <c r="G1158" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1158" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1158" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1158">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1159" spans="1:10">
@@ -49971,7 +50323,12 @@
       <c r="D1162">
         <v>10</v>
       </c>
-      <c r="E1162" s="3"/>
+      <c r="E1162" s="10">
+        <v>43022</v>
+      </c>
+      <c r="F1162" s="3">
+        <v>2534</v>
+      </c>
       <c r="G1162" s="1">
         <v>150000</v>
       </c>
@@ -49981,11 +50338,11 @@
       </c>
       <c r="I1162" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1162">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1163" spans="1:10">
@@ -50002,7 +50359,12 @@
       <c r="D1163">
         <v>11</v>
       </c>
-      <c r="E1163" s="3"/>
+      <c r="E1163" s="10">
+        <v>43050</v>
+      </c>
+      <c r="F1163" s="3">
+        <v>2551</v>
+      </c>
       <c r="G1163" s="1">
         <v>150000</v>
       </c>
@@ -50012,11 +50374,11 @@
       </c>
       <c r="I1163" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1163">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1164" spans="1:10">
@@ -50033,7 +50395,12 @@
       <c r="D1164">
         <v>12</v>
       </c>
-      <c r="E1164" s="3"/>
+      <c r="E1164" s="10">
+        <v>43092</v>
+      </c>
+      <c r="F1164" s="3">
+        <v>2690</v>
+      </c>
       <c r="G1164" s="1">
         <v>150000</v>
       </c>
@@ -50043,11 +50410,11 @@
       </c>
       <c r="I1164" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1164">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1165" spans="1:10">
@@ -50064,7 +50431,12 @@
       <c r="D1165">
         <v>1</v>
       </c>
-      <c r="E1165" s="3"/>
+      <c r="E1165" s="10">
+        <v>43141</v>
+      </c>
+      <c r="F1165" s="3">
+        <v>2795</v>
+      </c>
       <c r="G1165" s="1">
         <v>150000</v>
       </c>
@@ -50074,11 +50446,11 @@
       </c>
       <c r="I1165" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1165">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1166" spans="1:10">
@@ -50095,7 +50467,12 @@
       <c r="D1166">
         <v>2</v>
       </c>
-      <c r="E1166" s="3"/>
+      <c r="E1166" s="10">
+        <v>43176</v>
+      </c>
+      <c r="F1166" s="3">
+        <v>2890</v>
+      </c>
       <c r="G1166" s="1">
         <v>150000</v>
       </c>
@@ -50105,11 +50482,11 @@
       </c>
       <c r="I1166" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1166">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1167" spans="1:10">
@@ -50234,18 +50611,26 @@
       <c r="D1170">
         <v>10</v>
       </c>
-      <c r="E1170" s="3"/>
+      <c r="E1170" s="10">
+        <v>43008</v>
+      </c>
+      <c r="F1170" s="3">
+        <v>2392</v>
+      </c>
+      <c r="G1170" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1170" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1170" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1170">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1171" spans="1:10">
@@ -50262,18 +50647,26 @@
       <c r="D1171">
         <v>11</v>
       </c>
-      <c r="E1171" s="3"/>
+      <c r="E1171" s="10">
+        <v>43078</v>
+      </c>
+      <c r="F1171" s="3">
+        <v>2624</v>
+      </c>
+      <c r="G1171" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1171" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1171" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1171">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1172" spans="1:10">
@@ -50290,18 +50683,26 @@
       <c r="D1172">
         <v>12</v>
       </c>
-      <c r="E1172" s="3"/>
+      <c r="E1172" s="10">
+        <v>43078</v>
+      </c>
+      <c r="F1172" s="3">
+        <v>2624</v>
+      </c>
+      <c r="G1172" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1172" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1172" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1172">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1173" spans="1:10">
@@ -50318,18 +50719,26 @@
       <c r="D1173">
         <v>1</v>
       </c>
-      <c r="E1173" s="3"/>
+      <c r="E1173" s="10">
+        <v>43092</v>
+      </c>
+      <c r="F1173" s="3">
+        <v>2673</v>
+      </c>
+      <c r="G1173" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1173" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1173" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1173">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1174" spans="1:10">
@@ -50454,18 +50863,26 @@
       <c r="D1177">
         <v>10</v>
       </c>
-      <c r="E1177" s="3"/>
+      <c r="E1177" s="10">
+        <v>43015</v>
+      </c>
+      <c r="F1177" s="3">
+        <v>2517</v>
+      </c>
+      <c r="G1177" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1177" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1177" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1177">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1178" spans="1:10">
@@ -50482,18 +50899,26 @@
       <c r="D1178">
         <v>11</v>
       </c>
-      <c r="E1178" s="3"/>
+      <c r="E1178" s="10">
+        <v>43057</v>
+      </c>
+      <c r="F1178" s="3">
+        <v>2569</v>
+      </c>
+      <c r="G1178" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1178" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1178" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1178">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1179" spans="1:10">
@@ -50510,18 +50935,26 @@
       <c r="D1179">
         <v>12</v>
       </c>
-      <c r="E1179" s="3"/>
+      <c r="E1179" s="10">
+        <v>43085</v>
+      </c>
+      <c r="F1179" s="3">
+        <v>2638</v>
+      </c>
+      <c r="G1179" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1179" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1179" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1179">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1180" spans="1:10">
@@ -50538,18 +50971,26 @@
       <c r="D1180">
         <v>1</v>
       </c>
-      <c r="E1180" s="3"/>
+      <c r="E1180" s="10">
+        <v>43134</v>
+      </c>
+      <c r="F1180" s="3">
+        <v>2764</v>
+      </c>
+      <c r="G1180" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1180" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1180" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1180">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1181" spans="1:10">
@@ -50566,18 +51007,26 @@
       <c r="D1181">
         <v>2</v>
       </c>
-      <c r="E1181" s="3"/>
+      <c r="E1181" s="10">
+        <v>43134</v>
+      </c>
+      <c r="F1181" s="3">
+        <v>2764</v>
+      </c>
+      <c r="G1181" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1181" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1181" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1181">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1182" spans="1:10">
@@ -50594,18 +51043,26 @@
       <c r="D1182">
         <v>3</v>
       </c>
-      <c r="E1182" s="3"/>
+      <c r="E1182" s="10">
+        <v>43169</v>
+      </c>
+      <c r="F1182" s="3">
+        <v>2873</v>
+      </c>
+      <c r="G1182" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1182" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1182" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1182">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1183" spans="1:10">
@@ -50730,14 +51187,22 @@
       <c r="D1186">
         <v>10</v>
       </c>
-      <c r="E1186" s="3"/>
+      <c r="E1186" s="10">
+        <v>42739</v>
+      </c>
+      <c r="F1186" s="3">
+        <v>2720</v>
+      </c>
+      <c r="G1186" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1186" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1186" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1186">
         <f t="shared" si="89"/>
@@ -50758,14 +51223,22 @@
       <c r="D1187">
         <v>11</v>
       </c>
-      <c r="E1187" s="3"/>
+      <c r="E1187" s="10">
+        <v>42739</v>
+      </c>
+      <c r="F1187" s="3">
+        <v>2720</v>
+      </c>
+      <c r="G1187" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1187" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1187" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1187">
         <f t="shared" si="89"/>
@@ -50786,14 +51259,22 @@
       <c r="D1188">
         <v>12</v>
       </c>
-      <c r="E1188" s="3"/>
+      <c r="E1188" s="10">
+        <v>42739</v>
+      </c>
+      <c r="F1188" s="3">
+        <v>2720</v>
+      </c>
+      <c r="G1188" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1188" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1188" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1188">
         <f t="shared" si="89"/>
@@ -50814,18 +51295,26 @@
       <c r="D1189">
         <v>1</v>
       </c>
-      <c r="E1189" s="3"/>
+      <c r="E1189" s="10">
+        <v>43134</v>
+      </c>
+      <c r="F1189" s="3">
+        <v>2772</v>
+      </c>
+      <c r="G1189" s="1">
+        <v>150000</v>
+      </c>
       <c r="H1189" s="1">
         <f t="shared" si="87"/>
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="I1189" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1189">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1190" spans="1:10">
@@ -50950,6 +51439,12 @@
       <c r="D1193">
         <v>10</v>
       </c>
+      <c r="E1193" s="2">
+        <v>43022</v>
+      </c>
+      <c r="F1193" s="3">
+        <v>2549</v>
+      </c>
       <c r="G1193" s="1">
         <v>150000</v>
       </c>
@@ -50959,11 +51454,11 @@
       </c>
       <c r="I1193" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1193">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1194" spans="1:10">
@@ -50980,6 +51475,12 @@
       <c r="D1194">
         <v>11</v>
       </c>
+      <c r="E1194" s="2">
+        <v>43043</v>
+      </c>
+      <c r="F1194" s="3">
+        <v>2478</v>
+      </c>
       <c r="G1194" s="1">
         <v>150000</v>
       </c>
@@ -50989,11 +51490,11 @@
       </c>
       <c r="I1194" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1194">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1195" spans="1:10">
@@ -51010,6 +51511,12 @@
       <c r="D1195">
         <v>12</v>
       </c>
+      <c r="E1195" s="2">
+        <v>43092</v>
+      </c>
+      <c r="F1195" s="3">
+        <v>2687</v>
+      </c>
       <c r="G1195" s="1">
         <v>150000</v>
       </c>
@@ -51019,11 +51526,11 @@
       </c>
       <c r="I1195" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="J1195">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1196" spans="1:10">
@@ -51040,6 +51547,12 @@
       <c r="D1196">
         <v>1</v>
       </c>
+      <c r="E1196" s="2">
+        <v>43162</v>
+      </c>
+      <c r="F1196" s="3">
+        <v>2838</v>
+      </c>
       <c r="G1196" s="1">
         <v>150000</v>
       </c>
@@ -51049,11 +51562,11 @@
       </c>
       <c r="I1196" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1196">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1197" spans="1:10">
@@ -51062,13 +51575,19 @@
         <v>1196</v>
       </c>
       <c r="B1197" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="C1197">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1197">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="E1197" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F1197" s="3">
+        <v>2892</v>
       </c>
       <c r="G1197" s="1">
         <v>150000</v>
@@ -51079,48 +51598,40 @@
       </c>
       <c r="I1197" s="4">
         <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1197">
         <f t="shared" si="89"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1198" spans="1:10">
-      <c r="A1198">
-        <f t="shared" si="90"/>
-        <v>1197</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1198" spans="2:10">
       <c r="B1198" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="C1198">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1198">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="E1198" s="2">
+        <v>43176</v>
+      </c>
+      <c r="F1198" s="3">
+        <v>2892</v>
       </c>
       <c r="G1198" s="1">
         <v>150000</v>
       </c>
-      <c r="H1198" s="1">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
       <c r="I1198" s="4">
-        <f t="shared" si="88"/>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1198">
-        <f t="shared" si="89"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1199" spans="1:10">
-      <c r="A1199">
-        <f t="shared" si="90"/>
-        <v>1198</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1199" spans="2:10">
       <c r="B1199" t="s">
         <v>194</v>
       </c>
@@ -51128,28 +51639,28 @@
         <v>5</v>
       </c>
       <c r="D1199">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E1199" s="2">
+        <v>42810</v>
+      </c>
+      <c r="F1199" s="3">
+        <v>2408</v>
       </c>
       <c r="G1199" s="1">
         <v>150000</v>
       </c>
-      <c r="H1199" s="1">
-        <f t="shared" ref="H1199:H1262" si="91">G1199-150000</f>
-        <v>0</v>
-      </c>
       <c r="I1199" s="4">
-        <f t="shared" ref="I1199:I1262" si="92">YEAR(E1199)</f>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="J1199">
-        <f t="shared" ref="J1199:J1262" si="93">MONTH(E1199)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1200" spans="1:10">
       <c r="A1200">
-        <f t="shared" si="90"/>
-        <v>1199</v>
+        <f>A1197+1</f>
+        <v>1197</v>
       </c>
       <c r="B1200" t="s">
         <v>194</v>
@@ -51158,28 +51669,34 @@
         <v>5</v>
       </c>
       <c r="D1200">
+        <v>8</v>
+      </c>
+      <c r="E1200" s="2">
+        <v>43022</v>
+      </c>
+      <c r="F1200" s="3">
+        <v>2540</v>
+      </c>
+      <c r="G1200" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H1200" s="1">
+        <f>G1200-150000</f>
+        <v>0</v>
+      </c>
+      <c r="I1200" s="4">
+        <f>YEAR(E1200)</f>
+        <v>2017</v>
+      </c>
+      <c r="J1200">
+        <f>MONTH(E1200)</f>
         <v>10</v>
-      </c>
-      <c r="G1200" s="1">
-        <v>150000</v>
-      </c>
-      <c r="H1200" s="1">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="I1200" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
-      </c>
-      <c r="J1200">
-        <f t="shared" si="93"/>
-        <v>1</v>
       </c>
     </row>
     <row r="1201" spans="1:10">
       <c r="A1201">
-        <f t="shared" si="90"/>
-        <v>1200</v>
+        <f t="shared" ref="A1201:A1219" si="91">A1200+1</f>
+        <v>1198</v>
       </c>
       <c r="B1201" t="s">
         <v>194</v>
@@ -51188,28 +51705,34 @@
         <v>5</v>
       </c>
       <c r="D1201">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E1201" s="2">
+        <v>43022</v>
+      </c>
+      <c r="F1201" s="3">
+        <v>2540</v>
       </c>
       <c r="G1201" s="1">
         <v>150000</v>
       </c>
       <c r="H1201" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" ref="H1201:H1264" si="92">G1201-150000</f>
         <v>0</v>
       </c>
       <c r="I1201" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" ref="I1201:I1264" si="93">YEAR(E1201)</f>
+        <v>2017</v>
       </c>
       <c r="J1201">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" ref="J1201:J1264" si="94">MONTH(E1201)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="1202" spans="1:10">
       <c r="A1202">
-        <f t="shared" si="90"/>
-        <v>1201</v>
+        <f t="shared" si="91"/>
+        <v>1199</v>
       </c>
       <c r="B1202" t="s">
         <v>194</v>
@@ -51218,28 +51741,34 @@
         <v>5</v>
       </c>
       <c r="D1202">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E1202" s="2">
+        <v>43022</v>
+      </c>
+      <c r="F1202" s="3">
+        <v>2540</v>
       </c>
       <c r="G1202" s="1">
         <v>150000</v>
       </c>
       <c r="H1202" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1202" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1202">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>10</v>
       </c>
     </row>
     <row r="1203" spans="1:10">
       <c r="A1203">
-        <f t="shared" si="90"/>
-        <v>1202</v>
+        <f t="shared" si="91"/>
+        <v>1200</v>
       </c>
       <c r="B1203" t="s">
         <v>194</v>
@@ -51248,28 +51777,34 @@
         <v>5</v>
       </c>
       <c r="D1203">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E1203" s="2">
+        <v>43141</v>
+      </c>
+      <c r="F1203" s="3">
+        <v>2805</v>
       </c>
       <c r="G1203" s="1">
         <v>150000</v>
       </c>
       <c r="H1203" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1203" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2018</v>
       </c>
       <c r="J1203">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>2</v>
       </c>
     </row>
     <row r="1204" spans="1:10">
       <c r="A1204">
-        <f t="shared" si="90"/>
-        <v>1203</v>
+        <f t="shared" si="91"/>
+        <v>1201</v>
       </c>
       <c r="B1204" t="s">
         <v>194</v>
@@ -51278,28 +51813,34 @@
         <v>5</v>
       </c>
       <c r="D1204">
+        <v>12</v>
+      </c>
+      <c r="E1204" s="2">
+        <v>43141</v>
+      </c>
+      <c r="F1204" s="3">
+        <v>2805</v>
+      </c>
+      <c r="G1204" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H1204" s="1">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="I1204" s="4">
+        <f t="shared" si="93"/>
+        <v>2018</v>
+      </c>
+      <c r="J1204">
+        <f t="shared" si="94"/>
         <v>2</v>
-      </c>
-      <c r="G1204" s="1">
-        <v>150000</v>
-      </c>
-      <c r="H1204" s="1">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="I1204" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
-      </c>
-      <c r="J1204">
-        <f t="shared" si="93"/>
-        <v>1</v>
       </c>
     </row>
     <row r="1205" spans="1:10">
       <c r="A1205">
-        <f t="shared" si="90"/>
-        <v>1204</v>
+        <f t="shared" si="91"/>
+        <v>1202</v>
       </c>
       <c r="B1205" t="s">
         <v>194</v>
@@ -51308,88 +51849,106 @@
         <v>5</v>
       </c>
       <c r="D1205">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E1205" s="2">
+        <v>43141</v>
+      </c>
+      <c r="F1205" s="3">
+        <v>2805</v>
       </c>
       <c r="G1205" s="1">
         <v>150000</v>
       </c>
       <c r="H1205" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1205" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2018</v>
       </c>
       <c r="J1205">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>2</v>
       </c>
     </row>
     <row r="1206" spans="1:10">
       <c r="A1206">
-        <f t="shared" si="90"/>
-        <v>1205</v>
+        <f t="shared" si="91"/>
+        <v>1203</v>
       </c>
       <c r="B1206" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C1206">
         <v>5</v>
       </c>
       <c r="D1206">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="E1206" s="2">
+        <v>43141</v>
+      </c>
+      <c r="F1206" s="3">
+        <v>2805</v>
       </c>
       <c r="G1206" s="1">
         <v>150000</v>
       </c>
       <c r="H1206" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1206" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2018</v>
       </c>
       <c r="J1206">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>2</v>
       </c>
     </row>
     <row r="1207" spans="1:10">
       <c r="A1207">
-        <f t="shared" si="90"/>
-        <v>1206</v>
+        <f t="shared" si="91"/>
+        <v>1204</v>
       </c>
       <c r="B1207" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C1207">
         <v>5</v>
       </c>
       <c r="D1207">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="E1207" s="2">
+        <v>43141</v>
+      </c>
+      <c r="F1207" s="3">
+        <v>2805</v>
       </c>
       <c r="G1207" s="1">
         <v>150000</v>
       </c>
       <c r="H1207" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1207" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2018</v>
       </c>
       <c r="J1207">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>2</v>
       </c>
     </row>
     <row r="1208" spans="1:10">
       <c r="A1208">
-        <f t="shared" si="90"/>
-        <v>1207</v>
+        <f t="shared" si="91"/>
+        <v>1205</v>
       </c>
       <c r="B1208" t="s">
         <v>195</v>
@@ -51398,28 +51957,34 @@
         <v>5</v>
       </c>
       <c r="D1208">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E1208" s="2">
+        <v>42959</v>
+      </c>
+      <c r="F1208" s="3">
+        <v>2284</v>
       </c>
       <c r="G1208" s="1">
         <v>150000</v>
       </c>
       <c r="H1208" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1208" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1208">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>8</v>
       </c>
     </row>
     <row r="1209" spans="1:10">
       <c r="A1209">
-        <f t="shared" si="90"/>
-        <v>1208</v>
+        <f t="shared" si="91"/>
+        <v>1206</v>
       </c>
       <c r="B1209" t="s">
         <v>195</v>
@@ -51428,28 +51993,34 @@
         <v>5</v>
       </c>
       <c r="D1209">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E1209" s="2">
+        <v>42959</v>
+      </c>
+      <c r="F1209" s="3">
+        <v>2284</v>
       </c>
       <c r="G1209" s="1">
         <v>150000</v>
       </c>
       <c r="H1209" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1209" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1209">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>8</v>
       </c>
     </row>
     <row r="1210" spans="1:10">
       <c r="A1210">
-        <f t="shared" si="90"/>
-        <v>1209</v>
+        <f t="shared" si="91"/>
+        <v>1207</v>
       </c>
       <c r="B1210" t="s">
         <v>195</v>
@@ -51458,28 +52029,34 @@
         <v>5</v>
       </c>
       <c r="D1210">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E1210" s="2">
+        <v>42871</v>
+      </c>
+      <c r="F1210" s="3">
+        <v>2416</v>
       </c>
       <c r="G1210" s="1">
         <v>150000</v>
       </c>
       <c r="H1210" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1210" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1210">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>5</v>
       </c>
     </row>
     <row r="1211" spans="1:10">
       <c r="A1211">
-        <f t="shared" si="90"/>
-        <v>1210</v>
+        <f t="shared" si="91"/>
+        <v>1208</v>
       </c>
       <c r="B1211" t="s">
         <v>195</v>
@@ -51488,28 +52065,34 @@
         <v>5</v>
       </c>
       <c r="D1211">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E1211" s="2">
+        <v>43029</v>
+      </c>
+      <c r="F1211" s="3">
+        <v>2471</v>
       </c>
       <c r="G1211" s="1">
         <v>150000</v>
       </c>
       <c r="H1211" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1211" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1211">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>10</v>
       </c>
     </row>
     <row r="1212" spans="1:10">
       <c r="A1212">
-        <f t="shared" si="90"/>
-        <v>1211</v>
+        <f t="shared" si="91"/>
+        <v>1209</v>
       </c>
       <c r="B1212" t="s">
         <v>195</v>
@@ -51518,28 +52101,34 @@
         <v>5</v>
       </c>
       <c r="D1212">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E1212" s="2">
+        <v>43057</v>
+      </c>
+      <c r="F1212" s="3">
+        <v>2568</v>
       </c>
       <c r="G1212" s="1">
         <v>150000</v>
       </c>
       <c r="H1212" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1212" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1212">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>11</v>
       </c>
     </row>
     <row r="1213" spans="1:10">
       <c r="A1213">
-        <f t="shared" si="90"/>
-        <v>1212</v>
+        <f t="shared" si="91"/>
+        <v>1210</v>
       </c>
       <c r="B1213" t="s">
         <v>195</v>
@@ -51548,28 +52137,34 @@
         <v>5</v>
       </c>
       <c r="D1213">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="E1213" s="2">
+        <v>43085</v>
+      </c>
+      <c r="F1213" s="3">
+        <v>2660</v>
       </c>
       <c r="G1213" s="1">
         <v>150000</v>
       </c>
       <c r="H1213" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1213" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1213">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>12</v>
       </c>
     </row>
     <row r="1214" spans="1:10">
       <c r="A1214">
-        <f t="shared" si="90"/>
-        <v>1213</v>
+        <f t="shared" si="91"/>
+        <v>1211</v>
       </c>
       <c r="B1214" t="s">
         <v>195</v>
@@ -51578,88 +52173,106 @@
         <v>5</v>
       </c>
       <c r="D1214">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E1214" s="2">
+        <v>43134</v>
+      </c>
+      <c r="F1214" s="3">
+        <v>2763</v>
       </c>
       <c r="G1214" s="1">
         <v>150000</v>
       </c>
       <c r="H1214" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1214" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2018</v>
       </c>
       <c r="J1214">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>2</v>
       </c>
     </row>
     <row r="1215" spans="1:10">
       <c r="A1215">
-        <f t="shared" si="90"/>
-        <v>1214</v>
+        <f t="shared" si="91"/>
+        <v>1212</v>
       </c>
       <c r="B1215" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C1215">
         <v>5</v>
       </c>
       <c r="D1215">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="E1215" s="2">
+        <v>43134</v>
+      </c>
+      <c r="F1215" s="3">
+        <v>2763</v>
       </c>
       <c r="G1215" s="1">
         <v>150000</v>
       </c>
       <c r="H1215" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1215" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2018</v>
       </c>
       <c r="J1215">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>2</v>
       </c>
     </row>
     <row r="1216" spans="1:10">
       <c r="A1216">
-        <f t="shared" si="90"/>
-        <v>1215</v>
+        <f t="shared" si="91"/>
+        <v>1213</v>
       </c>
       <c r="B1216" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C1216">
         <v>5</v>
       </c>
       <c r="D1216">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="E1216" s="2">
+        <v>43169</v>
+      </c>
+      <c r="F1216" s="3">
+        <v>2866</v>
       </c>
       <c r="G1216" s="1">
         <v>150000</v>
       </c>
       <c r="H1216" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1216" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2018</v>
       </c>
       <c r="J1216">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>3</v>
       </c>
     </row>
     <row r="1217" spans="1:10">
       <c r="A1217">
-        <f t="shared" si="90"/>
-        <v>1216</v>
+        <f t="shared" si="91"/>
+        <v>1214</v>
       </c>
       <c r="B1217" t="s">
         <v>196</v>
@@ -51668,28 +52281,34 @@
         <v>5</v>
       </c>
       <c r="D1217">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E1217" s="2">
+        <v>42933</v>
+      </c>
+      <c r="F1217" s="3">
+        <v>1231</v>
       </c>
       <c r="G1217" s="1">
         <v>150000</v>
       </c>
       <c r="H1217" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1217" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1217">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>7</v>
       </c>
     </row>
     <row r="1218" spans="1:10">
       <c r="A1218">
-        <f t="shared" ref="A1218:A1281" si="94">A1217+1</f>
-        <v>1217</v>
+        <f t="shared" si="91"/>
+        <v>1215</v>
       </c>
       <c r="B1218" t="s">
         <v>196</v>
@@ -51698,28 +52317,34 @@
         <v>5</v>
       </c>
       <c r="D1218">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E1218" s="2">
+        <v>42901</v>
+      </c>
+      <c r="F1218" s="3">
+        <v>2303</v>
       </c>
       <c r="G1218" s="1">
         <v>150000</v>
       </c>
       <c r="H1218" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1218" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1218">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>6</v>
       </c>
     </row>
     <row r="1219" spans="1:10">
       <c r="A1219">
-        <f t="shared" si="94"/>
-        <v>1218</v>
+        <f t="shared" si="91"/>
+        <v>1216</v>
       </c>
       <c r="B1219" t="s">
         <v>196</v>
@@ -51728,28 +52353,34 @@
         <v>5</v>
       </c>
       <c r="D1219">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E1219" s="2">
+        <v>42984</v>
+      </c>
+      <c r="F1219" s="3">
+        <v>2347</v>
       </c>
       <c r="G1219" s="1">
         <v>150000</v>
       </c>
       <c r="H1219" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1219" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1219">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>9</v>
       </c>
     </row>
     <row r="1220" spans="1:10">
       <c r="A1220">
-        <f t="shared" si="94"/>
-        <v>1219</v>
+        <f t="shared" ref="A1220:A1283" si="95">A1219+1</f>
+        <v>1217</v>
       </c>
       <c r="B1220" t="s">
         <v>196</v>
@@ -51758,28 +52389,34 @@
         <v>5</v>
       </c>
       <c r="D1220">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E1220" s="2">
+        <v>43022</v>
+      </c>
+      <c r="F1220" s="3">
+        <v>2543</v>
       </c>
       <c r="G1220" s="1">
         <v>150000</v>
       </c>
       <c r="H1220" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1220" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1220">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>10</v>
       </c>
     </row>
     <row r="1221" spans="1:10">
       <c r="A1221">
-        <f t="shared" si="94"/>
-        <v>1220</v>
+        <f t="shared" si="95"/>
+        <v>1218</v>
       </c>
       <c r="B1221" t="s">
         <v>196</v>
@@ -51788,28 +52425,34 @@
         <v>5</v>
       </c>
       <c r="D1221">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E1221" s="2">
+        <v>43052</v>
+      </c>
+      <c r="F1221" s="3">
+        <v>2594</v>
       </c>
       <c r="G1221" s="1">
         <v>150000</v>
       </c>
       <c r="H1221" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1221" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1221">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>11</v>
       </c>
     </row>
     <row r="1222" spans="1:10">
       <c r="A1222">
-        <f t="shared" si="94"/>
-        <v>1221</v>
+        <f t="shared" si="95"/>
+        <v>1219</v>
       </c>
       <c r="B1222" t="s">
         <v>196</v>
@@ -51818,118 +52461,136 @@
         <v>5</v>
       </c>
       <c r="D1222">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="E1222" s="2">
+        <v>43085</v>
+      </c>
+      <c r="F1222" s="3">
+        <v>2652</v>
       </c>
       <c r="G1222" s="1">
         <v>150000</v>
       </c>
       <c r="H1222" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1222" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1222">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>12</v>
       </c>
     </row>
     <row r="1223" spans="1:10">
       <c r="A1223">
-        <f t="shared" si="94"/>
-        <v>1222</v>
+        <f t="shared" si="95"/>
+        <v>1220</v>
       </c>
       <c r="B1223" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C1223">
         <v>5</v>
       </c>
       <c r="D1223">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="E1223" s="2">
+        <v>43141</v>
+      </c>
+      <c r="F1223" s="3">
+        <v>2798</v>
       </c>
       <c r="G1223" s="1">
         <v>150000</v>
       </c>
       <c r="H1223" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1223" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2018</v>
       </c>
       <c r="J1223">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>2</v>
       </c>
     </row>
     <row r="1224" spans="1:10">
       <c r="A1224">
-        <f t="shared" si="94"/>
-        <v>1223</v>
+        <f t="shared" si="95"/>
+        <v>1221</v>
       </c>
       <c r="B1224" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C1224">
         <v>5</v>
       </c>
       <c r="D1224">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="E1224" s="2">
+        <v>43141</v>
+      </c>
+      <c r="F1224" s="3">
+        <v>2798</v>
       </c>
       <c r="G1224" s="1">
         <v>150000</v>
       </c>
       <c r="H1224" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1224" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2018</v>
       </c>
       <c r="J1224">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>2</v>
       </c>
     </row>
     <row r="1225" spans="1:10">
       <c r="A1225">
-        <f t="shared" si="94"/>
-        <v>1224</v>
+        <f t="shared" si="95"/>
+        <v>1222</v>
       </c>
       <c r="B1225" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C1225">
         <v>5</v>
       </c>
       <c r="D1225">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1225" s="1">
         <v>150000</v>
       </c>
       <c r="H1225" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1225" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1900</v>
       </c>
       <c r="J1225">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1</v>
       </c>
     </row>
     <row r="1226" spans="1:10">
       <c r="A1226">
-        <f t="shared" si="94"/>
-        <v>1225</v>
+        <f t="shared" si="95"/>
+        <v>1223</v>
       </c>
       <c r="B1226" t="s">
         <v>198</v>
@@ -51938,28 +52599,34 @@
         <v>5</v>
       </c>
       <c r="D1226">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E1226" s="2">
+        <v>42952</v>
+      </c>
+      <c r="F1226" s="3">
+        <v>2264</v>
       </c>
       <c r="G1226" s="1">
         <v>150000</v>
       </c>
       <c r="H1226" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1226" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1226">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>8</v>
       </c>
     </row>
     <row r="1227" spans="1:10">
       <c r="A1227">
-        <f t="shared" si="94"/>
-        <v>1226</v>
+        <f t="shared" si="95"/>
+        <v>1224</v>
       </c>
       <c r="B1227" t="s">
         <v>198</v>
@@ -51968,28 +52635,34 @@
         <v>5</v>
       </c>
       <c r="D1227">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E1227" s="2">
+        <v>42952</v>
+      </c>
+      <c r="F1227" s="3">
+        <v>2264</v>
       </c>
       <c r="G1227" s="1">
         <v>150000</v>
       </c>
       <c r="H1227" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1227" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1227">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>8</v>
       </c>
     </row>
     <row r="1228" spans="1:10">
       <c r="A1228">
-        <f t="shared" si="94"/>
-        <v>1227</v>
+        <f t="shared" si="95"/>
+        <v>1225</v>
       </c>
       <c r="B1228" t="s">
         <v>198</v>
@@ -51998,28 +52671,34 @@
         <v>5</v>
       </c>
       <c r="D1228">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E1228" s="2">
+        <v>42994</v>
+      </c>
+      <c r="F1228" s="3">
+        <v>2417</v>
       </c>
       <c r="G1228" s="1">
         <v>150000</v>
       </c>
       <c r="H1228" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1228" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1228">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>9</v>
       </c>
     </row>
     <row r="1229" spans="1:10">
       <c r="A1229">
-        <f t="shared" si="94"/>
-        <v>1228</v>
+        <f t="shared" si="95"/>
+        <v>1226</v>
       </c>
       <c r="B1229" t="s">
         <v>198</v>
@@ -52028,28 +52707,34 @@
         <v>5</v>
       </c>
       <c r="D1229">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E1229" s="2">
+        <v>43057</v>
+      </c>
+      <c r="F1229" s="3">
+        <v>2587</v>
       </c>
       <c r="G1229" s="1">
         <v>150000</v>
       </c>
       <c r="H1229" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1229" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1229">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>11</v>
       </c>
     </row>
     <row r="1230" spans="1:10">
       <c r="A1230">
-        <f t="shared" si="94"/>
-        <v>1229</v>
+        <f t="shared" si="95"/>
+        <v>1227</v>
       </c>
       <c r="B1230" t="s">
         <v>198</v>
@@ -52058,28 +52743,34 @@
         <v>5</v>
       </c>
       <c r="D1230">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E1230" s="2">
+        <v>43057</v>
+      </c>
+      <c r="F1230" s="3">
+        <v>2587</v>
       </c>
       <c r="G1230" s="1">
         <v>150000</v>
       </c>
       <c r="H1230" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1230" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1230">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>11</v>
       </c>
     </row>
     <row r="1231" spans="1:10">
       <c r="A1231">
-        <f t="shared" si="94"/>
-        <v>1230</v>
+        <f t="shared" si="95"/>
+        <v>1228</v>
       </c>
       <c r="B1231" t="s">
         <v>198</v>
@@ -52088,28 +52779,34 @@
         <v>5</v>
       </c>
       <c r="D1231">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="E1231" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F1231" s="3">
+        <v>2711</v>
       </c>
       <c r="G1231" s="1">
         <v>150000</v>
       </c>
       <c r="H1231" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1231" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2018</v>
       </c>
       <c r="J1231">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1</v>
       </c>
     </row>
     <row r="1232" spans="1:10">
       <c r="A1232">
-        <f t="shared" si="94"/>
-        <v>1231</v>
+        <f t="shared" si="95"/>
+        <v>1229</v>
       </c>
       <c r="B1232" t="s">
         <v>198</v>
@@ -52118,88 +52815,106 @@
         <v>5</v>
       </c>
       <c r="D1232">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E1232" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F1232" s="3">
+        <v>2711</v>
       </c>
       <c r="G1232" s="1">
         <v>150000</v>
       </c>
       <c r="H1232" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1232" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2018</v>
       </c>
       <c r="J1232">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1</v>
       </c>
     </row>
     <row r="1233" spans="1:10">
       <c r="A1233">
-        <f t="shared" si="94"/>
-        <v>1232</v>
+        <f t="shared" si="95"/>
+        <v>1230</v>
       </c>
       <c r="B1233" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C1233">
         <v>5</v>
       </c>
       <c r="D1233">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="E1233" s="2">
+        <v>43162</v>
+      </c>
+      <c r="F1233" s="3">
+        <v>2843</v>
       </c>
       <c r="G1233" s="1">
         <v>150000</v>
       </c>
       <c r="H1233" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1233" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2018</v>
       </c>
       <c r="J1233">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>3</v>
       </c>
     </row>
     <row r="1234" spans="1:10">
       <c r="A1234">
-        <f t="shared" si="94"/>
-        <v>1233</v>
+        <f t="shared" si="95"/>
+        <v>1231</v>
       </c>
       <c r="B1234" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C1234">
         <v>5</v>
       </c>
       <c r="D1234">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="E1234" s="2">
+        <v>43162</v>
+      </c>
+      <c r="F1234" s="3">
+        <v>2843</v>
       </c>
       <c r="G1234" s="1">
         <v>150000</v>
       </c>
       <c r="H1234" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1234" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2018</v>
       </c>
       <c r="J1234">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>3</v>
       </c>
     </row>
     <row r="1235" spans="1:10">
       <c r="A1235">
-        <f t="shared" si="94"/>
-        <v>1234</v>
+        <f t="shared" si="95"/>
+        <v>1232</v>
       </c>
       <c r="B1235" t="s">
         <v>199</v>
@@ -52208,28 +52923,34 @@
         <v>5</v>
       </c>
       <c r="D1235">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E1235" s="2">
+        <v>42931</v>
+      </c>
+      <c r="F1235" s="3">
+        <v>1212</v>
       </c>
       <c r="G1235" s="1">
         <v>150000</v>
       </c>
       <c r="H1235" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1235" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1235">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>7</v>
       </c>
     </row>
     <row r="1236" spans="1:10">
       <c r="A1236">
-        <f t="shared" si="94"/>
-        <v>1235</v>
+        <f t="shared" si="95"/>
+        <v>1233</v>
       </c>
       <c r="B1236" t="s">
         <v>199</v>
@@ -52238,28 +52959,34 @@
         <v>5</v>
       </c>
       <c r="D1236">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E1236" s="2">
+        <v>42952</v>
+      </c>
+      <c r="F1236" s="3">
+        <v>2262</v>
       </c>
       <c r="G1236" s="1">
         <v>150000</v>
       </c>
       <c r="H1236" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1236" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1236">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>8</v>
       </c>
     </row>
     <row r="1237" spans="1:10">
       <c r="A1237">
-        <f t="shared" si="94"/>
-        <v>1236</v>
+        <f t="shared" si="95"/>
+        <v>1234</v>
       </c>
       <c r="B1237" t="s">
         <v>199</v>
@@ -52268,28 +52995,34 @@
         <v>5</v>
       </c>
       <c r="D1237">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E1237" s="2">
+        <v>42987</v>
+      </c>
+      <c r="F1237" s="3">
+        <v>2374</v>
       </c>
       <c r="G1237" s="1">
         <v>150000</v>
       </c>
       <c r="H1237" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1237" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1237">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>9</v>
       </c>
     </row>
     <row r="1238" spans="1:10">
       <c r="A1238">
-        <f t="shared" si="94"/>
-        <v>1237</v>
+        <f t="shared" si="95"/>
+        <v>1235</v>
       </c>
       <c r="B1238" t="s">
         <v>199</v>
@@ -52298,88 +53031,106 @@
         <v>5</v>
       </c>
       <c r="D1238">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E1238" s="2">
+        <v>43015</v>
+      </c>
+      <c r="F1238" s="3">
+        <v>2506</v>
       </c>
       <c r="G1238" s="1">
         <v>150000</v>
       </c>
       <c r="H1238" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1238" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1238">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>10</v>
       </c>
     </row>
     <row r="1239" spans="1:10">
       <c r="A1239">
-        <f t="shared" si="94"/>
-        <v>1238</v>
+        <f t="shared" si="95"/>
+        <v>1236</v>
       </c>
       <c r="B1239" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C1239">
         <v>5</v>
       </c>
       <c r="D1239">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="E1239" s="2">
+        <v>43050</v>
+      </c>
+      <c r="F1239" s="3">
+        <v>2564</v>
       </c>
       <c r="G1239" s="1">
         <v>150000</v>
       </c>
       <c r="H1239" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1239" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1239">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>11</v>
       </c>
     </row>
     <row r="1240" spans="1:10">
       <c r="A1240">
-        <f t="shared" si="94"/>
-        <v>1239</v>
+        <f t="shared" si="95"/>
+        <v>1237</v>
       </c>
       <c r="B1240" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C1240">
         <v>5</v>
       </c>
       <c r="D1240">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="E1240" s="2">
+        <v>43071</v>
+      </c>
+      <c r="F1240" s="3">
+        <v>2616</v>
       </c>
       <c r="G1240" s="1">
         <v>150000</v>
       </c>
       <c r="H1240" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1240" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1240">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>12</v>
       </c>
     </row>
     <row r="1241" spans="1:10">
       <c r="A1241">
-        <f t="shared" si="94"/>
-        <v>1240</v>
+        <f t="shared" si="95"/>
+        <v>1238</v>
       </c>
       <c r="B1241" t="s">
         <v>200</v>
@@ -52388,28 +53139,34 @@
         <v>5</v>
       </c>
       <c r="D1241">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E1241" s="2">
+        <v>42959</v>
+      </c>
+      <c r="F1241" s="3">
+        <v>2298</v>
       </c>
       <c r="G1241" s="1">
         <v>150000</v>
       </c>
       <c r="H1241" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1241" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1241">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>8</v>
       </c>
     </row>
     <row r="1242" spans="1:10">
       <c r="A1242">
-        <f t="shared" si="94"/>
-        <v>1241</v>
+        <f t="shared" si="95"/>
+        <v>1239</v>
       </c>
       <c r="B1242" t="s">
         <v>200</v>
@@ -52418,28 +53175,34 @@
         <v>5</v>
       </c>
       <c r="D1242">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E1242" s="2">
+        <v>42959</v>
+      </c>
+      <c r="F1242" s="3">
+        <v>2298</v>
       </c>
       <c r="G1242" s="1">
         <v>150000</v>
       </c>
       <c r="H1242" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1242" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1242">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>8</v>
       </c>
     </row>
     <row r="1243" spans="1:10">
       <c r="A1243">
-        <f t="shared" si="94"/>
-        <v>1242</v>
+        <f t="shared" si="95"/>
+        <v>1240</v>
       </c>
       <c r="B1243" t="s">
         <v>200</v>
@@ -52448,28 +53211,34 @@
         <v>5</v>
       </c>
       <c r="D1243">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E1243" s="2">
+        <v>42987</v>
+      </c>
+      <c r="F1243" s="3">
+        <v>2372</v>
       </c>
       <c r="G1243" s="1">
         <v>150000</v>
       </c>
       <c r="H1243" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1243" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1243">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>9</v>
       </c>
     </row>
     <row r="1244" spans="1:10">
       <c r="A1244">
-        <f t="shared" si="94"/>
-        <v>1243</v>
+        <f t="shared" si="95"/>
+        <v>1241</v>
       </c>
       <c r="B1244" t="s">
         <v>200</v>
@@ -52478,28 +53247,34 @@
         <v>5</v>
       </c>
       <c r="D1244">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E1244" s="2">
+        <v>43022</v>
+      </c>
+      <c r="F1244" s="3">
+        <v>2547</v>
       </c>
       <c r="G1244" s="1">
         <v>150000</v>
       </c>
       <c r="H1244" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1244" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1244">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>10</v>
       </c>
     </row>
     <row r="1245" spans="1:10">
       <c r="A1245">
-        <f t="shared" si="94"/>
-        <v>1244</v>
+        <f t="shared" si="95"/>
+        <v>1242</v>
       </c>
       <c r="B1245" t="s">
         <v>200</v>
@@ -52508,88 +53283,100 @@
         <v>5</v>
       </c>
       <c r="D1245">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E1245" s="2">
+        <v>43057</v>
+      </c>
+      <c r="F1245" s="3">
+        <v>2589</v>
       </c>
       <c r="G1245" s="1">
         <v>150000</v>
       </c>
       <c r="H1245" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1245" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1245">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>11</v>
       </c>
     </row>
     <row r="1246" spans="1:10">
       <c r="A1246">
-        <f t="shared" si="94"/>
-        <v>1245</v>
+        <f t="shared" si="95"/>
+        <v>1243</v>
       </c>
       <c r="B1246" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C1246">
         <v>5</v>
       </c>
       <c r="D1246">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="E1246" s="2">
+        <v>43092</v>
+      </c>
+      <c r="F1246" s="3">
+        <v>2683</v>
       </c>
       <c r="G1246" s="1">
         <v>150000</v>
       </c>
       <c r="H1246" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1246" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1246">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>12</v>
       </c>
     </row>
     <row r="1247" spans="1:10">
       <c r="A1247">
-        <f t="shared" si="94"/>
-        <v>1246</v>
+        <f t="shared" si="95"/>
+        <v>1244</v>
       </c>
       <c r="B1247" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C1247">
         <v>5</v>
       </c>
       <c r="D1247">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G1247" s="1">
         <v>150000</v>
       </c>
       <c r="H1247" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1247" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1900</v>
       </c>
       <c r="J1247">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1</v>
       </c>
     </row>
     <row r="1248" spans="1:10">
       <c r="A1248">
-        <f t="shared" si="94"/>
-        <v>1247</v>
+        <f t="shared" si="95"/>
+        <v>1245</v>
       </c>
       <c r="B1248" t="s">
         <v>201</v>
@@ -52598,28 +53385,34 @@
         <v>5</v>
       </c>
       <c r="D1248">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E1248" s="2">
+        <v>42938</v>
+      </c>
+      <c r="F1248" s="3">
+        <v>1232</v>
       </c>
       <c r="G1248" s="1">
         <v>150000</v>
       </c>
       <c r="H1248" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1248" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1248">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>7</v>
       </c>
     </row>
     <row r="1249" spans="1:10">
       <c r="A1249">
-        <f t="shared" si="94"/>
-        <v>1248</v>
+        <f t="shared" si="95"/>
+        <v>1246</v>
       </c>
       <c r="B1249" t="s">
         <v>201</v>
@@ -52628,28 +53421,34 @@
         <v>5</v>
       </c>
       <c r="D1249">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E1249" s="2">
+        <v>42959</v>
+      </c>
+      <c r="F1249" s="3">
+        <v>2283</v>
       </c>
       <c r="G1249" s="1">
         <v>150000</v>
       </c>
       <c r="H1249" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1249" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1249">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>8</v>
       </c>
     </row>
     <row r="1250" spans="1:10">
       <c r="A1250">
-        <f t="shared" si="94"/>
-        <v>1249</v>
+        <f t="shared" si="95"/>
+        <v>1247</v>
       </c>
       <c r="B1250" t="s">
         <v>201</v>
@@ -52658,28 +53457,34 @@
         <v>5</v>
       </c>
       <c r="D1250">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E1250" s="2">
+        <v>43008</v>
+      </c>
+      <c r="F1250" s="3">
+        <v>2443</v>
       </c>
       <c r="G1250" s="1">
         <v>150000</v>
       </c>
       <c r="H1250" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1250" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1250">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>9</v>
       </c>
     </row>
     <row r="1251" spans="1:10">
       <c r="A1251">
-        <f t="shared" si="94"/>
-        <v>1250</v>
+        <f t="shared" si="95"/>
+        <v>1248</v>
       </c>
       <c r="B1251" t="s">
         <v>201</v>
@@ -52688,28 +53493,34 @@
         <v>5</v>
       </c>
       <c r="D1251">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E1251" s="2">
+        <v>43014</v>
+      </c>
+      <c r="F1251" s="3">
+        <v>2448</v>
       </c>
       <c r="G1251" s="1">
         <v>150000</v>
       </c>
       <c r="H1251" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1251" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1251">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>10</v>
       </c>
     </row>
     <row r="1252" spans="1:10">
       <c r="A1252">
-        <f t="shared" si="94"/>
-        <v>1251</v>
+        <f t="shared" si="95"/>
+        <v>1249</v>
       </c>
       <c r="B1252" t="s">
         <v>201</v>
@@ -52718,28 +53529,34 @@
         <v>5</v>
       </c>
       <c r="D1252">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E1252" s="2">
+        <v>43050</v>
+      </c>
+      <c r="F1252" s="3">
+        <v>2497</v>
       </c>
       <c r="G1252" s="1">
         <v>150000</v>
       </c>
       <c r="H1252" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1252" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1252">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>11</v>
       </c>
     </row>
     <row r="1253" spans="1:10">
       <c r="A1253">
-        <f t="shared" si="94"/>
-        <v>1252</v>
+        <f t="shared" si="95"/>
+        <v>1250</v>
       </c>
       <c r="B1253" t="s">
         <v>201</v>
@@ -52748,28 +53565,34 @@
         <v>5</v>
       </c>
       <c r="D1253">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="E1253" s="2">
+        <v>43078</v>
+      </c>
+      <c r="F1253" s="3">
+        <v>2621</v>
       </c>
       <c r="G1253" s="1">
         <v>150000</v>
       </c>
       <c r="H1253" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1253" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1253">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>12</v>
       </c>
     </row>
     <row r="1254" spans="1:10">
       <c r="A1254">
-        <f t="shared" si="94"/>
-        <v>1253</v>
+        <f t="shared" si="95"/>
+        <v>1251</v>
       </c>
       <c r="B1254" t="s">
         <v>201</v>
@@ -52778,88 +53601,106 @@
         <v>5</v>
       </c>
       <c r="D1254">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E1254" s="2">
+        <v>43141</v>
+      </c>
+      <c r="F1254" s="3">
+        <v>2789</v>
       </c>
       <c r="G1254" s="1">
         <v>150000</v>
       </c>
       <c r="H1254" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1254" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2018</v>
       </c>
       <c r="J1254">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>2</v>
       </c>
     </row>
     <row r="1255" spans="1:10">
       <c r="A1255">
-        <f t="shared" si="94"/>
-        <v>1254</v>
+        <f t="shared" si="95"/>
+        <v>1252</v>
       </c>
       <c r="B1255" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C1255">
         <v>5</v>
       </c>
       <c r="D1255">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="E1255" s="2">
+        <v>43141</v>
+      </c>
+      <c r="F1255" s="3">
+        <v>2789</v>
       </c>
       <c r="G1255" s="1">
         <v>150000</v>
       </c>
       <c r="H1255" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1255" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2018</v>
       </c>
       <c r="J1255">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>2</v>
       </c>
     </row>
     <row r="1256" spans="1:10">
       <c r="A1256">
-        <f t="shared" si="94"/>
-        <v>1255</v>
+        <f t="shared" si="95"/>
+        <v>1253</v>
       </c>
       <c r="B1256" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C1256">
         <v>5</v>
       </c>
       <c r="D1256">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="E1256" s="2">
+        <v>42804</v>
+      </c>
+      <c r="F1256" s="3">
+        <v>2868</v>
       </c>
       <c r="G1256" s="1">
         <v>150000</v>
       </c>
       <c r="H1256" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1256" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1256">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>3</v>
       </c>
     </row>
     <row r="1257" spans="1:10">
       <c r="A1257">
-        <f t="shared" si="94"/>
-        <v>1256</v>
+        <f t="shared" si="95"/>
+        <v>1254</v>
       </c>
       <c r="B1257" t="s">
         <v>202</v>
@@ -52868,28 +53709,34 @@
         <v>5</v>
       </c>
       <c r="D1257">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E1257" s="2">
+        <v>42938</v>
+      </c>
+      <c r="F1257" s="3">
+        <v>1245</v>
       </c>
       <c r="G1257" s="1">
         <v>150000</v>
       </c>
       <c r="H1257" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1257" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1257">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>7</v>
       </c>
     </row>
     <row r="1258" spans="1:10">
       <c r="A1258">
-        <f t="shared" si="94"/>
-        <v>1257</v>
+        <f t="shared" si="95"/>
+        <v>1255</v>
       </c>
       <c r="B1258" t="s">
         <v>202</v>
@@ -52898,28 +53745,34 @@
         <v>5</v>
       </c>
       <c r="D1258">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E1258" s="2">
+        <v>42987</v>
+      </c>
+      <c r="F1258" s="3">
+        <v>2373</v>
       </c>
       <c r="G1258" s="1">
         <v>150000</v>
       </c>
       <c r="H1258" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1258" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1258">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>9</v>
       </c>
     </row>
     <row r="1259" spans="1:10">
       <c r="A1259">
-        <f t="shared" si="94"/>
-        <v>1258</v>
+        <f t="shared" si="95"/>
+        <v>1256</v>
       </c>
       <c r="B1259" t="s">
         <v>202</v>
@@ -52928,28 +53781,34 @@
         <v>5</v>
       </c>
       <c r="D1259">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E1259" s="2">
+        <v>42987</v>
+      </c>
+      <c r="F1259" s="3">
+        <v>2373</v>
       </c>
       <c r="G1259" s="1">
         <v>150000</v>
       </c>
       <c r="H1259" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1259" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1259">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>9</v>
       </c>
     </row>
     <row r="1260" spans="1:10">
       <c r="A1260">
-        <f t="shared" si="94"/>
-        <v>1259</v>
+        <f t="shared" si="95"/>
+        <v>1257</v>
       </c>
       <c r="B1260" t="s">
         <v>202</v>
@@ -52958,28 +53817,34 @@
         <v>5</v>
       </c>
       <c r="D1260">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E1260" s="2">
+        <v>43022</v>
+      </c>
+      <c r="F1260" s="3">
+        <v>2548</v>
       </c>
       <c r="G1260" s="1">
         <v>150000</v>
       </c>
       <c r="H1260" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1260" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1260">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>10</v>
       </c>
     </row>
     <row r="1261" spans="1:10">
       <c r="A1261">
-        <f t="shared" si="94"/>
-        <v>1260</v>
+        <f t="shared" si="95"/>
+        <v>1258</v>
       </c>
       <c r="B1261" t="s">
         <v>202</v>
@@ -52988,88 +53853,106 @@
         <v>5</v>
       </c>
       <c r="D1261">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E1261" s="2">
+        <v>43057</v>
+      </c>
+      <c r="F1261" s="3">
+        <v>2588</v>
       </c>
       <c r="G1261" s="1">
         <v>150000</v>
       </c>
       <c r="H1261" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1261" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1261">
-        <f t="shared" si="93"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>11</v>
       </c>
     </row>
     <row r="1262" spans="1:10">
       <c r="A1262">
-        <f t="shared" si="94"/>
-        <v>1261</v>
+        <f t="shared" si="95"/>
+        <v>1259</v>
       </c>
       <c r="B1262" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C1262">
         <v>5</v>
       </c>
       <c r="D1262">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="E1262" s="2">
+        <v>42739</v>
+      </c>
+      <c r="F1262" s="3">
+        <v>2707</v>
       </c>
       <c r="G1262" s="1">
         <v>150000</v>
       </c>
       <c r="H1262" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1262" s="4">
-        <f t="shared" si="92"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1262">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1</v>
       </c>
     </row>
     <row r="1263" spans="1:10">
       <c r="A1263">
-        <f t="shared" si="94"/>
-        <v>1262</v>
+        <f t="shared" si="95"/>
+        <v>1260</v>
       </c>
       <c r="B1263" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C1263">
         <v>5</v>
       </c>
       <c r="D1263">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="E1263" s="2">
+        <v>42739</v>
+      </c>
+      <c r="F1263" s="3">
+        <v>2707</v>
       </c>
       <c r="G1263" s="1">
         <v>150000</v>
       </c>
       <c r="H1263" s="1">
-        <f t="shared" ref="H1263:H1289" si="95">G1263-150000</f>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1263" s="4">
-        <f t="shared" ref="I1263:I1289" si="96">YEAR(E1263)</f>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1263">
-        <f t="shared" ref="J1263:J1289" si="97">MONTH(E1263)</f>
+        <f t="shared" si="94"/>
         <v>1</v>
       </c>
     </row>
     <row r="1264" spans="1:10">
       <c r="A1264">
-        <f t="shared" si="94"/>
-        <v>1263</v>
+        <f t="shared" si="95"/>
+        <v>1261</v>
       </c>
       <c r="B1264" t="s">
         <v>203</v>
@@ -53078,28 +53961,34 @@
         <v>5</v>
       </c>
       <c r="D1264">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E1264" s="2">
+        <v>42966</v>
+      </c>
+      <c r="F1264" s="3">
+        <v>2314</v>
       </c>
       <c r="G1264" s="1">
         <v>150000</v>
       </c>
       <c r="H1264" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I1264" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="J1264">
-        <f t="shared" si="97"/>
-        <v>1</v>
+        <f t="shared" si="94"/>
+        <v>8</v>
       </c>
     </row>
     <row r="1265" spans="1:10">
       <c r="A1265">
-        <f t="shared" si="94"/>
-        <v>1264</v>
+        <f t="shared" si="95"/>
+        <v>1262</v>
       </c>
       <c r="B1265" t="s">
         <v>203</v>
@@ -53108,28 +53997,34 @@
         <v>5</v>
       </c>
       <c r="D1265">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E1265" s="2">
+        <v>42966</v>
+      </c>
+      <c r="F1265" s="3">
+        <v>2314</v>
       </c>
       <c r="G1265" s="1">
         <v>150000</v>
       </c>
       <c r="H1265" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" ref="H1265:H1291" si="96">G1265-150000</f>
         <v>0</v>
       </c>
       <c r="I1265" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
+        <f t="shared" ref="I1265:I1291" si="97">YEAR(E1265)</f>
+        <v>2017</v>
       </c>
       <c r="J1265">
-        <f t="shared" si="97"/>
-        <v>1</v>
+        <f t="shared" ref="J1265:J1291" si="98">MONTH(E1265)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="1266" spans="1:10">
       <c r="A1266">
-        <f t="shared" si="94"/>
-        <v>1265</v>
+        <f t="shared" si="95"/>
+        <v>1263</v>
       </c>
       <c r="B1266" t="s">
         <v>203</v>
@@ -53138,28 +54033,34 @@
         <v>5</v>
       </c>
       <c r="D1266">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E1266" s="2">
+        <v>42994</v>
+      </c>
+      <c r="F1266" s="3">
+        <v>2406</v>
       </c>
       <c r="G1266" s="1">
         <v>150000</v>
       </c>
       <c r="H1266" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I1266" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
+        <f t="shared" si="97"/>
+        <v>2017</v>
       </c>
       <c r="J1266">
-        <f t="shared" si="97"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>9</v>
       </c>
     </row>
     <row r="1267" spans="1:10">
       <c r="A1267">
-        <f t="shared" si="94"/>
-        <v>1266</v>
+        <f t="shared" si="95"/>
+        <v>1264</v>
       </c>
       <c r="B1267" t="s">
         <v>203</v>
@@ -53168,28 +54069,34 @@
         <v>5</v>
       </c>
       <c r="D1267">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E1267" s="2">
+        <v>43014</v>
+      </c>
+      <c r="F1267" s="3">
+        <v>2450</v>
       </c>
       <c r="G1267" s="1">
         <v>150000</v>
       </c>
       <c r="H1267" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I1267" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
+        <f t="shared" si="97"/>
+        <v>2017</v>
       </c>
       <c r="J1267">
-        <f t="shared" si="97"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>10</v>
       </c>
     </row>
     <row r="1268" spans="1:10">
       <c r="A1268">
-        <f t="shared" si="94"/>
-        <v>1267</v>
+        <f t="shared" si="95"/>
+        <v>1265</v>
       </c>
       <c r="B1268" t="s">
         <v>203</v>
@@ -53198,88 +54105,106 @@
         <v>5</v>
       </c>
       <c r="D1268">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E1268" s="2">
+        <v>43050</v>
+      </c>
+      <c r="F1268" s="3">
+        <v>2554</v>
       </c>
       <c r="G1268" s="1">
         <v>150000</v>
       </c>
       <c r="H1268" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I1268" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
+        <f t="shared" si="97"/>
+        <v>2017</v>
       </c>
       <c r="J1268">
-        <f t="shared" si="97"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>11</v>
       </c>
     </row>
     <row r="1269" spans="1:10">
       <c r="A1269">
-        <f t="shared" si="94"/>
-        <v>1268</v>
+        <f t="shared" si="95"/>
+        <v>1266</v>
       </c>
       <c r="B1269" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C1269">
         <v>5</v>
       </c>
       <c r="D1269">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="E1269" s="2">
+        <v>43078</v>
+      </c>
+      <c r="F1269" s="3">
+        <v>2633</v>
       </c>
       <c r="G1269" s="1">
         <v>150000</v>
       </c>
       <c r="H1269" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I1269" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
+        <f t="shared" si="97"/>
+        <v>2017</v>
       </c>
       <c r="J1269">
-        <f t="shared" si="97"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>12</v>
       </c>
     </row>
     <row r="1270" spans="1:10">
       <c r="A1270">
-        <f t="shared" si="94"/>
-        <v>1269</v>
+        <f t="shared" si="95"/>
+        <v>1267</v>
       </c>
       <c r="B1270" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C1270">
         <v>5</v>
       </c>
       <c r="D1270">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="E1270" s="2">
+        <v>42739</v>
+      </c>
+      <c r="F1270" s="3">
+        <v>2724</v>
       </c>
       <c r="G1270" s="1">
         <v>150000</v>
       </c>
       <c r="H1270" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I1270" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
+        <f t="shared" si="97"/>
+        <v>2017</v>
       </c>
       <c r="J1270">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
     </row>
     <row r="1271" spans="1:10">
       <c r="A1271">
-        <f t="shared" si="94"/>
-        <v>1270</v>
+        <f t="shared" si="95"/>
+        <v>1268</v>
       </c>
       <c r="B1271" t="s">
         <v>204</v>
@@ -53288,28 +54213,34 @@
         <v>5</v>
       </c>
       <c r="D1271">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E1271" s="2">
+        <v>42957</v>
+      </c>
+      <c r="F1271" s="3">
+        <v>2311</v>
       </c>
       <c r="G1271" s="1">
         <v>150000</v>
       </c>
       <c r="H1271" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I1271" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
+        <f t="shared" si="97"/>
+        <v>2017</v>
       </c>
       <c r="J1271">
-        <f t="shared" si="97"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>8</v>
       </c>
     </row>
     <row r="1272" spans="1:10">
       <c r="A1272">
-        <f t="shared" si="94"/>
-        <v>1271</v>
+        <f t="shared" si="95"/>
+        <v>1269</v>
       </c>
       <c r="B1272" t="s">
         <v>204</v>
@@ -53318,28 +54249,34 @@
         <v>5</v>
       </c>
       <c r="D1272">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E1272" s="2">
+        <v>42957</v>
+      </c>
+      <c r="F1272" s="3">
+        <v>2311</v>
       </c>
       <c r="G1272" s="1">
         <v>150000</v>
       </c>
       <c r="H1272" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I1272" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
+        <f t="shared" si="97"/>
+        <v>2017</v>
       </c>
       <c r="J1272">
-        <f t="shared" si="97"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>8</v>
       </c>
     </row>
     <row r="1273" spans="1:10">
       <c r="A1273">
-        <f t="shared" si="94"/>
-        <v>1272</v>
+        <f t="shared" si="95"/>
+        <v>1270</v>
       </c>
       <c r="B1273" t="s">
         <v>204</v>
@@ -53348,28 +54285,34 @@
         <v>5</v>
       </c>
       <c r="D1273">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E1273" s="2">
+        <v>43008</v>
+      </c>
+      <c r="F1273" s="3">
+        <v>2425</v>
       </c>
       <c r="G1273" s="1">
         <v>150000</v>
       </c>
       <c r="H1273" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I1273" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
+        <f t="shared" si="97"/>
+        <v>2017</v>
       </c>
       <c r="J1273">
-        <f t="shared" si="97"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>9</v>
       </c>
     </row>
     <row r="1274" spans="1:10">
       <c r="A1274">
-        <f t="shared" si="94"/>
-        <v>1273</v>
+        <f t="shared" si="95"/>
+        <v>1271</v>
       </c>
       <c r="B1274" t="s">
         <v>204</v>
@@ -53378,28 +54321,34 @@
         <v>5</v>
       </c>
       <c r="D1274">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E1274" s="2">
+        <v>43027</v>
+      </c>
+      <c r="F1274" s="3">
+        <v>2454</v>
       </c>
       <c r="G1274" s="1">
         <v>150000</v>
       </c>
       <c r="H1274" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I1274" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
+        <f t="shared" si="97"/>
+        <v>2017</v>
       </c>
       <c r="J1274">
-        <f t="shared" si="97"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>10</v>
       </c>
     </row>
     <row r="1275" spans="1:10">
       <c r="A1275">
-        <f t="shared" si="94"/>
-        <v>1274</v>
+        <f t="shared" si="95"/>
+        <v>1272</v>
       </c>
       <c r="B1275" t="s">
         <v>204</v>
@@ -53408,28 +54357,34 @@
         <v>5</v>
       </c>
       <c r="D1275">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E1275" s="2">
+        <v>43050</v>
+      </c>
+      <c r="F1275" s="3">
+        <v>2499</v>
       </c>
       <c r="G1275" s="1">
         <v>150000</v>
       </c>
       <c r="H1275" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I1275" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
+        <f t="shared" si="97"/>
+        <v>2017</v>
       </c>
       <c r="J1275">
-        <f t="shared" si="97"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>11</v>
       </c>
     </row>
     <row r="1276" spans="1:10">
       <c r="A1276">
-        <f t="shared" si="94"/>
-        <v>1275</v>
+        <f t="shared" si="95"/>
+        <v>1273</v>
       </c>
       <c r="B1276" t="s">
         <v>204</v>
@@ -53438,88 +54393,106 @@
         <v>5</v>
       </c>
       <c r="D1276">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="E1276" s="2">
+        <v>43103</v>
+      </c>
+      <c r="F1276" s="3">
+        <v>2699</v>
       </c>
       <c r="G1276" s="1">
         <v>150000</v>
       </c>
       <c r="H1276" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I1276" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
+        <f t="shared" si="97"/>
+        <v>2018</v>
       </c>
       <c r="J1276">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
     </row>
     <row r="1277" spans="1:10">
       <c r="A1277">
-        <f t="shared" si="94"/>
-        <v>1276</v>
+        <f t="shared" si="95"/>
+        <v>1274</v>
       </c>
       <c r="B1277" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C1277">
         <v>5</v>
       </c>
       <c r="D1277">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="E1277" s="2">
+        <v>43132</v>
+      </c>
+      <c r="F1277" s="3">
+        <v>2783</v>
       </c>
       <c r="G1277" s="1">
         <v>150000</v>
       </c>
       <c r="H1277" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I1277" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
+        <f t="shared" si="97"/>
+        <v>2018</v>
       </c>
       <c r="J1277">
-        <f t="shared" si="97"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>2</v>
       </c>
     </row>
     <row r="1278" spans="1:10">
       <c r="A1278">
-        <f t="shared" si="94"/>
-        <v>1277</v>
+        <f t="shared" si="95"/>
+        <v>1275</v>
       </c>
       <c r="B1278" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C1278">
         <v>5</v>
       </c>
       <c r="D1278">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="E1278" s="2">
+        <v>43169</v>
+      </c>
+      <c r="F1278" s="3">
+        <v>2881</v>
       </c>
       <c r="G1278" s="1">
         <v>150000</v>
       </c>
       <c r="H1278" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I1278" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
+        <f t="shared" si="97"/>
+        <v>2018</v>
       </c>
       <c r="J1278">
-        <f t="shared" si="97"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>3</v>
       </c>
     </row>
     <row r="1279" spans="1:10">
       <c r="A1279">
-        <f t="shared" si="94"/>
-        <v>1278</v>
+        <f t="shared" si="95"/>
+        <v>1276</v>
       </c>
       <c r="B1279" t="s">
         <v>205</v>
@@ -53528,28 +54501,34 @@
         <v>5</v>
       </c>
       <c r="D1279">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E1279" s="2">
+        <v>43029</v>
+      </c>
+      <c r="F1279" s="3">
+        <v>2466</v>
       </c>
       <c r="G1279" s="1">
         <v>150000</v>
       </c>
       <c r="H1279" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I1279" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
+        <f t="shared" si="97"/>
+        <v>2017</v>
       </c>
       <c r="J1279">
-        <f t="shared" si="97"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>10</v>
       </c>
     </row>
     <row r="1280" spans="1:10">
       <c r="A1280">
-        <f t="shared" si="94"/>
-        <v>1279</v>
+        <f t="shared" si="95"/>
+        <v>1277</v>
       </c>
       <c r="B1280" t="s">
         <v>205</v>
@@ -53558,28 +54537,34 @@
         <v>5</v>
       </c>
       <c r="D1280">
+        <v>8</v>
+      </c>
+      <c r="E1280" s="2">
+        <v>43029</v>
+      </c>
+      <c r="F1280" s="3">
+        <v>2466</v>
+      </c>
+      <c r="G1280" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H1280" s="1">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="I1280" s="4">
+        <f t="shared" si="97"/>
+        <v>2017</v>
+      </c>
+      <c r="J1280">
+        <f t="shared" si="98"/>
         <v>10</v>
-      </c>
-      <c r="G1280" s="1">
-        <v>150000</v>
-      </c>
-      <c r="H1280" s="1">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="I1280" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
-      </c>
-      <c r="J1280">
-        <f t="shared" si="97"/>
-        <v>1</v>
       </c>
     </row>
     <row r="1281" spans="1:10">
       <c r="A1281">
-        <f t="shared" si="94"/>
-        <v>1280</v>
+        <f t="shared" si="95"/>
+        <v>1278</v>
       </c>
       <c r="B1281" t="s">
         <v>205</v>
@@ -53588,28 +54573,34 @@
         <v>5</v>
       </c>
       <c r="D1281">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E1281" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F1281" s="3">
+        <v>2714</v>
       </c>
       <c r="G1281" s="1">
         <v>150000</v>
       </c>
       <c r="H1281" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I1281" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
+        <f t="shared" si="97"/>
+        <v>2018</v>
       </c>
       <c r="J1281">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
     </row>
     <row r="1282" spans="1:10">
       <c r="A1282">
-        <f t="shared" ref="A1282:A1289" si="98">A1281+1</f>
-        <v>1281</v>
+        <f t="shared" si="95"/>
+        <v>1279</v>
       </c>
       <c r="B1282" t="s">
         <v>205</v>
@@ -53618,28 +54609,34 @@
         <v>5</v>
       </c>
       <c r="D1282">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E1282" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F1282" s="3">
+        <v>2714</v>
       </c>
       <c r="G1282" s="1">
         <v>150000</v>
       </c>
       <c r="H1282" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I1282" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
+        <f t="shared" si="97"/>
+        <v>2018</v>
       </c>
       <c r="J1282">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
     </row>
     <row r="1283" spans="1:10">
       <c r="A1283">
-        <f t="shared" si="98"/>
-        <v>1282</v>
+        <f t="shared" si="95"/>
+        <v>1280</v>
       </c>
       <c r="B1283" t="s">
         <v>205</v>
@@ -53648,28 +54645,34 @@
         <v>5</v>
       </c>
       <c r="D1283">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E1283" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F1283" s="3">
+        <v>2714</v>
       </c>
       <c r="G1283" s="1">
         <v>150000</v>
       </c>
       <c r="H1283" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I1283" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
+        <f t="shared" si="97"/>
+        <v>2018</v>
       </c>
       <c r="J1283">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
     </row>
     <row r="1284" spans="1:10">
       <c r="A1284">
-        <f t="shared" si="98"/>
-        <v>1283</v>
+        <f t="shared" ref="A1284:A1291" si="99">A1283+1</f>
+        <v>1281</v>
       </c>
       <c r="B1284" t="s">
         <v>205</v>
@@ -53678,28 +54681,34 @@
         <v>5</v>
       </c>
       <c r="D1284">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="E1284" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F1284" s="3">
+        <v>2714</v>
       </c>
       <c r="G1284" s="1">
         <v>150000</v>
       </c>
       <c r="H1284" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I1284" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
+        <f t="shared" si="97"/>
+        <v>2018</v>
       </c>
       <c r="J1284">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
     </row>
     <row r="1285" spans="1:10">
       <c r="A1285">
-        <f t="shared" si="98"/>
-        <v>1284</v>
+        <f t="shared" si="99"/>
+        <v>1282</v>
       </c>
       <c r="B1285" t="s">
         <v>205</v>
@@ -53708,28 +54717,34 @@
         <v>5</v>
       </c>
       <c r="D1285">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E1285" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F1285" s="3">
+        <v>2714</v>
       </c>
       <c r="G1285" s="1">
         <v>150000</v>
       </c>
       <c r="H1285" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I1285" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
+        <f t="shared" si="97"/>
+        <v>2018</v>
       </c>
       <c r="J1285">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
     </row>
     <row r="1286" spans="1:10">
       <c r="A1286">
-        <f t="shared" si="98"/>
-        <v>1285</v>
+        <f t="shared" si="99"/>
+        <v>1283</v>
       </c>
       <c r="B1286" t="s">
         <v>205</v>
@@ -53738,28 +54753,34 @@
         <v>5</v>
       </c>
       <c r="D1286">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="E1286" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F1286" s="3">
+        <v>2714</v>
       </c>
       <c r="G1286" s="1">
         <v>150000</v>
       </c>
       <c r="H1286" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I1286" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
+        <f t="shared" si="97"/>
+        <v>2018</v>
       </c>
       <c r="J1286">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
     </row>
     <row r="1287" spans="1:10">
       <c r="A1287">
-        <f t="shared" si="98"/>
-        <v>1286</v>
+        <f t="shared" si="99"/>
+        <v>1284</v>
       </c>
       <c r="B1287" t="s">
         <v>205</v>
@@ -53768,28 +54789,34 @@
         <v>5</v>
       </c>
       <c r="D1287">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E1287" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F1287" s="3">
+        <v>2714</v>
       </c>
       <c r="G1287" s="1">
         <v>150000</v>
       </c>
       <c r="H1287" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I1287" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
+        <f t="shared" si="97"/>
+        <v>2018</v>
       </c>
       <c r="J1287">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
     </row>
     <row r="1288" spans="1:10">
       <c r="A1288">
-        <f t="shared" si="98"/>
-        <v>1287</v>
+        <f t="shared" si="99"/>
+        <v>1285</v>
       </c>
       <c r="B1288" t="s">
         <v>205</v>
@@ -53798,56 +54825,134 @@
         <v>5</v>
       </c>
       <c r="D1288">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="E1288" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F1288" s="3">
+        <v>2714</v>
       </c>
       <c r="G1288" s="1">
         <v>150000</v>
       </c>
       <c r="H1288" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I1288" s="4">
-        <f t="shared" si="96"/>
-        <v>1900</v>
+        <f t="shared" si="97"/>
+        <v>2018</v>
       </c>
       <c r="J1288">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
     </row>
     <row r="1289" spans="1:10">
       <c r="A1289">
-        <f t="shared" si="98"/>
-        <v>1288</v>
+        <f t="shared" si="99"/>
+        <v>1286</v>
       </c>
       <c r="B1289" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C1289">
         <v>5</v>
       </c>
       <c r="D1289">
+        <v>5</v>
+      </c>
+      <c r="E1289" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F1289" s="3">
+        <v>2714</v>
+      </c>
+      <c r="G1289" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H1289" s="1">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="I1289" s="4">
+        <f t="shared" si="97"/>
+        <v>2018</v>
+      </c>
+      <c r="J1289">
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:10">
+      <c r="A1290">
+        <f t="shared" si="99"/>
+        <v>1287</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1290">
+        <v>5</v>
+      </c>
+      <c r="D1290">
+        <v>6</v>
+      </c>
+      <c r="E1290" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F1290" s="3">
+        <v>2714</v>
+      </c>
+      <c r="G1290" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H1290" s="1">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="I1290" s="4">
+        <f t="shared" si="97"/>
+        <v>2018</v>
+      </c>
+      <c r="J1290">
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:10">
+      <c r="A1291">
+        <f t="shared" si="99"/>
+        <v>1288</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1291">
+        <v>5</v>
+      </c>
+      <c r="D1291">
         <v>7</v>
       </c>
-      <c r="G1289" s="1">
-        <v>150000</v>
-      </c>
-      <c r="H1289" s="1">
-        <f t="shared" si="95"/>
+      <c r="G1291" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H1291" s="1">
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="I1289" s="4">
-        <f t="shared" si="96"/>
+      <c r="I1291" s="4">
+        <f t="shared" si="97"/>
         <v>1900</v>
       </c>
-      <c r="J1289">
-        <f t="shared" si="97"/>
+      <c r="J1291">
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1289"/>
+  <autoFilter ref="A1:J1291"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
